--- a/日報.xlsx
+++ b/日報.xlsx
@@ -7,22 +7,23 @@
     <workbookView xWindow="-285" yWindow="150" windowWidth="10110" windowHeight="9165"/>
   </bookViews>
   <sheets>
-    <sheet name="10月26日" sheetId="13" r:id="rId1"/>
-    <sheet name="10月25日" sheetId="12" r:id="rId2"/>
-    <sheet name="10月24日" sheetId="11" r:id="rId3"/>
-    <sheet name="10月23日" sheetId="10" r:id="rId4"/>
-    <sheet name="10月22日" sheetId="9" r:id="rId5"/>
-    <sheet name="10月21日" sheetId="8" r:id="rId6"/>
-    <sheet name="10月20日 " sheetId="7" r:id="rId7"/>
-    <sheet name="10月19日" sheetId="6" r:id="rId8"/>
-    <sheet name="10月18日" sheetId="5" r:id="rId9"/>
+    <sheet name="10月27日" sheetId="14" r:id="rId1"/>
+    <sheet name="10月26日" sheetId="13" r:id="rId2"/>
+    <sheet name="10月25日" sheetId="12" r:id="rId3"/>
+    <sheet name="10月24日" sheetId="11" r:id="rId4"/>
+    <sheet name="10月23日" sheetId="10" r:id="rId5"/>
+    <sheet name="10月22日" sheetId="9" r:id="rId6"/>
+    <sheet name="10月21日" sheetId="8" r:id="rId7"/>
+    <sheet name="10月20日 " sheetId="7" r:id="rId8"/>
+    <sheet name="10月19日" sheetId="6" r:id="rId9"/>
+    <sheet name="10月18日" sheetId="5" r:id="rId10"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="108">
   <si>
     <t>1.実施したこと</t>
     <rPh sb="2" eb="4">
@@ -1324,6 +1325,88 @@
     </rPh>
     <rPh sb="22" eb="24">
       <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・2013/10/27</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・GitHubの調査</t>
+    <rPh sb="8" eb="10">
+      <t>チョウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://github.com/takuito/Documents</t>
+  </si>
+  <si>
+    <t>・クラス図の勉強</t>
+    <rPh sb="4" eb="5">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ベンキョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コミットなどGitHubの使い方を調べるのに時間がかかったこと。</t>
+    <rPh sb="13" eb="14">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>シラ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GitHubの使い方に関して調査を行いました。</t>
+    <rPh sb="7" eb="8">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>チョウサ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>下記のリポジトリにドキュメントのコミットを行いました。</t>
+    <rPh sb="0" eb="2">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GitHub for Windowsを使用してコミットの方法について学び、</t>
+    <rPh sb="19" eb="21">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>マナ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1736,7 +1819,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM19"/>
+  <dimension ref="A1:AM18"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1790,7 +1873,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -1800,7 +1883,7 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:39">
@@ -1810,27 +1893,27 @@
     </row>
     <row r="8" spans="1:39">
       <c r="B8" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:39">
       <c r="C9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="C12" t="s">
-        <v>98</v>
+      <c r="C12" s="4" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:39">
@@ -1843,7 +1926,7 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1853,24 +1936,22 @@
     </row>
     <row r="18" spans="1:2">
       <c r="B18" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="B19" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="C12" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM18"/>
+  <dimension ref="A1:AM23"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -1924,7 +2005,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>86</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -1934,7 +2015,7 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>87</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:39">
@@ -1944,62 +2025,85 @@
     </row>
     <row r="8" spans="1:39">
       <c r="B8" t="s">
-        <v>91</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:39">
       <c r="C9" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="10" spans="1:39">
-      <c r="C10" t="s">
-        <v>92</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:39">
-      <c r="C11" t="s">
-        <v>93</v>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="B12" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="A13" t="s">
+      <c r="B13" s="4"/>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="B15" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="B16" s="4"/>
+      <c r="C16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:39">
-      <c r="A14" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>1</v>
       </c>
-      <c r="B14" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="16" spans="1:39">
-      <c r="A16" t="s">
+      <c r="B19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
-      <c r="B17" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18" t="s">
-        <v>89</v>
+    <row r="22" spans="1:3">
+      <c r="B22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="C23" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="B15" r:id="rId1"/>
+    <hyperlink ref="B12" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM27"/>
+  <dimension ref="A1:AM19"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -2053,7 +2157,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -2063,95 +2167,65 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39">
-      <c r="B6" t="s">
-        <v>76</v>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="A7" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:39">
-      <c r="A8" t="s">
-        <v>3</v>
+      <c r="B8" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:39">
-      <c r="B9" t="s">
-        <v>75</v>
+      <c r="C9" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>77</v>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39">
+      <c r="C11" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="B12" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="13" spans="1:39">
-      <c r="C13" t="s">
-        <v>78</v>
+      <c r="C12" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:39">
-      <c r="C14" t="s">
-        <v>79</v>
+      <c r="A14" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:39">
-      <c r="C15" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="16" spans="1:39">
-      <c r="C16" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="C18" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="C19" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="C20" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
+      <c r="A15" t="s">
         <v>1</v>
       </c>
-      <c r="B23" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
+      <c r="B15" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
-      <c r="B26" t="s">
+    <row r="18" spans="1:2">
+      <c r="B18" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
-      <c r="B27" t="s">
-        <v>60</v>
+    <row r="19" spans="1:2">
+      <c r="B19" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -2161,9 +2235,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM24"/>
+  <dimension ref="A1:AM18"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -2217,7 +2291,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -2227,90 +2301,60 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39">
-      <c r="B6" t="s">
-        <v>56</v>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="A7" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:39">
-      <c r="A8" t="s">
-        <v>3</v>
+      <c r="B8" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:39">
-      <c r="B9" t="s">
-        <v>64</v>
+      <c r="C9" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>65</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39">
-      <c r="D12" t="s">
-        <v>66</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="D13" t="s">
-        <v>67</v>
+      <c r="A13" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:39">
-      <c r="D14" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="15" spans="1:39">
-      <c r="D15" t="s">
-        <v>69</v>
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="D16" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="D17" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B20" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" t="s">
+      <c r="A16" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
-      <c r="B23" t="s">
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
-      <c r="B24" t="s">
-        <v>60</v>
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -2320,13 +2364,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM24"/>
+  <dimension ref="A1:AM27"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
   <cols>
@@ -2378,7 +2420,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -2388,79 +2430,94 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:39">
       <c r="B6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39">
-      <c r="B7" t="s">
-        <v>57</v>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="A8" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:39">
-      <c r="A9" t="s">
-        <v>3</v>
+      <c r="B9" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:39">
-      <c r="B10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:39">
-      <c r="C11" t="s">
-        <v>58</v>
+      <c r="C10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="B12" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="B13" t="s">
-        <v>56</v>
+      <c r="C13" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:39">
       <c r="C14" t="s">
-        <v>59</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="C15" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="B16" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="C17" t="s">
-        <v>62</v>
+      <c r="C16" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="C18" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>4</v>
+      <c r="C19" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B20" t="s">
-        <v>61</v>
+      <c r="C20" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
-      <c r="B23" t="s">
+    <row r="26" spans="1:3">
+      <c r="B26" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
-      <c r="B24" t="s">
+    <row r="27" spans="1:3">
+      <c r="B27" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2471,11 +2528,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM29"/>
+  <dimension ref="A1:AM24"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
   <cols>
@@ -2527,7 +2584,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -2537,111 +2594,90 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:39">
       <c r="B6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39">
-      <c r="B7" t="s">
-        <v>30</v>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="A8" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:39">
-      <c r="A9" t="s">
-        <v>3</v>
+      <c r="B9" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:39">
-      <c r="B10" t="s">
-        <v>48</v>
+      <c r="C10" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="C12" t="s">
-        <v>49</v>
+      <c r="D12" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="C13" t="s">
-        <v>50</v>
+      <c r="D13" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:39">
-      <c r="C14" t="s">
-        <v>52</v>
+      <c r="D14" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:39">
-      <c r="C15" s="4"/>
+      <c r="D15" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="B16" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="C17" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="C18" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="C19" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="C20" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="B21" s="4"/>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="B22" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="C23" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
+      <c r="D16" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="D17" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
-      <c r="A26" t="s">
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
         <v>1</v>
       </c>
-      <c r="B26" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
+      <c r="B20" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
-      <c r="B29" t="s">
+    <row r="23" spans="1:4">
+      <c r="B23" t="s">
         <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="B24" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -2651,11 +2687,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM25"/>
+  <dimension ref="A1:AM24"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
   <cols>
@@ -2707,7 +2745,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -2717,111 +2755,94 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:39">
       <c r="B6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:39">
-      <c r="A8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="B7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39">
+      <c r="A9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:39">
-      <c r="B9" t="s">
-        <v>35</v>
-      </c>
-    </row>
     <row r="10" spans="1:39">
-      <c r="C10" t="s">
-        <v>36</v>
+      <c r="B10" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39">
-      <c r="C12" s="4" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="B13" s="4"/>
+      <c r="B13" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="14" spans="1:39">
-      <c r="B14" s="4"/>
       <c r="C14" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:39">
-      <c r="C15" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="B16" s="4"/>
+      <c r="B16" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="B17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="C18" t="s">
-        <v>32</v>
+      <c r="C17" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="C19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
+      <c r="A19" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>1</v>
-      </c>
-      <c r="B22" t="s">
-        <v>39</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="B23" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="B25" t="s">
-        <v>38</v>
+      <c r="B24" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <hyperlinks>
-    <hyperlink ref="C12" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM25"/>
+  <dimension ref="A1:AM29"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
-    </sheetView>
+    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
   <cols>
@@ -2873,7 +2894,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -2883,108 +2904,123 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:39">
       <c r="B6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:39">
-      <c r="A8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39">
+      <c r="A9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:39">
-      <c r="B9" t="s">
-        <v>20</v>
-      </c>
-    </row>
     <row r="10" spans="1:39">
-      <c r="C10" t="s">
-        <v>21</v>
+      <c r="B10" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="C12" s="4" t="s">
-        <v>23</v>
+      <c r="C12" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="B13" s="4"/>
+      <c r="C13" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="14" spans="1:39">
-      <c r="B14" s="4"/>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:39">
-      <c r="B15" s="4"/>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
+      <c r="C15" s="4"/>
     </row>
     <row r="16" spans="1:39">
-      <c r="C16" t="s">
-        <v>26</v>
+      <c r="B16" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="B17" s="4"/>
+      <c r="C17" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="B18" t="s">
-        <v>18</v>
+      <c r="C18" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="C19" t="s">
-        <v>28</v>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="C20" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" t="s">
+      <c r="B21" s="4"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="B22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="C23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
         <v>1</v>
       </c>
-      <c r="B22" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
+      <c r="B26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
-      <c r="B25" t="s">
-        <v>19</v>
+    <row r="29" spans="1:3">
+      <c r="B29" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <hyperlinks>
-    <hyperlink ref="C12" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM23"/>
+  <dimension ref="A1:AM25"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -3038,7 +3074,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -3048,88 +3084,267 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39">
-      <c r="A7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39">
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="A8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-    </row>
     <row r="9" spans="1:39">
-      <c r="C9" t="s">
-        <v>14</v>
+      <c r="B9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39">
+      <c r="C10" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:39">
-      <c r="B11" t="s">
-        <v>15</v>
+      <c r="C11" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="B12" s="4" t="s">
-        <v>10</v>
+      <c r="C12" s="4" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:39">
       <c r="B13" s="4"/>
     </row>
     <row r="14" spans="1:39">
-      <c r="B14" t="s">
-        <v>16</v>
+      <c r="B14" s="4"/>
+      <c r="C14" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:39">
-      <c r="B15" s="4" t="s">
-        <v>7</v>
+      <c r="C15" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:39">
       <c r="B16" s="4"/>
-      <c r="C16" t="s">
-        <v>13</v>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="B17" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>4</v>
+      <c r="C18" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>1</v>
-      </c>
-      <c r="B19" t="s">
-        <v>11</v>
+      <c r="C19" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
-      <c r="B22" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="C23" t="s">
-        <v>9</v>
+    <row r="25" spans="1:3">
+      <c r="B25" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="B15" r:id="rId1"/>
-    <hyperlink ref="B12" r:id="rId2"/>
+    <hyperlink ref="C12" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AM25"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="1.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:39" s="1" customFormat="1" ht="21">
+      <c r="A1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="2"/>
+    </row>
+    <row r="2" spans="1:39">
+      <c r="A2" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39">
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39">
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39">
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39">
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39">
+      <c r="C11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="C12" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="B13" s="4"/>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="B14" s="4"/>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="B15" s="4"/>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="B17" s="4"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="C19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="B25" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="C12" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/日報.xlsx
+++ b/日報.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="110">
   <si>
     <t>1.実施したこと</t>
     <rPh sb="2" eb="4">
@@ -1407,6 +1407,35 @@
     </rPh>
     <rPh sb="34" eb="35">
       <t>マナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・要件定義書の修正</t>
+    <rPh sb="1" eb="3">
+      <t>ヨウケン</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>テイギショ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>要件定義書に表紙を追加しました。</t>
+    <rPh sb="0" eb="2">
+      <t>ヨウケン</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>テイギショ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒョウシ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ツイカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1819,7 +1848,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM18"/>
+  <dimension ref="A1:AM22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1886,63 +1915,82 @@
         <v>101</v>
       </c>
     </row>
-    <row r="7" spans="1:39">
-      <c r="A7" t="s">
+    <row r="6" spans="1:39">
+      <c r="B6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="A8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
-      <c r="B8" t="s">
+    <row r="9" spans="1:39">
+      <c r="B9" t="s">
         <v>101</v>
-      </c>
-    </row>
-    <row r="9" spans="1:39">
-      <c r="C9" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="C12" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="12" spans="1:39">
-      <c r="C12" s="4" t="s">
+    <row r="13" spans="1:39">
+      <c r="C13" s="4" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:39">
-      <c r="A14" t="s">
+      <c r="C14" s="4"/>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="B15" t="s">
+        <v>108</v>
+      </c>
+      <c r="C15" s="4"/>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="C16" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:39">
-      <c r="A15" t="s">
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
         <v>1</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B19" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
-      <c r="B18" t="s">
+    <row r="22" spans="1:2">
+      <c r="B22" t="s">
         <v>103</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="C12" r:id="rId1"/>
+    <hyperlink ref="C13" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>

--- a/日報.xlsx
+++ b/日報.xlsx
@@ -7,23 +7,24 @@
     <workbookView xWindow="-285" yWindow="150" windowWidth="10110" windowHeight="9165"/>
   </bookViews>
   <sheets>
-    <sheet name="10月27日" sheetId="14" r:id="rId1"/>
-    <sheet name="10月26日" sheetId="13" r:id="rId2"/>
-    <sheet name="10月25日" sheetId="12" r:id="rId3"/>
-    <sheet name="10月24日" sheetId="11" r:id="rId4"/>
-    <sheet name="10月23日" sheetId="10" r:id="rId5"/>
-    <sheet name="10月22日" sheetId="9" r:id="rId6"/>
-    <sheet name="10月21日" sheetId="8" r:id="rId7"/>
-    <sheet name="10月20日 " sheetId="7" r:id="rId8"/>
-    <sheet name="10月19日" sheetId="6" r:id="rId9"/>
-    <sheet name="10月18日" sheetId="5" r:id="rId10"/>
+    <sheet name="10月28日" sheetId="15" r:id="rId1"/>
+    <sheet name="10月27日" sheetId="14" r:id="rId2"/>
+    <sheet name="10月26日" sheetId="13" r:id="rId3"/>
+    <sheet name="10月25日" sheetId="12" r:id="rId4"/>
+    <sheet name="10月24日" sheetId="11" r:id="rId5"/>
+    <sheet name="10月23日" sheetId="10" r:id="rId6"/>
+    <sheet name="10月22日" sheetId="9" r:id="rId7"/>
+    <sheet name="10月21日" sheetId="8" r:id="rId8"/>
+    <sheet name="10月20日 " sheetId="7" r:id="rId9"/>
+    <sheet name="10月19日" sheetId="6" r:id="rId10"/>
+    <sheet name="10月18日" sheetId="5" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="115">
   <si>
     <t>1.実施したこと</t>
     <rPh sb="2" eb="4">
@@ -1436,6 +1437,68 @@
     </rPh>
     <rPh sb="9" eb="11">
       <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・2013/10/28</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・機能一覧の作成</t>
+    <rPh sb="1" eb="3">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UMLの概要(UMLとは、UMLの使い方)について勉強をしました。</t>
+    <rPh sb="4" eb="6">
+      <t>ガイヨウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ベンキョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>書籍「UMLモデリングのエッセンス第３版」を購入し、読みまして、</t>
+    <rPh sb="0" eb="2">
+      <t>ショセキ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>バン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>コウニュウ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>読むペースが遅いこと。</t>
+    <rPh sb="0" eb="1">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>オソ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1848,7 +1911,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM22"/>
+  <dimension ref="A1:AM17"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1902,7 +1965,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -1912,96 +1975,71 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39">
-      <c r="B6" t="s">
-        <v>57</v>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="A7" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:39">
-      <c r="A8" t="s">
-        <v>3</v>
+      <c r="B8" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:39">
-      <c r="B9" t="s">
-        <v>101</v>
+      <c r="C9" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="11" spans="1:39">
-      <c r="C11" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="C12" t="s">
-        <v>106</v>
+      <c r="A12" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="C13" s="4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="14" spans="1:39">
-      <c r="C14" s="4"/>
+      <c r="A13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="15" spans="1:39">
-      <c r="B15" t="s">
-        <v>108</v>
-      </c>
-      <c r="C15" s="4"/>
+      <c r="A15" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="C16" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>1</v>
-      </c>
-      <c r="B19" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="B22" t="s">
+      <c r="B16" t="s">
         <v>103</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <hyperlinks>
-    <hyperlink ref="C13" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM23"/>
+  <dimension ref="A1:AM25"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
   <cols>
@@ -2053,7 +2091,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -2063,95 +2101,108 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39">
-      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39">
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="A8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-    </row>
     <row r="9" spans="1:39">
-      <c r="C9" t="s">
-        <v>14</v>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39">
+      <c r="C10" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:39">
-      <c r="B11" t="s">
-        <v>15</v>
+      <c r="C11" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="B12" s="4" t="s">
-        <v>10</v>
+      <c r="C12" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:39">
       <c r="B13" s="4"/>
     </row>
     <row r="14" spans="1:39">
-      <c r="B14" t="s">
-        <v>16</v>
+      <c r="B14" s="4"/>
+      <c r="C14" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:39">
-      <c r="B15" s="4" t="s">
-        <v>7</v>
+      <c r="B15" s="4"/>
+      <c r="C15" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="B16" s="4"/>
       <c r="C16" t="s">
-        <v>13</v>
-      </c>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="B17" s="4"/>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>4</v>
+      <c r="B18" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>1</v>
-      </c>
-      <c r="B19" t="s">
-        <v>11</v>
+      <c r="C19" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
-      <c r="B22" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="C23" t="s">
-        <v>9</v>
+    <row r="25" spans="1:3">
+      <c r="B25" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="B15" r:id="rId1"/>
-    <hyperlink ref="B12" r:id="rId2"/>
+    <hyperlink ref="C12" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM19"/>
+  <dimension ref="A1:AM23"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -2205,7 +2256,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>94</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -2215,7 +2266,7 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>87</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:39">
@@ -2225,67 +2276,85 @@
     </row>
     <row r="8" spans="1:39">
       <c r="B8" t="s">
-        <v>87</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:39">
       <c r="C9" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="10" spans="1:39">
-      <c r="C10" t="s">
-        <v>95</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:39">
-      <c r="C11" t="s">
-        <v>96</v>
+      <c r="B11" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="C12" t="s">
-        <v>98</v>
-      </c>
+      <c r="B12" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="B13" s="4"/>
     </row>
     <row r="14" spans="1:39">
-      <c r="A14" t="s">
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="B15" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="B16" s="4"/>
+      <c r="C16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:39">
-      <c r="A15" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>1</v>
       </c>
-      <c r="B15" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
+      <c r="B19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
-      <c r="B18" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="B19" t="s">
-        <v>99</v>
+    <row r="22" spans="1:3">
+      <c r="B22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="C23" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="B15" r:id="rId1"/>
+    <hyperlink ref="B12" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM18"/>
+  <dimension ref="A1:AM22"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -2339,7 +2408,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -2349,72 +2418,94 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39">
-      <c r="A7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39">
+      <c r="B6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="A8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
-      <c r="B8" t="s">
-        <v>91</v>
-      </c>
-    </row>
     <row r="9" spans="1:39">
-      <c r="C9" t="s">
-        <v>90</v>
+      <c r="B9" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" t="s">
-        <v>93</v>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="C12" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="A13" t="s">
+      <c r="C13" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="C14" s="4"/>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="B15" t="s">
+        <v>108</v>
+      </c>
+      <c r="C15" s="4"/>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="C16" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:39">
-      <c r="A14" t="s">
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
         <v>1</v>
       </c>
-      <c r="B14" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="16" spans="1:39">
-      <c r="A16" t="s">
+      <c r="B19" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
-      <c r="B17" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18" t="s">
-        <v>89</v>
+    <row r="22" spans="1:2">
+      <c r="B22" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="C13" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM27"/>
+  <dimension ref="A1:AM19"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -2468,7 +2559,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -2478,95 +2569,65 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39">
-      <c r="B6" t="s">
-        <v>76</v>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="A7" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:39">
-      <c r="A8" t="s">
-        <v>3</v>
+      <c r="B8" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:39">
-      <c r="B9" t="s">
-        <v>75</v>
+      <c r="C9" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>77</v>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39">
+      <c r="C11" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="B12" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="13" spans="1:39">
-      <c r="C13" t="s">
-        <v>78</v>
+      <c r="C12" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:39">
-      <c r="C14" t="s">
-        <v>79</v>
+      <c r="A14" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:39">
-      <c r="C15" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="16" spans="1:39">
-      <c r="C16" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="C18" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="C19" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="C20" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
+      <c r="A15" t="s">
         <v>1</v>
       </c>
-      <c r="B23" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
+      <c r="B15" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
-      <c r="B26" t="s">
+    <row r="18" spans="1:2">
+      <c r="B18" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
-      <c r="B27" t="s">
-        <v>60</v>
+    <row r="19" spans="1:2">
+      <c r="B19" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -2576,9 +2637,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM24"/>
+  <dimension ref="A1:AM18"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -2632,7 +2693,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -2642,90 +2703,60 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39">
-      <c r="B6" t="s">
-        <v>56</v>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="A7" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:39">
-      <c r="A8" t="s">
-        <v>3</v>
+      <c r="B8" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:39">
-      <c r="B9" t="s">
-        <v>64</v>
+      <c r="C9" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>65</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39">
-      <c r="D12" t="s">
-        <v>66</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="D13" t="s">
-        <v>67</v>
+      <c r="A13" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:39">
-      <c r="D14" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="15" spans="1:39">
-      <c r="D15" t="s">
-        <v>69</v>
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="D16" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="D17" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B20" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" t="s">
+      <c r="A16" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
-      <c r="B23" t="s">
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
-      <c r="B24" t="s">
-        <v>60</v>
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -2735,12 +2766,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM24"/>
+  <dimension ref="A1:AM27"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="AM35" sqref="AM35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
@@ -2793,7 +2824,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -2803,79 +2834,94 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:39">
       <c r="B6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39">
-      <c r="B7" t="s">
-        <v>57</v>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="A8" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:39">
-      <c r="A9" t="s">
-        <v>3</v>
+      <c r="B9" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:39">
-      <c r="B10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:39">
-      <c r="C11" t="s">
-        <v>58</v>
+      <c r="C10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="B12" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="B13" t="s">
-        <v>56</v>
+      <c r="C13" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:39">
       <c r="C14" t="s">
-        <v>59</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="C15" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="B16" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="C17" t="s">
-        <v>62</v>
+      <c r="C16" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="C18" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>4</v>
+      <c r="C19" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B20" t="s">
-        <v>61</v>
+      <c r="C20" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
-      <c r="B23" t="s">
+    <row r="26" spans="1:3">
+      <c r="B26" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
-      <c r="B24" t="s">
+    <row r="27" spans="1:3">
+      <c r="B27" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2886,11 +2932,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM29"/>
+  <dimension ref="A1:AM23"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
   <cols>
@@ -2942,7 +2988,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -2952,111 +2998,85 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="B8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39">
+      <c r="C9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39">
+      <c r="C10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39">
+      <c r="D11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="D12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="D13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="D14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="D15" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="D16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="B22" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:39">
-      <c r="B6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39">
-      <c r="B7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:39">
-      <c r="A9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:39">
-      <c r="B10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:39">
-      <c r="C11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39">
-      <c r="C12" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:39">
-      <c r="C13" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:39">
-      <c r="C14" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" spans="1:39">
-      <c r="C15" s="4"/>
-    </row>
-    <row r="16" spans="1:39">
-      <c r="B16" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="C17" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="C18" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="C19" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="C20" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="B21" s="4"/>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="B22" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="C23" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" t="s">
-        <v>1</v>
-      </c>
-      <c r="B26" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="B29" t="s">
-        <v>48</v>
+    <row r="23" spans="1:2">
+      <c r="B23" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -3066,9 +3086,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM25"/>
+  <dimension ref="A1:AM24"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -3122,7 +3142,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -3132,111 +3152,94 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:39">
       <c r="B6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:39">
-      <c r="A8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="B7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39">
+      <c r="A9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:39">
-      <c r="B9" t="s">
-        <v>35</v>
-      </c>
-    </row>
     <row r="10" spans="1:39">
-      <c r="C10" t="s">
-        <v>36</v>
+      <c r="B10" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39">
-      <c r="C12" s="4" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="B13" s="4"/>
+      <c r="B13" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="14" spans="1:39">
-      <c r="B14" s="4"/>
       <c r="C14" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:39">
-      <c r="C15" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="B16" s="4"/>
+      <c r="B16" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="B17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="C18" t="s">
-        <v>32</v>
+      <c r="C17" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="C19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
+      <c r="A19" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>1</v>
-      </c>
-      <c r="B22" t="s">
-        <v>39</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="B23" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="B25" t="s">
-        <v>38</v>
+      <c r="B24" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <hyperlinks>
-    <hyperlink ref="C12" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM25"/>
+  <dimension ref="A1:AM29"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
   <cols>
@@ -3288,7 +3291,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -3298,12 +3301,192 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:39">
       <c r="B6" t="s">
-        <v>18</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39">
+      <c r="B10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39">
+      <c r="C11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="C12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="C13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="C14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="C15" s="4"/>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="B16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="C17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="C18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="C19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="C20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="B21" s="4"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="B22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="C23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="B29" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AM25"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="1.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:39" s="1" customFormat="1" ht="21">
+      <c r="A1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="2"/>
+    </row>
+    <row r="2" spans="1:39">
+      <c r="A2" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39">
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39">
+      <c r="B6" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:39">
@@ -3313,22 +3496,22 @@
     </row>
     <row r="9" spans="1:39">
       <c r="B9" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:39">
       <c r="C12" s="4" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:39">
@@ -3337,31 +3520,30 @@
     <row r="14" spans="1:39">
       <c r="B14" s="4"/>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:39">
-      <c r="B15" s="4"/>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
+      <c r="B16" s="4"/>
     </row>
     <row r="17" spans="1:3">
-      <c r="B17" s="4"/>
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="B18" t="s">
-        <v>18</v>
+      <c r="C18" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="C19" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -3374,7 +3556,7 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -3384,7 +3566,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="B25" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/日報.xlsx
+++ b/日報.xlsx
@@ -7,24 +7,25 @@
     <workbookView xWindow="-285" yWindow="150" windowWidth="10110" windowHeight="9165"/>
   </bookViews>
   <sheets>
-    <sheet name="10月28日" sheetId="15" r:id="rId1"/>
-    <sheet name="10月27日" sheetId="14" r:id="rId2"/>
-    <sheet name="10月26日" sheetId="13" r:id="rId3"/>
-    <sheet name="10月25日" sheetId="12" r:id="rId4"/>
-    <sheet name="10月24日" sheetId="11" r:id="rId5"/>
-    <sheet name="10月23日" sheetId="10" r:id="rId6"/>
-    <sheet name="10月22日" sheetId="9" r:id="rId7"/>
-    <sheet name="10月21日" sheetId="8" r:id="rId8"/>
-    <sheet name="10月20日 " sheetId="7" r:id="rId9"/>
-    <sheet name="10月19日" sheetId="6" r:id="rId10"/>
-    <sheet name="10月18日" sheetId="5" r:id="rId11"/>
+    <sheet name="10月29日" sheetId="16" r:id="rId1"/>
+    <sheet name="10月28日" sheetId="15" r:id="rId2"/>
+    <sheet name="10月27日" sheetId="14" r:id="rId3"/>
+    <sheet name="10月26日" sheetId="13" r:id="rId4"/>
+    <sheet name="10月25日" sheetId="12" r:id="rId5"/>
+    <sheet name="10月24日" sheetId="11" r:id="rId6"/>
+    <sheet name="10月23日" sheetId="10" r:id="rId7"/>
+    <sheet name="10月22日" sheetId="9" r:id="rId8"/>
+    <sheet name="10月21日" sheetId="8" r:id="rId9"/>
+    <sheet name="10月20日 " sheetId="7" r:id="rId10"/>
+    <sheet name="10月19日" sheetId="6" r:id="rId11"/>
+    <sheet name="10月18日" sheetId="5" r:id="rId12"/>
   </sheets>
   <calcPr calcId="125725" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="121">
   <si>
     <t>1.実施したこと</t>
     <rPh sb="2" eb="4">
@@ -1499,6 +1500,99 @@
     </rPh>
     <rPh sb="6" eb="7">
       <t>オソ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・2013/10/29</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・機能一覧表の勉強・作成</t>
+    <rPh sb="1" eb="3">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ベンキョウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>なし。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お借りした本に機能一覧表について触れていたページがあったので、</t>
+    <rPh sb="1" eb="2">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>フ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>読んで勉強をしました。</t>
+    <rPh sb="0" eb="1">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ベンキョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>また、機能一覧表を大分類、中分類、小分類に分けて作成を始めました。</t>
+    <rPh sb="3" eb="5">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>ダイブンルイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ブンルイ</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>ショウブンルイ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ハジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1911,7 +2005,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM17"/>
+  <dimension ref="A1:AM18"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1965,7 +2059,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -1975,7 +2069,7 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:39">
@@ -1985,44 +2079,49 @@
     </row>
     <row r="8" spans="1:39">
       <c r="B8" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:39">
       <c r="C9" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39">
-      <c r="A12" t="s">
-        <v>4</v>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39">
+      <c r="C11" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:39">
       <c r="A13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="A14" t="s">
         <v>1</v>
       </c>
-      <c r="B13" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="15" spans="1:39">
-      <c r="A15" t="s">
+      <c r="B14" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="A16" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:39">
-      <c r="B16" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
         <v>111</v>
       </c>
     </row>
@@ -2037,9 +2136,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AM25"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
   <cols>
@@ -2091,7 +2188,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -2101,12 +2198,12 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:39">
       <c r="B6" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:39">
@@ -2116,22 +2213,22 @@
     </row>
     <row r="9" spans="1:39">
       <c r="B9" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:39">
       <c r="C12" s="4" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:39">
@@ -2140,31 +2237,30 @@
     <row r="14" spans="1:39">
       <c r="B14" s="4"/>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:39">
-      <c r="B15" s="4"/>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
+      <c r="B16" s="4"/>
     </row>
     <row r="17" spans="1:3">
-      <c r="B17" s="4"/>
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="B18" t="s">
-        <v>18</v>
+      <c r="C18" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="C19" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -2177,7 +2273,7 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -2187,7 +2283,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="B25" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -2202,9 +2298,11 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM23"/>
+  <dimension ref="A1:AM25"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
   <cols>
@@ -2256,7 +2354,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -2266,95 +2364,108 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39">
-      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39">
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="A8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-    </row>
     <row r="9" spans="1:39">
-      <c r="C9" t="s">
-        <v>14</v>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39">
+      <c r="C10" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:39">
-      <c r="B11" t="s">
-        <v>15</v>
+      <c r="C11" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="B12" s="4" t="s">
-        <v>10</v>
+      <c r="C12" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:39">
       <c r="B13" s="4"/>
     </row>
     <row r="14" spans="1:39">
-      <c r="B14" t="s">
-        <v>16</v>
+      <c r="B14" s="4"/>
+      <c r="C14" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:39">
-      <c r="B15" s="4" t="s">
-        <v>7</v>
+      <c r="B15" s="4"/>
+      <c r="C15" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="B16" s="4"/>
       <c r="C16" t="s">
-        <v>13</v>
-      </c>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="B17" s="4"/>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>4</v>
+      <c r="B18" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>1</v>
-      </c>
-      <c r="B19" t="s">
-        <v>11</v>
+      <c r="C19" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
-      <c r="B22" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="C23" t="s">
-        <v>9</v>
+    <row r="25" spans="1:3">
+      <c r="B25" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="B15" r:id="rId1"/>
-    <hyperlink ref="B12" r:id="rId2"/>
+    <hyperlink ref="C12" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM22"/>
+  <dimension ref="A1:AM23"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -2408,7 +2519,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>100</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -2418,94 +2529,95 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39">
-      <c r="B6" t="s">
-        <v>57</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="A7" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:39">
-      <c r="A8" t="s">
-        <v>3</v>
+      <c r="B8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:39">
-      <c r="B9" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="10" spans="1:39">
-      <c r="C10" t="s">
-        <v>105</v>
+      <c r="C9" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:39">
-      <c r="C11" t="s">
-        <v>107</v>
+      <c r="B11" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="C12" t="s">
-        <v>106</v>
+      <c r="B12" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="C13" s="4" t="s">
-        <v>102</v>
-      </c>
+      <c r="B13" s="4"/>
     </row>
     <row r="14" spans="1:39">
-      <c r="C14" s="4"/>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="15" spans="1:39">
-      <c r="B15" t="s">
-        <v>108</v>
-      </c>
-      <c r="C15" s="4"/>
+      <c r="B15" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="16" spans="1:39">
+      <c r="B16" s="4"/>
       <c r="C16" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:3">
       <c r="B22" t="s">
-        <v>103</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="C23" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="C13" r:id="rId1"/>
+    <hyperlink ref="B15" r:id="rId1"/>
+    <hyperlink ref="B12" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM19"/>
+  <dimension ref="A1:AM17"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -2559,7 +2671,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -2569,7 +2681,7 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:39">
@@ -2579,55 +2691,45 @@
     </row>
     <row r="8" spans="1:39">
       <c r="B8" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:39">
       <c r="C9" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="11" spans="1:39">
-      <c r="C11" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="C12" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="14" spans="1:39">
-      <c r="A14" t="s">
+      <c r="A12" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="A13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="15" spans="1:39">
       <c r="A15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B15" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
-      <c r="B18" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="B19" t="s">
-        <v>99</v>
+    <row r="16" spans="1:39">
+      <c r="B16" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -2637,9 +2739,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM18"/>
+  <dimension ref="A1:AM22"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -2693,7 +2795,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -2703,76 +2805,96 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39">
-      <c r="A7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39">
+      <c r="B6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="A8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
-      <c r="B8" t="s">
-        <v>91</v>
-      </c>
-    </row>
     <row r="9" spans="1:39">
-      <c r="C9" t="s">
-        <v>90</v>
+      <c r="B9" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" t="s">
-        <v>93</v>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="C12" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="A13" t="s">
+      <c r="C13" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="C14" s="4"/>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="B15" t="s">
+        <v>108</v>
+      </c>
+      <c r="C15" s="4"/>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="C16" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:39">
-      <c r="A14" t="s">
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
         <v>1</v>
       </c>
-      <c r="B14" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="16" spans="1:39">
-      <c r="A16" t="s">
+      <c r="B19" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
-      <c r="B17" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18" t="s">
-        <v>89</v>
+    <row r="22" spans="1:2">
+      <c r="B22" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="C13" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM27"/>
+  <dimension ref="A1:AM19"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="AM35" sqref="AM35"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
   <cols>
@@ -2824,7 +2946,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -2834,95 +2956,65 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39">
-      <c r="B6" t="s">
-        <v>76</v>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="A7" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:39">
-      <c r="A8" t="s">
-        <v>3</v>
+      <c r="B8" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:39">
-      <c r="B9" t="s">
-        <v>75</v>
+      <c r="C9" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>77</v>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39">
+      <c r="C11" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="B12" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="13" spans="1:39">
-      <c r="C13" t="s">
-        <v>78</v>
+      <c r="C12" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:39">
-      <c r="C14" t="s">
-        <v>79</v>
+      <c r="A14" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:39">
-      <c r="C15" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="16" spans="1:39">
-      <c r="C16" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="C18" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="C19" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="C20" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
+      <c r="A15" t="s">
         <v>1</v>
       </c>
-      <c r="B23" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
+      <c r="B15" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
-      <c r="B26" t="s">
+    <row r="18" spans="1:2">
+      <c r="B18" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
-      <c r="B27" t="s">
-        <v>60</v>
+    <row r="19" spans="1:2">
+      <c r="B19" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -2932,9 +3024,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM23"/>
+  <dimension ref="A1:AM18"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -2988,7 +3080,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -2998,7 +3090,7 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>64</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:39">
@@ -3008,75 +3100,50 @@
     </row>
     <row r="8" spans="1:39">
       <c r="B8" t="s">
-        <v>64</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:39">
       <c r="C9" t="s">
-        <v>65</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:39">
-      <c r="D11" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39">
-      <c r="D12" t="s">
-        <v>67</v>
+      <c r="C11" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="D13" t="s">
-        <v>68</v>
+      <c r="A13" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:39">
-      <c r="D14" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="15" spans="1:39">
-      <c r="D15" t="s">
-        <v>70</v>
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="D16" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>1</v>
-      </c>
-      <c r="B19" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
+      <c r="A16" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
-      <c r="B22" t="s">
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
-      <c r="B23" t="s">
-        <v>60</v>
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -3086,11 +3153,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM24"/>
+  <dimension ref="A1:AM27"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="AM35" sqref="AM35"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
   <cols>
@@ -3142,7 +3211,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -3152,79 +3221,94 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:39">
       <c r="B6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39">
-      <c r="B7" t="s">
-        <v>57</v>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="A8" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:39">
-      <c r="A9" t="s">
-        <v>3</v>
+      <c r="B9" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:39">
-      <c r="B10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:39">
-      <c r="C11" t="s">
-        <v>58</v>
+      <c r="C10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="B12" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="B13" t="s">
-        <v>56</v>
+      <c r="C13" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:39">
       <c r="C14" t="s">
-        <v>59</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="C15" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="B16" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="C17" t="s">
-        <v>62</v>
+      <c r="C16" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="C18" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>4</v>
+      <c r="C19" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B20" t="s">
-        <v>61</v>
+      <c r="C20" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
-      <c r="B23" t="s">
+    <row r="26" spans="1:3">
+      <c r="B26" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
-      <c r="B24" t="s">
+    <row r="27" spans="1:3">
+      <c r="B27" t="s">
         <v>60</v>
       </c>
     </row>
@@ -3235,9 +3319,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM29"/>
+  <dimension ref="A1:AM23"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -3291,7 +3375,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -3301,111 +3385,85 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="B8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39">
+      <c r="C9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39">
+      <c r="C10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39">
+      <c r="D11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="D12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="D13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="D14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="D15" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="D16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="B22" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:39">
-      <c r="B6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39">
-      <c r="B7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:39">
-      <c r="A9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:39">
-      <c r="B10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:39">
-      <c r="C11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39">
-      <c r="C12" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:39">
-      <c r="C13" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:39">
-      <c r="C14" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" spans="1:39">
-      <c r="C15" s="4"/>
-    </row>
-    <row r="16" spans="1:39">
-      <c r="B16" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="C17" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="C18" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="C19" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="C20" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="B21" s="4"/>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="B22" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="C23" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" t="s">
-        <v>1</v>
-      </c>
-      <c r="B26" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="B29" t="s">
-        <v>48</v>
+    <row r="23" spans="1:2">
+      <c r="B23" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -3415,9 +3473,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM25"/>
+  <dimension ref="A1:AM24"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -3471,7 +3529,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -3481,100 +3539,265 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:39">
       <c r="B6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:39">
-      <c r="A8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="B7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39">
+      <c r="A9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:39">
-      <c r="B9" t="s">
-        <v>35</v>
-      </c>
-    </row>
     <row r="10" spans="1:39">
-      <c r="C10" t="s">
-        <v>36</v>
+      <c r="B10" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" t="s">
-        <v>34</v>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="B13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="C14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="B16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="C17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="B23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="B24" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AM29"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="1.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:39" s="1" customFormat="1" ht="21">
+      <c r="A1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="2"/>
+    </row>
+    <row r="2" spans="1:39">
+      <c r="A2" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39">
+      <c r="B5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39">
+      <c r="B6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39">
+      <c r="B10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39">
+      <c r="C11" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="C12" s="4" t="s">
-        <v>33</v>
+      <c r="C12" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="B13" s="4"/>
+      <c r="C13" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="14" spans="1:39">
-      <c r="B14" s="4"/>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:39">
-      <c r="C15" t="s">
-        <v>40</v>
-      </c>
+      <c r="C15" s="4"/>
     </row>
     <row r="16" spans="1:39">
-      <c r="B16" s="4"/>
+      <c r="B16" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="B17" t="s">
-        <v>30</v>
+      <c r="C17" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="C18" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="C19" t="s">
-        <v>31</v>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="C20" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" t="s">
+      <c r="B21" s="4"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="B22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="C23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
         <v>1</v>
       </c>
-      <c r="B22" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
+      <c r="B26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
-      <c r="B25" t="s">
-        <v>38</v>
+    <row r="29" spans="1:3">
+      <c r="B29" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <hyperlinks>
-    <hyperlink ref="C12" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/日報.xlsx
+++ b/日報.xlsx
@@ -7,25 +7,26 @@
     <workbookView xWindow="-285" yWindow="150" windowWidth="10110" windowHeight="9165"/>
   </bookViews>
   <sheets>
-    <sheet name="10月29日" sheetId="16" r:id="rId1"/>
-    <sheet name="10月28日" sheetId="15" r:id="rId2"/>
-    <sheet name="10月27日" sheetId="14" r:id="rId3"/>
-    <sheet name="10月26日" sheetId="13" r:id="rId4"/>
-    <sheet name="10月25日" sheetId="12" r:id="rId5"/>
-    <sheet name="10月24日" sheetId="11" r:id="rId6"/>
-    <sheet name="10月23日" sheetId="10" r:id="rId7"/>
-    <sheet name="10月22日" sheetId="9" r:id="rId8"/>
-    <sheet name="10月21日" sheetId="8" r:id="rId9"/>
-    <sheet name="10月20日 " sheetId="7" r:id="rId10"/>
-    <sheet name="10月19日" sheetId="6" r:id="rId11"/>
-    <sheet name="10月18日" sheetId="5" r:id="rId12"/>
+    <sheet name="10月30日" sheetId="17" r:id="rId1"/>
+    <sheet name="10月29日" sheetId="16" r:id="rId2"/>
+    <sheet name="10月28日" sheetId="15" r:id="rId3"/>
+    <sheet name="10月27日" sheetId="14" r:id="rId4"/>
+    <sheet name="10月26日" sheetId="13" r:id="rId5"/>
+    <sheet name="10月25日" sheetId="12" r:id="rId6"/>
+    <sheet name="10月24日" sheetId="11" r:id="rId7"/>
+    <sheet name="10月23日" sheetId="10" r:id="rId8"/>
+    <sheet name="10月22日" sheetId="9" r:id="rId9"/>
+    <sheet name="10月21日" sheetId="8" r:id="rId10"/>
+    <sheet name="10月20日 " sheetId="7" r:id="rId11"/>
+    <sheet name="10月19日" sheetId="6" r:id="rId12"/>
+    <sheet name="10月18日" sheetId="5" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="125725" concurrentCalc="0"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="127">
   <si>
     <t>1.実施したこと</t>
     <rPh sb="2" eb="4">
@@ -1593,6 +1594,105 @@
     </rPh>
     <rPh sb="27" eb="28">
       <t>ハジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・2013/10/30</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・機能一覧表の勉強</t>
+    <rPh sb="1" eb="3">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ベンキョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>機能一覧表について調査・勉強をし、機能一覧表にはデータに着目した更新や削除などの</t>
+    <rPh sb="0" eb="2">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>チョウサ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ベンキョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>項目について考え直してみます。</t>
+    <rPh sb="0" eb="2">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カンガ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ナオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>項目は加えず"機能"に着目したほうがシンプルで使いやすいという意見があり、</t>
+    <rPh sb="0" eb="2">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>クワ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>チャクモク</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>イケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中項目に指紋の"削除"、"登録"など入れようかと考えていましたので、</t>
+    <rPh sb="0" eb="1">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シモン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>カンガ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2005,9 +2105,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM18"/>
+  <dimension ref="A1:AM19"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
   <cols>
@@ -2059,7 +2161,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -2069,7 +2171,7 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:39">
@@ -2079,49 +2181,54 @@
     </row>
     <row r="8" spans="1:39">
       <c r="B8" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:39">
       <c r="C9" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="13" spans="1:39">
-      <c r="A13" t="s">
-        <v>4</v>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="C12" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="14" spans="1:39">
       <c r="A14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="A15" t="s">
         <v>1</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="16" spans="1:39">
-      <c r="A16" t="s">
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
-      <c r="B17" t="s">
+    <row r="18" spans="1:2">
+      <c r="B18" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="18" spans="2:2">
-      <c r="B18" t="s">
+    <row r="19" spans="1:2">
+      <c r="B19" t="s">
         <v>111</v>
       </c>
     </row>
@@ -2134,7 +2241,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM25"/>
+  <dimension ref="A1:AM29"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -2188,7 +2295,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -2198,101 +2305,117 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:39">
       <c r="B6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="B7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
-      <c r="A8" t="s">
+    <row r="9" spans="1:39">
+      <c r="A9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:39">
-      <c r="B9" t="s">
-        <v>35</v>
-      </c>
-    </row>
     <row r="10" spans="1:39">
-      <c r="C10" t="s">
-        <v>36</v>
+      <c r="B10" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="C12" s="4" t="s">
-        <v>33</v>
+      <c r="C12" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="B13" s="4"/>
+      <c r="C13" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="14" spans="1:39">
-      <c r="B14" s="4"/>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:39">
-      <c r="C15" t="s">
-        <v>40</v>
-      </c>
+      <c r="C15" s="4"/>
     </row>
     <row r="16" spans="1:39">
-      <c r="B16" s="4"/>
+      <c r="B16" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="B17" t="s">
-        <v>30</v>
+      <c r="C17" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="C18" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="C19" t="s">
-        <v>31</v>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="C20" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" t="s">
+      <c r="B21" s="4"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="B22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="C23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
         <v>1</v>
       </c>
-      <c r="B22" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
+      <c r="B26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
-      <c r="B25" t="s">
-        <v>38</v>
+    <row r="29" spans="1:3">
+      <c r="B29" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <hyperlinks>
-    <hyperlink ref="C12" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2300,9 +2423,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AM25"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
   <cols>
@@ -2354,7 +2475,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -2364,12 +2485,12 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:39">
       <c r="B6" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:39">
@@ -2379,22 +2500,22 @@
     </row>
     <row r="9" spans="1:39">
       <c r="B9" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:39">
       <c r="C12" s="4" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:39">
@@ -2403,31 +2524,30 @@
     <row r="14" spans="1:39">
       <c r="B14" s="4"/>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:39">
-      <c r="B15" s="4"/>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
+      <c r="B16" s="4"/>
     </row>
     <row r="17" spans="1:3">
-      <c r="B17" s="4"/>
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="B18" t="s">
-        <v>18</v>
+      <c r="C18" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="C19" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -2440,7 +2560,7 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -2450,7 +2570,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="B25" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -2465,9 +2585,11 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM23"/>
+  <dimension ref="A1:AM25"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
   <cols>
@@ -2519,7 +2641,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -2529,95 +2651,108 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39">
-      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39">
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="A8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-    </row>
     <row r="9" spans="1:39">
-      <c r="C9" t="s">
-        <v>14</v>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39">
+      <c r="C10" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:39">
-      <c r="B11" t="s">
-        <v>15</v>
+      <c r="C11" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="B12" s="4" t="s">
-        <v>10</v>
+      <c r="C12" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:39">
       <c r="B13" s="4"/>
     </row>
     <row r="14" spans="1:39">
-      <c r="B14" t="s">
-        <v>16</v>
+      <c r="B14" s="4"/>
+      <c r="C14" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:39">
-      <c r="B15" s="4" t="s">
-        <v>7</v>
+      <c r="B15" s="4"/>
+      <c r="C15" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="B16" s="4"/>
       <c r="C16" t="s">
-        <v>13</v>
-      </c>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="B17" s="4"/>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>4</v>
+      <c r="B18" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>1</v>
-      </c>
-      <c r="B19" t="s">
-        <v>11</v>
+      <c r="C19" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
-      <c r="B22" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="C23" t="s">
-        <v>9</v>
+    <row r="25" spans="1:3">
+      <c r="B25" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="B15" r:id="rId1"/>
-    <hyperlink ref="B12" r:id="rId2"/>
+    <hyperlink ref="C12" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM17"/>
+  <dimension ref="A1:AM23"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -2671,7 +2806,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>110</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -2681,7 +2816,7 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>103</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:39">
@@ -2691,59 +2826,89 @@
     </row>
     <row r="8" spans="1:39">
       <c r="B8" t="s">
-        <v>103</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:39">
       <c r="C9" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="10" spans="1:39">
-      <c r="C10" t="s">
-        <v>112</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39">
+      <c r="B11" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="A12" t="s">
+      <c r="B12" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="B13" s="4"/>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="B15" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="B16" s="4"/>
+      <c r="C16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:39">
-      <c r="A13" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>1</v>
       </c>
-      <c r="B13" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="15" spans="1:39">
-      <c r="A15" t="s">
+      <c r="B19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:39">
-      <c r="B16" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17" t="s">
-        <v>111</v>
+    <row r="22" spans="1:3">
+      <c r="B22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="C23" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="B15" r:id="rId1"/>
+    <hyperlink ref="B12" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM22"/>
+  <dimension ref="A1:AM18"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
   <cols>
@@ -2795,7 +2960,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -2805,94 +2970,72 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39">
-      <c r="B6" t="s">
-        <v>57</v>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="A7" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:39">
-      <c r="A8" t="s">
-        <v>3</v>
+      <c r="B8" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:39">
-      <c r="B9" t="s">
-        <v>101</v>
+      <c r="C9" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39">
-      <c r="C12" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="C13" s="4" t="s">
-        <v>102</v>
+      <c r="A13" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:39">
-      <c r="C14" s="4"/>
-    </row>
-    <row r="15" spans="1:39">
-      <c r="B15" t="s">
-        <v>108</v>
-      </c>
-      <c r="C15" s="4"/>
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="C16" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>1</v>
-      </c>
-      <c r="B19" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
+      <c r="A16" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
-      <c r="B22" t="s">
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
         <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <hyperlinks>
-    <hyperlink ref="C13" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM19"/>
+  <dimension ref="A1:AM17"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -2946,7 +3089,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -2956,7 +3099,7 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:39">
@@ -2966,55 +3109,45 @@
     </row>
     <row r="8" spans="1:39">
       <c r="B8" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:39">
       <c r="C9" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="11" spans="1:39">
-      <c r="C11" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="C12" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="14" spans="1:39">
-      <c r="A14" t="s">
+      <c r="A12" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="A13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="15" spans="1:39">
       <c r="A15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B15" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
-      <c r="B18" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="B19" t="s">
-        <v>99</v>
+    <row r="16" spans="1:39">
+      <c r="B16" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -3024,9 +3157,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM18"/>
+  <dimension ref="A1:AM22"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -3080,7 +3213,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -3090,76 +3223,96 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39">
-      <c r="A7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39">
+      <c r="B6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="A8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
-      <c r="B8" t="s">
-        <v>91</v>
-      </c>
-    </row>
     <row r="9" spans="1:39">
-      <c r="C9" t="s">
-        <v>90</v>
+      <c r="B9" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" t="s">
-        <v>93</v>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="C12" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="A13" t="s">
+      <c r="C13" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="C14" s="4"/>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="B15" t="s">
+        <v>108</v>
+      </c>
+      <c r="C15" s="4"/>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="C16" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:39">
-      <c r="A14" t="s">
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
         <v>1</v>
       </c>
-      <c r="B14" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="16" spans="1:39">
-      <c r="A16" t="s">
+      <c r="B19" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
-      <c r="B17" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18" t="s">
-        <v>89</v>
+    <row r="22" spans="1:2">
+      <c r="B22" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="C13" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM27"/>
+  <dimension ref="A1:AM19"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="AM35" sqref="AM35"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
   <cols>
@@ -3211,7 +3364,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -3221,95 +3374,65 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39">
-      <c r="B6" t="s">
-        <v>76</v>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="A7" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:39">
-      <c r="A8" t="s">
-        <v>3</v>
+      <c r="B8" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:39">
-      <c r="B9" t="s">
-        <v>75</v>
+      <c r="C9" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>77</v>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39">
+      <c r="C11" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="B12" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="13" spans="1:39">
-      <c r="C13" t="s">
-        <v>78</v>
+      <c r="C12" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:39">
-      <c r="C14" t="s">
-        <v>79</v>
+      <c r="A14" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:39">
-      <c r="C15" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="16" spans="1:39">
-      <c r="C16" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="C18" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="C19" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="C20" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
+      <c r="A15" t="s">
         <v>1</v>
       </c>
-      <c r="B23" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
+      <c r="B15" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
-      <c r="B26" t="s">
+    <row r="18" spans="1:2">
+      <c r="B18" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
-      <c r="B27" t="s">
-        <v>60</v>
+    <row r="19" spans="1:2">
+      <c r="B19" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -3319,9 +3442,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM23"/>
+  <dimension ref="A1:AM18"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -3375,7 +3498,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -3385,7 +3508,7 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>64</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:39">
@@ -3395,75 +3518,50 @@
     </row>
     <row r="8" spans="1:39">
       <c r="B8" t="s">
-        <v>64</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:39">
       <c r="C9" t="s">
-        <v>65</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:39">
-      <c r="D11" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39">
-      <c r="D12" t="s">
-        <v>67</v>
+      <c r="C11" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="D13" t="s">
-        <v>68</v>
+      <c r="A13" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:39">
-      <c r="D14" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="15" spans="1:39">
-      <c r="D15" t="s">
-        <v>70</v>
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="D16" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>1</v>
-      </c>
-      <c r="B19" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
+      <c r="A16" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
-      <c r="B22" t="s">
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
-      <c r="B23" t="s">
-        <v>60</v>
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -3473,11 +3571,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM24"/>
+  <dimension ref="A1:AM27"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="AM35" sqref="AM35"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
   <cols>
@@ -3529,7 +3629,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -3539,79 +3639,94 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:39">
       <c r="B6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39">
-      <c r="B7" t="s">
-        <v>57</v>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="A8" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:39">
-      <c r="A9" t="s">
-        <v>3</v>
+      <c r="B9" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:39">
-      <c r="B10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:39">
-      <c r="C11" t="s">
-        <v>58</v>
+      <c r="C10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="B12" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="B13" t="s">
-        <v>56</v>
+      <c r="C13" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:39">
       <c r="C14" t="s">
-        <v>59</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="C15" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="B16" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="C17" t="s">
-        <v>62</v>
+      <c r="C16" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="C18" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>4</v>
+      <c r="C19" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B20" t="s">
-        <v>61</v>
+      <c r="C20" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
-      <c r="B23" t="s">
+    <row r="26" spans="1:3">
+      <c r="B26" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
-      <c r="B24" t="s">
+    <row r="27" spans="1:3">
+      <c r="B27" t="s">
         <v>60</v>
       </c>
     </row>
@@ -3622,9 +3737,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM29"/>
+  <dimension ref="A1:AM23"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -3678,7 +3793,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -3688,17 +3803,171 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="B8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39">
+      <c r="C9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39">
+      <c r="C10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39">
+      <c r="D11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="D12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="D13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="D14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="D15" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="D16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="B22" t="s">
         <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="B23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AM24"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="1.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:39" s="1" customFormat="1" ht="21">
+      <c r="A1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="2"/>
+    </row>
+    <row r="2" spans="1:39">
+      <c r="A2" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39">
+      <c r="B5" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:39">
       <c r="B6" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:39">
       <c r="B7" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:39">
@@ -3708,91 +3977,60 @@
     </row>
     <row r="10" spans="1:39">
       <c r="B10" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39">
-      <c r="C12" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="C13" t="s">
-        <v>50</v>
+      <c r="B13" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:39">
       <c r="C14" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" spans="1:39">
-      <c r="C15" s="4"/>
+        <v>59</v>
+      </c>
     </row>
     <row r="16" spans="1:39">
       <c r="B16" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="C17" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="C18" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="C19" t="s">
-        <v>45</v>
+      <c r="A19" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="C20" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="B21" s="4"/>
+      <c r="A20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="B22" t="s">
-        <v>30</v>
+      <c r="A22" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="C23" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" t="s">
-        <v>1</v>
-      </c>
-      <c r="B26" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="B29" t="s">
+      <c r="B23" t="s">
         <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="B24" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/日報.xlsx
+++ b/日報.xlsx
@@ -7,26 +7,27 @@
     <workbookView xWindow="-285" yWindow="150" windowWidth="10110" windowHeight="9165"/>
   </bookViews>
   <sheets>
-    <sheet name="10月30日" sheetId="17" r:id="rId1"/>
-    <sheet name="10月29日" sheetId="16" r:id="rId2"/>
-    <sheet name="10月28日" sheetId="15" r:id="rId3"/>
-    <sheet name="10月27日" sheetId="14" r:id="rId4"/>
-    <sheet name="10月26日" sheetId="13" r:id="rId5"/>
-    <sheet name="10月25日" sheetId="12" r:id="rId6"/>
-    <sheet name="10月24日" sheetId="11" r:id="rId7"/>
-    <sheet name="10月23日" sheetId="10" r:id="rId8"/>
-    <sheet name="10月22日" sheetId="9" r:id="rId9"/>
-    <sheet name="10月21日" sheetId="8" r:id="rId10"/>
-    <sheet name="10月20日 " sheetId="7" r:id="rId11"/>
-    <sheet name="10月19日" sheetId="6" r:id="rId12"/>
-    <sheet name="10月18日" sheetId="5" r:id="rId13"/>
+    <sheet name="10月31日" sheetId="18" r:id="rId1"/>
+    <sheet name="10月30日" sheetId="17" r:id="rId2"/>
+    <sheet name="10月29日" sheetId="16" r:id="rId3"/>
+    <sheet name="10月28日" sheetId="15" r:id="rId4"/>
+    <sheet name="10月27日" sheetId="14" r:id="rId5"/>
+    <sheet name="10月26日" sheetId="13" r:id="rId6"/>
+    <sheet name="10月25日" sheetId="12" r:id="rId7"/>
+    <sheet name="10月24日" sheetId="11" r:id="rId8"/>
+    <sheet name="10月23日" sheetId="10" r:id="rId9"/>
+    <sheet name="10月22日" sheetId="9" r:id="rId10"/>
+    <sheet name="10月21日" sheetId="8" r:id="rId11"/>
+    <sheet name="10月20日 " sheetId="7" r:id="rId12"/>
+    <sheet name="10月19日" sheetId="6" r:id="rId13"/>
+    <sheet name="10月18日" sheetId="5" r:id="rId14"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="136">
   <si>
     <t>1.実施したこと</t>
     <rPh sb="2" eb="4">
@@ -1693,6 +1694,149 @@
     </rPh>
     <rPh sb="24" eb="25">
       <t>カンガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・2013/10/31</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・Nexus7の価格調査・購入</t>
+    <rPh sb="8" eb="10">
+      <t>カカク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>チョウサ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>コウニュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>指紋認証機器に接続するAndroid端末として使用するNexus7の価格調査をしました。</t>
+    <rPh sb="0" eb="2">
+      <t>シモン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>キキ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>タンマツ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>カカク</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>チョウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>価格.comでは決済込手数料で並べ替え安かったところを見ましたが、売り切れであったり、</t>
+    <rPh sb="0" eb="2">
+      <t>カカク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ケッサイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>コミ</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>テスウリョウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ナラ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ヤス</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実際は表示された価格より高いことがありました。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(26000円という価格があったのですが、購入手続きを進めると配送料などかかり計27000円を超える)</t>
+  </si>
+  <si>
+    <t>じゃんぱらでは検索では中古のみしか見つからず、配送料が1000円以上かかる表記があったため、購入を見送りました。</t>
+    <rPh sb="7" eb="9">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>チュウコ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ハイソウ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>リョウ</t>
+    </rPh>
+    <rPh sb="31" eb="34">
+      <t>エンイジョウ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ヒョウキ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>コウニュウ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ミオク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Amazonでは27800円(1%ポイント付き)で今週の土日に届くようでしたので、</t>
+    <rPh sb="13" eb="14">
+      <t>エン</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>コンシュウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ドニチ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>トド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Amazonで購入をしました。</t>
+    <rPh sb="7" eb="9">
+      <t>コウニュウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2105,11 +2249,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM19"/>
+  <dimension ref="A1:AM24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
   <cols>
@@ -2161,7 +2303,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -2171,7 +2313,7 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:39">
@@ -2181,54 +2323,69 @@
     </row>
     <row r="8" spans="1:39">
       <c r="B8" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:39">
       <c r="C9" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:39">
       <c r="C12" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14" spans="1:39">
-      <c r="A14" t="s">
+      <c r="C14" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="C16" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="C17" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:39">
-      <c r="A15" t="s">
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
         <v>1</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B20" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
-      <c r="B18" t="s">
+    <row r="23" spans="1:3">
+      <c r="B23" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="B19" t="s">
+    <row r="24" spans="1:3">
+      <c r="B24" t="s">
         <v>111</v>
       </c>
     </row>
@@ -2241,7 +2398,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM29"/>
+  <dimension ref="A1:AM24"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -2295,7 +2452,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -2305,17 +2462,17 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:39">
       <c r="B6" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:39">
       <c r="B7" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:39">
@@ -2325,91 +2482,60 @@
     </row>
     <row r="10" spans="1:39">
       <c r="B10" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39">
-      <c r="C12" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="C13" t="s">
-        <v>50</v>
+      <c r="B13" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:39">
       <c r="C14" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" spans="1:39">
-      <c r="C15" s="4"/>
+        <v>59</v>
+      </c>
     </row>
     <row r="16" spans="1:39">
       <c r="B16" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="C17" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="C18" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="C19" t="s">
-        <v>45</v>
+      <c r="A19" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="C20" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="B21" s="4"/>
+      <c r="A20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="B22" t="s">
-        <v>30</v>
+      <c r="A22" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="C23" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" t="s">
-        <v>1</v>
-      </c>
-      <c r="B26" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="B29" t="s">
+      <c r="B23" t="s">
         <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="B24" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -2421,7 +2547,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM25"/>
+  <dimension ref="A1:AM29"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -2475,7 +2601,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -2485,101 +2611,117 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:39">
       <c r="B6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="B7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
-      <c r="A8" t="s">
+    <row r="9" spans="1:39">
+      <c r="A9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:39">
-      <c r="B9" t="s">
-        <v>35</v>
-      </c>
-    </row>
     <row r="10" spans="1:39">
-      <c r="C10" t="s">
-        <v>36</v>
+      <c r="B10" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="C12" s="4" t="s">
-        <v>33</v>
+      <c r="C12" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="B13" s="4"/>
+      <c r="C13" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="14" spans="1:39">
-      <c r="B14" s="4"/>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:39">
-      <c r="C15" t="s">
-        <v>40</v>
-      </c>
+      <c r="C15" s="4"/>
     </row>
     <row r="16" spans="1:39">
-      <c r="B16" s="4"/>
+      <c r="B16" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="B17" t="s">
-        <v>30</v>
+      <c r="C17" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="C18" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="C19" t="s">
-        <v>31</v>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="C20" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" t="s">
+      <c r="B21" s="4"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="B22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="C23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
         <v>1</v>
       </c>
-      <c r="B22" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
+      <c r="B26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
-      <c r="B25" t="s">
-        <v>38</v>
+    <row r="29" spans="1:3">
+      <c r="B29" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <hyperlinks>
-    <hyperlink ref="C12" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2587,9 +2729,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AM25"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
   <cols>
@@ -2641,7 +2781,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -2651,12 +2791,12 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:39">
       <c r="B6" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:39">
@@ -2666,22 +2806,22 @@
     </row>
     <row r="9" spans="1:39">
       <c r="B9" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:39">
       <c r="C12" s="4" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:39">
@@ -2690,31 +2830,30 @@
     <row r="14" spans="1:39">
       <c r="B14" s="4"/>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:39">
-      <c r="B15" s="4"/>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
+      <c r="B16" s="4"/>
     </row>
     <row r="17" spans="1:3">
-      <c r="B17" s="4"/>
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="B18" t="s">
-        <v>18</v>
+      <c r="C18" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="C19" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -2727,7 +2866,7 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -2737,7 +2876,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="B25" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -2752,9 +2891,11 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM23"/>
+  <dimension ref="A1:AM25"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
   <cols>
@@ -2806,7 +2947,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -2816,99 +2957,110 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39">
-      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39">
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="A8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-    </row>
     <row r="9" spans="1:39">
-      <c r="C9" t="s">
-        <v>14</v>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39">
+      <c r="C10" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:39">
-      <c r="B11" t="s">
-        <v>15</v>
+      <c r="C11" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="B12" s="4" t="s">
-        <v>10</v>
+      <c r="C12" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:39">
       <c r="B13" s="4"/>
     </row>
     <row r="14" spans="1:39">
-      <c r="B14" t="s">
-        <v>16</v>
+      <c r="B14" s="4"/>
+      <c r="C14" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:39">
-      <c r="B15" s="4" t="s">
-        <v>7</v>
+      <c r="B15" s="4"/>
+      <c r="C15" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="B16" s="4"/>
       <c r="C16" t="s">
-        <v>13</v>
-      </c>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="B17" s="4"/>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>4</v>
+      <c r="B18" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>1</v>
-      </c>
-      <c r="B19" t="s">
-        <v>11</v>
+      <c r="C19" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
-      <c r="B22" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="C23" t="s">
-        <v>9</v>
+    <row r="25" spans="1:3">
+      <c r="B25" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="B15" r:id="rId1"/>
-    <hyperlink ref="B12" r:id="rId2"/>
+    <hyperlink ref="C12" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM18"/>
+  <dimension ref="A1:AM23"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
   <cols>
@@ -2960,7 +3112,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>115</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -2970,7 +3122,7 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>116</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:39">
@@ -2980,64 +3132,89 @@
     </row>
     <row r="8" spans="1:39">
       <c r="B8" t="s">
-        <v>116</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:39">
       <c r="C9" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="10" spans="1:39">
-      <c r="C10" t="s">
-        <v>119</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:39">
-      <c r="C11" t="s">
-        <v>120</v>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="B12" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="A13" t="s">
+      <c r="B13" s="4"/>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="B15" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="B16" s="4"/>
+      <c r="C16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:39">
-      <c r="A14" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>1</v>
       </c>
-      <c r="B14" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="16" spans="1:39">
-      <c r="A16" t="s">
+      <c r="B19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
-      <c r="B17" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18" t="s">
-        <v>111</v>
+    <row r="22" spans="1:3">
+      <c r="B22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="C23" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="B15" r:id="rId1"/>
+    <hyperlink ref="B12" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM17"/>
+  <dimension ref="A1:AM19"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
   <cols>
@@ -3089,7 +3266,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -3099,7 +3276,7 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:39">
@@ -3109,44 +3286,54 @@
     </row>
     <row r="8" spans="1:39">
       <c r="B8" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:39">
       <c r="C9" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>112</v>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39">
+      <c r="C11" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="A12" t="s">
+      <c r="C12" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="A14" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:39">
-      <c r="A13" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="15" spans="1:39">
       <c r="A15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:39">
-      <c r="B16" t="s">
+    <row r="18" spans="1:2">
+      <c r="B18" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
-      <c r="B17" t="s">
+    <row r="19" spans="1:2">
+      <c r="B19" t="s">
         <v>111</v>
       </c>
     </row>
@@ -3157,11 +3344,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM22"/>
+  <dimension ref="A1:AM18"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
   <cols>
@@ -3213,7 +3402,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -3223,94 +3412,72 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39">
-      <c r="B6" t="s">
-        <v>57</v>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="A7" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:39">
-      <c r="A8" t="s">
-        <v>3</v>
+      <c r="B8" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:39">
-      <c r="B9" t="s">
-        <v>101</v>
+      <c r="C9" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39">
-      <c r="C12" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="C13" s="4" t="s">
-        <v>102</v>
+      <c r="A13" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:39">
-      <c r="C14" s="4"/>
-    </row>
-    <row r="15" spans="1:39">
-      <c r="B15" t="s">
-        <v>108</v>
-      </c>
-      <c r="C15" s="4"/>
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="C16" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>1</v>
-      </c>
-      <c r="B19" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
+      <c r="A16" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
-      <c r="B22" t="s">
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
         <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <hyperlinks>
-    <hyperlink ref="C13" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM19"/>
+  <dimension ref="A1:AM17"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -3364,7 +3531,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -3374,7 +3541,7 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:39">
@@ -3384,55 +3551,45 @@
     </row>
     <row r="8" spans="1:39">
       <c r="B8" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:39">
       <c r="C9" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="11" spans="1:39">
-      <c r="C11" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="C12" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="14" spans="1:39">
-      <c r="A14" t="s">
+      <c r="A12" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="A13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="15" spans="1:39">
       <c r="A15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B15" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
-      <c r="B18" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="B19" t="s">
-        <v>99</v>
+    <row r="16" spans="1:39">
+      <c r="B16" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -3442,9 +3599,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM18"/>
+  <dimension ref="A1:AM22"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -3498,7 +3655,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -3508,76 +3665,96 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39">
-      <c r="A7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39">
+      <c r="B6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="A8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
-      <c r="B8" t="s">
-        <v>91</v>
-      </c>
-    </row>
     <row r="9" spans="1:39">
-      <c r="C9" t="s">
-        <v>90</v>
+      <c r="B9" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" t="s">
-        <v>93</v>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="C12" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="A13" t="s">
+      <c r="C13" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="C14" s="4"/>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="B15" t="s">
+        <v>108</v>
+      </c>
+      <c r="C15" s="4"/>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="C16" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:39">
-      <c r="A14" t="s">
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
         <v>1</v>
       </c>
-      <c r="B14" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="16" spans="1:39">
-      <c r="A16" t="s">
+      <c r="B19" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
-      <c r="B17" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18" t="s">
-        <v>89</v>
+    <row r="22" spans="1:2">
+      <c r="B22" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="C13" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM27"/>
+  <dimension ref="A1:AM19"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="AM35" sqref="AM35"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
   <cols>
@@ -3629,7 +3806,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -3639,95 +3816,65 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39">
-      <c r="B6" t="s">
-        <v>76</v>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="A7" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:39">
-      <c r="A8" t="s">
-        <v>3</v>
+      <c r="B8" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:39">
-      <c r="B9" t="s">
-        <v>75</v>
+      <c r="C9" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>77</v>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39">
+      <c r="C11" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="B12" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="13" spans="1:39">
-      <c r="C13" t="s">
-        <v>78</v>
+      <c r="C12" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:39">
-      <c r="C14" t="s">
-        <v>79</v>
+      <c r="A14" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:39">
-      <c r="C15" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="16" spans="1:39">
-      <c r="C16" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="C18" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="C19" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="C20" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
+      <c r="A15" t="s">
         <v>1</v>
       </c>
-      <c r="B23" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
+      <c r="B15" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
-      <c r="B26" t="s">
+    <row r="18" spans="1:2">
+      <c r="B18" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
-      <c r="B27" t="s">
-        <v>60</v>
+    <row r="19" spans="1:2">
+      <c r="B19" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -3737,9 +3884,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM23"/>
+  <dimension ref="A1:AM18"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -3793,7 +3940,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -3803,7 +3950,7 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>64</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:39">
@@ -3813,75 +3960,50 @@
     </row>
     <row r="8" spans="1:39">
       <c r="B8" t="s">
-        <v>64</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:39">
       <c r="C9" t="s">
-        <v>65</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:39">
-      <c r="D11" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39">
-      <c r="D12" t="s">
-        <v>67</v>
+      <c r="C11" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="D13" t="s">
-        <v>68</v>
+      <c r="A13" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:39">
-      <c r="D14" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="15" spans="1:39">
-      <c r="D15" t="s">
-        <v>70</v>
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="D16" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>1</v>
-      </c>
-      <c r="B19" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
+      <c r="A16" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
-      <c r="B22" t="s">
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
-      <c r="B23" t="s">
-        <v>60</v>
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -3891,11 +4013,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM24"/>
+  <dimension ref="A1:AM27"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="AM35" sqref="AM35"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
   <cols>
@@ -3947,7 +4071,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -3957,79 +4081,248 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:39">
       <c r="B6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39">
-      <c r="B7" t="s">
-        <v>57</v>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="A8" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:39">
-      <c r="A9" t="s">
-        <v>3</v>
+      <c r="B9" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:39">
-      <c r="B10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:39">
-      <c r="C11" t="s">
-        <v>58</v>
+      <c r="C10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="B12" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="B13" t="s">
-        <v>56</v>
+      <c r="C13" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:39">
       <c r="C14" t="s">
-        <v>59</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="C15" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="B16" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="C17" t="s">
-        <v>62</v>
+      <c r="C16" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="C18" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>4</v>
+      <c r="C19" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B20" t="s">
-        <v>61</v>
+      <c r="C20" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="26" spans="1:3">
+      <c r="B26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="B27" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AM23"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="1.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:39" s="1" customFormat="1" ht="21">
+      <c r="A1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="2"/>
+    </row>
+    <row r="2" spans="1:39">
+      <c r="A2" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39">
+      <c r="B5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="B8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39">
+      <c r="C9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39">
+      <c r="C10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39">
+      <c r="D11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="D12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="D13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="D14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="D15" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="D16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="B22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
       <c r="B23" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="B24" t="s">
         <v>60</v>
       </c>
     </row>

--- a/日報.xlsx
+++ b/日報.xlsx
@@ -7,27 +7,28 @@
     <workbookView xWindow="-285" yWindow="150" windowWidth="10110" windowHeight="9165"/>
   </bookViews>
   <sheets>
-    <sheet name="10月31日" sheetId="18" r:id="rId1"/>
-    <sheet name="10月30日" sheetId="17" r:id="rId2"/>
-    <sheet name="10月29日" sheetId="16" r:id="rId3"/>
-    <sheet name="10月28日" sheetId="15" r:id="rId4"/>
-    <sheet name="10月27日" sheetId="14" r:id="rId5"/>
-    <sheet name="10月26日" sheetId="13" r:id="rId6"/>
-    <sheet name="10月25日" sheetId="12" r:id="rId7"/>
-    <sheet name="10月24日" sheetId="11" r:id="rId8"/>
-    <sheet name="10月23日" sheetId="10" r:id="rId9"/>
-    <sheet name="10月22日" sheetId="9" r:id="rId10"/>
-    <sheet name="10月21日" sheetId="8" r:id="rId11"/>
-    <sheet name="10月20日 " sheetId="7" r:id="rId12"/>
-    <sheet name="10月19日" sheetId="6" r:id="rId13"/>
-    <sheet name="10月18日" sheetId="5" r:id="rId14"/>
+    <sheet name="11月5日" sheetId="19" r:id="rId1"/>
+    <sheet name="10月31日" sheetId="18" r:id="rId2"/>
+    <sheet name="10月30日" sheetId="17" r:id="rId3"/>
+    <sheet name="10月29日" sheetId="16" r:id="rId4"/>
+    <sheet name="10月28日" sheetId="15" r:id="rId5"/>
+    <sheet name="10月27日" sheetId="14" r:id="rId6"/>
+    <sheet name="10月26日" sheetId="13" r:id="rId7"/>
+    <sheet name="10月25日" sheetId="12" r:id="rId8"/>
+    <sheet name="10月24日" sheetId="11" r:id="rId9"/>
+    <sheet name="10月23日" sheetId="10" r:id="rId10"/>
+    <sheet name="10月22日" sheetId="9" r:id="rId11"/>
+    <sheet name="10月21日" sheetId="8" r:id="rId12"/>
+    <sheet name="10月20日 " sheetId="7" r:id="rId13"/>
+    <sheet name="10月19日" sheetId="6" r:id="rId14"/>
+    <sheet name="10月18日" sheetId="5" r:id="rId15"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="141">
   <si>
     <t>1.実施したこと</t>
     <rPh sb="2" eb="4">
@@ -1837,6 +1838,107 @@
     <t>Amazonで購入をしました。</t>
     <rPh sb="7" eb="9">
       <t>コウニュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・2013/11/5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>項目を考えて記載をしました。</t>
+    <rPh sb="0" eb="2">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カンガ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>キサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>要件定義書の目標のStep1～Step6毎に大分類、中分類、小分離に</t>
+    <rPh sb="0" eb="2">
+      <t>ヨウケン</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>テイギショ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>モクヒョウ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ゴト</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ブンルイ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ブンルイ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ブンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>次に機能一覧表に機能や説明を追加します。</t>
+    <rPh sb="0" eb="1">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大分類・中分類・小分類としてより良い項目はないか検討をすること。</t>
+    <rPh sb="0" eb="3">
+      <t>ダイブンルイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ブンルイ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>ショウブンルイ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ケントウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2249,7 +2351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM24"/>
+  <dimension ref="A1:AM18"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2303,7 +2405,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -2313,7 +2415,7 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:39">
@@ -2323,69 +2425,49 @@
     </row>
     <row r="8" spans="1:39">
       <c r="B8" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:39">
       <c r="C9" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39">
-      <c r="C12" t="s">
-        <v>132</v>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="A13" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:39">
-      <c r="C14" t="s">
-        <v>133</v>
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="C16" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="C17" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B20" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
+      <c r="A16" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
-      <c r="B23" t="s">
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
-      <c r="B24" t="s">
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
         <v>111</v>
       </c>
     </row>
@@ -2398,7 +2480,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM24"/>
+  <dimension ref="A1:AM23"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -2452,7 +2534,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -2462,79 +2544,84 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39">
-      <c r="B6" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:39">
-      <c r="B7" t="s">
-        <v>57</v>
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="B8" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:39">
-      <c r="A9" t="s">
-        <v>3</v>
+      <c r="C9" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:39">
-      <c r="B10" t="s">
-        <v>42</v>
+      <c r="C10" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:39">
-      <c r="C11" t="s">
-        <v>58</v>
+      <c r="D11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="D12" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="B13" t="s">
-        <v>56</v>
+      <c r="D13" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:39">
-      <c r="C14" t="s">
-        <v>59</v>
+      <c r="D14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="D15" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="B16" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="C17" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
         <v>1</v>
       </c>
-      <c r="B20" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
+      <c r="B19" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="22" spans="1:2">
+      <c r="B22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
       <c r="B23" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="B24" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2547,7 +2634,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM29"/>
+  <dimension ref="A1:AM24"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -2601,7 +2688,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -2611,17 +2698,17 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:39">
       <c r="B6" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:39">
       <c r="B7" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:39">
@@ -2631,91 +2718,60 @@
     </row>
     <row r="10" spans="1:39">
       <c r="B10" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39">
-      <c r="C12" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="C13" t="s">
-        <v>50</v>
+      <c r="B13" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:39">
       <c r="C14" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" spans="1:39">
-      <c r="C15" s="4"/>
+        <v>59</v>
+      </c>
     </row>
     <row r="16" spans="1:39">
       <c r="B16" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="C17" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="C18" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="C19" t="s">
-        <v>45</v>
+      <c r="A19" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="C20" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="B21" s="4"/>
+      <c r="A20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="B22" t="s">
-        <v>30</v>
+      <c r="A22" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="C23" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" t="s">
-        <v>1</v>
-      </c>
-      <c r="B26" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="B29" t="s">
+      <c r="B23" t="s">
         <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="B24" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -2727,7 +2783,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM25"/>
+  <dimension ref="A1:AM29"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -2781,7 +2837,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -2791,101 +2847,117 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:39">
       <c r="B6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="B7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
-      <c r="A8" t="s">
+    <row r="9" spans="1:39">
+      <c r="A9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:39">
-      <c r="B9" t="s">
-        <v>35</v>
-      </c>
-    </row>
     <row r="10" spans="1:39">
-      <c r="C10" t="s">
-        <v>36</v>
+      <c r="B10" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="C12" s="4" t="s">
-        <v>33</v>
+      <c r="C12" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="B13" s="4"/>
+      <c r="C13" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="14" spans="1:39">
-      <c r="B14" s="4"/>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:39">
-      <c r="C15" t="s">
-        <v>40</v>
-      </c>
+      <c r="C15" s="4"/>
     </row>
     <row r="16" spans="1:39">
-      <c r="B16" s="4"/>
+      <c r="B16" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="B17" t="s">
-        <v>30</v>
+      <c r="C17" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="C18" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="C19" t="s">
-        <v>31</v>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="C20" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" t="s">
+      <c r="B21" s="4"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="B22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="C23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
         <v>1</v>
       </c>
-      <c r="B22" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
+      <c r="B26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
-      <c r="B25" t="s">
-        <v>38</v>
+    <row r="29" spans="1:3">
+      <c r="B29" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <hyperlinks>
-    <hyperlink ref="C12" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2893,9 +2965,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AM25"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
   <cols>
@@ -2947,7 +3017,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -2957,12 +3027,12 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:39">
       <c r="B6" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:39">
@@ -2972,22 +3042,22 @@
     </row>
     <row r="9" spans="1:39">
       <c r="B9" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:39">
       <c r="C12" s="4" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:39">
@@ -2996,31 +3066,30 @@
     <row r="14" spans="1:39">
       <c r="B14" s="4"/>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:39">
-      <c r="B15" s="4"/>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
+      <c r="B16" s="4"/>
     </row>
     <row r="17" spans="1:3">
-      <c r="B17" s="4"/>
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="B18" t="s">
-        <v>18</v>
+      <c r="C18" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="C19" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -3033,7 +3102,7 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -3043,7 +3112,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="B25" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -3058,9 +3127,11 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM23"/>
+  <dimension ref="A1:AM25"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
   <cols>
@@ -3112,7 +3183,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -3122,99 +3193,110 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39">
-      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39">
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="A8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-    </row>
     <row r="9" spans="1:39">
-      <c r="C9" t="s">
-        <v>14</v>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39">
+      <c r="C10" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:39">
-      <c r="B11" t="s">
-        <v>15</v>
+      <c r="C11" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="B12" s="4" t="s">
-        <v>10</v>
+      <c r="C12" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:39">
       <c r="B13" s="4"/>
     </row>
     <row r="14" spans="1:39">
-      <c r="B14" t="s">
-        <v>16</v>
+      <c r="B14" s="4"/>
+      <c r="C14" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:39">
-      <c r="B15" s="4" t="s">
-        <v>7</v>
+      <c r="B15" s="4"/>
+      <c r="C15" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="B16" s="4"/>
       <c r="C16" t="s">
-        <v>13</v>
-      </c>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="B17" s="4"/>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>4</v>
+      <c r="B18" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>1</v>
-      </c>
-      <c r="B19" t="s">
-        <v>11</v>
+      <c r="C19" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
-      <c r="B22" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="C23" t="s">
-        <v>9</v>
+    <row r="25" spans="1:3">
+      <c r="B25" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="B15" r:id="rId1"/>
-    <hyperlink ref="B12" r:id="rId2"/>
+    <hyperlink ref="C12" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM19"/>
+  <dimension ref="A1:AM23"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
   <cols>
@@ -3266,7 +3348,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>121</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -3276,7 +3358,7 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>122</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:39">
@@ -3286,71 +3368,87 @@
     </row>
     <row r="8" spans="1:39">
       <c r="B8" t="s">
-        <v>122</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:39">
       <c r="C9" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="10" spans="1:39">
-      <c r="C10" t="s">
-        <v>125</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:39">
-      <c r="C11" t="s">
-        <v>126</v>
+      <c r="B11" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="C12" t="s">
-        <v>124</v>
-      </c>
+      <c r="B12" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="B13" s="4"/>
     </row>
     <row r="14" spans="1:39">
-      <c r="A14" t="s">
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="B15" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="B16" s="4"/>
+      <c r="C16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:39">
-      <c r="A15" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>1</v>
       </c>
-      <c r="B15" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
+      <c r="B19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
-      <c r="B18" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="B19" t="s">
-        <v>111</v>
+    <row r="22" spans="1:3">
+      <c r="B22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="C23" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="B15" r:id="rId1"/>
+    <hyperlink ref="B12" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM18"/>
+  <dimension ref="A1:AM24"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
   <cols>
@@ -3402,7 +3500,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -3412,7 +3510,7 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:39">
@@ -3422,49 +3520,69 @@
     </row>
     <row r="8" spans="1:39">
       <c r="B8" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:39">
       <c r="C9" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="13" spans="1:39">
-      <c r="A13" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="C12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="C14" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="C16" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="C17" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:39">
-      <c r="A14" t="s">
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
         <v>1</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B20" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="16" spans="1:39">
-      <c r="A16" t="s">
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
-      <c r="B17" t="s">
+    <row r="23" spans="1:3">
+      <c r="B23" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="18" spans="2:2">
-      <c r="B18" t="s">
+    <row r="24" spans="1:3">
+      <c r="B24" t="s">
         <v>111</v>
       </c>
     </row>
@@ -3475,9 +3593,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM17"/>
+  <dimension ref="A1:AM19"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -3531,7 +3649,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -3541,7 +3659,7 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:39">
@@ -3551,44 +3669,54 @@
     </row>
     <row r="8" spans="1:39">
       <c r="B8" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:39">
       <c r="C9" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>112</v>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39">
+      <c r="C11" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="A12" t="s">
+      <c r="C12" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="A14" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:39">
-      <c r="A13" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="15" spans="1:39">
       <c r="A15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:39">
-      <c r="B16" t="s">
+    <row r="18" spans="1:2">
+      <c r="B18" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
-      <c r="B17" t="s">
+    <row r="19" spans="1:2">
+      <c r="B19" t="s">
         <v>111</v>
       </c>
     </row>
@@ -3599,9 +3727,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM22"/>
+  <dimension ref="A1:AM18"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -3655,7 +3783,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -3665,94 +3793,72 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39">
-      <c r="B6" t="s">
-        <v>57</v>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="A7" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:39">
-      <c r="A8" t="s">
-        <v>3</v>
+      <c r="B8" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:39">
-      <c r="B9" t="s">
-        <v>101</v>
+      <c r="C9" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39">
-      <c r="C12" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="C13" s="4" t="s">
-        <v>102</v>
+      <c r="A13" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:39">
-      <c r="C14" s="4"/>
-    </row>
-    <row r="15" spans="1:39">
-      <c r="B15" t="s">
-        <v>108</v>
-      </c>
-      <c r="C15" s="4"/>
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="C16" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>1</v>
-      </c>
-      <c r="B19" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
+      <c r="A16" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
-      <c r="B22" t="s">
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
         <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <hyperlinks>
-    <hyperlink ref="C13" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM19"/>
+  <dimension ref="A1:AM17"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -3806,7 +3912,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -3816,7 +3922,7 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:39">
@@ -3826,55 +3932,45 @@
     </row>
     <row r="8" spans="1:39">
       <c r="B8" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:39">
       <c r="C9" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="11" spans="1:39">
-      <c r="C11" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="C12" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="14" spans="1:39">
-      <c r="A14" t="s">
+      <c r="A12" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="A13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="15" spans="1:39">
       <c r="A15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B15" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
-      <c r="B18" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="B19" t="s">
-        <v>99</v>
+    <row r="16" spans="1:39">
+      <c r="B16" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -3884,9 +3980,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM18"/>
+  <dimension ref="A1:AM22"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -3940,7 +4036,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -3950,76 +4046,96 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39">
-      <c r="A7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39">
+      <c r="B6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="A8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
-      <c r="B8" t="s">
-        <v>91</v>
-      </c>
-    </row>
     <row r="9" spans="1:39">
-      <c r="C9" t="s">
-        <v>90</v>
+      <c r="B9" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" t="s">
-        <v>93</v>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="C12" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="A13" t="s">
+      <c r="C13" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="C14" s="4"/>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="B15" t="s">
+        <v>108</v>
+      </c>
+      <c r="C15" s="4"/>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="C16" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:39">
-      <c r="A14" t="s">
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
         <v>1</v>
       </c>
-      <c r="B14" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="16" spans="1:39">
-      <c r="A16" t="s">
+      <c r="B19" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
-      <c r="B17" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18" t="s">
-        <v>89</v>
+    <row r="22" spans="1:2">
+      <c r="B22" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="C13" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM27"/>
+  <dimension ref="A1:AM19"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="AM35" sqref="AM35"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
   <cols>
@@ -4071,7 +4187,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -4081,95 +4197,65 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39">
-      <c r="B6" t="s">
-        <v>76</v>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="A7" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:39">
-      <c r="A8" t="s">
-        <v>3</v>
+      <c r="B8" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:39">
-      <c r="B9" t="s">
-        <v>75</v>
+      <c r="C9" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>77</v>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39">
+      <c r="C11" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="B12" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="13" spans="1:39">
-      <c r="C13" t="s">
-        <v>78</v>
+      <c r="C12" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:39">
-      <c r="C14" t="s">
-        <v>79</v>
+      <c r="A14" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:39">
-      <c r="C15" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="16" spans="1:39">
-      <c r="C16" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="C18" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="C19" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="C20" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
+      <c r="A15" t="s">
         <v>1</v>
       </c>
-      <c r="B23" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
+      <c r="B15" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
-      <c r="B26" t="s">
+    <row r="18" spans="1:2">
+      <c r="B18" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
-      <c r="B27" t="s">
-        <v>60</v>
+    <row r="19" spans="1:2">
+      <c r="B19" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -4179,9 +4265,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM23"/>
+  <dimension ref="A1:AM18"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -4235,7 +4321,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -4245,7 +4331,7 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>64</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:39">
@@ -4255,74 +4341,215 @@
     </row>
     <row r="8" spans="1:39">
       <c r="B8" t="s">
-        <v>64</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:39">
       <c r="C9" t="s">
-        <v>65</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:39">
-      <c r="D11" t="s">
-        <v>66</v>
+      <c r="C11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="A16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AM27"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="AM35" sqref="AM35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="1.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:39" s="1" customFormat="1" ht="21">
+      <c r="A1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="2"/>
+    </row>
+    <row r="2" spans="1:39">
+      <c r="A2" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39">
+      <c r="B5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39">
+      <c r="B6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39">
+      <c r="B9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39">
+      <c r="C10" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="D12" t="s">
-        <v>67</v>
+      <c r="B12" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="D13" t="s">
-        <v>68</v>
+      <c r="C13" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:39">
-      <c r="D14" t="s">
-        <v>69</v>
+      <c r="C14" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:39">
-      <c r="D15" t="s">
-        <v>70</v>
+      <c r="C15" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="D16" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
+      <c r="C16" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="C18" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="C19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="C20" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
         <v>1</v>
       </c>
-      <c r="B19" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
+      <c r="B23" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
-      <c r="B22" t="s">
+    <row r="26" spans="1:3">
+      <c r="B26" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
-      <c r="B23" t="s">
+    <row r="27" spans="1:3">
+      <c r="B27" t="s">
         <v>60</v>
       </c>
     </row>

--- a/日報.xlsx
+++ b/日報.xlsx
@@ -7,28 +7,29 @@
     <workbookView xWindow="-285" yWindow="150" windowWidth="10110" windowHeight="9165"/>
   </bookViews>
   <sheets>
-    <sheet name="11月5日" sheetId="19" r:id="rId1"/>
-    <sheet name="10月31日" sheetId="18" r:id="rId2"/>
-    <sheet name="10月30日" sheetId="17" r:id="rId3"/>
-    <sheet name="10月29日" sheetId="16" r:id="rId4"/>
-    <sheet name="10月28日" sheetId="15" r:id="rId5"/>
-    <sheet name="10月27日" sheetId="14" r:id="rId6"/>
-    <sheet name="10月26日" sheetId="13" r:id="rId7"/>
-    <sheet name="10月25日" sheetId="12" r:id="rId8"/>
-    <sheet name="10月24日" sheetId="11" r:id="rId9"/>
-    <sheet name="10月23日" sheetId="10" r:id="rId10"/>
-    <sheet name="10月22日" sheetId="9" r:id="rId11"/>
-    <sheet name="10月21日" sheetId="8" r:id="rId12"/>
-    <sheet name="10月20日 " sheetId="7" r:id="rId13"/>
-    <sheet name="10月19日" sheetId="6" r:id="rId14"/>
-    <sheet name="10月18日" sheetId="5" r:id="rId15"/>
+    <sheet name="11月6日" sheetId="20" r:id="rId1"/>
+    <sheet name="11月5日" sheetId="19" r:id="rId2"/>
+    <sheet name="10月31日" sheetId="18" r:id="rId3"/>
+    <sheet name="10月30日" sheetId="17" r:id="rId4"/>
+    <sheet name="10月29日" sheetId="16" r:id="rId5"/>
+    <sheet name="10月28日" sheetId="15" r:id="rId6"/>
+    <sheet name="10月27日" sheetId="14" r:id="rId7"/>
+    <sheet name="10月26日" sheetId="13" r:id="rId8"/>
+    <sheet name="10月25日" sheetId="12" r:id="rId9"/>
+    <sheet name="10月24日" sheetId="11" r:id="rId10"/>
+    <sheet name="10月23日" sheetId="10" r:id="rId11"/>
+    <sheet name="10月22日" sheetId="9" r:id="rId12"/>
+    <sheet name="10月21日" sheetId="8" r:id="rId13"/>
+    <sheet name="10月20日 " sheetId="7" r:id="rId14"/>
+    <sheet name="10月19日" sheetId="6" r:id="rId15"/>
+    <sheet name="10月18日" sheetId="5" r:id="rId16"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="150">
   <si>
     <t>1.実施したこと</t>
     <rPh sb="2" eb="4">
@@ -1939,6 +1940,117 @@
     </rPh>
     <rPh sb="24" eb="26">
       <t>ケントウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・2013/11/6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>･FS88のAndyにメールの返信</t>
+    <rPh sb="15" eb="17">
+      <t>ヘンシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>機能一覧にアプリケーションの機能について記入を行うために、</t>
+    <rPh sb="0" eb="2">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>キニュウ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アプリケーションがどの様な動作を行うのかなど</t>
+    <rPh sb="11" eb="12">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アプリの機能について考えた。</t>
+    <rPh sb="10" eb="11">
+      <t>カンガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・アプリの動作について考える</t>
+    <rPh sb="5" eb="7">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>カンガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「LinuxAPIでFS88動作した?何かあったらAndyに連絡くれ。」というメールが届いたため、</t>
+    <rPh sb="14" eb="16">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ナン</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>レンラク</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>トド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「10月26日に海外から購入したFS88が届いていないので、APIでFS88が動作するかFS88が届いてから連絡する。」</t>
+    <rPh sb="3" eb="4">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カイガイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>コウニュウ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>トド</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>トド</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>レンラク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>と返信した。</t>
+    <rPh sb="1" eb="3">
+      <t>ヘンシン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2351,7 +2463,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM18"/>
+  <dimension ref="A1:AM24"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2405,7 +2517,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -2415,59 +2527,84 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39">
-      <c r="A7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39">
+      <c r="B6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="A8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
-      <c r="B8" t="s">
-        <v>111</v>
-      </c>
-    </row>
     <row r="9" spans="1:39">
-      <c r="C9" t="s">
-        <v>138</v>
+      <c r="B9" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="13" spans="1:39">
-      <c r="A13" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="C12" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="B14" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="C15" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="C16" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="C17" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:39">
-      <c r="A14" t="s">
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
         <v>1</v>
       </c>
-      <c r="B14" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="16" spans="1:39">
-      <c r="A16" t="s">
+      <c r="B20" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
-      <c r="B17" t="s">
+    <row r="23" spans="1:3">
+      <c r="B23" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="18" spans="2:2">
-      <c r="B18" t="s">
+    <row r="24" spans="1:3">
+      <c r="B24" t="s">
         <v>111</v>
       </c>
     </row>
@@ -2480,9 +2617,11 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM23"/>
+  <dimension ref="A1:AM27"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="AM35" sqref="AM35"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
   <cols>
@@ -2534,7 +2673,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -2544,84 +2683,94 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39">
-      <c r="A7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39">
+      <c r="B6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="A8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
-      <c r="B8" t="s">
-        <v>64</v>
-      </c>
-    </row>
     <row r="9" spans="1:39">
-      <c r="C9" t="s">
-        <v>65</v>
+      <c r="B9" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="11" spans="1:39">
-      <c r="D11" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="D12" t="s">
-        <v>67</v>
+      <c r="B12" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="D13" t="s">
-        <v>68</v>
+      <c r="C13" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:39">
-      <c r="D14" t="s">
-        <v>69</v>
+      <c r="C14" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:39">
-      <c r="D15" t="s">
-        <v>70</v>
+      <c r="C15" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="D16" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
+      <c r="C16" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="C18" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="C19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="C20" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
         <v>1</v>
       </c>
-      <c r="B19" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
+      <c r="B23" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
-      <c r="B22" t="s">
+    <row r="26" spans="1:3">
+      <c r="B26" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
-      <c r="B23" t="s">
+    <row r="27" spans="1:3">
+      <c r="B27" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2634,7 +2783,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM24"/>
+  <dimension ref="A1:AM23"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -2688,7 +2837,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -2698,79 +2847,84 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39">
-      <c r="B6" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:39">
-      <c r="B7" t="s">
-        <v>57</v>
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="B8" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:39">
-      <c r="A9" t="s">
-        <v>3</v>
+      <c r="C9" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:39">
-      <c r="B10" t="s">
-        <v>42</v>
+      <c r="C10" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:39">
-      <c r="C11" t="s">
-        <v>58</v>
+      <c r="D11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="D12" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="B13" t="s">
-        <v>56</v>
+      <c r="D13" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:39">
-      <c r="C14" t="s">
-        <v>59</v>
+      <c r="D14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="D15" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="B16" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="C17" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
         <v>1</v>
       </c>
-      <c r="B20" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
+      <c r="B19" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="22" spans="1:2">
+      <c r="B22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
       <c r="B23" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="B24" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2783,7 +2937,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM29"/>
+  <dimension ref="A1:AM24"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -2837,7 +2991,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -2847,17 +3001,17 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:39">
       <c r="B6" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:39">
       <c r="B7" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:39">
@@ -2867,91 +3021,60 @@
     </row>
     <row r="10" spans="1:39">
       <c r="B10" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39">
-      <c r="C12" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="C13" t="s">
-        <v>50</v>
+      <c r="B13" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:39">
       <c r="C14" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" spans="1:39">
-      <c r="C15" s="4"/>
+        <v>59</v>
+      </c>
     </row>
     <row r="16" spans="1:39">
       <c r="B16" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="C17" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="C18" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="C19" t="s">
-        <v>45</v>
+      <c r="A19" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="C20" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="B21" s="4"/>
+      <c r="A20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="B22" t="s">
-        <v>30</v>
+      <c r="A22" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="C23" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" t="s">
-        <v>1</v>
-      </c>
-      <c r="B26" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="B29" t="s">
+      <c r="B23" t="s">
         <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="B24" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -2963,7 +3086,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM25"/>
+  <dimension ref="A1:AM29"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -3017,7 +3140,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -3027,101 +3150,117 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:39">
       <c r="B6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="B7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
-      <c r="A8" t="s">
+    <row r="9" spans="1:39">
+      <c r="A9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:39">
-      <c r="B9" t="s">
-        <v>35</v>
-      </c>
-    </row>
     <row r="10" spans="1:39">
-      <c r="C10" t="s">
-        <v>36</v>
+      <c r="B10" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="C12" s="4" t="s">
-        <v>33</v>
+      <c r="C12" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="B13" s="4"/>
+      <c r="C13" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="14" spans="1:39">
-      <c r="B14" s="4"/>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:39">
-      <c r="C15" t="s">
-        <v>40</v>
-      </c>
+      <c r="C15" s="4"/>
     </row>
     <row r="16" spans="1:39">
-      <c r="B16" s="4"/>
+      <c r="B16" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="B17" t="s">
-        <v>30</v>
+      <c r="C17" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="C18" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="C19" t="s">
-        <v>31</v>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="C20" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" t="s">
+      <c r="B21" s="4"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="B22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="C23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
         <v>1</v>
       </c>
-      <c r="B22" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
+      <c r="B26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
-      <c r="B25" t="s">
-        <v>38</v>
+    <row r="29" spans="1:3">
+      <c r="B29" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <hyperlinks>
-    <hyperlink ref="C12" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3129,9 +3268,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AM25"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
   <cols>
@@ -3183,7 +3320,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -3193,12 +3330,12 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:39">
       <c r="B6" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:39">
@@ -3208,22 +3345,22 @@
     </row>
     <row r="9" spans="1:39">
       <c r="B9" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:39">
       <c r="C12" s="4" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:39">
@@ -3232,31 +3369,30 @@
     <row r="14" spans="1:39">
       <c r="B14" s="4"/>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:39">
-      <c r="B15" s="4"/>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
+      <c r="B16" s="4"/>
     </row>
     <row r="17" spans="1:3">
-      <c r="B17" s="4"/>
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="B18" t="s">
-        <v>18</v>
+      <c r="C18" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="C19" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -3269,7 +3405,7 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -3279,7 +3415,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="B25" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -3294,9 +3430,11 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM23"/>
+  <dimension ref="A1:AM25"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
   <cols>
@@ -3348,7 +3486,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -3358,95 +3496,108 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39">
-      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39">
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="A8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-    </row>
     <row r="9" spans="1:39">
-      <c r="C9" t="s">
-        <v>14</v>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39">
+      <c r="C10" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:39">
-      <c r="B11" t="s">
-        <v>15</v>
+      <c r="C11" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="B12" s="4" t="s">
-        <v>10</v>
+      <c r="C12" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:39">
       <c r="B13" s="4"/>
     </row>
     <row r="14" spans="1:39">
-      <c r="B14" t="s">
-        <v>16</v>
+      <c r="B14" s="4"/>
+      <c r="C14" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:39">
-      <c r="B15" s="4" t="s">
-        <v>7</v>
+      <c r="B15" s="4"/>
+      <c r="C15" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="B16" s="4"/>
       <c r="C16" t="s">
-        <v>13</v>
-      </c>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="B17" s="4"/>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>4</v>
+      <c r="B18" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>1</v>
-      </c>
-      <c r="B19" t="s">
-        <v>11</v>
+      <c r="C19" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
-      <c r="B22" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="C23" t="s">
-        <v>9</v>
+    <row r="25" spans="1:3">
+      <c r="B25" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="B15" r:id="rId1"/>
-    <hyperlink ref="B12" r:id="rId2"/>
+    <hyperlink ref="C12" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM24"/>
+  <dimension ref="A1:AM23"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -3500,7 +3651,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>127</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -3510,7 +3661,7 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>128</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:39">
@@ -3520,82 +3671,85 @@
     </row>
     <row r="8" spans="1:39">
       <c r="B8" t="s">
-        <v>128</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:39">
       <c r="C9" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="10" spans="1:39">
-      <c r="C10" t="s">
-        <v>130</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:39">
-      <c r="C11" t="s">
-        <v>131</v>
+      <c r="B11" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="C12" t="s">
-        <v>132</v>
-      </c>
+      <c r="B12" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="B13" s="4"/>
     </row>
     <row r="14" spans="1:39">
-      <c r="C14" t="s">
-        <v>133</v>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="B15" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:39">
+      <c r="B16" s="4"/>
       <c r="C16" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="C17" t="s">
-        <v>135</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
         <v>1</v>
       </c>
-      <c r="B20" t="s">
-        <v>117</v>
+      <c r="B19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>2</v>
+      <c r="B22" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="B23" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="B24" t="s">
-        <v>111</v>
+      <c r="C23" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="B15" r:id="rId1"/>
+    <hyperlink ref="B12" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM19"/>
+  <dimension ref="A1:AM18"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -3649,7 +3803,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -3659,7 +3813,7 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:39">
@@ -3669,54 +3823,49 @@
     </row>
     <row r="8" spans="1:39">
       <c r="B8" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:39">
       <c r="C9" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39">
-      <c r="C12" t="s">
-        <v>124</v>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="A13" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:39">
       <c r="A14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:39">
-      <c r="A15" t="s">
         <v>1</v>
       </c>
-      <c r="B15" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
+      <c r="B14" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="A16" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="B19" t="s">
         <v>111</v>
       </c>
     </row>
@@ -3727,9 +3876,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM18"/>
+  <dimension ref="A1:AM24"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -3783,7 +3932,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -3793,7 +3942,7 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:39">
@@ -3803,49 +3952,69 @@
     </row>
     <row r="8" spans="1:39">
       <c r="B8" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:39">
       <c r="C9" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="13" spans="1:39">
-      <c r="A13" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="C12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="C14" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="C16" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="C17" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:39">
-      <c r="A14" t="s">
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
         <v>1</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B20" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="16" spans="1:39">
-      <c r="A16" t="s">
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
-      <c r="B17" t="s">
+    <row r="23" spans="1:3">
+      <c r="B23" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="18" spans="2:2">
-      <c r="B18" t="s">
+    <row r="24" spans="1:3">
+      <c r="B24" t="s">
         <v>111</v>
       </c>
     </row>
@@ -3856,9 +4025,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM17"/>
+  <dimension ref="A1:AM19"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -3912,7 +4081,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -3922,7 +4091,7 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:39">
@@ -3932,44 +4101,54 @@
     </row>
     <row r="8" spans="1:39">
       <c r="B8" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:39">
       <c r="C9" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>112</v>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39">
+      <c r="C11" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="A12" t="s">
+      <c r="C12" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="A14" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:39">
-      <c r="A13" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="15" spans="1:39">
       <c r="A15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:39">
-      <c r="B16" t="s">
+    <row r="18" spans="1:2">
+      <c r="B18" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
-      <c r="B17" t="s">
+    <row r="19" spans="1:2">
+      <c r="B19" t="s">
         <v>111</v>
       </c>
     </row>
@@ -3980,9 +4159,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM22"/>
+  <dimension ref="A1:AM18"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -4036,7 +4215,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -4046,94 +4225,72 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39">
-      <c r="B6" t="s">
-        <v>57</v>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="A7" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:39">
-      <c r="A8" t="s">
-        <v>3</v>
+      <c r="B8" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:39">
-      <c r="B9" t="s">
-        <v>101</v>
+      <c r="C9" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39">
-      <c r="C12" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="C13" s="4" t="s">
-        <v>102</v>
+      <c r="A13" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:39">
-      <c r="C14" s="4"/>
-    </row>
-    <row r="15" spans="1:39">
-      <c r="B15" t="s">
-        <v>108</v>
-      </c>
-      <c r="C15" s="4"/>
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="C16" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>1</v>
-      </c>
-      <c r="B19" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
+      <c r="A16" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
-      <c r="B22" t="s">
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
         <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <hyperlinks>
-    <hyperlink ref="C13" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM19"/>
+  <dimension ref="A1:AM17"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -4187,7 +4344,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -4197,7 +4354,7 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:39">
@@ -4207,55 +4364,45 @@
     </row>
     <row r="8" spans="1:39">
       <c r="B8" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:39">
       <c r="C9" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="11" spans="1:39">
-      <c r="C11" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="C12" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="14" spans="1:39">
-      <c r="A14" t="s">
+      <c r="A12" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="A13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="15" spans="1:39">
       <c r="A15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B15" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
-      <c r="B18" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="B19" t="s">
-        <v>99</v>
+    <row r="16" spans="1:39">
+      <c r="B16" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -4265,9 +4412,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM18"/>
+  <dimension ref="A1:AM22"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -4321,7 +4468,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -4331,76 +4478,96 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39">
-      <c r="A7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39">
+      <c r="B6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="A8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
-      <c r="B8" t="s">
-        <v>91</v>
-      </c>
-    </row>
     <row r="9" spans="1:39">
-      <c r="C9" t="s">
-        <v>90</v>
+      <c r="B9" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" t="s">
-        <v>93</v>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="C12" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="A13" t="s">
+      <c r="C13" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="C14" s="4"/>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="B15" t="s">
+        <v>108</v>
+      </c>
+      <c r="C15" s="4"/>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="C16" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:39">
-      <c r="A14" t="s">
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
         <v>1</v>
       </c>
-      <c r="B14" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="16" spans="1:39">
-      <c r="A16" t="s">
+      <c r="B19" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
-      <c r="B17" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18" t="s">
-        <v>89</v>
+    <row r="22" spans="1:2">
+      <c r="B22" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="C13" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM27"/>
+  <dimension ref="A1:AM19"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="AM35" sqref="AM35"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
   <cols>
@@ -4452,7 +4619,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -4462,95 +4629,194 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39">
-      <c r="B6" t="s">
-        <v>76</v>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="A7" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:39">
-      <c r="A8" t="s">
-        <v>3</v>
+      <c r="B8" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:39">
-      <c r="B9" t="s">
-        <v>75</v>
+      <c r="C9" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>77</v>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39">
+      <c r="C11" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="B12" t="s">
-        <v>76</v>
+      <c r="C12" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="A15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="B18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="B19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AM18"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="1.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:39" s="1" customFormat="1" ht="21">
+      <c r="A1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="2"/>
+    </row>
+    <row r="2" spans="1:39">
+      <c r="A2" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39">
+      <c r="B5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="B8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39">
+      <c r="C9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39">
+      <c r="C10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39">
+      <c r="C11" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="C13" t="s">
-        <v>78</v>
+      <c r="A13" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:39">
-      <c r="C14" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="15" spans="1:39">
-      <c r="C15" t="s">
-        <v>80</v>
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="C16" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="C18" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="C19" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="C20" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
-        <v>1</v>
-      </c>
-      <c r="B23" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
+      <c r="A16" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
-      <c r="B26" t="s">
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
-      <c r="B27" t="s">
-        <v>60</v>
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/日報.xlsx
+++ b/日報.xlsx
@@ -7,29 +7,30 @@
     <workbookView xWindow="-285" yWindow="150" windowWidth="10110" windowHeight="9165"/>
   </bookViews>
   <sheets>
-    <sheet name="11月6日" sheetId="20" r:id="rId1"/>
-    <sheet name="11月5日" sheetId="19" r:id="rId2"/>
-    <sheet name="10月31日" sheetId="18" r:id="rId3"/>
-    <sheet name="10月30日" sheetId="17" r:id="rId4"/>
-    <sheet name="10月29日" sheetId="16" r:id="rId5"/>
-    <sheet name="10月28日" sheetId="15" r:id="rId6"/>
-    <sheet name="10月27日" sheetId="14" r:id="rId7"/>
-    <sheet name="10月26日" sheetId="13" r:id="rId8"/>
-    <sheet name="10月25日" sheetId="12" r:id="rId9"/>
-    <sheet name="10月24日" sheetId="11" r:id="rId10"/>
-    <sheet name="10月23日" sheetId="10" r:id="rId11"/>
-    <sheet name="10月22日" sheetId="9" r:id="rId12"/>
-    <sheet name="10月21日" sheetId="8" r:id="rId13"/>
-    <sheet name="10月20日 " sheetId="7" r:id="rId14"/>
-    <sheet name="10月19日" sheetId="6" r:id="rId15"/>
-    <sheet name="10月18日" sheetId="5" r:id="rId16"/>
+    <sheet name="11月8日" sheetId="21" r:id="rId1"/>
+    <sheet name="11月7日" sheetId="20" r:id="rId2"/>
+    <sheet name="11月5日" sheetId="19" r:id="rId3"/>
+    <sheet name="10月31日" sheetId="18" r:id="rId4"/>
+    <sheet name="10月30日" sheetId="17" r:id="rId5"/>
+    <sheet name="10月29日" sheetId="16" r:id="rId6"/>
+    <sheet name="10月28日" sheetId="15" r:id="rId7"/>
+    <sheet name="10月27日" sheetId="14" r:id="rId8"/>
+    <sheet name="10月26日" sheetId="13" r:id="rId9"/>
+    <sheet name="10月25日" sheetId="12" r:id="rId10"/>
+    <sheet name="10月24日" sheetId="11" r:id="rId11"/>
+    <sheet name="10月23日" sheetId="10" r:id="rId12"/>
+    <sheet name="10月22日" sheetId="9" r:id="rId13"/>
+    <sheet name="10月21日" sheetId="8" r:id="rId14"/>
+    <sheet name="10月20日 " sheetId="7" r:id="rId15"/>
+    <sheet name="10月19日" sheetId="6" r:id="rId16"/>
+    <sheet name="10月18日" sheetId="5" r:id="rId17"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="154">
   <si>
     <t>1.実施したこと</t>
     <rPh sb="2" eb="4">
@@ -1944,10 +1945,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・2013/11/6</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>･FS88のAndyにメールの返信</t>
     <rPh sb="15" eb="17">
       <t>ヘンシン</t>
@@ -2051,6 +2048,77 @@
     <t>と返信した。</t>
     <rPh sb="1" eb="3">
       <t>ヘンシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・2013/11/7</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・2013/11/8</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UMLの捉え方(ソフトウェア的観点と概念的観点)や</t>
+    <rPh sb="4" eb="5">
+      <t>トラ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>カンテン</t>
+    </rPh>
+    <rPh sb="18" eb="21">
+      <t>ガイネンテキ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>カンテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UMLの記法とメタモデルといった定義について本を読んで勉強した。</t>
+    <rPh sb="4" eb="6">
+      <t>キホウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>テイギ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ベンキョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>わからない単語を検索して調べていて、あまり本を読み進められなかったこと。</t>
+    <rPh sb="5" eb="7">
+      <t>タンゴ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>シラ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>スス</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2463,9 +2531,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM24"/>
+  <dimension ref="A1:AM17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
   <cols>
@@ -2517,7 +2587,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -2527,84 +2597,54 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39">
-      <c r="B6" t="s">
-        <v>142</v>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="A7" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:39">
-      <c r="A8" t="s">
-        <v>3</v>
+      <c r="B8" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:39">
-      <c r="B9" t="s">
-        <v>146</v>
+      <c r="C9" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="11" spans="1:39">
-      <c r="C11" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="C12" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="14" spans="1:39">
-      <c r="B14" t="s">
-        <v>142</v>
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="A13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="15" spans="1:39">
-      <c r="C15" t="s">
-        <v>147</v>
+      <c r="A15" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="C16" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="C17" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B20" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="B23" t="s">
+      <c r="B16" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
-      <c r="B24" t="s">
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
         <v>111</v>
       </c>
     </row>
@@ -2617,11 +2657,9 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM27"/>
+  <dimension ref="A1:AM18"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="AM35" sqref="AM35"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
   <cols>
@@ -2673,7 +2711,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -2683,95 +2721,60 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39">
-      <c r="B6" t="s">
-        <v>76</v>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="A7" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:39">
-      <c r="A8" t="s">
-        <v>3</v>
+      <c r="B8" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:39">
-      <c r="B9" t="s">
-        <v>75</v>
+      <c r="C9" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39">
-      <c r="B12" t="s">
-        <v>76</v>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39">
+      <c r="C11" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="C13" t="s">
-        <v>78</v>
+      <c r="A13" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:39">
-      <c r="C14" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="15" spans="1:39">
-      <c r="C15" t="s">
-        <v>80</v>
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="C16" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="C18" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="C19" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="C20" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
-        <v>1</v>
-      </c>
-      <c r="B23" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
+      <c r="A16" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
-      <c r="B26" t="s">
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
-      <c r="B27" t="s">
-        <v>60</v>
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -2783,9 +2786,11 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM23"/>
+  <dimension ref="A1:AM27"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="AM35" sqref="AM35"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
   <cols>
@@ -2837,7 +2842,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -2847,84 +2852,94 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39">
-      <c r="A7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39">
+      <c r="B6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="A8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
-      <c r="B8" t="s">
-        <v>64</v>
-      </c>
-    </row>
     <row r="9" spans="1:39">
-      <c r="C9" t="s">
-        <v>65</v>
+      <c r="B9" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="11" spans="1:39">
-      <c r="D11" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="D12" t="s">
-        <v>67</v>
+      <c r="B12" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="D13" t="s">
-        <v>68</v>
+      <c r="C13" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:39">
-      <c r="D14" t="s">
-        <v>69</v>
+      <c r="C14" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:39">
-      <c r="D15" t="s">
-        <v>70</v>
+      <c r="C15" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="D16" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
+      <c r="C16" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="C18" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="C19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="C20" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
         <v>1</v>
       </c>
-      <c r="B19" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
+      <c r="B23" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
-      <c r="B22" t="s">
+    <row r="26" spans="1:3">
+      <c r="B26" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
-      <c r="B23" t="s">
+    <row r="27" spans="1:3">
+      <c r="B27" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2937,7 +2952,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM24"/>
+  <dimension ref="A1:AM23"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -2991,7 +3006,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -3001,79 +3016,84 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39">
-      <c r="B6" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:39">
-      <c r="B7" t="s">
-        <v>57</v>
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="B8" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:39">
-      <c r="A9" t="s">
-        <v>3</v>
+      <c r="C9" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:39">
-      <c r="B10" t="s">
-        <v>42</v>
+      <c r="C10" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:39">
-      <c r="C11" t="s">
-        <v>58</v>
+      <c r="D11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="D12" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="B13" t="s">
-        <v>56</v>
+      <c r="D13" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:39">
-      <c r="C14" t="s">
-        <v>59</v>
+      <c r="D14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="D15" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="B16" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="C17" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
         <v>1</v>
       </c>
-      <c r="B20" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
+      <c r="B19" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="22" spans="1:2">
+      <c r="B22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
       <c r="B23" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="B24" t="s">
         <v>60</v>
       </c>
     </row>
@@ -3086,7 +3106,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM29"/>
+  <dimension ref="A1:AM24"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -3140,7 +3160,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -3150,17 +3170,17 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:39">
       <c r="B6" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:39">
       <c r="B7" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:39">
@@ -3170,91 +3190,60 @@
     </row>
     <row r="10" spans="1:39">
       <c r="B10" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39">
-      <c r="C12" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="C13" t="s">
-        <v>50</v>
+      <c r="B13" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:39">
       <c r="C14" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" spans="1:39">
-      <c r="C15" s="4"/>
+        <v>59</v>
+      </c>
     </row>
     <row r="16" spans="1:39">
       <c r="B16" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="C17" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="C18" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="C19" t="s">
-        <v>45</v>
+      <c r="A19" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="C20" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="B21" s="4"/>
+      <c r="A20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="B22" t="s">
-        <v>30</v>
+      <c r="A22" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="C23" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" t="s">
-        <v>1</v>
-      </c>
-      <c r="B26" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="B29" t="s">
+      <c r="B23" t="s">
         <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="B24" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -3266,7 +3255,7 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM25"/>
+  <dimension ref="A1:AM29"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -3320,7 +3309,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -3330,101 +3319,117 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:39">
       <c r="B6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="B7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
-      <c r="A8" t="s">
+    <row r="9" spans="1:39">
+      <c r="A9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:39">
-      <c r="B9" t="s">
-        <v>35</v>
-      </c>
-    </row>
     <row r="10" spans="1:39">
-      <c r="C10" t="s">
-        <v>36</v>
+      <c r="B10" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="C12" s="4" t="s">
-        <v>33</v>
+      <c r="C12" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="B13" s="4"/>
+      <c r="C13" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="14" spans="1:39">
-      <c r="B14" s="4"/>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:39">
-      <c r="C15" t="s">
-        <v>40</v>
-      </c>
+      <c r="C15" s="4"/>
     </row>
     <row r="16" spans="1:39">
-      <c r="B16" s="4"/>
+      <c r="B16" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="B17" t="s">
-        <v>30</v>
+      <c r="C17" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="C18" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="C19" t="s">
-        <v>31</v>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="C20" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" t="s">
+      <c r="B21" s="4"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="B22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="C23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
         <v>1</v>
       </c>
-      <c r="B22" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
+      <c r="B26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
-      <c r="B25" t="s">
-        <v>38</v>
+    <row r="29" spans="1:3">
+      <c r="B29" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <hyperlinks>
-    <hyperlink ref="C12" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3432,9 +3437,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AM25"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
   <cols>
@@ -3486,7 +3489,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -3496,12 +3499,12 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:39">
       <c r="B6" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:39">
@@ -3511,22 +3514,22 @@
     </row>
     <row r="9" spans="1:39">
       <c r="B9" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:39">
       <c r="C12" s="4" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:39">
@@ -3535,31 +3538,30 @@
     <row r="14" spans="1:39">
       <c r="B14" s="4"/>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:39">
-      <c r="B15" s="4"/>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
+      <c r="B16" s="4"/>
     </row>
     <row r="17" spans="1:3">
-      <c r="B17" s="4"/>
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="B18" t="s">
-        <v>18</v>
+      <c r="C18" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="C19" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -3572,7 +3574,7 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -3582,7 +3584,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="B25" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -3597,9 +3599,11 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM23"/>
+  <dimension ref="A1:AM25"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
   <cols>
@@ -3651,7 +3655,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -3661,95 +3665,108 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39">
-      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39">
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="A8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-    </row>
     <row r="9" spans="1:39">
-      <c r="C9" t="s">
-        <v>14</v>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39">
+      <c r="C10" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:39">
-      <c r="B11" t="s">
-        <v>15</v>
+      <c r="C11" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="B12" s="4" t="s">
-        <v>10</v>
+      <c r="C12" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:39">
       <c r="B13" s="4"/>
     </row>
     <row r="14" spans="1:39">
-      <c r="B14" t="s">
-        <v>16</v>
+      <c r="B14" s="4"/>
+      <c r="C14" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:39">
-      <c r="B15" s="4" t="s">
-        <v>7</v>
+      <c r="B15" s="4"/>
+      <c r="C15" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="B16" s="4"/>
       <c r="C16" t="s">
-        <v>13</v>
-      </c>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="B17" s="4"/>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>4</v>
+      <c r="B18" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>1</v>
-      </c>
-      <c r="B19" t="s">
-        <v>11</v>
+      <c r="C19" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
-      <c r="B22" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="C23" t="s">
-        <v>9</v>
+    <row r="25" spans="1:3">
+      <c r="B25" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="B15" r:id="rId1"/>
-    <hyperlink ref="B12" r:id="rId2"/>
+    <hyperlink ref="C12" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM18"/>
+  <dimension ref="A1:AM23"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -3803,7 +3820,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>136</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -3813,7 +3830,7 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>111</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:39">
@@ -3823,60 +3840,83 @@
     </row>
     <row r="8" spans="1:39">
       <c r="B8" t="s">
-        <v>111</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:39">
       <c r="C9" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="10" spans="1:39">
-      <c r="C10" t="s">
-        <v>137</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:39">
-      <c r="C11" t="s">
-        <v>139</v>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="B12" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="A13" t="s">
+      <c r="B13" s="4"/>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="B15" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="B16" s="4"/>
+      <c r="C16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:39">
-      <c r="A14" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>1</v>
       </c>
-      <c r="B14" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="16" spans="1:39">
-      <c r="A16" t="s">
+      <c r="B19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
-      <c r="B17" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18" t="s">
-        <v>111</v>
+    <row r="22" spans="1:3">
+      <c r="B22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="C23" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="B15" r:id="rId1"/>
+    <hyperlink ref="B12" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AM24"/>
   <sheetViews>
@@ -3932,7 +3972,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>127</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -3942,52 +3982,57 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39">
-      <c r="A7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39">
+      <c r="B6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="A8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
-      <c r="B8" t="s">
-        <v>128</v>
-      </c>
-    </row>
     <row r="9" spans="1:39">
-      <c r="C9" t="s">
-        <v>129</v>
+      <c r="B9" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12" spans="1:39">
       <c r="C12" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14" spans="1:39">
-      <c r="C14" t="s">
-        <v>133</v>
+      <c r="B14" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="C15" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="16" spans="1:39">
       <c r="C16" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="C17" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -4025,9 +4070,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM19"/>
+  <dimension ref="A1:AM18"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -4081,7 +4126,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -4091,7 +4136,7 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:39">
@@ -4101,54 +4146,49 @@
     </row>
     <row r="8" spans="1:39">
       <c r="B8" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:39">
       <c r="C9" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39">
-      <c r="C12" t="s">
-        <v>124</v>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="A13" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:39">
       <c r="A14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:39">
-      <c r="A15" t="s">
         <v>1</v>
       </c>
-      <c r="B15" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
+      <c r="B14" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="A16" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="B19" t="s">
         <v>111</v>
       </c>
     </row>
@@ -4159,9 +4199,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM18"/>
+  <dimension ref="A1:AM24"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -4215,7 +4255,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -4225,7 +4265,7 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:39">
@@ -4235,49 +4275,69 @@
     </row>
     <row r="8" spans="1:39">
       <c r="B8" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:39">
       <c r="C9" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="13" spans="1:39">
-      <c r="A13" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="C12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="C14" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="C16" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="C17" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:39">
-      <c r="A14" t="s">
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
         <v>1</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B20" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="16" spans="1:39">
-      <c r="A16" t="s">
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
-      <c r="B17" t="s">
+    <row r="23" spans="1:3">
+      <c r="B23" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="18" spans="2:2">
-      <c r="B18" t="s">
+    <row r="24" spans="1:3">
+      <c r="B24" t="s">
         <v>111</v>
       </c>
     </row>
@@ -4288,9 +4348,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM17"/>
+  <dimension ref="A1:AM19"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -4344,7 +4404,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -4354,7 +4414,7 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:39">
@@ -4364,44 +4424,54 @@
     </row>
     <row r="8" spans="1:39">
       <c r="B8" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:39">
       <c r="C9" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>112</v>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39">
+      <c r="C11" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="A12" t="s">
+      <c r="C12" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="A14" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:39">
-      <c r="A13" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="15" spans="1:39">
       <c r="A15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:39">
-      <c r="B16" t="s">
+    <row r="18" spans="1:2">
+      <c r="B18" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
-      <c r="B17" t="s">
+    <row r="19" spans="1:2">
+      <c r="B19" t="s">
         <v>111</v>
       </c>
     </row>
@@ -4412,9 +4482,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM22"/>
+  <dimension ref="A1:AM18"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -4468,7 +4538,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -4478,94 +4548,72 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39">
-      <c r="B6" t="s">
-        <v>57</v>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="A7" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:39">
-      <c r="A8" t="s">
-        <v>3</v>
+      <c r="B8" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:39">
-      <c r="B9" t="s">
-        <v>101</v>
+      <c r="C9" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39">
-      <c r="C12" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="C13" s="4" t="s">
-        <v>102</v>
+      <c r="A13" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:39">
-      <c r="C14" s="4"/>
-    </row>
-    <row r="15" spans="1:39">
-      <c r="B15" t="s">
-        <v>108</v>
-      </c>
-      <c r="C15" s="4"/>
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="C16" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>1</v>
-      </c>
-      <c r="B19" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
+      <c r="A16" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
-      <c r="B22" t="s">
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
         <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <hyperlinks>
-    <hyperlink ref="C13" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM19"/>
+  <dimension ref="A1:AM17"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -4619,7 +4667,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -4629,7 +4677,7 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:39">
@@ -4639,55 +4687,45 @@
     </row>
     <row r="8" spans="1:39">
       <c r="B8" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:39">
       <c r="C9" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="11" spans="1:39">
-      <c r="C11" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="C12" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="14" spans="1:39">
-      <c r="A14" t="s">
+      <c r="A12" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="A13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="15" spans="1:39">
       <c r="A15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B15" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
-      <c r="B18" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="B19" t="s">
-        <v>99</v>
+    <row r="16" spans="1:39">
+      <c r="B16" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -4697,9 +4735,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM18"/>
+  <dimension ref="A1:AM22"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -4753,7 +4791,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -4763,6 +4801,157 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39">
+      <c r="B6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39">
+      <c r="B9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39">
+      <c r="C10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39">
+      <c r="C11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="C12" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="C13" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="C14" s="4"/>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="B15" t="s">
+        <v>108</v>
+      </c>
+      <c r="C15" s="4"/>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="C16" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="B22" t="s">
+        <v>103</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="C13" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AM19"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="1.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:39" s="1" customFormat="1" ht="21">
+      <c r="A1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="2"/>
+    </row>
+    <row r="2" spans="1:39">
+      <c r="A2" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39">
+      <c r="B5" t="s">
         <v>87</v>
       </c>
     </row>
@@ -4773,50 +4962,55 @@
     </row>
     <row r="8" spans="1:39">
       <c r="B8" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:39">
       <c r="C9" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="13" spans="1:39">
-      <c r="A13" t="s">
-        <v>4</v>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="C12" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:39">
       <c r="A14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="A15" t="s">
         <v>1</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="16" spans="1:39">
-      <c r="A16" t="s">
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
-      <c r="B17" t="s">
+    <row r="18" spans="1:2">
+      <c r="B18" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="2:2">
-      <c r="B18" t="s">
-        <v>89</v>
+    <row r="19" spans="1:2">
+      <c r="B19" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/日報.xlsx
+++ b/日報.xlsx
@@ -7,30 +7,31 @@
     <workbookView xWindow="-285" yWindow="150" windowWidth="10110" windowHeight="9165"/>
   </bookViews>
   <sheets>
-    <sheet name="11月8日" sheetId="21" r:id="rId1"/>
-    <sheet name="11月7日" sheetId="20" r:id="rId2"/>
-    <sheet name="11月5日" sheetId="19" r:id="rId3"/>
-    <sheet name="10月31日" sheetId="18" r:id="rId4"/>
-    <sheet name="10月30日" sheetId="17" r:id="rId5"/>
-    <sheet name="10月29日" sheetId="16" r:id="rId6"/>
-    <sheet name="10月28日" sheetId="15" r:id="rId7"/>
-    <sheet name="10月27日" sheetId="14" r:id="rId8"/>
-    <sheet name="10月26日" sheetId="13" r:id="rId9"/>
-    <sheet name="10月25日" sheetId="12" r:id="rId10"/>
-    <sheet name="10月24日" sheetId="11" r:id="rId11"/>
-    <sheet name="10月23日" sheetId="10" r:id="rId12"/>
-    <sheet name="10月22日" sheetId="9" r:id="rId13"/>
-    <sheet name="10月21日" sheetId="8" r:id="rId14"/>
-    <sheet name="10月20日 " sheetId="7" r:id="rId15"/>
-    <sheet name="10月19日" sheetId="6" r:id="rId16"/>
-    <sheet name="10月18日" sheetId="5" r:id="rId17"/>
+    <sheet name="11月9日" sheetId="22" r:id="rId1"/>
+    <sheet name="11月8日" sheetId="21" r:id="rId2"/>
+    <sheet name="11月7日" sheetId="20" r:id="rId3"/>
+    <sheet name="11月5日" sheetId="19" r:id="rId4"/>
+    <sheet name="10月31日" sheetId="18" r:id="rId5"/>
+    <sheet name="10月30日" sheetId="17" r:id="rId6"/>
+    <sheet name="10月29日" sheetId="16" r:id="rId7"/>
+    <sheet name="10月28日" sheetId="15" r:id="rId8"/>
+    <sheet name="10月27日" sheetId="14" r:id="rId9"/>
+    <sheet name="10月26日" sheetId="13" r:id="rId10"/>
+    <sheet name="10月25日" sheetId="12" r:id="rId11"/>
+    <sheet name="10月24日" sheetId="11" r:id="rId12"/>
+    <sheet name="10月23日" sheetId="10" r:id="rId13"/>
+    <sheet name="10月22日" sheetId="9" r:id="rId14"/>
+    <sheet name="10月21日" sheetId="8" r:id="rId15"/>
+    <sheet name="10月20日 " sheetId="7" r:id="rId16"/>
+    <sheet name="10月19日" sheetId="6" r:id="rId17"/>
+    <sheet name="10月18日" sheetId="5" r:id="rId18"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="158">
   <si>
     <t>1.実施したこと</t>
     <rPh sb="2" eb="4">
@@ -2119,6 +2120,73 @@
     </rPh>
     <rPh sb="25" eb="26">
       <t>スス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・2013/11/9</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>機能や説明の追加</t>
+    <rPh sb="0" eb="2">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大分類、中分類、小分類の内容を書き直しました。</t>
+    <rPh sb="0" eb="3">
+      <t>ダイブンルイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ブンルイ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>ショウブンルイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ナオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>また、アプリの動作について再度考え、機能一覧へ説明の追加をしていきます。</t>
+    <rPh sb="7" eb="9">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>サイド</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>カンガ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ツイカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2531,11 +2599,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM17"/>
+  <dimension ref="A1:AM18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
   <cols>
@@ -2587,7 +2653,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -2597,7 +2663,7 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:39">
@@ -2607,17 +2673,17 @@
     </row>
     <row r="8" spans="1:39">
       <c r="B8" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:39">
       <c r="C9" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:39">
@@ -2630,7 +2696,7 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>153</v>
+        <v>117</v>
       </c>
     </row>
     <row r="15" spans="1:39">
@@ -2643,9 +2709,14 @@
         <v>103</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
+    <row r="17" spans="2:3">
       <c r="B17" t="s">
         <v>111</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3">
+      <c r="C18" t="s">
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -2657,7 +2728,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM18"/>
+  <dimension ref="A1:AM19"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -2711,7 +2782,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -2731,50 +2802,55 @@
     </row>
     <row r="8" spans="1:39">
       <c r="B8" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:39">
       <c r="C9" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="13" spans="1:39">
-      <c r="A13" t="s">
-        <v>4</v>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="C12" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:39">
       <c r="A14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="A15" t="s">
         <v>1</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="16" spans="1:39">
-      <c r="A16" t="s">
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
-      <c r="B17" t="s">
+    <row r="18" spans="1:2">
+      <c r="B18" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="2:2">
-      <c r="B18" t="s">
-        <v>89</v>
+    <row r="19" spans="1:2">
+      <c r="B19" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -2786,11 +2862,9 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM27"/>
+  <dimension ref="A1:AM18"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="AM35" sqref="AM35"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
   <cols>
@@ -2842,7 +2916,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -2852,95 +2926,60 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39">
-      <c r="B6" t="s">
-        <v>76</v>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="A7" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:39">
-      <c r="A8" t="s">
-        <v>3</v>
+      <c r="B8" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:39">
-      <c r="B9" t="s">
-        <v>75</v>
+      <c r="C9" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39">
-      <c r="B12" t="s">
-        <v>76</v>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39">
+      <c r="C11" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="C13" t="s">
-        <v>78</v>
+      <c r="A13" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:39">
-      <c r="C14" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="15" spans="1:39">
-      <c r="C15" t="s">
-        <v>80</v>
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="C16" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="C18" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="C19" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="C20" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
-        <v>1</v>
-      </c>
-      <c r="B23" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
+      <c r="A16" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
-      <c r="B26" t="s">
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
-      <c r="B27" t="s">
-        <v>60</v>
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -2952,9 +2991,11 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM23"/>
+  <dimension ref="A1:AM27"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="AM35" sqref="AM35"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
   <cols>
@@ -3006,7 +3047,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -3016,84 +3057,94 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39">
-      <c r="A7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39">
+      <c r="B6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="A8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
-      <c r="B8" t="s">
-        <v>64</v>
-      </c>
-    </row>
     <row r="9" spans="1:39">
-      <c r="C9" t="s">
-        <v>65</v>
+      <c r="B9" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="11" spans="1:39">
-      <c r="D11" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="D12" t="s">
-        <v>67</v>
+      <c r="B12" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="D13" t="s">
-        <v>68</v>
+      <c r="C13" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:39">
-      <c r="D14" t="s">
-        <v>69</v>
+      <c r="C14" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:39">
-      <c r="D15" t="s">
-        <v>70</v>
+      <c r="C15" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="D16" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
+      <c r="C16" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="C18" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="C19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="C20" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
         <v>1</v>
       </c>
-      <c r="B19" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
+      <c r="B23" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
-      <c r="B22" t="s">
+    <row r="26" spans="1:3">
+      <c r="B26" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
-      <c r="B23" t="s">
+    <row r="27" spans="1:3">
+      <c r="B27" t="s">
         <v>60</v>
       </c>
     </row>
@@ -3106,7 +3157,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM24"/>
+  <dimension ref="A1:AM23"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -3160,7 +3211,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -3170,79 +3221,84 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39">
-      <c r="B6" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:39">
-      <c r="B7" t="s">
-        <v>57</v>
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="B8" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:39">
-      <c r="A9" t="s">
-        <v>3</v>
+      <c r="C9" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:39">
-      <c r="B10" t="s">
-        <v>42</v>
+      <c r="C10" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:39">
-      <c r="C11" t="s">
-        <v>58</v>
+      <c r="D11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="D12" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="B13" t="s">
-        <v>56</v>
+      <c r="D13" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:39">
-      <c r="C14" t="s">
-        <v>59</v>
+      <c r="D14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="D15" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="B16" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="C17" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
         <v>1</v>
       </c>
-      <c r="B20" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
+      <c r="B19" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="22" spans="1:2">
+      <c r="B22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
       <c r="B23" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="B24" t="s">
         <v>60</v>
       </c>
     </row>
@@ -3255,7 +3311,7 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM29"/>
+  <dimension ref="A1:AM24"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -3309,7 +3365,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -3319,17 +3375,17 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:39">
       <c r="B6" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:39">
       <c r="B7" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:39">
@@ -3339,91 +3395,60 @@
     </row>
     <row r="10" spans="1:39">
       <c r="B10" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39">
-      <c r="C12" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="C13" t="s">
-        <v>50</v>
+      <c r="B13" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:39">
       <c r="C14" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" spans="1:39">
-      <c r="C15" s="4"/>
+        <v>59</v>
+      </c>
     </row>
     <row r="16" spans="1:39">
       <c r="B16" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="C17" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="C18" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="C19" t="s">
-        <v>45</v>
+      <c r="A19" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="C20" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="B21" s="4"/>
+      <c r="A20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="B22" t="s">
-        <v>30</v>
+      <c r="A22" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="C23" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" t="s">
-        <v>1</v>
-      </c>
-      <c r="B26" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="B29" t="s">
+      <c r="B23" t="s">
         <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="B24" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -3435,7 +3460,7 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM25"/>
+  <dimension ref="A1:AM29"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -3489,7 +3514,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -3499,101 +3524,117 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:39">
       <c r="B6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="B7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
-      <c r="A8" t="s">
+    <row r="9" spans="1:39">
+      <c r="A9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:39">
-      <c r="B9" t="s">
-        <v>35</v>
-      </c>
-    </row>
     <row r="10" spans="1:39">
-      <c r="C10" t="s">
-        <v>36</v>
+      <c r="B10" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="C12" s="4" t="s">
-        <v>33</v>
+      <c r="C12" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="B13" s="4"/>
+      <c r="C13" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="14" spans="1:39">
-      <c r="B14" s="4"/>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:39">
-      <c r="C15" t="s">
-        <v>40</v>
-      </c>
+      <c r="C15" s="4"/>
     </row>
     <row r="16" spans="1:39">
-      <c r="B16" s="4"/>
+      <c r="B16" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="B17" t="s">
-        <v>30</v>
+      <c r="C17" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="C18" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="C19" t="s">
-        <v>31</v>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="C20" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" t="s">
+      <c r="B21" s="4"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="B22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="C23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
         <v>1</v>
       </c>
-      <c r="B22" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
+      <c r="B26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
-      <c r="B25" t="s">
-        <v>38</v>
+    <row r="29" spans="1:3">
+      <c r="B29" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <hyperlinks>
-    <hyperlink ref="C12" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3601,9 +3642,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AM25"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
   <cols>
@@ -3655,7 +3694,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -3665,12 +3704,12 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:39">
       <c r="B6" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:39">
@@ -3680,22 +3719,22 @@
     </row>
     <row r="9" spans="1:39">
       <c r="B9" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:39">
       <c r="C12" s="4" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:39">
@@ -3704,31 +3743,30 @@
     <row r="14" spans="1:39">
       <c r="B14" s="4"/>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:39">
-      <c r="B15" s="4"/>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
+      <c r="B16" s="4"/>
     </row>
     <row r="17" spans="1:3">
-      <c r="B17" s="4"/>
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="B18" t="s">
-        <v>18</v>
+      <c r="C18" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="C19" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -3741,7 +3779,7 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -3751,7 +3789,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="B25" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -3766,9 +3804,11 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM23"/>
+  <dimension ref="A1:AM25"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
   <cols>
@@ -3820,7 +3860,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -3830,95 +3870,108 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39">
-      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39">
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="A8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-    </row>
     <row r="9" spans="1:39">
-      <c r="C9" t="s">
-        <v>14</v>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39">
+      <c r="C10" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:39">
-      <c r="B11" t="s">
-        <v>15</v>
+      <c r="C11" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="B12" s="4" t="s">
-        <v>10</v>
+      <c r="C12" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:39">
       <c r="B13" s="4"/>
     </row>
     <row r="14" spans="1:39">
-      <c r="B14" t="s">
-        <v>16</v>
+      <c r="B14" s="4"/>
+      <c r="C14" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:39">
-      <c r="B15" s="4" t="s">
-        <v>7</v>
+      <c r="B15" s="4"/>
+      <c r="C15" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="B16" s="4"/>
       <c r="C16" t="s">
-        <v>13</v>
-      </c>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="B17" s="4"/>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>4</v>
+      <c r="B18" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>1</v>
-      </c>
-      <c r="B19" t="s">
-        <v>11</v>
+      <c r="C19" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
-      <c r="B22" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="C23" t="s">
-        <v>9</v>
+    <row r="25" spans="1:3">
+      <c r="B25" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="B15" r:id="rId1"/>
-    <hyperlink ref="B12" r:id="rId2"/>
+    <hyperlink ref="C12" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM24"/>
+  <dimension ref="A1:AM23"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -3972,7 +4025,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>149</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -3982,99 +4035,99 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39">
-      <c r="B6" t="s">
-        <v>141</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="A7" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:39">
-      <c r="A8" t="s">
-        <v>3</v>
+      <c r="B8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:39">
-      <c r="B9" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="10" spans="1:39">
-      <c r="C10" t="s">
-        <v>142</v>
+      <c r="C9" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:39">
-      <c r="C11" t="s">
-        <v>143</v>
+      <c r="B11" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="C12" t="s">
-        <v>144</v>
-      </c>
+      <c r="B12" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="B13" s="4"/>
     </row>
     <row r="14" spans="1:39">
       <c r="B14" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:39">
-      <c r="C15" t="s">
-        <v>146</v>
+      <c r="B15" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:39">
+      <c r="B16" s="4"/>
       <c r="C16" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="C17" t="s">
-        <v>148</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
         <v>1</v>
       </c>
-      <c r="B20" t="s">
-        <v>117</v>
+      <c r="B19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>2</v>
+      <c r="B22" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="B23" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="B24" t="s">
-        <v>111</v>
+      <c r="C23" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="B15" r:id="rId1"/>
+    <hyperlink ref="B12" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM18"/>
+  <dimension ref="A1:AM17"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:L9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
   <cols>
@@ -4126,7 +4179,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -4136,7 +4189,7 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:39">
@@ -4146,49 +4199,44 @@
     </row>
     <row r="8" spans="1:39">
       <c r="B8" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:39">
       <c r="C9" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="11" spans="1:39">
-      <c r="C11" t="s">
-        <v>139</v>
+        <v>152</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="A12" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:39">
       <c r="A13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:39">
-      <c r="A14" t="s">
         <v>1</v>
       </c>
-      <c r="B14" t="s">
-        <v>140</v>
+      <c r="B13" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="A15" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="A16" t="s">
-        <v>2</v>
+      <c r="B16" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18" t="s">
         <v>111</v>
       </c>
     </row>
@@ -4199,7 +4247,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AM24"/>
   <sheetViews>
@@ -4255,7 +4303,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>127</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -4265,52 +4313,57 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39">
-      <c r="A7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39">
+      <c r="B6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="A8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
-      <c r="B8" t="s">
-        <v>128</v>
-      </c>
-    </row>
     <row r="9" spans="1:39">
-      <c r="C9" t="s">
-        <v>129</v>
+      <c r="B9" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12" spans="1:39">
       <c r="C12" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14" spans="1:39">
-      <c r="C14" t="s">
-        <v>133</v>
+      <c r="B14" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="C15" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="16" spans="1:39">
       <c r="C16" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="C17" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -4348,9 +4401,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM19"/>
+  <dimension ref="A1:AM18"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -4404,7 +4457,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -4414,7 +4467,7 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:39">
@@ -4424,54 +4477,49 @@
     </row>
     <row r="8" spans="1:39">
       <c r="B8" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:39">
       <c r="C9" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39">
-      <c r="C12" t="s">
-        <v>124</v>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="A13" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:39">
       <c r="A14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:39">
-      <c r="A15" t="s">
         <v>1</v>
       </c>
-      <c r="B15" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
+      <c r="B14" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="A16" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="B19" t="s">
         <v>111</v>
       </c>
     </row>
@@ -4482,9 +4530,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM18"/>
+  <dimension ref="A1:AM24"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -4538,7 +4586,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -4548,7 +4596,7 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:39">
@@ -4558,49 +4606,69 @@
     </row>
     <row r="8" spans="1:39">
       <c r="B8" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:39">
       <c r="C9" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="13" spans="1:39">
-      <c r="A13" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="C12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="C14" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="C16" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="C17" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:39">
-      <c r="A14" t="s">
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
         <v>1</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B20" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="16" spans="1:39">
-      <c r="A16" t="s">
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
-      <c r="B17" t="s">
+    <row r="23" spans="1:3">
+      <c r="B23" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="18" spans="2:2">
-      <c r="B18" t="s">
+    <row r="24" spans="1:3">
+      <c r="B24" t="s">
         <v>111</v>
       </c>
     </row>
@@ -4611,9 +4679,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM17"/>
+  <dimension ref="A1:AM19"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -4667,7 +4735,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -4677,7 +4745,7 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:39">
@@ -4687,44 +4755,54 @@
     </row>
     <row r="8" spans="1:39">
       <c r="B8" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:39">
       <c r="C9" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>112</v>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39">
+      <c r="C11" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="A12" t="s">
+      <c r="C12" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="A14" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:39">
-      <c r="A13" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="15" spans="1:39">
       <c r="A15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:39">
-      <c r="B16" t="s">
+    <row r="18" spans="1:2">
+      <c r="B18" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
-      <c r="B17" t="s">
+    <row r="19" spans="1:2">
+      <c r="B19" t="s">
         <v>111</v>
       </c>
     </row>
@@ -4735,9 +4813,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM22"/>
+  <dimension ref="A1:AM18"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -4791,7 +4869,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -4801,94 +4879,72 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39">
-      <c r="B6" t="s">
-        <v>57</v>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="A7" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:39">
-      <c r="A8" t="s">
-        <v>3</v>
+      <c r="B8" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:39">
-      <c r="B9" t="s">
-        <v>101</v>
+      <c r="C9" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39">
-      <c r="C12" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="C13" s="4" t="s">
-        <v>102</v>
+      <c r="A13" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:39">
-      <c r="C14" s="4"/>
-    </row>
-    <row r="15" spans="1:39">
-      <c r="B15" t="s">
-        <v>108</v>
-      </c>
-      <c r="C15" s="4"/>
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="C16" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>1</v>
-      </c>
-      <c r="B19" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
+      <c r="A16" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
-      <c r="B22" t="s">
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
         <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <hyperlinks>
-    <hyperlink ref="C13" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM19"/>
+  <dimension ref="A1:AM17"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -4942,7 +4998,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -4952,7 +5008,7 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:39">
@@ -4962,55 +5018,45 @@
     </row>
     <row r="8" spans="1:39">
       <c r="B8" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:39">
       <c r="C9" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="11" spans="1:39">
-      <c r="C11" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="C12" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="14" spans="1:39">
-      <c r="A14" t="s">
+      <c r="A12" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="A13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="15" spans="1:39">
       <c r="A15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B15" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
-      <c r="B18" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="B19" t="s">
-        <v>99</v>
+    <row r="16" spans="1:39">
+      <c r="B16" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -5018,4 +5064,155 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AM22"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="1.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:39" s="1" customFormat="1" ht="21">
+      <c r="A1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="2"/>
+    </row>
+    <row r="2" spans="1:39">
+      <c r="A2" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39">
+      <c r="B5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39">
+      <c r="B6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39">
+      <c r="B9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39">
+      <c r="C10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39">
+      <c r="C11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="C12" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="C13" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="C14" s="4"/>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="B15" t="s">
+        <v>108</v>
+      </c>
+      <c r="C15" s="4"/>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="C16" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="B22" t="s">
+        <v>103</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="C13" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
 </file>
--- a/日報.xlsx
+++ b/日報.xlsx
@@ -7,31 +7,32 @@
     <workbookView xWindow="-285" yWindow="150" windowWidth="10110" windowHeight="9165"/>
   </bookViews>
   <sheets>
-    <sheet name="11月9日" sheetId="22" r:id="rId1"/>
-    <sheet name="11月8日" sheetId="21" r:id="rId2"/>
-    <sheet name="11月7日" sheetId="20" r:id="rId3"/>
-    <sheet name="11月5日" sheetId="19" r:id="rId4"/>
-    <sheet name="10月31日" sheetId="18" r:id="rId5"/>
-    <sheet name="10月30日" sheetId="17" r:id="rId6"/>
-    <sheet name="10月29日" sheetId="16" r:id="rId7"/>
-    <sheet name="10月28日" sheetId="15" r:id="rId8"/>
-    <sheet name="10月27日" sheetId="14" r:id="rId9"/>
-    <sheet name="10月26日" sheetId="13" r:id="rId10"/>
-    <sheet name="10月25日" sheetId="12" r:id="rId11"/>
-    <sheet name="10月24日" sheetId="11" r:id="rId12"/>
-    <sheet name="10月23日" sheetId="10" r:id="rId13"/>
-    <sheet name="10月22日" sheetId="9" r:id="rId14"/>
-    <sheet name="10月21日" sheetId="8" r:id="rId15"/>
-    <sheet name="10月20日 " sheetId="7" r:id="rId16"/>
-    <sheet name="10月19日" sheetId="6" r:id="rId17"/>
-    <sheet name="10月18日" sheetId="5" r:id="rId18"/>
+    <sheet name="11月10日" sheetId="24" r:id="rId1"/>
+    <sheet name="11月9日" sheetId="22" r:id="rId2"/>
+    <sheet name="11月8日" sheetId="21" r:id="rId3"/>
+    <sheet name="11月7日" sheetId="20" r:id="rId4"/>
+    <sheet name="11月5日" sheetId="19" r:id="rId5"/>
+    <sheet name="10月31日" sheetId="18" r:id="rId6"/>
+    <sheet name="10月30日" sheetId="17" r:id="rId7"/>
+    <sheet name="10月29日" sheetId="16" r:id="rId8"/>
+    <sheet name="10月28日" sheetId="15" r:id="rId9"/>
+    <sheet name="10月27日" sheetId="14" r:id="rId10"/>
+    <sheet name="10月26日" sheetId="13" r:id="rId11"/>
+    <sheet name="10月25日" sheetId="12" r:id="rId12"/>
+    <sheet name="10月24日" sheetId="11" r:id="rId13"/>
+    <sheet name="10月23日" sheetId="10" r:id="rId14"/>
+    <sheet name="10月22日" sheetId="9" r:id="rId15"/>
+    <sheet name="10月21日" sheetId="8" r:id="rId16"/>
+    <sheet name="10月20日 " sheetId="7" r:id="rId17"/>
+    <sheet name="10月19日" sheetId="6" r:id="rId18"/>
+    <sheet name="10月18日" sheetId="5" r:id="rId19"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="161">
   <si>
     <t>1.実施したこと</t>
     <rPh sb="2" eb="4">
@@ -2187,6 +2188,75 @@
     </rPh>
     <rPh sb="26" eb="28">
       <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>本を読んでクラス図の勉強を行った。</t>
+    <rPh sb="0" eb="1">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ベンキョウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>機能一覧表に機能や説明の追加を行った。</t>
+    <rPh sb="0" eb="2">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作成した機能一覧表をより良くできるか検討を行うこと。</t>
+    <rPh sb="0" eb="2">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ケントウ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>オコナ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2599,7 +2669,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM18"/>
+  <dimension ref="A1:AM19"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2666,57 +2736,57 @@
         <v>111</v>
       </c>
     </row>
-    <row r="7" spans="1:39">
-      <c r="A7" t="s">
+    <row r="6" spans="1:39">
+      <c r="B6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="A8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
-      <c r="B8" t="s">
+    <row r="9" spans="1:39">
+      <c r="B9" t="s">
         <v>111</v>
-      </c>
-    </row>
-    <row r="9" spans="1:39">
-      <c r="C9" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="A12" t="s">
-        <v>4</v>
+      <c r="B12" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="A13" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13" t="s">
-        <v>117</v>
+      <c r="C13" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:39">
       <c r="A15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="A16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:39">
-      <c r="B16" t="s">
+    <row r="19" spans="1:2">
+      <c r="B19" t="s">
         <v>103</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3">
-      <c r="B17" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3">
-      <c r="C18" t="s">
-        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -2728,7 +2798,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM19"/>
+  <dimension ref="A1:AM22"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -2782,7 +2852,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -2792,77 +2862,94 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39">
-      <c r="A7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39">
+      <c r="B6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="A8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
-      <c r="B8" t="s">
-        <v>87</v>
-      </c>
-    </row>
     <row r="9" spans="1:39">
-      <c r="C9" t="s">
-        <v>97</v>
+      <c r="B9" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:39">
       <c r="C12" t="s">
-        <v>98</v>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="C13" s="4" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:39">
-      <c r="A14" t="s">
+      <c r="C14" s="4"/>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="B15" t="s">
+        <v>108</v>
+      </c>
+      <c r="C15" s="4"/>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="C16" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:39">
-      <c r="A15" t="s">
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
         <v>1</v>
       </c>
-      <c r="B15" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
+      <c r="B19" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
-      <c r="B18" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="B19" t="s">
-        <v>99</v>
+    <row r="22" spans="1:2">
+      <c r="B22" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="C13" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM18"/>
+  <dimension ref="A1:AM19"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -2916,7 +3003,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -2936,50 +3023,55 @@
     </row>
     <row r="8" spans="1:39">
       <c r="B8" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:39">
       <c r="C9" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="13" spans="1:39">
-      <c r="A13" t="s">
-        <v>4</v>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="C12" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:39">
       <c r="A14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="A15" t="s">
         <v>1</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="16" spans="1:39">
-      <c r="A16" t="s">
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
-      <c r="B17" t="s">
+    <row r="18" spans="1:2">
+      <c r="B18" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="2:2">
-      <c r="B18" t="s">
-        <v>89</v>
+    <row r="19" spans="1:2">
+      <c r="B19" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -2991,11 +3083,9 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM27"/>
+  <dimension ref="A1:AM18"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="AM35" sqref="AM35"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
   <cols>
@@ -3047,7 +3137,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -3057,95 +3147,60 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39">
-      <c r="B6" t="s">
-        <v>76</v>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="A7" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:39">
-      <c r="A8" t="s">
-        <v>3</v>
+      <c r="B8" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:39">
-      <c r="B9" t="s">
-        <v>75</v>
+      <c r="C9" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39">
-      <c r="B12" t="s">
-        <v>76</v>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39">
+      <c r="C11" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="C13" t="s">
-        <v>78</v>
+      <c r="A13" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:39">
-      <c r="C14" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="15" spans="1:39">
-      <c r="C15" t="s">
-        <v>80</v>
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="C16" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="C18" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="C19" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="C20" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
-        <v>1</v>
-      </c>
-      <c r="B23" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
+      <c r="A16" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
-      <c r="B26" t="s">
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
-      <c r="B27" t="s">
-        <v>60</v>
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -3157,9 +3212,11 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM23"/>
+  <dimension ref="A1:AM27"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="AM35" sqref="AM35"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
   <cols>
@@ -3211,7 +3268,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -3221,84 +3278,94 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39">
-      <c r="A7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39">
+      <c r="B6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="A8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
-      <c r="B8" t="s">
-        <v>64</v>
-      </c>
-    </row>
     <row r="9" spans="1:39">
-      <c r="C9" t="s">
-        <v>65</v>
+      <c r="B9" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="11" spans="1:39">
-      <c r="D11" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="D12" t="s">
-        <v>67</v>
+      <c r="B12" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="D13" t="s">
-        <v>68</v>
+      <c r="C13" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:39">
-      <c r="D14" t="s">
-        <v>69</v>
+      <c r="C14" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:39">
-      <c r="D15" t="s">
-        <v>70</v>
+      <c r="C15" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="D16" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
+      <c r="C16" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="C18" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="C19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="C20" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
         <v>1</v>
       </c>
-      <c r="B19" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
+      <c r="B23" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
-      <c r="B22" t="s">
+    <row r="26" spans="1:3">
+      <c r="B26" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
-      <c r="B23" t="s">
+    <row r="27" spans="1:3">
+      <c r="B27" t="s">
         <v>60</v>
       </c>
     </row>
@@ -3311,7 +3378,7 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM24"/>
+  <dimension ref="A1:AM23"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -3365,7 +3432,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -3375,79 +3442,84 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39">
-      <c r="B6" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:39">
-      <c r="B7" t="s">
-        <v>57</v>
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="B8" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:39">
-      <c r="A9" t="s">
-        <v>3</v>
+      <c r="C9" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:39">
-      <c r="B10" t="s">
-        <v>42</v>
+      <c r="C10" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:39">
-      <c r="C11" t="s">
-        <v>58</v>
+      <c r="D11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="D12" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="B13" t="s">
-        <v>56</v>
+      <c r="D13" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:39">
-      <c r="C14" t="s">
-        <v>59</v>
+      <c r="D14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="D15" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="B16" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="C17" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
         <v>1</v>
       </c>
-      <c r="B20" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
+      <c r="B19" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="22" spans="1:2">
+      <c r="B22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
       <c r="B23" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="B24" t="s">
         <v>60</v>
       </c>
     </row>
@@ -3460,7 +3532,7 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM29"/>
+  <dimension ref="A1:AM24"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -3514,7 +3586,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -3524,17 +3596,17 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:39">
       <c r="B6" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:39">
       <c r="B7" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:39">
@@ -3544,91 +3616,60 @@
     </row>
     <row r="10" spans="1:39">
       <c r="B10" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39">
-      <c r="C12" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="C13" t="s">
-        <v>50</v>
+      <c r="B13" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:39">
       <c r="C14" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" spans="1:39">
-      <c r="C15" s="4"/>
+        <v>59</v>
+      </c>
     </row>
     <row r="16" spans="1:39">
       <c r="B16" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="C17" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="C18" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="C19" t="s">
-        <v>45</v>
+      <c r="A19" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="C20" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="B21" s="4"/>
+      <c r="A20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="B22" t="s">
-        <v>30</v>
+      <c r="A22" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="C23" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" t="s">
-        <v>1</v>
-      </c>
-      <c r="B26" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="B29" t="s">
+      <c r="B23" t="s">
         <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="B24" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -3640,7 +3681,7 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM25"/>
+  <dimension ref="A1:AM29"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -3694,7 +3735,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -3704,101 +3745,117 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:39">
       <c r="B6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="B7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
-      <c r="A8" t="s">
+    <row r="9" spans="1:39">
+      <c r="A9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:39">
-      <c r="B9" t="s">
-        <v>35</v>
-      </c>
-    </row>
     <row r="10" spans="1:39">
-      <c r="C10" t="s">
-        <v>36</v>
+      <c r="B10" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="C12" s="4" t="s">
-        <v>33</v>
+      <c r="C12" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="B13" s="4"/>
+      <c r="C13" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="14" spans="1:39">
-      <c r="B14" s="4"/>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:39">
-      <c r="C15" t="s">
-        <v>40</v>
-      </c>
+      <c r="C15" s="4"/>
     </row>
     <row r="16" spans="1:39">
-      <c r="B16" s="4"/>
+      <c r="B16" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="B17" t="s">
-        <v>30</v>
+      <c r="C17" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="C18" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="C19" t="s">
-        <v>31</v>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="C20" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" t="s">
+      <c r="B21" s="4"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="B22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="C23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
         <v>1</v>
       </c>
-      <c r="B22" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
+      <c r="B26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
-      <c r="B25" t="s">
-        <v>38</v>
+    <row r="29" spans="1:3">
+      <c r="B29" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <hyperlinks>
-    <hyperlink ref="C12" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3806,9 +3863,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AM25"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
   <cols>
@@ -3860,7 +3915,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -3870,12 +3925,12 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:39">
       <c r="B6" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:39">
@@ -3885,22 +3940,22 @@
     </row>
     <row r="9" spans="1:39">
       <c r="B9" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:39">
       <c r="C12" s="4" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:39">
@@ -3909,31 +3964,30 @@
     <row r="14" spans="1:39">
       <c r="B14" s="4"/>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:39">
-      <c r="B15" s="4"/>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
+      <c r="B16" s="4"/>
     </row>
     <row r="17" spans="1:3">
-      <c r="B17" s="4"/>
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="B18" t="s">
-        <v>18</v>
+      <c r="C18" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="C19" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -3946,7 +4000,7 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -3956,7 +4010,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="B25" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -3971,9 +4025,11 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM23"/>
+  <dimension ref="A1:AM25"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
   <cols>
@@ -4025,7 +4081,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -4035,99 +4091,110 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39">
-      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39">
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="A8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-    </row>
     <row r="9" spans="1:39">
-      <c r="C9" t="s">
-        <v>14</v>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39">
+      <c r="C10" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:39">
-      <c r="B11" t="s">
-        <v>15</v>
+      <c r="C11" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="B12" s="4" t="s">
-        <v>10</v>
+      <c r="C12" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:39">
       <c r="B13" s="4"/>
     </row>
     <row r="14" spans="1:39">
-      <c r="B14" t="s">
-        <v>16</v>
+      <c r="B14" s="4"/>
+      <c r="C14" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:39">
-      <c r="B15" s="4" t="s">
-        <v>7</v>
+      <c r="B15" s="4"/>
+      <c r="C15" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="B16" s="4"/>
       <c r="C16" t="s">
-        <v>13</v>
-      </c>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="B17" s="4"/>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>4</v>
+      <c r="B18" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>1</v>
-      </c>
-      <c r="B19" t="s">
-        <v>11</v>
+      <c r="C19" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
-      <c r="B22" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="C23" t="s">
-        <v>9</v>
+    <row r="25" spans="1:3">
+      <c r="B25" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="B15" r:id="rId1"/>
-    <hyperlink ref="B12" r:id="rId2"/>
+    <hyperlink ref="C12" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM17"/>
+  <dimension ref="A1:AM23"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:L9"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
   <cols>
@@ -4179,7 +4246,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>150</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -4189,7 +4256,7 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>103</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:39">
@@ -4199,57 +4266,85 @@
     </row>
     <row r="8" spans="1:39">
       <c r="B8" t="s">
-        <v>103</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:39">
       <c r="C9" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="10" spans="1:39">
-      <c r="C10" t="s">
-        <v>152</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39">
+      <c r="B11" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="A12" t="s">
+      <c r="B12" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="B13" s="4"/>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="B15" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="B16" s="4"/>
+      <c r="C16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:39">
-      <c r="A13" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>1</v>
       </c>
-      <c r="B13" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="15" spans="1:39">
-      <c r="A15" t="s">
+      <c r="B19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:39">
-      <c r="B16" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17" t="s">
-        <v>111</v>
+    <row r="22" spans="1:3">
+      <c r="B22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="C23" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="B15" r:id="rId1"/>
+    <hyperlink ref="B12" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM24"/>
+  <dimension ref="A1:AM18"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -4303,7 +4398,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -4313,85 +4408,60 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39">
-      <c r="B6" t="s">
-        <v>141</v>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="A7" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:39">
-      <c r="A8" t="s">
-        <v>3</v>
+      <c r="B8" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:39">
-      <c r="B9" t="s">
-        <v>145</v>
+      <c r="C9" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="11" spans="1:39">
-      <c r="C11" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="C12" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="14" spans="1:39">
-      <c r="B14" t="s">
-        <v>141</v>
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="A13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="15" spans="1:39">
-      <c r="C15" t="s">
-        <v>146</v>
+      <c r="A15" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="C16" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="C17" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B20" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="B23" t="s">
+      <c r="B16" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
-      <c r="B24" t="s">
+    <row r="17" spans="2:3">
+      <c r="B17" t="s">
         <v>111</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3">
+      <c r="C18" t="s">
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -4401,9 +4471,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM18"/>
+  <dimension ref="A1:AM17"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -4457,7 +4527,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -4467,7 +4537,7 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:39">
@@ -4477,49 +4547,44 @@
     </row>
     <row r="8" spans="1:39">
       <c r="B8" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:39">
       <c r="C9" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="11" spans="1:39">
-      <c r="C11" t="s">
-        <v>139</v>
+        <v>152</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="A12" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:39">
       <c r="A13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:39">
-      <c r="A14" t="s">
         <v>1</v>
       </c>
-      <c r="B14" t="s">
-        <v>140</v>
+      <c r="B13" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="A15" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="A16" t="s">
-        <v>2</v>
+      <c r="B16" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18" t="s">
         <v>111</v>
       </c>
     </row>
@@ -4530,7 +4595,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AM24"/>
   <sheetViews>
@@ -4586,7 +4651,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>127</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -4596,52 +4661,57 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39">
-      <c r="A7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39">
+      <c r="B6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="A8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
-      <c r="B8" t="s">
-        <v>128</v>
-      </c>
-    </row>
     <row r="9" spans="1:39">
-      <c r="C9" t="s">
-        <v>129</v>
+      <c r="B9" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12" spans="1:39">
       <c r="C12" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14" spans="1:39">
-      <c r="C14" t="s">
-        <v>133</v>
+      <c r="B14" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="C15" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="16" spans="1:39">
       <c r="C16" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="C17" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -4679,9 +4749,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM19"/>
+  <dimension ref="A1:AM18"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -4735,7 +4805,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -4745,7 +4815,7 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:39">
@@ -4755,54 +4825,49 @@
     </row>
     <row r="8" spans="1:39">
       <c r="B8" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:39">
       <c r="C9" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39">
-      <c r="C12" t="s">
-        <v>124</v>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="A13" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:39">
       <c r="A14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:39">
-      <c r="A15" t="s">
         <v>1</v>
       </c>
-      <c r="B15" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
+      <c r="B14" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="A16" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="B19" t="s">
         <v>111</v>
       </c>
     </row>
@@ -4813,9 +4878,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM18"/>
+  <dimension ref="A1:AM24"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -4869,7 +4934,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -4879,7 +4944,7 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:39">
@@ -4889,49 +4954,69 @@
     </row>
     <row r="8" spans="1:39">
       <c r="B8" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:39">
       <c r="C9" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="13" spans="1:39">
-      <c r="A13" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="C12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="C14" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="C16" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="C17" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:39">
-      <c r="A14" t="s">
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
         <v>1</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B20" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="16" spans="1:39">
-      <c r="A16" t="s">
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
-      <c r="B17" t="s">
+    <row r="23" spans="1:3">
+      <c r="B23" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="18" spans="2:2">
-      <c r="B18" t="s">
+    <row r="24" spans="1:3">
+      <c r="B24" t="s">
         <v>111</v>
       </c>
     </row>
@@ -4942,9 +5027,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM17"/>
+  <dimension ref="A1:AM19"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -4998,7 +5083,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -5008,7 +5093,7 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:39">
@@ -5018,44 +5103,54 @@
     </row>
     <row r="8" spans="1:39">
       <c r="B8" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:39">
       <c r="C9" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>112</v>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39">
+      <c r="C11" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="A12" t="s">
+      <c r="C12" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="A14" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:39">
-      <c r="A13" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="15" spans="1:39">
       <c r="A15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:39">
-      <c r="B16" t="s">
+    <row r="18" spans="1:2">
+      <c r="B18" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
-      <c r="B17" t="s">
+    <row r="19" spans="1:2">
+      <c r="B19" t="s">
         <v>111</v>
       </c>
     </row>
@@ -5066,9 +5161,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM22"/>
+  <dimension ref="A1:AM18"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -5122,7 +5217,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -5132,87 +5227,189 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39">
-      <c r="B6" t="s">
-        <v>57</v>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="A7" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:39">
-      <c r="A8" t="s">
-        <v>3</v>
+      <c r="B8" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:39">
-      <c r="B9" t="s">
-        <v>101</v>
+      <c r="C9" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39">
-      <c r="C12" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="C13" s="4" t="s">
-        <v>102</v>
+      <c r="A13" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:39">
-      <c r="C14" s="4"/>
-    </row>
-    <row r="15" spans="1:39">
-      <c r="B15" t="s">
-        <v>108</v>
-      </c>
-      <c r="C15" s="4"/>
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="C16" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>1</v>
-      </c>
-      <c r="B19" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
+      <c r="A16" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
-      <c r="B22" t="s">
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
         <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <hyperlinks>
-    <hyperlink ref="C13" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AM17"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="1.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:39" s="1" customFormat="1" ht="21">
+      <c r="A1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="2"/>
+    </row>
+    <row r="2" spans="1:39">
+      <c r="A2" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39">
+      <c r="B5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="B8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39">
+      <c r="C9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39">
+      <c r="C10" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="A13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="A15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="B16" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
+        <v>111</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/日報.xlsx
+++ b/日報.xlsx
@@ -7,32 +7,33 @@
     <workbookView xWindow="-285" yWindow="150" windowWidth="10110" windowHeight="9165"/>
   </bookViews>
   <sheets>
-    <sheet name="11月10日" sheetId="24" r:id="rId1"/>
-    <sheet name="11月9日" sheetId="22" r:id="rId2"/>
-    <sheet name="11月8日" sheetId="21" r:id="rId3"/>
-    <sheet name="11月7日" sheetId="20" r:id="rId4"/>
-    <sheet name="11月5日" sheetId="19" r:id="rId5"/>
-    <sheet name="10月31日" sheetId="18" r:id="rId6"/>
-    <sheet name="10月30日" sheetId="17" r:id="rId7"/>
-    <sheet name="10月29日" sheetId="16" r:id="rId8"/>
-    <sheet name="10月28日" sheetId="15" r:id="rId9"/>
-    <sheet name="10月27日" sheetId="14" r:id="rId10"/>
-    <sheet name="10月26日" sheetId="13" r:id="rId11"/>
-    <sheet name="10月25日" sheetId="12" r:id="rId12"/>
-    <sheet name="10月24日" sheetId="11" r:id="rId13"/>
-    <sheet name="10月23日" sheetId="10" r:id="rId14"/>
-    <sheet name="10月22日" sheetId="9" r:id="rId15"/>
-    <sheet name="10月21日" sheetId="8" r:id="rId16"/>
-    <sheet name="10月20日 " sheetId="7" r:id="rId17"/>
-    <sheet name="10月19日" sheetId="6" r:id="rId18"/>
-    <sheet name="10月18日" sheetId="5" r:id="rId19"/>
+    <sheet name="11月11日" sheetId="25" r:id="rId1"/>
+    <sheet name="11月10日" sheetId="24" r:id="rId2"/>
+    <sheet name="11月9日" sheetId="22" r:id="rId3"/>
+    <sheet name="11月8日" sheetId="21" r:id="rId4"/>
+    <sheet name="11月7日" sheetId="20" r:id="rId5"/>
+    <sheet name="11月5日" sheetId="19" r:id="rId6"/>
+    <sheet name="10月31日" sheetId="18" r:id="rId7"/>
+    <sheet name="10月30日" sheetId="17" r:id="rId8"/>
+    <sheet name="10月29日" sheetId="16" r:id="rId9"/>
+    <sheet name="10月28日" sheetId="15" r:id="rId10"/>
+    <sheet name="10月27日" sheetId="14" r:id="rId11"/>
+    <sheet name="10月26日" sheetId="13" r:id="rId12"/>
+    <sheet name="10月25日" sheetId="12" r:id="rId13"/>
+    <sheet name="10月24日" sheetId="11" r:id="rId14"/>
+    <sheet name="10月23日" sheetId="10" r:id="rId15"/>
+    <sheet name="10月22日" sheetId="9" r:id="rId16"/>
+    <sheet name="10月21日" sheetId="8" r:id="rId17"/>
+    <sheet name="10月20日 " sheetId="7" r:id="rId18"/>
+    <sheet name="10月19日" sheetId="6" r:id="rId19"/>
+    <sheet name="10月18日" sheetId="5" r:id="rId20"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="165">
   <si>
     <t>1.実施したこと</t>
     <rPh sb="2" eb="4">
@@ -2257,6 +2258,49 @@
     </rPh>
     <rPh sb="21" eb="22">
       <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・2013/11/10</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・2013/11/11</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>指紋認証失敗の項目を削除した。</t>
+    <rPh sb="0" eb="2">
+      <t>シモン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ウォーターフォール型プロセスと反復型プロセスの開発プロセスについて学んだ。</t>
+    <rPh sb="9" eb="10">
+      <t>ガタ</t>
+    </rPh>
+    <rPh sb="15" eb="18">
+      <t>ハンプクガタ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>マナ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2669,7 +2713,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM19"/>
+  <dimension ref="A1:AM20"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2723,7 +2767,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -2753,7 +2797,7 @@
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="12" spans="1:39">
@@ -2766,26 +2810,31 @@
         <v>158</v>
       </c>
     </row>
-    <row r="15" spans="1:39">
-      <c r="A15" t="s">
-        <v>4</v>
+    <row r="14" spans="1:39">
+      <c r="C14" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="16" spans="1:39">
       <c r="A16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
         <v>1</v>
       </c>
-      <c r="B16" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
+      <c r="B17" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="B19" t="s">
+    <row r="20" spans="1:2">
+      <c r="B20" t="s">
         <v>103</v>
       </c>
     </row>
@@ -2798,7 +2847,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM22"/>
+  <dimension ref="A1:AM17"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -2852,7 +2901,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -2862,94 +2911,67 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39">
-      <c r="B6" t="s">
-        <v>57</v>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="A7" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:39">
-      <c r="A8" t="s">
-        <v>3</v>
+      <c r="B8" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:39">
-      <c r="B9" t="s">
-        <v>101</v>
+      <c r="C9" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="11" spans="1:39">
-      <c r="C11" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="C12" t="s">
-        <v>106</v>
+      <c r="A12" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="C13" s="4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="14" spans="1:39">
-      <c r="C14" s="4"/>
+      <c r="A13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="15" spans="1:39">
-      <c r="B15" t="s">
-        <v>108</v>
-      </c>
-      <c r="C15" s="4"/>
+      <c r="A15" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="C16" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>1</v>
-      </c>
-      <c r="B19" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="B22" t="s">
+      <c r="B16" t="s">
         <v>103</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <hyperlinks>
-    <hyperlink ref="C13" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM19"/>
+  <dimension ref="A1:AM22"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -3003,7 +3025,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -3013,77 +3035,94 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39">
-      <c r="A7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39">
+      <c r="B6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="A8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
-      <c r="B8" t="s">
-        <v>87</v>
-      </c>
-    </row>
     <row r="9" spans="1:39">
-      <c r="C9" t="s">
-        <v>97</v>
+      <c r="B9" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:39">
       <c r="C12" t="s">
-        <v>98</v>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="C13" s="4" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:39">
-      <c r="A14" t="s">
+      <c r="C14" s="4"/>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="B15" t="s">
+        <v>108</v>
+      </c>
+      <c r="C15" s="4"/>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="C16" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:39">
-      <c r="A15" t="s">
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
         <v>1</v>
       </c>
-      <c r="B15" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
+      <c r="B19" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
-      <c r="B18" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="B19" t="s">
-        <v>99</v>
+    <row r="22" spans="1:2">
+      <c r="B22" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="C13" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM18"/>
+  <dimension ref="A1:AM19"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -3137,7 +3176,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -3157,50 +3196,55 @@
     </row>
     <row r="8" spans="1:39">
       <c r="B8" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:39">
       <c r="C9" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="13" spans="1:39">
-      <c r="A13" t="s">
-        <v>4</v>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="C12" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:39">
       <c r="A14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="A15" t="s">
         <v>1</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="16" spans="1:39">
-      <c r="A16" t="s">
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
-      <c r="B17" t="s">
+    <row r="18" spans="1:2">
+      <c r="B18" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="2:2">
-      <c r="B18" t="s">
-        <v>89</v>
+    <row r="19" spans="1:2">
+      <c r="B19" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -3212,11 +3256,9 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM27"/>
+  <dimension ref="A1:AM18"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="AM35" sqref="AM35"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
   <cols>
@@ -3268,7 +3310,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -3278,95 +3320,60 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39">
-      <c r="B6" t="s">
-        <v>76</v>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="A7" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:39">
-      <c r="A8" t="s">
-        <v>3</v>
+      <c r="B8" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:39">
-      <c r="B9" t="s">
-        <v>75</v>
+      <c r="C9" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39">
-      <c r="B12" t="s">
-        <v>76</v>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39">
+      <c r="C11" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="C13" t="s">
-        <v>78</v>
+      <c r="A13" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:39">
-      <c r="C14" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="15" spans="1:39">
-      <c r="C15" t="s">
-        <v>80</v>
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="C16" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="C18" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="C19" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="C20" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
-        <v>1</v>
-      </c>
-      <c r="B23" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
+      <c r="A16" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
-      <c r="B26" t="s">
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
-      <c r="B27" t="s">
-        <v>60</v>
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -3378,9 +3385,11 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM23"/>
+  <dimension ref="A1:AM27"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="AM35" sqref="AM35"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
   <cols>
@@ -3432,7 +3441,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -3442,84 +3451,94 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39">
-      <c r="A7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39">
+      <c r="B6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="A8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
-      <c r="B8" t="s">
-        <v>64</v>
-      </c>
-    </row>
     <row r="9" spans="1:39">
-      <c r="C9" t="s">
-        <v>65</v>
+      <c r="B9" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="11" spans="1:39">
-      <c r="D11" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="D12" t="s">
-        <v>67</v>
+      <c r="B12" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="D13" t="s">
-        <v>68</v>
+      <c r="C13" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:39">
-      <c r="D14" t="s">
-        <v>69</v>
+      <c r="C14" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:39">
-      <c r="D15" t="s">
-        <v>70</v>
+      <c r="C15" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="D16" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
+      <c r="C16" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="C18" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="C19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="C20" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
         <v>1</v>
       </c>
-      <c r="B19" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
+      <c r="B23" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
-      <c r="B22" t="s">
+    <row r="26" spans="1:3">
+      <c r="B26" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
-      <c r="B23" t="s">
+    <row r="27" spans="1:3">
+      <c r="B27" t="s">
         <v>60</v>
       </c>
     </row>
@@ -3532,7 +3551,7 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM24"/>
+  <dimension ref="A1:AM23"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -3586,7 +3605,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -3596,79 +3615,84 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39">
-      <c r="B6" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:39">
-      <c r="B7" t="s">
-        <v>57</v>
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="B8" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:39">
-      <c r="A9" t="s">
-        <v>3</v>
+      <c r="C9" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:39">
-      <c r="B10" t="s">
-        <v>42</v>
+      <c r="C10" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:39">
-      <c r="C11" t="s">
-        <v>58</v>
+      <c r="D11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="D12" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="B13" t="s">
-        <v>56</v>
+      <c r="D13" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:39">
-      <c r="C14" t="s">
-        <v>59</v>
+      <c r="D14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="D15" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="B16" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="C17" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
         <v>1</v>
       </c>
-      <c r="B20" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
+      <c r="B19" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="22" spans="1:2">
+      <c r="B22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
       <c r="B23" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="B24" t="s">
         <v>60</v>
       </c>
     </row>
@@ -3681,7 +3705,7 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM29"/>
+  <dimension ref="A1:AM24"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -3735,7 +3759,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -3745,17 +3769,17 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:39">
       <c r="B6" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:39">
       <c r="B7" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:39">
@@ -3765,91 +3789,60 @@
     </row>
     <row r="10" spans="1:39">
       <c r="B10" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39">
-      <c r="C12" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="C13" t="s">
-        <v>50</v>
+      <c r="B13" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:39">
       <c r="C14" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" spans="1:39">
-      <c r="C15" s="4"/>
+        <v>59</v>
+      </c>
     </row>
     <row r="16" spans="1:39">
       <c r="B16" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="C17" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="C18" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="C19" t="s">
-        <v>45</v>
+      <c r="A19" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="C20" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="B21" s="4"/>
+      <c r="A20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="B22" t="s">
-        <v>30</v>
+      <c r="A22" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="C23" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" t="s">
-        <v>1</v>
-      </c>
-      <c r="B26" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="B29" t="s">
+      <c r="B23" t="s">
         <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="B24" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -3861,7 +3854,7 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM25"/>
+  <dimension ref="A1:AM29"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -3915,7 +3908,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -3925,101 +3918,117 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:39">
       <c r="B6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="B7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
-      <c r="A8" t="s">
+    <row r="9" spans="1:39">
+      <c r="A9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:39">
-      <c r="B9" t="s">
-        <v>35</v>
-      </c>
-    </row>
     <row r="10" spans="1:39">
-      <c r="C10" t="s">
-        <v>36</v>
+      <c r="B10" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="C12" s="4" t="s">
-        <v>33</v>
+      <c r="C12" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="B13" s="4"/>
+      <c r="C13" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="14" spans="1:39">
-      <c r="B14" s="4"/>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:39">
-      <c r="C15" t="s">
-        <v>40</v>
-      </c>
+      <c r="C15" s="4"/>
     </row>
     <row r="16" spans="1:39">
-      <c r="B16" s="4"/>
+      <c r="B16" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="B17" t="s">
-        <v>30</v>
+      <c r="C17" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="C18" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="C19" t="s">
-        <v>31</v>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="C20" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" t="s">
+      <c r="B21" s="4"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="B22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="C23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
         <v>1</v>
       </c>
-      <c r="B22" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
+      <c r="B26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
-      <c r="B25" t="s">
-        <v>38</v>
+    <row r="29" spans="1:3">
+      <c r="B29" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <hyperlinks>
-    <hyperlink ref="C12" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4027,9 +4036,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AM25"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
   <cols>
@@ -4081,7 +4088,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -4091,12 +4098,12 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:39">
       <c r="B6" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:39">
@@ -4106,22 +4113,22 @@
     </row>
     <row r="9" spans="1:39">
       <c r="B9" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:39">
       <c r="C12" s="4" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:39">
@@ -4130,31 +4137,30 @@
     <row r="14" spans="1:39">
       <c r="B14" s="4"/>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:39">
-      <c r="B15" s="4"/>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
+      <c r="B16" s="4"/>
     </row>
     <row r="17" spans="1:3">
-      <c r="B17" s="4"/>
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="B18" t="s">
-        <v>18</v>
+      <c r="C18" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="C19" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -4167,7 +4173,7 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -4177,7 +4183,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="B25" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -4192,9 +4198,11 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM23"/>
+  <dimension ref="A1:AM25"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
   <cols>
@@ -4246,7 +4254,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -4256,95 +4264,108 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39">
-      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39">
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="A8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-    </row>
     <row r="9" spans="1:39">
-      <c r="C9" t="s">
-        <v>14</v>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39">
+      <c r="C10" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:39">
-      <c r="B11" t="s">
-        <v>15</v>
+      <c r="C11" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="B12" s="4" t="s">
-        <v>10</v>
+      <c r="C12" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:39">
       <c r="B13" s="4"/>
     </row>
     <row r="14" spans="1:39">
-      <c r="B14" t="s">
-        <v>16</v>
+      <c r="B14" s="4"/>
+      <c r="C14" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:39">
-      <c r="B15" s="4" t="s">
-        <v>7</v>
+      <c r="B15" s="4"/>
+      <c r="C15" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="B16" s="4"/>
       <c r="C16" t="s">
-        <v>13</v>
-      </c>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="B17" s="4"/>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>4</v>
+      <c r="B18" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>1</v>
-      </c>
-      <c r="B19" t="s">
-        <v>11</v>
+      <c r="C19" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
-      <c r="B22" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="C23" t="s">
-        <v>9</v>
+    <row r="25" spans="1:3">
+      <c r="B25" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="B15" r:id="rId1"/>
-    <hyperlink ref="B12" r:id="rId2"/>
+    <hyperlink ref="C12" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM18"/>
+  <dimension ref="A1:AM19"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -4398,7 +4419,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -4411,57 +4432,57 @@
         <v>111</v>
       </c>
     </row>
-    <row r="7" spans="1:39">
-      <c r="A7" t="s">
+    <row r="6" spans="1:39">
+      <c r="B6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="A8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
-      <c r="B8" t="s">
+    <row r="9" spans="1:39">
+      <c r="B9" t="s">
         <v>111</v>
-      </c>
-    </row>
-    <row r="9" spans="1:39">
-      <c r="C9" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="A12" t="s">
-        <v>4</v>
+      <c r="B12" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="A13" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13" t="s">
-        <v>117</v>
+      <c r="C13" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:39">
       <c r="A15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="A16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:39">
-      <c r="B16" t="s">
+    <row r="19" spans="1:2">
+      <c r="B19" t="s">
         <v>103</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3">
-      <c r="B17" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3">
-      <c r="C18" t="s">
-        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -4471,9 +4492,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM17"/>
+  <dimension ref="A1:AM23"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -4527,7 +4548,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>150</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -4537,7 +4558,7 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>103</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:39">
@@ -4547,57 +4568,85 @@
     </row>
     <row r="8" spans="1:39">
       <c r="B8" t="s">
-        <v>103</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:39">
       <c r="C9" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="10" spans="1:39">
-      <c r="C10" t="s">
-        <v>152</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39">
+      <c r="B11" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="A12" t="s">
+      <c r="B12" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="B13" s="4"/>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="B15" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="B16" s="4"/>
+      <c r="C16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:39">
-      <c r="A13" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>1</v>
       </c>
-      <c r="B13" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="15" spans="1:39">
-      <c r="A15" t="s">
+      <c r="B19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:39">
-      <c r="B16" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17" t="s">
-        <v>111</v>
+    <row r="22" spans="1:3">
+      <c r="B22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="C23" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="B15" r:id="rId1"/>
+    <hyperlink ref="B12" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM24"/>
+  <dimension ref="A1:AM18"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -4651,7 +4700,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -4661,85 +4710,60 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39">
-      <c r="B6" t="s">
-        <v>141</v>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="A7" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:39">
-      <c r="A8" t="s">
-        <v>3</v>
+      <c r="B8" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:39">
-      <c r="B9" t="s">
-        <v>145</v>
+      <c r="C9" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="11" spans="1:39">
-      <c r="C11" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="C12" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="14" spans="1:39">
-      <c r="B14" t="s">
-        <v>141</v>
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="A13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="15" spans="1:39">
-      <c r="C15" t="s">
-        <v>146</v>
+      <c r="A15" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="C16" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="C17" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B20" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="B23" t="s">
+      <c r="B16" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
-      <c r="B24" t="s">
+    <row r="17" spans="2:3">
+      <c r="B17" t="s">
         <v>111</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3">
+      <c r="C18" t="s">
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -4749,9 +4773,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM18"/>
+  <dimension ref="A1:AM17"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -4805,7 +4829,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -4815,7 +4839,7 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:39">
@@ -4825,49 +4849,44 @@
     </row>
     <row r="8" spans="1:39">
       <c r="B8" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:39">
       <c r="C9" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="11" spans="1:39">
-      <c r="C11" t="s">
-        <v>139</v>
+        <v>152</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="A12" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:39">
       <c r="A13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:39">
-      <c r="A14" t="s">
         <v>1</v>
       </c>
-      <c r="B14" t="s">
-        <v>140</v>
+      <c r="B13" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="A15" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="A16" t="s">
-        <v>2</v>
+      <c r="B16" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18" t="s">
         <v>111</v>
       </c>
     </row>
@@ -4878,7 +4897,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AM24"/>
   <sheetViews>
@@ -4934,7 +4953,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>127</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -4944,52 +4963,57 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39">
-      <c r="A7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39">
+      <c r="B6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="A8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
-      <c r="B8" t="s">
-        <v>128</v>
-      </c>
-    </row>
     <row r="9" spans="1:39">
-      <c r="C9" t="s">
-        <v>129</v>
+      <c r="B9" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12" spans="1:39">
       <c r="C12" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14" spans="1:39">
-      <c r="C14" t="s">
-        <v>133</v>
+      <c r="B14" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="C15" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="16" spans="1:39">
       <c r="C16" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="C17" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -5027,9 +5051,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM19"/>
+  <dimension ref="A1:AM18"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -5083,7 +5107,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -5093,7 +5117,7 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:39">
@@ -5103,54 +5127,49 @@
     </row>
     <row r="8" spans="1:39">
       <c r="B8" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:39">
       <c r="C9" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39">
-      <c r="C12" t="s">
-        <v>124</v>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="A13" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:39">
       <c r="A14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:39">
-      <c r="A15" t="s">
         <v>1</v>
       </c>
-      <c r="B15" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
+      <c r="B14" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="A16" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="B19" t="s">
         <v>111</v>
       </c>
     </row>
@@ -5161,9 +5180,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM18"/>
+  <dimension ref="A1:AM24"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -5217,7 +5236,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -5227,7 +5246,7 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:39">
@@ -5237,49 +5256,69 @@
     </row>
     <row r="8" spans="1:39">
       <c r="B8" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:39">
       <c r="C9" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="13" spans="1:39">
-      <c r="A13" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="C12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="C14" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="C16" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="C17" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:39">
-      <c r="A14" t="s">
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
         <v>1</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B20" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="16" spans="1:39">
-      <c r="A16" t="s">
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
-      <c r="B17" t="s">
+    <row r="23" spans="1:3">
+      <c r="B23" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="18" spans="2:2">
-      <c r="B18" t="s">
+    <row r="24" spans="1:3">
+      <c r="B24" t="s">
         <v>111</v>
       </c>
     </row>
@@ -5290,9 +5329,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM17"/>
+  <dimension ref="A1:AM19"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -5346,7 +5385,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -5356,7 +5395,7 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:39">
@@ -5366,44 +5405,183 @@
     </row>
     <row r="8" spans="1:39">
       <c r="B8" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:39">
       <c r="C9" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>112</v>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39">
+      <c r="C11" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="A12" t="s">
+      <c r="C12" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="A14" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="A15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="B18" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="B19" t="s">
+        <v>111</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AM18"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="1.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:39" s="1" customFormat="1" ht="21">
+      <c r="A1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="2"/>
+    </row>
+    <row r="2" spans="1:39">
+      <c r="A2" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39">
+      <c r="B5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="B8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39">
+      <c r="C9" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39">
+      <c r="C10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39">
+      <c r="C11" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:39">
       <c r="A13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="A14" t="s">
         <v>1</v>
       </c>
-      <c r="B13" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="15" spans="1:39">
-      <c r="A15" t="s">
+      <c r="B14" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="A16" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:39">
-      <c r="B16" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
         <v>111</v>
       </c>
     </row>

--- a/日報.xlsx
+++ b/日報.xlsx
@@ -7,33 +7,34 @@
     <workbookView xWindow="-285" yWindow="150" windowWidth="10110" windowHeight="9165"/>
   </bookViews>
   <sheets>
-    <sheet name="11月11日" sheetId="25" r:id="rId1"/>
-    <sheet name="11月10日" sheetId="24" r:id="rId2"/>
-    <sheet name="11月9日" sheetId="22" r:id="rId3"/>
-    <sheet name="11月8日" sheetId="21" r:id="rId4"/>
-    <sheet name="11月7日" sheetId="20" r:id="rId5"/>
-    <sheet name="11月5日" sheetId="19" r:id="rId6"/>
-    <sheet name="10月31日" sheetId="18" r:id="rId7"/>
-    <sheet name="10月30日" sheetId="17" r:id="rId8"/>
-    <sheet name="10月29日" sheetId="16" r:id="rId9"/>
-    <sheet name="10月28日" sheetId="15" r:id="rId10"/>
-    <sheet name="10月27日" sheetId="14" r:id="rId11"/>
-    <sheet name="10月26日" sheetId="13" r:id="rId12"/>
-    <sheet name="10月25日" sheetId="12" r:id="rId13"/>
-    <sheet name="10月24日" sheetId="11" r:id="rId14"/>
-    <sheet name="10月23日" sheetId="10" r:id="rId15"/>
-    <sheet name="10月22日" sheetId="9" r:id="rId16"/>
-    <sheet name="10月21日" sheetId="8" r:id="rId17"/>
-    <sheet name="10月20日 " sheetId="7" r:id="rId18"/>
-    <sheet name="10月19日" sheetId="6" r:id="rId19"/>
-    <sheet name="10月18日" sheetId="5" r:id="rId20"/>
+    <sheet name="11月12日" sheetId="26" r:id="rId1"/>
+    <sheet name="11月11日" sheetId="25" r:id="rId2"/>
+    <sheet name="11月10日" sheetId="24" r:id="rId3"/>
+    <sheet name="11月9日" sheetId="22" r:id="rId4"/>
+    <sheet name="11月8日" sheetId="21" r:id="rId5"/>
+    <sheet name="11月7日" sheetId="20" r:id="rId6"/>
+    <sheet name="11月5日" sheetId="19" r:id="rId7"/>
+    <sheet name="10月31日" sheetId="18" r:id="rId8"/>
+    <sheet name="10月30日" sheetId="17" r:id="rId9"/>
+    <sheet name="10月29日" sheetId="16" r:id="rId10"/>
+    <sheet name="10月28日" sheetId="15" r:id="rId11"/>
+    <sheet name="10月27日" sheetId="14" r:id="rId12"/>
+    <sheet name="10月26日" sheetId="13" r:id="rId13"/>
+    <sheet name="10月25日" sheetId="12" r:id="rId14"/>
+    <sheet name="10月24日" sheetId="11" r:id="rId15"/>
+    <sheet name="10月23日" sheetId="10" r:id="rId16"/>
+    <sheet name="10月22日" sheetId="9" r:id="rId17"/>
+    <sheet name="10月21日" sheetId="8" r:id="rId18"/>
+    <sheet name="10月20日 " sheetId="7" r:id="rId19"/>
+    <sheet name="10月19日" sheetId="6" r:id="rId20"/>
+    <sheet name="10月18日" sheetId="5" r:id="rId21"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="172">
   <si>
     <t>1.実施したこと</t>
     <rPh sb="2" eb="4">
@@ -2300,6 +2301,76 @@
       <t>カイハツ</t>
     </rPh>
     <rPh sb="33" eb="34">
+      <t>マナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・2013/11/12</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・Nexus7にapkのインストール</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Nexus7にFS88のサンプルのapkをインストールした。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>また、PCにNexus7のドライバーをインストールした。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インストールはNexus7のセキュリティから提供元不明のアプリのインストールを許可してから、</t>
+    <rPh sb="22" eb="24">
+      <t>テイキョウ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>フメイ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>キョカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メールで送ったapkファイルを開いてインストールをした。</t>
+    <rPh sb="4" eb="5">
+      <t>オク</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ヒラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>開発のプロセス部分(アジャイル開発や予測型開発・適応型開発)について学んだ。</t>
+    <rPh sb="0" eb="2">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="18" eb="21">
+      <t>ヨソクガタ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="24" eb="27">
+      <t>テキオウガタ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
       <t>マナ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -2713,7 +2784,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM20"/>
+  <dimension ref="A1:AM23"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2767,7 +2838,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -2777,7 +2848,7 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>111</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:39">
@@ -2792,49 +2863,64 @@
     </row>
     <row r="9" spans="1:39">
       <c r="B9" t="s">
-        <v>111</v>
+        <v>166</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>163</v>
+        <v>167</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39">
+      <c r="C11" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="B12" t="s">
-        <v>103</v>
+      <c r="C12" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="13" spans="1:39">
       <c r="C13" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="B15" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="C16" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="14" spans="1:39">
-      <c r="C14" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="16" spans="1:39">
-      <c r="A16" t="s">
+    <row r="17" spans="1:3">
+      <c r="C17" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
         <v>1</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B20" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
-      <c r="B20" t="s">
+    <row r="23" spans="1:3">
+      <c r="B23" t="s">
         <v>103</v>
       </c>
     </row>
@@ -2847,7 +2933,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM17"/>
+  <dimension ref="A1:AM18"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -2901,7 +2987,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -2911,7 +2997,7 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:39">
@@ -2921,44 +3007,49 @@
     </row>
     <row r="8" spans="1:39">
       <c r="B8" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:39">
       <c r="C9" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39">
-      <c r="A12" t="s">
-        <v>4</v>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39">
+      <c r="C11" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:39">
       <c r="A13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="A14" t="s">
         <v>1</v>
       </c>
-      <c r="B13" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="15" spans="1:39">
-      <c r="A15" t="s">
+      <c r="B14" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="A16" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:39">
-      <c r="B16" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
         <v>111</v>
       </c>
     </row>
@@ -2971,7 +3062,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM22"/>
+  <dimension ref="A1:AM17"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -3025,7 +3116,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -3035,94 +3126,67 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39">
-      <c r="B6" t="s">
-        <v>57</v>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="A7" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:39">
-      <c r="A8" t="s">
-        <v>3</v>
+      <c r="B8" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:39">
-      <c r="B9" t="s">
-        <v>101</v>
+      <c r="C9" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="11" spans="1:39">
-      <c r="C11" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="C12" t="s">
-        <v>106</v>
+      <c r="A12" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="C13" s="4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="14" spans="1:39">
-      <c r="C14" s="4"/>
+      <c r="A13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="15" spans="1:39">
-      <c r="B15" t="s">
-        <v>108</v>
-      </c>
-      <c r="C15" s="4"/>
+      <c r="A15" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="C16" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>1</v>
-      </c>
-      <c r="B19" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="B22" t="s">
+      <c r="B16" t="s">
         <v>103</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <hyperlinks>
-    <hyperlink ref="C13" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM19"/>
+  <dimension ref="A1:AM22"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -3176,7 +3240,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -3186,77 +3250,94 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39">
-      <c r="A7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39">
+      <c r="B6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="A8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
-      <c r="B8" t="s">
-        <v>87</v>
-      </c>
-    </row>
     <row r="9" spans="1:39">
-      <c r="C9" t="s">
-        <v>97</v>
+      <c r="B9" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:39">
       <c r="C12" t="s">
-        <v>98</v>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="C13" s="4" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:39">
-      <c r="A14" t="s">
+      <c r="C14" s="4"/>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="B15" t="s">
+        <v>108</v>
+      </c>
+      <c r="C15" s="4"/>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="C16" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:39">
-      <c r="A15" t="s">
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
         <v>1</v>
       </c>
-      <c r="B15" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
+      <c r="B19" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
-      <c r="B18" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="B19" t="s">
-        <v>99</v>
+    <row r="22" spans="1:2">
+      <c r="B22" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="C13" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM18"/>
+  <dimension ref="A1:AM19"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -3310,7 +3391,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -3330,50 +3411,55 @@
     </row>
     <row r="8" spans="1:39">
       <c r="B8" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:39">
       <c r="C9" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="13" spans="1:39">
-      <c r="A13" t="s">
-        <v>4</v>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="C12" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:39">
       <c r="A14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="A15" t="s">
         <v>1</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="16" spans="1:39">
-      <c r="A16" t="s">
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
-      <c r="B17" t="s">
+    <row r="18" spans="1:2">
+      <c r="B18" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="2:2">
-      <c r="B18" t="s">
-        <v>89</v>
+    <row r="19" spans="1:2">
+      <c r="B19" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -3385,11 +3471,9 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM27"/>
+  <dimension ref="A1:AM18"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="AM35" sqref="AM35"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
   <cols>
@@ -3441,7 +3525,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -3451,95 +3535,60 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39">
-      <c r="B6" t="s">
-        <v>76</v>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="A7" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:39">
-      <c r="A8" t="s">
-        <v>3</v>
+      <c r="B8" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:39">
-      <c r="B9" t="s">
-        <v>75</v>
+      <c r="C9" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39">
-      <c r="B12" t="s">
-        <v>76</v>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39">
+      <c r="C11" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="C13" t="s">
-        <v>78</v>
+      <c r="A13" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:39">
-      <c r="C14" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="15" spans="1:39">
-      <c r="C15" t="s">
-        <v>80</v>
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="C16" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="C18" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="C19" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="C20" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
-        <v>1</v>
-      </c>
-      <c r="B23" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
+      <c r="A16" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
-      <c r="B26" t="s">
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
-      <c r="B27" t="s">
-        <v>60</v>
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -3551,9 +3600,11 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM23"/>
+  <dimension ref="A1:AM27"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="AM35" sqref="AM35"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
   <cols>
@@ -3605,7 +3656,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -3615,84 +3666,94 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39">
-      <c r="A7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39">
+      <c r="B6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="A8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
-      <c r="B8" t="s">
-        <v>64</v>
-      </c>
-    </row>
     <row r="9" spans="1:39">
-      <c r="C9" t="s">
-        <v>65</v>
+      <c r="B9" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="11" spans="1:39">
-      <c r="D11" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="D12" t="s">
-        <v>67</v>
+      <c r="B12" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="D13" t="s">
-        <v>68</v>
+      <c r="C13" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:39">
-      <c r="D14" t="s">
-        <v>69</v>
+      <c r="C14" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:39">
-      <c r="D15" t="s">
-        <v>70</v>
+      <c r="C15" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="D16" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
+      <c r="C16" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="C18" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="C19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="C20" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
         <v>1</v>
       </c>
-      <c r="B19" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
+      <c r="B23" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
-      <c r="B22" t="s">
+    <row r="26" spans="1:3">
+      <c r="B26" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
-      <c r="B23" t="s">
+    <row r="27" spans="1:3">
+      <c r="B27" t="s">
         <v>60</v>
       </c>
     </row>
@@ -3705,7 +3766,7 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM24"/>
+  <dimension ref="A1:AM23"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -3759,7 +3820,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -3769,79 +3830,84 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39">
-      <c r="B6" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:39">
-      <c r="B7" t="s">
-        <v>57</v>
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="B8" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:39">
-      <c r="A9" t="s">
-        <v>3</v>
+      <c r="C9" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:39">
-      <c r="B10" t="s">
-        <v>42</v>
+      <c r="C10" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:39">
-      <c r="C11" t="s">
-        <v>58</v>
+      <c r="D11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="D12" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="B13" t="s">
-        <v>56</v>
+      <c r="D13" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:39">
-      <c r="C14" t="s">
-        <v>59</v>
+      <c r="D14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="D15" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="B16" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="C17" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
         <v>1</v>
       </c>
-      <c r="B20" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
+      <c r="B19" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="22" spans="1:2">
+      <c r="B22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
       <c r="B23" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="B24" t="s">
         <v>60</v>
       </c>
     </row>
@@ -3854,7 +3920,7 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM29"/>
+  <dimension ref="A1:AM24"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -3908,7 +3974,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -3918,17 +3984,17 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:39">
       <c r="B6" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:39">
       <c r="B7" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:39">
@@ -3938,91 +4004,60 @@
     </row>
     <row r="10" spans="1:39">
       <c r="B10" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39">
-      <c r="C12" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="C13" t="s">
-        <v>50</v>
+      <c r="B13" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:39">
       <c r="C14" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" spans="1:39">
-      <c r="C15" s="4"/>
+        <v>59</v>
+      </c>
     </row>
     <row r="16" spans="1:39">
       <c r="B16" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="C17" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="C18" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="C19" t="s">
-        <v>45</v>
+      <c r="A19" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="C20" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="B21" s="4"/>
+      <c r="A20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="B22" t="s">
-        <v>30</v>
+      <c r="A22" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="C23" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" t="s">
-        <v>1</v>
-      </c>
-      <c r="B26" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="B29" t="s">
+      <c r="B23" t="s">
         <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="B24" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -4034,7 +4069,7 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM25"/>
+  <dimension ref="A1:AM29"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -4088,7 +4123,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -4098,101 +4133,117 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:39">
       <c r="B6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="B7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
-      <c r="A8" t="s">
+    <row r="9" spans="1:39">
+      <c r="A9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:39">
-      <c r="B9" t="s">
-        <v>35</v>
-      </c>
-    </row>
     <row r="10" spans="1:39">
-      <c r="C10" t="s">
-        <v>36</v>
+      <c r="B10" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="C12" s="4" t="s">
-        <v>33</v>
+      <c r="C12" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="B13" s="4"/>
+      <c r="C13" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="14" spans="1:39">
-      <c r="B14" s="4"/>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:39">
-      <c r="C15" t="s">
-        <v>40</v>
-      </c>
+      <c r="C15" s="4"/>
     </row>
     <row r="16" spans="1:39">
-      <c r="B16" s="4"/>
+      <c r="B16" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="B17" t="s">
-        <v>30</v>
+      <c r="C17" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="C18" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="C19" t="s">
-        <v>31</v>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="C20" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" t="s">
+      <c r="B21" s="4"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="B22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="C23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
         <v>1</v>
       </c>
-      <c r="B22" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
+      <c r="B26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
-      <c r="B25" t="s">
-        <v>38</v>
+    <row r="29" spans="1:3">
+      <c r="B29" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <hyperlinks>
-    <hyperlink ref="C12" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4200,9 +4251,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AM25"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
   <cols>
@@ -4254,7 +4303,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -4264,12 +4313,12 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:39">
       <c r="B6" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:39">
@@ -4279,22 +4328,22 @@
     </row>
     <row r="9" spans="1:39">
       <c r="B9" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:39">
       <c r="C12" s="4" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:39">
@@ -4303,31 +4352,30 @@
     <row r="14" spans="1:39">
       <c r="B14" s="4"/>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:39">
-      <c r="B15" s="4"/>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
+      <c r="B16" s="4"/>
     </row>
     <row r="17" spans="1:3">
-      <c r="B17" s="4"/>
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="B18" t="s">
-        <v>18</v>
+      <c r="C18" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="C19" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -4340,7 +4388,7 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -4350,7 +4398,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="B25" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -4365,7 +4413,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM19"/>
+  <dimension ref="A1:AM20"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -4419,7 +4467,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -4449,7 +4497,7 @@
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="12" spans="1:39">
@@ -4462,26 +4510,31 @@
         <v>158</v>
       </c>
     </row>
-    <row r="15" spans="1:39">
-      <c r="A15" t="s">
-        <v>4</v>
+    <row r="14" spans="1:39">
+      <c r="C14" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="16" spans="1:39">
       <c r="A16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
         <v>1</v>
       </c>
-      <c r="B16" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
+      <c r="B17" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="B19" t="s">
+    <row r="20" spans="1:2">
+      <c r="B20" t="s">
         <v>103</v>
       </c>
     </row>
@@ -4494,9 +4547,11 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM23"/>
+  <dimension ref="A1:AM25"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
   <cols>
@@ -4548,7 +4603,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -4558,95 +4613,108 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39">
-      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39">
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="A8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-    </row>
     <row r="9" spans="1:39">
-      <c r="C9" t="s">
-        <v>14</v>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39">
+      <c r="C10" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:39">
-      <c r="B11" t="s">
-        <v>15</v>
+      <c r="C11" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="B12" s="4" t="s">
-        <v>10</v>
+      <c r="C12" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:39">
       <c r="B13" s="4"/>
     </row>
     <row r="14" spans="1:39">
-      <c r="B14" t="s">
-        <v>16</v>
+      <c r="B14" s="4"/>
+      <c r="C14" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:39">
-      <c r="B15" s="4" t="s">
-        <v>7</v>
+      <c r="B15" s="4"/>
+      <c r="C15" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="B16" s="4"/>
       <c r="C16" t="s">
-        <v>13</v>
-      </c>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="B17" s="4"/>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>4</v>
+      <c r="B18" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>1</v>
-      </c>
-      <c r="B19" t="s">
-        <v>11</v>
+      <c r="C19" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
-      <c r="B22" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="C23" t="s">
-        <v>9</v>
+    <row r="25" spans="1:3">
+      <c r="B25" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="B15" r:id="rId1"/>
-    <hyperlink ref="B12" r:id="rId2"/>
+    <hyperlink ref="C12" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM18"/>
+  <dimension ref="A1:AM23"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -4700,7 +4768,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>154</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -4710,7 +4778,7 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>111</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:39">
@@ -4720,62 +4788,85 @@
     </row>
     <row r="8" spans="1:39">
       <c r="B8" t="s">
-        <v>111</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:39">
       <c r="C9" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="10" spans="1:39">
-      <c r="C10" t="s">
-        <v>157</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39">
+      <c r="B11" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="A12" t="s">
+      <c r="B12" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="B13" s="4"/>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="B15" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="B16" s="4"/>
+      <c r="C16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:39">
-      <c r="A13" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>1</v>
       </c>
-      <c r="B13" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="15" spans="1:39">
-      <c r="A15" t="s">
+      <c r="B19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:39">
-      <c r="B16" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3">
-      <c r="B17" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3">
-      <c r="C18" t="s">
-        <v>155</v>
+    <row r="22" spans="1:3">
+      <c r="B22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="C23" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="B15" r:id="rId1"/>
+    <hyperlink ref="B12" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM17"/>
+  <dimension ref="A1:AM19"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -4829,7 +4920,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -4839,55 +4930,60 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39">
+      <c r="B6" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="7" spans="1:39">
-      <c r="A7" t="s">
+    <row r="8" spans="1:39">
+      <c r="A8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
-      <c r="B8" t="s">
-        <v>103</v>
-      </c>
-    </row>
     <row r="9" spans="1:39">
-      <c r="C9" t="s">
-        <v>151</v>
+      <c r="B9" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="A12" t="s">
-        <v>4</v>
+      <c r="B12" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="A13" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13" t="s">
-        <v>153</v>
+      <c r="C13" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:39">
       <c r="A15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="A16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:39">
-      <c r="B16" t="s">
+    <row r="19" spans="1:2">
+      <c r="B19" t="s">
         <v>103</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17" t="s">
-        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -4897,9 +4993,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM24"/>
+  <dimension ref="A1:AM18"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -4953,7 +5049,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -4963,85 +5059,60 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39">
-      <c r="B6" t="s">
-        <v>141</v>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="A7" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:39">
-      <c r="A8" t="s">
-        <v>3</v>
+      <c r="B8" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:39">
-      <c r="B9" t="s">
-        <v>145</v>
+      <c r="C9" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="11" spans="1:39">
-      <c r="C11" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="C12" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="14" spans="1:39">
-      <c r="B14" t="s">
-        <v>141</v>
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="A13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="15" spans="1:39">
-      <c r="C15" t="s">
-        <v>146</v>
+      <c r="A15" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="C16" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="C17" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B20" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="B23" t="s">
+      <c r="B16" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
-      <c r="B24" t="s">
+    <row r="17" spans="2:3">
+      <c r="B17" t="s">
         <v>111</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3">
+      <c r="C18" t="s">
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -5051,9 +5122,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM18"/>
+  <dimension ref="A1:AM17"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -5107,7 +5178,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -5117,7 +5188,7 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:39">
@@ -5127,49 +5198,44 @@
     </row>
     <row r="8" spans="1:39">
       <c r="B8" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:39">
       <c r="C9" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="11" spans="1:39">
-      <c r="C11" t="s">
-        <v>139</v>
+        <v>152</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="A12" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:39">
       <c r="A13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:39">
-      <c r="A14" t="s">
         <v>1</v>
       </c>
-      <c r="B14" t="s">
-        <v>140</v>
+      <c r="B13" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="A15" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="A16" t="s">
-        <v>2</v>
+      <c r="B16" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18" t="s">
         <v>111</v>
       </c>
     </row>
@@ -5180,7 +5246,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AM24"/>
   <sheetViews>
@@ -5236,7 +5302,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>127</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -5246,52 +5312,57 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39">
-      <c r="A7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39">
+      <c r="B6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="A8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
-      <c r="B8" t="s">
-        <v>128</v>
-      </c>
-    </row>
     <row r="9" spans="1:39">
-      <c r="C9" t="s">
-        <v>129</v>
+      <c r="B9" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12" spans="1:39">
       <c r="C12" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14" spans="1:39">
-      <c r="C14" t="s">
-        <v>133</v>
+      <c r="B14" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="C15" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="16" spans="1:39">
       <c r="C16" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="C17" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -5329,9 +5400,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM19"/>
+  <dimension ref="A1:AM18"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -5385,7 +5456,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -5395,7 +5466,7 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:39">
@@ -5405,54 +5476,49 @@
     </row>
     <row r="8" spans="1:39">
       <c r="B8" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:39">
       <c r="C9" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39">
-      <c r="C12" t="s">
-        <v>124</v>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="A13" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:39">
       <c r="A14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:39">
-      <c r="A15" t="s">
         <v>1</v>
       </c>
-      <c r="B15" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
+      <c r="B14" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="A16" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="B19" t="s">
         <v>111</v>
       </c>
     </row>
@@ -5463,9 +5529,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM18"/>
+  <dimension ref="A1:AM24"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -5519,7 +5585,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -5529,7 +5595,7 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:39">
@@ -5539,49 +5605,203 @@
     </row>
     <row r="8" spans="1:39">
       <c r="B8" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:39">
       <c r="C9" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="13" spans="1:39">
-      <c r="A13" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="C12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="C14" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="C16" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="C17" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="B23" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="B24" t="s">
+        <v>111</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AM19"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="1.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:39" s="1" customFormat="1" ht="21">
+      <c r="A1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="2"/>
+    </row>
+    <row r="2" spans="1:39">
+      <c r="A2" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39">
+      <c r="B5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="B8" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39">
+      <c r="C9" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39">
+      <c r="C10" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39">
+      <c r="C11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="C12" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="14" spans="1:39">
       <c r="A14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="A15" t="s">
         <v>1</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="16" spans="1:39">
-      <c r="A16" t="s">
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
-      <c r="B17" t="s">
+    <row r="18" spans="1:2">
+      <c r="B18" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="18" spans="2:2">
-      <c r="B18" t="s">
+    <row r="19" spans="1:2">
+      <c r="B19" t="s">
         <v>111</v>
       </c>
     </row>

--- a/日報.xlsx
+++ b/日報.xlsx
@@ -7,34 +7,35 @@
     <workbookView xWindow="-285" yWindow="150" windowWidth="10110" windowHeight="9165"/>
   </bookViews>
   <sheets>
-    <sheet name="11月12日" sheetId="26" r:id="rId1"/>
-    <sheet name="11月11日" sheetId="25" r:id="rId2"/>
-    <sheet name="11月10日" sheetId="24" r:id="rId3"/>
-    <sheet name="11月9日" sheetId="22" r:id="rId4"/>
-    <sheet name="11月8日" sheetId="21" r:id="rId5"/>
-    <sheet name="11月7日" sheetId="20" r:id="rId6"/>
-    <sheet name="11月5日" sheetId="19" r:id="rId7"/>
-    <sheet name="10月31日" sheetId="18" r:id="rId8"/>
-    <sheet name="10月30日" sheetId="17" r:id="rId9"/>
-    <sheet name="10月29日" sheetId="16" r:id="rId10"/>
-    <sheet name="10月28日" sheetId="15" r:id="rId11"/>
-    <sheet name="10月27日" sheetId="14" r:id="rId12"/>
-    <sheet name="10月26日" sheetId="13" r:id="rId13"/>
-    <sheet name="10月25日" sheetId="12" r:id="rId14"/>
-    <sheet name="10月24日" sheetId="11" r:id="rId15"/>
-    <sheet name="10月23日" sheetId="10" r:id="rId16"/>
-    <sheet name="10月22日" sheetId="9" r:id="rId17"/>
-    <sheet name="10月21日" sheetId="8" r:id="rId18"/>
-    <sheet name="10月20日 " sheetId="7" r:id="rId19"/>
-    <sheet name="10月19日" sheetId="6" r:id="rId20"/>
-    <sheet name="10月18日" sheetId="5" r:id="rId21"/>
+    <sheet name="11月13日" sheetId="27" r:id="rId1"/>
+    <sheet name="11月12日" sheetId="26" r:id="rId2"/>
+    <sheet name="11月11日" sheetId="25" r:id="rId3"/>
+    <sheet name="11月10日" sheetId="24" r:id="rId4"/>
+    <sheet name="11月9日" sheetId="22" r:id="rId5"/>
+    <sheet name="11月8日" sheetId="21" r:id="rId6"/>
+    <sheet name="11月7日" sheetId="20" r:id="rId7"/>
+    <sheet name="11月5日" sheetId="19" r:id="rId8"/>
+    <sheet name="10月31日" sheetId="18" r:id="rId9"/>
+    <sheet name="10月30日" sheetId="17" r:id="rId10"/>
+    <sheet name="10月29日" sheetId="16" r:id="rId11"/>
+    <sheet name="10月28日" sheetId="15" r:id="rId12"/>
+    <sheet name="10月27日" sheetId="14" r:id="rId13"/>
+    <sheet name="10月26日" sheetId="13" r:id="rId14"/>
+    <sheet name="10月25日" sheetId="12" r:id="rId15"/>
+    <sheet name="10月24日" sheetId="11" r:id="rId16"/>
+    <sheet name="10月23日" sheetId="10" r:id="rId17"/>
+    <sheet name="10月22日" sheetId="9" r:id="rId18"/>
+    <sheet name="10月21日" sheetId="8" r:id="rId19"/>
+    <sheet name="10月20日 " sheetId="7" r:id="rId20"/>
+    <sheet name="10月19日" sheetId="6" r:id="rId21"/>
+    <sheet name="10月18日" sheetId="5" r:id="rId22"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="179">
   <si>
     <t>1.実施したこと</t>
     <rPh sb="2" eb="4">
@@ -2372,6 +2373,91 @@
     </rPh>
     <rPh sb="34" eb="35">
       <t>マナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・2013/11/13</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・apkファイルのビルド</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>apkファイルの拡張子をzipに変更、解凍後に</t>
+    <rPh sb="8" eb="11">
+      <t>カクチョウシ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>カイトウ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dex2jarというツールを使用してclassファイルの作成を行った。</t>
+    <rPh sb="14" eb="16">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>その後、jadというツールを使用してclassファイルをjavaファイルに変換した。</t>
+    <rPh sb="2" eb="3">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ヘンカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロジェクトを作成して、ビルド出来る環境を構築する方法について調査すること。</t>
+    <rPh sb="7" eb="9">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>デキ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>カンキョウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>コウチク</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>チョウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・apkファイルのビルド実行法の調査</t>
+    <rPh sb="12" eb="14">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ホウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>チョウサ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2784,7 +2870,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM23"/>
+  <dimension ref="A1:AM18"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2838,7 +2924,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -2848,79 +2934,59 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39">
-      <c r="B6" t="s">
-        <v>103</v>
+        <v>178</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="A7" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:39">
-      <c r="A8" t="s">
-        <v>3</v>
+      <c r="B8" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="9" spans="1:39">
-      <c r="B9" t="s">
-        <v>166</v>
+      <c r="C9" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39">
-      <c r="C12" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="C13" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="15" spans="1:39">
-      <c r="B15" t="s">
-        <v>103</v>
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="C16" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="C17" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B20" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
+      <c r="A16" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
-      <c r="B23" t="s">
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
         <v>103</v>
       </c>
     </row>
@@ -2933,7 +2999,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM18"/>
+  <dimension ref="A1:AM19"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -2987,7 +3053,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -2997,7 +3063,7 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:39">
@@ -3007,49 +3073,54 @@
     </row>
     <row r="8" spans="1:39">
       <c r="B8" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:39">
       <c r="C9" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="13" spans="1:39">
-      <c r="A13" t="s">
-        <v>4</v>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="C12" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="14" spans="1:39">
       <c r="A14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="A15" t="s">
         <v>1</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="16" spans="1:39">
-      <c r="A16" t="s">
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
-      <c r="B17" t="s">
+    <row r="18" spans="1:2">
+      <c r="B18" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="18" spans="2:2">
-      <c r="B18" t="s">
+    <row r="19" spans="1:2">
+      <c r="B19" t="s">
         <v>111</v>
       </c>
     </row>
@@ -3062,7 +3133,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM17"/>
+  <dimension ref="A1:AM18"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -3116,7 +3187,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -3126,7 +3197,7 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:39">
@@ -3136,44 +3207,49 @@
     </row>
     <row r="8" spans="1:39">
       <c r="B8" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:39">
       <c r="C9" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39">
-      <c r="A12" t="s">
-        <v>4</v>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39">
+      <c r="C11" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:39">
       <c r="A13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="A14" t="s">
         <v>1</v>
       </c>
-      <c r="B13" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="15" spans="1:39">
-      <c r="A15" t="s">
+      <c r="B14" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="A16" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:39">
-      <c r="B16" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
         <v>111</v>
       </c>
     </row>
@@ -3186,7 +3262,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM22"/>
+  <dimension ref="A1:AM17"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -3240,7 +3316,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -3250,94 +3326,67 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39">
-      <c r="B6" t="s">
-        <v>57</v>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="A7" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:39">
-      <c r="A8" t="s">
-        <v>3</v>
+      <c r="B8" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:39">
-      <c r="B9" t="s">
-        <v>101</v>
+      <c r="C9" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="11" spans="1:39">
-      <c r="C11" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="C12" t="s">
-        <v>106</v>
+      <c r="A12" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="C13" s="4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="14" spans="1:39">
-      <c r="C14" s="4"/>
+      <c r="A13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="15" spans="1:39">
-      <c r="B15" t="s">
-        <v>108</v>
-      </c>
-      <c r="C15" s="4"/>
+      <c r="A15" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="C16" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>1</v>
-      </c>
-      <c r="B19" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="B22" t="s">
+      <c r="B16" t="s">
         <v>103</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <hyperlinks>
-    <hyperlink ref="C13" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM19"/>
+  <dimension ref="A1:AM22"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -3391,7 +3440,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -3401,77 +3450,94 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39">
-      <c r="A7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39">
+      <c r="B6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="A8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
-      <c r="B8" t="s">
-        <v>87</v>
-      </c>
-    </row>
     <row r="9" spans="1:39">
-      <c r="C9" t="s">
-        <v>97</v>
+      <c r="B9" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:39">
       <c r="C12" t="s">
-        <v>98</v>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="C13" s="4" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:39">
-      <c r="A14" t="s">
+      <c r="C14" s="4"/>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="B15" t="s">
+        <v>108</v>
+      </c>
+      <c r="C15" s="4"/>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="C16" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:39">
-      <c r="A15" t="s">
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
         <v>1</v>
       </c>
-      <c r="B15" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
+      <c r="B19" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
-      <c r="B18" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="B19" t="s">
-        <v>99</v>
+    <row r="22" spans="1:2">
+      <c r="B22" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="C13" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM18"/>
+  <dimension ref="A1:AM19"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -3525,7 +3591,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -3545,50 +3611,55 @@
     </row>
     <row r="8" spans="1:39">
       <c r="B8" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:39">
       <c r="C9" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="13" spans="1:39">
-      <c r="A13" t="s">
-        <v>4</v>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="C12" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:39">
       <c r="A14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="A15" t="s">
         <v>1</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="16" spans="1:39">
-      <c r="A16" t="s">
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
-      <c r="B17" t="s">
+    <row r="18" spans="1:2">
+      <c r="B18" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="2:2">
-      <c r="B18" t="s">
-        <v>89</v>
+    <row r="19" spans="1:2">
+      <c r="B19" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -3600,11 +3671,9 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM27"/>
+  <dimension ref="A1:AM18"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="AM35" sqref="AM35"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
   <cols>
@@ -3656,7 +3725,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -3666,95 +3735,60 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39">
-      <c r="B6" t="s">
-        <v>76</v>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="A7" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:39">
-      <c r="A8" t="s">
-        <v>3</v>
+      <c r="B8" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:39">
-      <c r="B9" t="s">
-        <v>75</v>
+      <c r="C9" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39">
-      <c r="B12" t="s">
-        <v>76</v>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39">
+      <c r="C11" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="C13" t="s">
-        <v>78</v>
+      <c r="A13" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:39">
-      <c r="C14" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="15" spans="1:39">
-      <c r="C15" t="s">
-        <v>80</v>
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="C16" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="C18" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="C19" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="C20" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
-        <v>1</v>
-      </c>
-      <c r="B23" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
+      <c r="A16" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
-      <c r="B26" t="s">
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
-      <c r="B27" t="s">
-        <v>60</v>
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -3766,9 +3800,11 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM23"/>
+  <dimension ref="A1:AM27"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="AM35" sqref="AM35"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
   <cols>
@@ -3820,7 +3856,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -3830,84 +3866,94 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39">
-      <c r="A7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39">
+      <c r="B6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="A8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
-      <c r="B8" t="s">
-        <v>64</v>
-      </c>
-    </row>
     <row r="9" spans="1:39">
-      <c r="C9" t="s">
-        <v>65</v>
+      <c r="B9" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="11" spans="1:39">
-      <c r="D11" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="D12" t="s">
-        <v>67</v>
+      <c r="B12" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="D13" t="s">
-        <v>68</v>
+      <c r="C13" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:39">
-      <c r="D14" t="s">
-        <v>69</v>
+      <c r="C14" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:39">
-      <c r="D15" t="s">
-        <v>70</v>
+      <c r="C15" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="D16" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
+      <c r="C16" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="C18" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="C19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="C20" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
         <v>1</v>
       </c>
-      <c r="B19" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
+      <c r="B23" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
-      <c r="B22" t="s">
+    <row r="26" spans="1:3">
+      <c r="B26" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
-      <c r="B23" t="s">
+    <row r="27" spans="1:3">
+      <c r="B27" t="s">
         <v>60</v>
       </c>
     </row>
@@ -3920,7 +3966,7 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM24"/>
+  <dimension ref="A1:AM23"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -3974,7 +4020,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -3984,79 +4030,84 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39">
-      <c r="B6" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:39">
-      <c r="B7" t="s">
-        <v>57</v>
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="B8" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:39">
-      <c r="A9" t="s">
-        <v>3</v>
+      <c r="C9" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:39">
-      <c r="B10" t="s">
-        <v>42</v>
+      <c r="C10" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:39">
-      <c r="C11" t="s">
-        <v>58</v>
+      <c r="D11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="D12" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="B13" t="s">
-        <v>56</v>
+      <c r="D13" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:39">
-      <c r="C14" t="s">
-        <v>59</v>
+      <c r="D14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="D15" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="B16" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="C17" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
         <v>1</v>
       </c>
-      <c r="B20" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
+      <c r="B19" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="22" spans="1:2">
+      <c r="B22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
       <c r="B23" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="B24" t="s">
         <v>60</v>
       </c>
     </row>
@@ -4069,7 +4120,7 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM29"/>
+  <dimension ref="A1:AM24"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -4123,7 +4174,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -4133,17 +4184,17 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:39">
       <c r="B6" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:39">
       <c r="B7" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:39">
@@ -4153,91 +4204,60 @@
     </row>
     <row r="10" spans="1:39">
       <c r="B10" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39">
-      <c r="C12" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="C13" t="s">
-        <v>50</v>
+      <c r="B13" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:39">
       <c r="C14" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" spans="1:39">
-      <c r="C15" s="4"/>
+        <v>59</v>
+      </c>
     </row>
     <row r="16" spans="1:39">
       <c r="B16" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="C17" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="C18" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="C19" t="s">
-        <v>45</v>
+      <c r="A19" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="C20" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="B21" s="4"/>
+      <c r="A20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="B22" t="s">
-        <v>30</v>
+      <c r="A22" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="C23" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" t="s">
-        <v>1</v>
-      </c>
-      <c r="B26" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="B29" t="s">
+      <c r="B23" t="s">
         <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="B24" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -4249,7 +4269,7 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM25"/>
+  <dimension ref="A1:AM29"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -4303,7 +4323,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -4313,107 +4333,123 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:39">
       <c r="B6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="B7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
-      <c r="A8" t="s">
+    <row r="9" spans="1:39">
+      <c r="A9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:39">
-      <c r="B9" t="s">
-        <v>35</v>
-      </c>
-    </row>
     <row r="10" spans="1:39">
-      <c r="C10" t="s">
-        <v>36</v>
+      <c r="B10" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="C12" s="4" t="s">
-        <v>33</v>
+      <c r="C12" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="B13" s="4"/>
+      <c r="C13" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="14" spans="1:39">
-      <c r="B14" s="4"/>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:39">
-      <c r="C15" t="s">
-        <v>40</v>
-      </c>
+      <c r="C15" s="4"/>
     </row>
     <row r="16" spans="1:39">
-      <c r="B16" s="4"/>
+      <c r="B16" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="B17" t="s">
-        <v>30</v>
+      <c r="C17" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="C18" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="C19" t="s">
-        <v>31</v>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="C20" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" t="s">
+      <c r="B21" s="4"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="B22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="C23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
         <v>1</v>
       </c>
-      <c r="B22" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
+      <c r="B26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
-      <c r="B25" t="s">
-        <v>38</v>
+    <row r="29" spans="1:3">
+      <c r="B29" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <hyperlinks>
-    <hyperlink ref="C12" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM20"/>
+  <dimension ref="A1:AM23"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -4467,7 +4503,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -4477,7 +4513,7 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>111</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:39">
@@ -4492,49 +4528,64 @@
     </row>
     <row r="9" spans="1:39">
       <c r="B9" t="s">
-        <v>111</v>
+        <v>166</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>163</v>
+        <v>167</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39">
+      <c r="C11" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="B12" t="s">
-        <v>103</v>
+      <c r="C12" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="13" spans="1:39">
       <c r="C13" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="B15" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="C16" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="14" spans="1:39">
-      <c r="C14" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="16" spans="1:39">
-      <c r="A16" t="s">
+    <row r="17" spans="1:3">
+      <c r="C17" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
         <v>1</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B20" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
-      <c r="B20" t="s">
+    <row r="23" spans="1:3">
+      <c r="B23" t="s">
         <v>103</v>
       </c>
     </row>
@@ -4549,9 +4600,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AM25"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
   <cols>
@@ -4603,7 +4652,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -4613,12 +4662,12 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:39">
       <c r="B6" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:39">
@@ -4628,22 +4677,22 @@
     </row>
     <row r="9" spans="1:39">
       <c r="B9" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:39">
       <c r="C12" s="4" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:39">
@@ -4652,31 +4701,30 @@
     <row r="14" spans="1:39">
       <c r="B14" s="4"/>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:39">
-      <c r="B15" s="4"/>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
+      <c r="B16" s="4"/>
     </row>
     <row r="17" spans="1:3">
-      <c r="B17" s="4"/>
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="B18" t="s">
-        <v>18</v>
+      <c r="C18" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="C19" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -4689,7 +4737,7 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -4699,7 +4747,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="B25" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -4714,9 +4762,11 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM23"/>
+  <dimension ref="A1:AM25"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
   <cols>
@@ -4768,7 +4818,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -4778,95 +4828,108 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39">
-      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39">
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="A8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-    </row>
     <row r="9" spans="1:39">
-      <c r="C9" t="s">
-        <v>14</v>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39">
+      <c r="C10" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:39">
-      <c r="B11" t="s">
-        <v>15</v>
+      <c r="C11" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="B12" s="4" t="s">
-        <v>10</v>
+      <c r="C12" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:39">
       <c r="B13" s="4"/>
     </row>
     <row r="14" spans="1:39">
-      <c r="B14" t="s">
-        <v>16</v>
+      <c r="B14" s="4"/>
+      <c r="C14" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:39">
-      <c r="B15" s="4" t="s">
-        <v>7</v>
+      <c r="B15" s="4"/>
+      <c r="C15" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="B16" s="4"/>
       <c r="C16" t="s">
-        <v>13</v>
-      </c>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="B17" s="4"/>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>4</v>
+      <c r="B18" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>1</v>
-      </c>
-      <c r="B19" t="s">
-        <v>11</v>
+      <c r="C19" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
-      <c r="B22" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="C23" t="s">
-        <v>9</v>
+    <row r="25" spans="1:3">
+      <c r="B25" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="B15" r:id="rId1"/>
-    <hyperlink ref="B12" r:id="rId2"/>
+    <hyperlink ref="C12" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM19"/>
+  <dimension ref="A1:AM23"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -4920,7 +4983,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>161</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -4930,72 +4993,95 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39">
-      <c r="B6" t="s">
-        <v>103</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="A7" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:39">
-      <c r="A8" t="s">
-        <v>3</v>
+      <c r="B8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:39">
-      <c r="B9" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="10" spans="1:39">
-      <c r="C10" t="s">
-        <v>159</v>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39">
+      <c r="B11" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="B12" t="s">
-        <v>103</v>
+      <c r="B12" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="C13" t="s">
-        <v>158</v>
+      <c r="B13" s="4"/>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="B14" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:39">
-      <c r="A15" t="s">
+      <c r="B15" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="B16" s="4"/>
+      <c r="C16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:39">
-      <c r="A16" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>1</v>
       </c>
-      <c r="B16" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
+      <c r="B19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="B19" t="s">
-        <v>103</v>
+    <row r="22" spans="1:3">
+      <c r="B22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="C23" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="B15" r:id="rId1"/>
+    <hyperlink ref="B12" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM18"/>
+  <dimension ref="A1:AM20"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -5049,7 +5135,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -5062,57 +5148,62 @@
         <v>111</v>
       </c>
     </row>
-    <row r="7" spans="1:39">
-      <c r="A7" t="s">
+    <row r="6" spans="1:39">
+      <c r="B6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="A8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
-      <c r="B8" t="s">
+    <row r="9" spans="1:39">
+      <c r="B9" t="s">
         <v>111</v>
-      </c>
-    </row>
-    <row r="9" spans="1:39">
-      <c r="C9" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="A12" t="s">
+      <c r="B12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="C13" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="C14" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="A16" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:39">
-      <c r="A13" t="s">
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
         <v>1</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B17" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="15" spans="1:39">
-      <c r="A15" t="s">
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:39">
-      <c r="B16" t="s">
+    <row r="20" spans="1:2">
+      <c r="B20" t="s">
         <v>103</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3">
-      <c r="B17" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3">
-      <c r="C18" t="s">
-        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -5122,9 +5213,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM17"/>
+  <dimension ref="A1:AM19"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -5178,7 +5269,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -5188,55 +5279,60 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39">
+      <c r="B6" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="7" spans="1:39">
-      <c r="A7" t="s">
+    <row r="8" spans="1:39">
+      <c r="A8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
-      <c r="B8" t="s">
-        <v>103</v>
-      </c>
-    </row>
     <row r="9" spans="1:39">
-      <c r="C9" t="s">
-        <v>151</v>
+      <c r="B9" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="A12" t="s">
-        <v>4</v>
+      <c r="B12" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="A13" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13" t="s">
-        <v>153</v>
+      <c r="C13" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:39">
       <c r="A15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="A16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:39">
-      <c r="B16" t="s">
+    <row r="19" spans="1:2">
+      <c r="B19" t="s">
         <v>103</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17" t="s">
-        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -5246,9 +5342,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM24"/>
+  <dimension ref="A1:AM18"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -5302,7 +5398,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -5312,85 +5408,60 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39">
-      <c r="B6" t="s">
-        <v>141</v>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="A7" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:39">
-      <c r="A8" t="s">
-        <v>3</v>
+      <c r="B8" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:39">
-      <c r="B9" t="s">
-        <v>145</v>
+      <c r="C9" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="11" spans="1:39">
-      <c r="C11" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="C12" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="14" spans="1:39">
-      <c r="B14" t="s">
-        <v>141</v>
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="A13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="15" spans="1:39">
-      <c r="C15" t="s">
-        <v>146</v>
+      <c r="A15" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="C16" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="C17" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B20" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="B23" t="s">
+      <c r="B16" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
-      <c r="B24" t="s">
+    <row r="17" spans="2:3">
+      <c r="B17" t="s">
         <v>111</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3">
+      <c r="C18" t="s">
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -5400,9 +5471,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM18"/>
+  <dimension ref="A1:AM17"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -5456,7 +5527,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -5466,7 +5537,7 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:39">
@@ -5476,49 +5547,44 @@
     </row>
     <row r="8" spans="1:39">
       <c r="B8" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:39">
       <c r="C9" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="11" spans="1:39">
-      <c r="C11" t="s">
-        <v>139</v>
+        <v>152</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="A12" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:39">
       <c r="A13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:39">
-      <c r="A14" t="s">
         <v>1</v>
       </c>
-      <c r="B14" t="s">
-        <v>140</v>
+      <c r="B13" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="A15" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="A16" t="s">
-        <v>2</v>
+      <c r="B16" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18" t="s">
         <v>111</v>
       </c>
     </row>
@@ -5529,7 +5595,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AM24"/>
   <sheetViews>
@@ -5585,7 +5651,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>127</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -5595,52 +5661,57 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39">
-      <c r="A7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39">
+      <c r="B6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="A8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
-      <c r="B8" t="s">
-        <v>128</v>
-      </c>
-    </row>
     <row r="9" spans="1:39">
-      <c r="C9" t="s">
-        <v>129</v>
+      <c r="B9" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12" spans="1:39">
       <c r="C12" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14" spans="1:39">
-      <c r="C14" t="s">
-        <v>133</v>
+      <c r="B14" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="C15" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="16" spans="1:39">
       <c r="C16" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="C17" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -5678,9 +5749,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM19"/>
+  <dimension ref="A1:AM18"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -5734,7 +5805,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -5744,7 +5815,7 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:39">
@@ -5754,54 +5825,198 @@
     </row>
     <row r="8" spans="1:39">
       <c r="B8" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:39">
       <c r="C9" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" t="s">
-        <v>126</v>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="A16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
+        <v>111</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AM24"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="1.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:39" s="1" customFormat="1" ht="21">
+      <c r="A1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="2"/>
+    </row>
+    <row r="2" spans="1:39">
+      <c r="A2" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39">
+      <c r="B5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="B8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39">
+      <c r="C9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39">
+      <c r="C10" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39">
+      <c r="C11" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:39">
       <c r="C12" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14" spans="1:39">
-      <c r="A14" t="s">
+      <c r="C14" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="C16" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="C17" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:39">
-      <c r="A15" t="s">
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
         <v>1</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B20" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
-      <c r="B18" t="s">
+    <row r="23" spans="1:3">
+      <c r="B23" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="B19" t="s">
+    <row r="24" spans="1:3">
+      <c r="B24" t="s">
         <v>111</v>
       </c>
     </row>

--- a/日報.xlsx
+++ b/日報.xlsx
@@ -7,35 +7,36 @@
     <workbookView xWindow="-285" yWindow="150" windowWidth="10110" windowHeight="9165"/>
   </bookViews>
   <sheets>
-    <sheet name="11月13日" sheetId="27" r:id="rId1"/>
-    <sheet name="11月12日" sheetId="26" r:id="rId2"/>
-    <sheet name="11月11日" sheetId="25" r:id="rId3"/>
-    <sheet name="11月10日" sheetId="24" r:id="rId4"/>
-    <sheet name="11月9日" sheetId="22" r:id="rId5"/>
-    <sheet name="11月8日" sheetId="21" r:id="rId6"/>
-    <sheet name="11月7日" sheetId="20" r:id="rId7"/>
-    <sheet name="11月5日" sheetId="19" r:id="rId8"/>
-    <sheet name="10月31日" sheetId="18" r:id="rId9"/>
-    <sheet name="10月30日" sheetId="17" r:id="rId10"/>
-    <sheet name="10月29日" sheetId="16" r:id="rId11"/>
-    <sheet name="10月28日" sheetId="15" r:id="rId12"/>
-    <sheet name="10月27日" sheetId="14" r:id="rId13"/>
-    <sheet name="10月26日" sheetId="13" r:id="rId14"/>
-    <sheet name="10月25日" sheetId="12" r:id="rId15"/>
-    <sheet name="10月24日" sheetId="11" r:id="rId16"/>
-    <sheet name="10月23日" sheetId="10" r:id="rId17"/>
-    <sheet name="10月22日" sheetId="9" r:id="rId18"/>
-    <sheet name="10月21日" sheetId="8" r:id="rId19"/>
-    <sheet name="10月20日 " sheetId="7" r:id="rId20"/>
-    <sheet name="10月19日" sheetId="6" r:id="rId21"/>
-    <sheet name="10月18日" sheetId="5" r:id="rId22"/>
+    <sheet name="11月14日" sheetId="28" r:id="rId1"/>
+    <sheet name="11月13日" sheetId="27" r:id="rId2"/>
+    <sheet name="11月12日" sheetId="26" r:id="rId3"/>
+    <sheet name="11月11日" sheetId="25" r:id="rId4"/>
+    <sheet name="11月10日" sheetId="24" r:id="rId5"/>
+    <sheet name="11月9日" sheetId="22" r:id="rId6"/>
+    <sheet name="11月8日" sheetId="21" r:id="rId7"/>
+    <sheet name="11月7日" sheetId="20" r:id="rId8"/>
+    <sheet name="11月5日" sheetId="19" r:id="rId9"/>
+    <sheet name="10月31日" sheetId="18" r:id="rId10"/>
+    <sheet name="10月30日" sheetId="17" r:id="rId11"/>
+    <sheet name="10月29日" sheetId="16" r:id="rId12"/>
+    <sheet name="10月28日" sheetId="15" r:id="rId13"/>
+    <sheet name="10月27日" sheetId="14" r:id="rId14"/>
+    <sheet name="10月26日" sheetId="13" r:id="rId15"/>
+    <sheet name="10月25日" sheetId="12" r:id="rId16"/>
+    <sheet name="10月24日" sheetId="11" r:id="rId17"/>
+    <sheet name="10月23日" sheetId="10" r:id="rId18"/>
+    <sheet name="10月22日" sheetId="9" r:id="rId19"/>
+    <sheet name="10月21日" sheetId="8" r:id="rId20"/>
+    <sheet name="10月20日 " sheetId="7" r:id="rId21"/>
+    <sheet name="10月19日" sheetId="6" r:id="rId22"/>
+    <sheet name="10月18日" sheetId="5" r:id="rId23"/>
   </sheets>
   <calcPr calcId="125725" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="191">
   <si>
     <t>1.実施したこと</t>
     <rPh sb="2" eb="4">
@@ -2458,6 +2459,135 @@
     </rPh>
     <rPh sb="16" eb="18">
       <t>チョウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・2013/11/14</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・apkファイルのビルド実行</t>
+    <rPh sb="12" eb="14">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・機能の実装</t>
+    <rPh sb="1" eb="3">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FS88から入手した「FtrScanDemoUsbHost」、「ftrScanApiAndroidHelperUsbHost」</t>
+    <rPh sb="6" eb="8">
+      <t>ニュウシュ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「ftrWsqAndroidHelper」の3つのプロジェクトをEclipseにインポートして</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ビルド・実行を行った。</t>
+    <rPh sb="4" eb="6">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Nexus7に入れたデモアプリが動作をするか試そうとFS88を繋げたが、</t>
+    <rPh sb="7" eb="8">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>タメ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ツナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>それだけでは認識されなかったため「NEXUS media importer」というアプリをインストールした。</t>
+    <rPh sb="6" eb="8">
+      <t>ニンシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日本語では「NEXUS media importer」がうまく動作しないため、英語(US)に言語を設定後、</t>
+    <rPh sb="0" eb="3">
+      <t>ニホンゴ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>エイゴ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ゲンゴ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>ゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>再起動をすることで、アプリが正常に動作することを確認した。</t>
+    <rPh sb="0" eb="3">
+      <t>サイキドウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>セイジョウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FS88のデモアプリも指紋のスキャンなどの動作を行えることを確認した。</t>
+    <rPh sb="11" eb="13">
+      <t>シモン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・Nexus7とFS88を使用してデモアプリの実行</t>
+    <rPh sb="13" eb="15">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ジッコウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2870,7 +3000,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM18"/>
+  <dimension ref="A1:AM26"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2924,7 +3054,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -2934,60 +3064,95 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39">
-      <c r="A7" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39">
+      <c r="B6" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="A8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
-      <c r="B8" t="s">
-        <v>178</v>
-      </c>
-    </row>
     <row r="9" spans="1:39">
-      <c r="C9" t="s">
-        <v>174</v>
+      <c r="B9" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="13" spans="1:39">
-      <c r="A13" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="C12" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="B14" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="C15" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="C16" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="C17" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="C18" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="C19" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:39">
-      <c r="A14" t="s">
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
         <v>1</v>
       </c>
-      <c r="B14" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="16" spans="1:39">
-      <c r="A16" t="s">
+      <c r="B22" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
-      <c r="B17" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18" t="s">
+    <row r="25" spans="1:3">
+      <c r="B25" t="s">
         <v>103</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="B26" t="s">
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -2999,7 +3164,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM19"/>
+  <dimension ref="A1:AM24"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -3053,7 +3218,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -3063,7 +3228,7 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:39">
@@ -3073,54 +3238,69 @@
     </row>
     <row r="8" spans="1:39">
       <c r="B8" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:39">
       <c r="C9" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:39">
       <c r="C12" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14" spans="1:39">
-      <c r="A14" t="s">
+      <c r="C14" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="C16" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="C17" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:39">
-      <c r="A15" t="s">
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
         <v>1</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B20" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
-      <c r="B18" t="s">
+    <row r="23" spans="1:3">
+      <c r="B23" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="B19" t="s">
+    <row r="24" spans="1:3">
+      <c r="B24" t="s">
         <v>111</v>
       </c>
     </row>
@@ -3133,7 +3313,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM18"/>
+  <dimension ref="A1:AM19"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -3187,7 +3367,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -3197,7 +3377,7 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:39">
@@ -3207,49 +3387,54 @@
     </row>
     <row r="8" spans="1:39">
       <c r="B8" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:39">
       <c r="C9" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="13" spans="1:39">
-      <c r="A13" t="s">
-        <v>4</v>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="C12" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="14" spans="1:39">
       <c r="A14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="A15" t="s">
         <v>1</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="16" spans="1:39">
-      <c r="A16" t="s">
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
-      <c r="B17" t="s">
+    <row r="18" spans="1:2">
+      <c r="B18" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="18" spans="2:2">
-      <c r="B18" t="s">
+    <row r="19" spans="1:2">
+      <c r="B19" t="s">
         <v>111</v>
       </c>
     </row>
@@ -3262,7 +3447,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM17"/>
+  <dimension ref="A1:AM18"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -3316,7 +3501,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -3326,7 +3511,7 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:39">
@@ -3336,44 +3521,49 @@
     </row>
     <row r="8" spans="1:39">
       <c r="B8" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:39">
       <c r="C9" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39">
-      <c r="A12" t="s">
-        <v>4</v>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39">
+      <c r="C11" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:39">
       <c r="A13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="A14" t="s">
         <v>1</v>
       </c>
-      <c r="B13" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="15" spans="1:39">
-      <c r="A15" t="s">
+      <c r="B14" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="A16" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:39">
-      <c r="B16" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
         <v>111</v>
       </c>
     </row>
@@ -3386,7 +3576,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM22"/>
+  <dimension ref="A1:AM17"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -3440,7 +3630,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -3450,94 +3640,67 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39">
-      <c r="B6" t="s">
-        <v>57</v>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="A7" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:39">
-      <c r="A8" t="s">
-        <v>3</v>
+      <c r="B8" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:39">
-      <c r="B9" t="s">
-        <v>101</v>
+      <c r="C9" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="11" spans="1:39">
-      <c r="C11" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="C12" t="s">
-        <v>106</v>
+      <c r="A12" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="C13" s="4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="14" spans="1:39">
-      <c r="C14" s="4"/>
+      <c r="A13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="15" spans="1:39">
-      <c r="B15" t="s">
-        <v>108</v>
-      </c>
-      <c r="C15" s="4"/>
+      <c r="A15" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="C16" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>1</v>
-      </c>
-      <c r="B19" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="B22" t="s">
+      <c r="B16" t="s">
         <v>103</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <hyperlinks>
-    <hyperlink ref="C13" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM19"/>
+  <dimension ref="A1:AM22"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -3591,7 +3754,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -3601,77 +3764,94 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39">
-      <c r="A7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39">
+      <c r="B6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="A8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
-      <c r="B8" t="s">
-        <v>87</v>
-      </c>
-    </row>
     <row r="9" spans="1:39">
-      <c r="C9" t="s">
-        <v>97</v>
+      <c r="B9" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:39">
       <c r="C12" t="s">
-        <v>98</v>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="C13" s="4" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:39">
-      <c r="A14" t="s">
+      <c r="C14" s="4"/>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="B15" t="s">
+        <v>108</v>
+      </c>
+      <c r="C15" s="4"/>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="C16" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:39">
-      <c r="A15" t="s">
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
         <v>1</v>
       </c>
-      <c r="B15" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
+      <c r="B19" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
-      <c r="B18" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="B19" t="s">
-        <v>99</v>
+    <row r="22" spans="1:2">
+      <c r="B22" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="C13" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM18"/>
+  <dimension ref="A1:AM19"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -3725,7 +3905,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -3745,50 +3925,55 @@
     </row>
     <row r="8" spans="1:39">
       <c r="B8" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:39">
       <c r="C9" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="13" spans="1:39">
-      <c r="A13" t="s">
-        <v>4</v>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="C12" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:39">
       <c r="A14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="A15" t="s">
         <v>1</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="16" spans="1:39">
-      <c r="A16" t="s">
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
-      <c r="B17" t="s">
+    <row r="18" spans="1:2">
+      <c r="B18" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="2:2">
-      <c r="B18" t="s">
-        <v>89</v>
+    <row r="19" spans="1:2">
+      <c r="B19" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -3800,11 +3985,9 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM27"/>
+  <dimension ref="A1:AM18"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="AM35" sqref="AM35"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
   <cols>
@@ -3856,7 +4039,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -3866,95 +4049,60 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39">
-      <c r="B6" t="s">
-        <v>76</v>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="A7" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:39">
-      <c r="A8" t="s">
-        <v>3</v>
+      <c r="B8" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:39">
-      <c r="B9" t="s">
-        <v>75</v>
+      <c r="C9" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39">
-      <c r="B12" t="s">
-        <v>76</v>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39">
+      <c r="C11" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="C13" t="s">
-        <v>78</v>
+      <c r="A13" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:39">
-      <c r="C14" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="15" spans="1:39">
-      <c r="C15" t="s">
-        <v>80</v>
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="C16" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="C18" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="C19" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="C20" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
-        <v>1</v>
-      </c>
-      <c r="B23" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
+      <c r="A16" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
-      <c r="B26" t="s">
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
-      <c r="B27" t="s">
-        <v>60</v>
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -3966,9 +4114,11 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM23"/>
+  <dimension ref="A1:AM27"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="AM35" sqref="AM35"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
   <cols>
@@ -4020,7 +4170,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -4030,84 +4180,94 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39">
-      <c r="A7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39">
+      <c r="B6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="A8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
-      <c r="B8" t="s">
-        <v>64</v>
-      </c>
-    </row>
     <row r="9" spans="1:39">
-      <c r="C9" t="s">
-        <v>65</v>
+      <c r="B9" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="11" spans="1:39">
-      <c r="D11" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="D12" t="s">
-        <v>67</v>
+      <c r="B12" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="D13" t="s">
-        <v>68</v>
+      <c r="C13" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:39">
-      <c r="D14" t="s">
-        <v>69</v>
+      <c r="C14" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:39">
-      <c r="D15" t="s">
-        <v>70</v>
+      <c r="C15" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="D16" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
+      <c r="C16" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="C18" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="C19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="C20" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
         <v>1</v>
       </c>
-      <c r="B19" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
+      <c r="B23" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
-      <c r="B22" t="s">
+    <row r="26" spans="1:3">
+      <c r="B26" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
-      <c r="B23" t="s">
+    <row r="27" spans="1:3">
+      <c r="B27" t="s">
         <v>60</v>
       </c>
     </row>
@@ -4120,7 +4280,7 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM24"/>
+  <dimension ref="A1:AM23"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -4174,7 +4334,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -4184,79 +4344,84 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39">
-      <c r="B6" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:39">
-      <c r="B7" t="s">
-        <v>57</v>
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="B8" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:39">
-      <c r="A9" t="s">
-        <v>3</v>
+      <c r="C9" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:39">
-      <c r="B10" t="s">
-        <v>42</v>
+      <c r="C10" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:39">
-      <c r="C11" t="s">
-        <v>58</v>
+      <c r="D11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="D12" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="B13" t="s">
-        <v>56</v>
+      <c r="D13" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:39">
-      <c r="C14" t="s">
-        <v>59</v>
+      <c r="D14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="D15" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="B16" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="C17" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
         <v>1</v>
       </c>
-      <c r="B20" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
+      <c r="B19" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="22" spans="1:2">
+      <c r="B22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
       <c r="B23" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="B24" t="s">
         <v>60</v>
       </c>
     </row>
@@ -4269,7 +4434,7 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM29"/>
+  <dimension ref="A1:AM24"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -4323,7 +4488,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -4333,17 +4498,17 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:39">
       <c r="B6" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:39">
       <c r="B7" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:39">
@@ -4353,91 +4518,60 @@
     </row>
     <row r="10" spans="1:39">
       <c r="B10" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39">
-      <c r="C12" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="C13" t="s">
-        <v>50</v>
+      <c r="B13" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:39">
       <c r="C14" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" spans="1:39">
-      <c r="C15" s="4"/>
+        <v>59</v>
+      </c>
     </row>
     <row r="16" spans="1:39">
       <c r="B16" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="C17" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="C18" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="C19" t="s">
-        <v>45</v>
+      <c r="A19" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="C20" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="B21" s="4"/>
+      <c r="A20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="B22" t="s">
-        <v>30</v>
+      <c r="A22" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="C23" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" t="s">
-        <v>1</v>
-      </c>
-      <c r="B26" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="B29" t="s">
+      <c r="B23" t="s">
         <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="B24" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -4449,7 +4583,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM23"/>
+  <dimension ref="A1:AM18"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -4503,7 +4637,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -4513,79 +4647,59 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39">
-      <c r="B6" t="s">
-        <v>103</v>
+        <v>178</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="A7" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:39">
-      <c r="A8" t="s">
-        <v>3</v>
+      <c r="B8" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="9" spans="1:39">
-      <c r="B9" t="s">
-        <v>166</v>
+      <c r="C9" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39">
-      <c r="C12" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="C13" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="15" spans="1:39">
-      <c r="B15" t="s">
-        <v>103</v>
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="C16" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="C17" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B20" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
+      <c r="A16" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
-      <c r="B23" t="s">
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
         <v>103</v>
       </c>
     </row>
@@ -4598,7 +4712,7 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM25"/>
+  <dimension ref="A1:AM29"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -4652,7 +4766,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -4662,101 +4776,117 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:39">
       <c r="B6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="B7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
-      <c r="A8" t="s">
+    <row r="9" spans="1:39">
+      <c r="A9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:39">
-      <c r="B9" t="s">
-        <v>35</v>
-      </c>
-    </row>
     <row r="10" spans="1:39">
-      <c r="C10" t="s">
-        <v>36</v>
+      <c r="B10" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="C12" s="4" t="s">
-        <v>33</v>
+      <c r="C12" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="B13" s="4"/>
+      <c r="C13" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="14" spans="1:39">
-      <c r="B14" s="4"/>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:39">
-      <c r="C15" t="s">
-        <v>40</v>
-      </c>
+      <c r="C15" s="4"/>
     </row>
     <row r="16" spans="1:39">
-      <c r="B16" s="4"/>
+      <c r="B16" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="B17" t="s">
-        <v>30</v>
+      <c r="C17" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="C18" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="C19" t="s">
-        <v>31</v>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="C20" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" t="s">
+      <c r="B21" s="4"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="B22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="C23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
         <v>1</v>
       </c>
-      <c r="B22" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
+      <c r="B26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
-      <c r="B25" t="s">
-        <v>38</v>
+    <row r="29" spans="1:3">
+      <c r="B29" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <hyperlinks>
-    <hyperlink ref="C12" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4764,9 +4894,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AM25"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
   <cols>
@@ -4818,7 +4946,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -4828,12 +4956,12 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:39">
       <c r="B6" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:39">
@@ -4843,22 +4971,22 @@
     </row>
     <row r="9" spans="1:39">
       <c r="B9" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:39">
       <c r="C12" s="4" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:39">
@@ -4867,31 +4995,30 @@
     <row r="14" spans="1:39">
       <c r="B14" s="4"/>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:39">
-      <c r="B15" s="4"/>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
+      <c r="B16" s="4"/>
     </row>
     <row r="17" spans="1:3">
-      <c r="B17" s="4"/>
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="B18" t="s">
-        <v>18</v>
+      <c r="C18" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="C19" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -4904,7 +5031,7 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -4914,7 +5041,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="B25" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -4929,9 +5056,11 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM23"/>
+  <dimension ref="A1:AM25"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
   <cols>
@@ -4983,7 +5112,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -4993,95 +5122,108 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39">
-      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39">
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="A8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-    </row>
     <row r="9" spans="1:39">
-      <c r="C9" t="s">
-        <v>14</v>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39">
+      <c r="C10" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:39">
-      <c r="B11" t="s">
-        <v>15</v>
+      <c r="C11" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="B12" s="4" t="s">
-        <v>10</v>
+      <c r="C12" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:39">
       <c r="B13" s="4"/>
     </row>
     <row r="14" spans="1:39">
-      <c r="B14" t="s">
-        <v>16</v>
+      <c r="B14" s="4"/>
+      <c r="C14" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:39">
-      <c r="B15" s="4" t="s">
-        <v>7</v>
+      <c r="B15" s="4"/>
+      <c r="C15" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="B16" s="4"/>
       <c r="C16" t="s">
-        <v>13</v>
-      </c>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="B17" s="4"/>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>4</v>
+      <c r="B18" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>1</v>
-      </c>
-      <c r="B19" t="s">
-        <v>11</v>
+      <c r="C19" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
-      <c r="B22" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="C23" t="s">
-        <v>9</v>
+    <row r="25" spans="1:3">
+      <c r="B25" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="B15" r:id="rId1"/>
-    <hyperlink ref="B12" r:id="rId2"/>
+    <hyperlink ref="C12" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM20"/>
+  <dimension ref="A1:AM23"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -5135,7 +5277,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>162</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -5145,77 +5287,95 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39">
-      <c r="B6" t="s">
-        <v>103</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="A7" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:39">
-      <c r="A8" t="s">
-        <v>3</v>
+      <c r="B8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:39">
-      <c r="B9" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="10" spans="1:39">
-      <c r="C10" t="s">
-        <v>163</v>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39">
+      <c r="B11" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="B12" t="s">
-        <v>103</v>
+      <c r="B12" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="C13" t="s">
-        <v>158</v>
-      </c>
+      <c r="B13" s="4"/>
     </row>
     <row r="14" spans="1:39">
-      <c r="C14" t="s">
-        <v>164</v>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="B15" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="A16" t="s">
+      <c r="B16" s="4"/>
+      <c r="C16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>1</v>
       </c>
-      <c r="B17" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
+      <c r="B19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
-      <c r="B20" t="s">
-        <v>103</v>
+    <row r="22" spans="1:3">
+      <c r="B22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="C23" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="B15" r:id="rId1"/>
+    <hyperlink ref="B12" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM19"/>
+  <dimension ref="A1:AM23"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -5269,7 +5429,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -5279,7 +5439,7 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>111</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:39">
@@ -5294,44 +5454,64 @@
     </row>
     <row r="9" spans="1:39">
       <c r="B9" t="s">
-        <v>111</v>
+        <v>166</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>159</v>
+        <v>167</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39">
+      <c r="C11" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="B12" t="s">
-        <v>103</v>
+      <c r="C12" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="13" spans="1:39">
       <c r="C13" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="B15" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="C16" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="15" spans="1:39">
-      <c r="A15" t="s">
+    <row r="17" spans="1:3">
+      <c r="C17" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:39">
-      <c r="A16" t="s">
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
         <v>1</v>
       </c>
-      <c r="B16" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
+      <c r="B20" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="B19" t="s">
+    <row r="23" spans="1:3">
+      <c r="B23" t="s">
         <v>103</v>
       </c>
     </row>
@@ -5342,9 +5522,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM18"/>
+  <dimension ref="A1:AM20"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -5398,7 +5578,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -5411,57 +5591,62 @@
         <v>111</v>
       </c>
     </row>
-    <row r="7" spans="1:39">
-      <c r="A7" t="s">
+    <row r="6" spans="1:39">
+      <c r="B6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="A8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
-      <c r="B8" t="s">
+    <row r="9" spans="1:39">
+      <c r="B9" t="s">
         <v>111</v>
-      </c>
-    </row>
-    <row r="9" spans="1:39">
-      <c r="C9" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="A12" t="s">
+      <c r="B12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="C13" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="C14" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="A16" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:39">
-      <c r="A13" t="s">
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
         <v>1</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B17" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="15" spans="1:39">
-      <c r="A15" t="s">
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:39">
-      <c r="B16" t="s">
+    <row r="20" spans="1:2">
+      <c r="B20" t="s">
         <v>103</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3">
-      <c r="B17" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3">
-      <c r="C18" t="s">
-        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -5471,9 +5656,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM17"/>
+  <dimension ref="A1:AM19"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -5527,7 +5712,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -5537,55 +5722,60 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39">
+      <c r="B6" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="7" spans="1:39">
-      <c r="A7" t="s">
+    <row r="8" spans="1:39">
+      <c r="A8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
-      <c r="B8" t="s">
-        <v>103</v>
-      </c>
-    </row>
     <row r="9" spans="1:39">
-      <c r="C9" t="s">
-        <v>151</v>
+      <c r="B9" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="A12" t="s">
-        <v>4</v>
+      <c r="B12" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="A13" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13" t="s">
-        <v>153</v>
+      <c r="C13" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:39">
       <c r="A15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="A16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:39">
-      <c r="B16" t="s">
+    <row r="19" spans="1:2">
+      <c r="B19" t="s">
         <v>103</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17" t="s">
-        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -5595,9 +5785,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM24"/>
+  <dimension ref="A1:AM18"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -5651,7 +5841,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -5661,85 +5851,60 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39">
-      <c r="B6" t="s">
-        <v>141</v>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="A7" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:39">
-      <c r="A8" t="s">
-        <v>3</v>
+      <c r="B8" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:39">
-      <c r="B9" t="s">
-        <v>145</v>
+      <c r="C9" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="11" spans="1:39">
-      <c r="C11" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="C12" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="14" spans="1:39">
-      <c r="B14" t="s">
-        <v>141</v>
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="A13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="15" spans="1:39">
-      <c r="C15" t="s">
-        <v>146</v>
+      <c r="A15" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="C16" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="C17" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B20" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="B23" t="s">
+      <c r="B16" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
-      <c r="B24" t="s">
+    <row r="17" spans="2:3">
+      <c r="B17" t="s">
         <v>111</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3">
+      <c r="C18" t="s">
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -5749,9 +5914,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM18"/>
+  <dimension ref="A1:AM17"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -5805,7 +5970,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -5815,7 +5980,7 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:39">
@@ -5825,49 +5990,44 @@
     </row>
     <row r="8" spans="1:39">
       <c r="B8" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:39">
       <c r="C9" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="11" spans="1:39">
-      <c r="C11" t="s">
-        <v>139</v>
+        <v>152</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="A12" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:39">
       <c r="A13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:39">
-      <c r="A14" t="s">
         <v>1</v>
       </c>
-      <c r="B14" t="s">
-        <v>140</v>
+      <c r="B13" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="A15" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="A16" t="s">
-        <v>2</v>
+      <c r="B16" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18" t="s">
         <v>111</v>
       </c>
     </row>
@@ -5878,7 +6038,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AM24"/>
   <sheetViews>
@@ -5934,7 +6094,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>127</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -5944,7 +6104,161 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>128</v>
+        <v>145</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39">
+      <c r="B6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39">
+      <c r="B9" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39">
+      <c r="C10" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39">
+      <c r="C11" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="C12" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="B14" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="C15" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="C16" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="C17" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="B23" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="B24" t="s">
+        <v>111</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AM18"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="1.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:39" s="1" customFormat="1" ht="21">
+      <c r="A1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="2"/>
+    </row>
+    <row r="2" spans="1:39">
+      <c r="A2" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39">
+      <c r="B5" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:39">
@@ -5954,69 +6268,49 @@
     </row>
     <row r="8" spans="1:39">
       <c r="B8" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:39">
       <c r="C9" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39">
-      <c r="C12" t="s">
-        <v>132</v>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="A13" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:39">
-      <c r="C14" t="s">
-        <v>133</v>
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="C16" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="C17" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B20" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
+      <c r="A16" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
-      <c r="B23" t="s">
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
-      <c r="B24" t="s">
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
         <v>111</v>
       </c>
     </row>

--- a/日報.xlsx
+++ b/日報.xlsx
@@ -7,36 +7,37 @@
     <workbookView xWindow="-285" yWindow="150" windowWidth="10110" windowHeight="9165"/>
   </bookViews>
   <sheets>
-    <sheet name="11月14日" sheetId="28" r:id="rId1"/>
-    <sheet name="11月13日" sheetId="27" r:id="rId2"/>
-    <sheet name="11月12日" sheetId="26" r:id="rId3"/>
-    <sheet name="11月11日" sheetId="25" r:id="rId4"/>
-    <sheet name="11月10日" sheetId="24" r:id="rId5"/>
-    <sheet name="11月9日" sheetId="22" r:id="rId6"/>
-    <sheet name="11月8日" sheetId="21" r:id="rId7"/>
-    <sheet name="11月7日" sheetId="20" r:id="rId8"/>
-    <sheet name="11月5日" sheetId="19" r:id="rId9"/>
-    <sheet name="10月31日" sheetId="18" r:id="rId10"/>
-    <sheet name="10月30日" sheetId="17" r:id="rId11"/>
-    <sheet name="10月29日" sheetId="16" r:id="rId12"/>
-    <sheet name="10月28日" sheetId="15" r:id="rId13"/>
-    <sheet name="10月27日" sheetId="14" r:id="rId14"/>
-    <sheet name="10月26日" sheetId="13" r:id="rId15"/>
-    <sheet name="10月25日" sheetId="12" r:id="rId16"/>
-    <sheet name="10月24日" sheetId="11" r:id="rId17"/>
-    <sheet name="10月23日" sheetId="10" r:id="rId18"/>
-    <sheet name="10月22日" sheetId="9" r:id="rId19"/>
-    <sheet name="10月21日" sheetId="8" r:id="rId20"/>
-    <sheet name="10月20日 " sheetId="7" r:id="rId21"/>
-    <sheet name="10月19日" sheetId="6" r:id="rId22"/>
-    <sheet name="10月18日" sheetId="5" r:id="rId23"/>
+    <sheet name="11月15日" sheetId="29" r:id="rId1"/>
+    <sheet name="11月14日" sheetId="28" r:id="rId2"/>
+    <sheet name="11月13日" sheetId="27" r:id="rId3"/>
+    <sheet name="11月12日" sheetId="26" r:id="rId4"/>
+    <sheet name="11月11日" sheetId="25" r:id="rId5"/>
+    <sheet name="11月10日" sheetId="24" r:id="rId6"/>
+    <sheet name="11月9日" sheetId="22" r:id="rId7"/>
+    <sheet name="11月8日" sheetId="21" r:id="rId8"/>
+    <sheet name="11月7日" sheetId="20" r:id="rId9"/>
+    <sheet name="11月5日" sheetId="19" r:id="rId10"/>
+    <sheet name="10月31日" sheetId="18" r:id="rId11"/>
+    <sheet name="10月30日" sheetId="17" r:id="rId12"/>
+    <sheet name="10月29日" sheetId="16" r:id="rId13"/>
+    <sheet name="10月28日" sheetId="15" r:id="rId14"/>
+    <sheet name="10月27日" sheetId="14" r:id="rId15"/>
+    <sheet name="10月26日" sheetId="13" r:id="rId16"/>
+    <sheet name="10月25日" sheetId="12" r:id="rId17"/>
+    <sheet name="10月24日" sheetId="11" r:id="rId18"/>
+    <sheet name="10月23日" sheetId="10" r:id="rId19"/>
+    <sheet name="10月22日" sheetId="9" r:id="rId20"/>
+    <sheet name="10月21日" sheetId="8" r:id="rId21"/>
+    <sheet name="10月20日 " sheetId="7" r:id="rId22"/>
+    <sheet name="10月19日" sheetId="6" r:id="rId23"/>
+    <sheet name="10月18日" sheetId="5" r:id="rId24"/>
   </sheets>
   <calcPr calcId="125725" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="194">
   <si>
     <t>1.実施したこと</t>
     <rPh sb="2" eb="4">
@@ -2588,6 +2589,48 @@
     </rPh>
     <rPh sb="23" eb="25">
       <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・2013/11/15</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>本を読んで、クラス図の基本的要素について勉強をした。</t>
+    <rPh sb="0" eb="1">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>キホン</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヨウソ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ベンキョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>今日はプロパティや属性について学んだ。</t>
+    <rPh sb="0" eb="2">
+      <t>キョウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ゾクセイ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>マナ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3000,7 +3043,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM26"/>
+  <dimension ref="A1:AM17"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3054,7 +3097,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -3064,94 +3107,54 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39">
-      <c r="B6" t="s">
-        <v>190</v>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="A7" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:39">
-      <c r="A8" t="s">
-        <v>3</v>
+      <c r="B8" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:39">
-      <c r="B9" t="s">
-        <v>180</v>
+      <c r="C9" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="11" spans="1:39">
-      <c r="C11" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="C12" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="14" spans="1:39">
-      <c r="B14" t="s">
-        <v>190</v>
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="A13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="15" spans="1:39">
-      <c r="C15" t="s">
-        <v>185</v>
+      <c r="A15" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="C16" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="C17" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="C18" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="C19" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>1</v>
-      </c>
-      <c r="B22" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="B25" t="s">
+      <c r="B16" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
-      <c r="B26" t="s">
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
         <v>181</v>
       </c>
     </row>
@@ -3164,7 +3167,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM24"/>
+  <dimension ref="A1:AM18"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -3218,7 +3221,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -3228,7 +3231,7 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:39">
@@ -3238,69 +3241,49 @@
     </row>
     <row r="8" spans="1:39">
       <c r="B8" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:39">
       <c r="C9" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39">
-      <c r="C12" t="s">
-        <v>132</v>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="A13" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:39">
-      <c r="C14" t="s">
-        <v>133</v>
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="C16" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="C17" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B20" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
+      <c r="A16" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
-      <c r="B23" t="s">
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
-      <c r="B24" t="s">
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
         <v>111</v>
       </c>
     </row>
@@ -3313,7 +3296,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM19"/>
+  <dimension ref="A1:AM24"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -3367,7 +3350,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -3377,7 +3360,7 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:39">
@@ -3387,54 +3370,69 @@
     </row>
     <row r="8" spans="1:39">
       <c r="B8" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:39">
       <c r="C9" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:39">
       <c r="C12" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14" spans="1:39">
-      <c r="A14" t="s">
+      <c r="C14" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="C16" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="C17" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:39">
-      <c r="A15" t="s">
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
         <v>1</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B20" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
-      <c r="B18" t="s">
+    <row r="23" spans="1:3">
+      <c r="B23" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="B19" t="s">
+    <row r="24" spans="1:3">
+      <c r="B24" t="s">
         <v>111</v>
       </c>
     </row>
@@ -3447,7 +3445,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM18"/>
+  <dimension ref="A1:AM19"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -3501,7 +3499,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -3511,7 +3509,7 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:39">
@@ -3521,49 +3519,54 @@
     </row>
     <row r="8" spans="1:39">
       <c r="B8" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:39">
       <c r="C9" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="13" spans="1:39">
-      <c r="A13" t="s">
-        <v>4</v>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="C12" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="14" spans="1:39">
       <c r="A14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="A15" t="s">
         <v>1</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="16" spans="1:39">
-      <c r="A16" t="s">
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
-      <c r="B17" t="s">
+    <row r="18" spans="1:2">
+      <c r="B18" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="18" spans="2:2">
-      <c r="B18" t="s">
+    <row r="19" spans="1:2">
+      <c r="B19" t="s">
         <v>111</v>
       </c>
     </row>
@@ -3576,7 +3579,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM17"/>
+  <dimension ref="A1:AM18"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -3630,7 +3633,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -3640,7 +3643,7 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:39">
@@ -3650,44 +3653,49 @@
     </row>
     <row r="8" spans="1:39">
       <c r="B8" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:39">
       <c r="C9" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39">
-      <c r="A12" t="s">
-        <v>4</v>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39">
+      <c r="C11" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:39">
       <c r="A13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="A14" t="s">
         <v>1</v>
       </c>
-      <c r="B13" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="15" spans="1:39">
-      <c r="A15" t="s">
+      <c r="B14" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="A16" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:39">
-      <c r="B16" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
         <v>111</v>
       </c>
     </row>
@@ -3700,7 +3708,7 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM22"/>
+  <dimension ref="A1:AM17"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -3754,7 +3762,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -3764,94 +3772,67 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39">
-      <c r="B6" t="s">
-        <v>57</v>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="A7" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:39">
-      <c r="A8" t="s">
-        <v>3</v>
+      <c r="B8" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:39">
-      <c r="B9" t="s">
-        <v>101</v>
+      <c r="C9" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="11" spans="1:39">
-      <c r="C11" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="C12" t="s">
-        <v>106</v>
+      <c r="A12" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="C13" s="4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="14" spans="1:39">
-      <c r="C14" s="4"/>
+      <c r="A13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="15" spans="1:39">
-      <c r="B15" t="s">
-        <v>108</v>
-      </c>
-      <c r="C15" s="4"/>
+      <c r="A15" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="C16" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>1</v>
-      </c>
-      <c r="B19" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="B22" t="s">
+      <c r="B16" t="s">
         <v>103</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <hyperlinks>
-    <hyperlink ref="C13" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM19"/>
+  <dimension ref="A1:AM22"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -3905,7 +3886,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -3915,77 +3896,94 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39">
-      <c r="A7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39">
+      <c r="B6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="A8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
-      <c r="B8" t="s">
-        <v>87</v>
-      </c>
-    </row>
     <row r="9" spans="1:39">
-      <c r="C9" t="s">
-        <v>97</v>
+      <c r="B9" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:39">
       <c r="C12" t="s">
-        <v>98</v>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="C13" s="4" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:39">
-      <c r="A14" t="s">
+      <c r="C14" s="4"/>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="B15" t="s">
+        <v>108</v>
+      </c>
+      <c r="C15" s="4"/>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="C16" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:39">
-      <c r="A15" t="s">
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
         <v>1</v>
       </c>
-      <c r="B15" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
+      <c r="B19" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
-      <c r="B18" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="B19" t="s">
-        <v>99</v>
+    <row r="22" spans="1:2">
+      <c r="B22" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="C13" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM18"/>
+  <dimension ref="A1:AM19"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -4039,7 +4037,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -4059,50 +4057,55 @@
     </row>
     <row r="8" spans="1:39">
       <c r="B8" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:39">
       <c r="C9" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="13" spans="1:39">
-      <c r="A13" t="s">
-        <v>4</v>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="C12" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:39">
       <c r="A14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="A15" t="s">
         <v>1</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="16" spans="1:39">
-      <c r="A16" t="s">
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
-      <c r="B17" t="s">
+    <row r="18" spans="1:2">
+      <c r="B18" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="2:2">
-      <c r="B18" t="s">
-        <v>89</v>
+    <row r="19" spans="1:2">
+      <c r="B19" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -4114,11 +4117,9 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM27"/>
+  <dimension ref="A1:AM18"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="AM35" sqref="AM35"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
   <cols>
@@ -4170,7 +4171,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -4180,95 +4181,60 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39">
-      <c r="B6" t="s">
-        <v>76</v>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="A7" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:39">
-      <c r="A8" t="s">
-        <v>3</v>
+      <c r="B8" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:39">
-      <c r="B9" t="s">
-        <v>75</v>
+      <c r="C9" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39">
-      <c r="B12" t="s">
-        <v>76</v>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39">
+      <c r="C11" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="C13" t="s">
-        <v>78</v>
+      <c r="A13" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:39">
-      <c r="C14" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="15" spans="1:39">
-      <c r="C15" t="s">
-        <v>80</v>
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="C16" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="C18" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="C19" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="C20" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
-        <v>1</v>
-      </c>
-      <c r="B23" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
+      <c r="A16" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
-      <c r="B26" t="s">
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
-      <c r="B27" t="s">
-        <v>60</v>
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -4280,9 +4246,11 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM23"/>
+  <dimension ref="A1:AM27"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="AM35" sqref="AM35"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
   <cols>
@@ -4334,7 +4302,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -4344,84 +4312,94 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39">
-      <c r="A7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39">
+      <c r="B6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="A8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
-      <c r="B8" t="s">
-        <v>64</v>
-      </c>
-    </row>
     <row r="9" spans="1:39">
-      <c r="C9" t="s">
-        <v>65</v>
+      <c r="B9" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="11" spans="1:39">
-      <c r="D11" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="D12" t="s">
-        <v>67</v>
+      <c r="B12" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="D13" t="s">
-        <v>68</v>
+      <c r="C13" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:39">
-      <c r="D14" t="s">
-        <v>69</v>
+      <c r="C14" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:39">
-      <c r="D15" t="s">
-        <v>70</v>
+      <c r="C15" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="D16" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
+      <c r="C16" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="C18" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="C19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="C20" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
         <v>1</v>
       </c>
-      <c r="B19" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
+      <c r="B23" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
-      <c r="B22" t="s">
+    <row r="26" spans="1:3">
+      <c r="B26" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
-      <c r="B23" t="s">
+    <row r="27" spans="1:3">
+      <c r="B27" t="s">
         <v>60</v>
       </c>
     </row>
@@ -4434,7 +4412,7 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM24"/>
+  <dimension ref="A1:AM23"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -4488,7 +4466,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -4498,79 +4476,84 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39">
-      <c r="B6" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:39">
-      <c r="B7" t="s">
-        <v>57</v>
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="B8" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:39">
-      <c r="A9" t="s">
-        <v>3</v>
+      <c r="C9" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:39">
-      <c r="B10" t="s">
-        <v>42</v>
+      <c r="C10" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:39">
-      <c r="C11" t="s">
-        <v>58</v>
+      <c r="D11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="D12" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="B13" t="s">
-        <v>56</v>
+      <c r="D13" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:39">
-      <c r="C14" t="s">
-        <v>59</v>
+      <c r="D14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="D15" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="B16" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="C17" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
         <v>1</v>
       </c>
-      <c r="B20" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
+      <c r="B19" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="22" spans="1:2">
+      <c r="B22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
       <c r="B23" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="B24" t="s">
         <v>60</v>
       </c>
     </row>
@@ -4583,7 +4566,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM18"/>
+  <dimension ref="A1:AM26"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -4637,7 +4620,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -4647,60 +4630,95 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39">
-      <c r="A7" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39">
+      <c r="B6" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="A8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
-      <c r="B8" t="s">
-        <v>178</v>
-      </c>
-    </row>
     <row r="9" spans="1:39">
-      <c r="C9" t="s">
-        <v>174</v>
+      <c r="B9" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="13" spans="1:39">
-      <c r="A13" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="C12" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="B14" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="C15" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="C16" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="C17" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="C18" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="C19" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:39">
-      <c r="A14" t="s">
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
         <v>1</v>
       </c>
-      <c r="B14" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="16" spans="1:39">
-      <c r="A16" t="s">
+      <c r="B22" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
-      <c r="B17" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18" t="s">
+    <row r="25" spans="1:3">
+      <c r="B25" t="s">
         <v>103</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="B26" t="s">
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -4712,7 +4730,7 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM29"/>
+  <dimension ref="A1:AM24"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -4766,7 +4784,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -4776,17 +4794,17 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:39">
       <c r="B6" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:39">
       <c r="B7" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:39">
@@ -4796,91 +4814,60 @@
     </row>
     <row r="10" spans="1:39">
       <c r="B10" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39">
-      <c r="C12" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="C13" t="s">
-        <v>50</v>
+      <c r="B13" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:39">
       <c r="C14" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" spans="1:39">
-      <c r="C15" s="4"/>
+        <v>59</v>
+      </c>
     </row>
     <row r="16" spans="1:39">
       <c r="B16" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="C17" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="C18" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="C19" t="s">
-        <v>45</v>
+      <c r="A19" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="C20" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="B21" s="4"/>
+      <c r="A20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="B22" t="s">
-        <v>30</v>
+      <c r="A22" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="C23" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" t="s">
-        <v>1</v>
-      </c>
-      <c r="B26" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="B29" t="s">
+      <c r="B23" t="s">
         <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="B24" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -4892,7 +4879,7 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM25"/>
+  <dimension ref="A1:AM29"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -4946,7 +4933,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -4956,101 +4943,117 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:39">
       <c r="B6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="B7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
-      <c r="A8" t="s">
+    <row r="9" spans="1:39">
+      <c r="A9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:39">
-      <c r="B9" t="s">
-        <v>35</v>
-      </c>
-    </row>
     <row r="10" spans="1:39">
-      <c r="C10" t="s">
-        <v>36</v>
+      <c r="B10" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="C12" s="4" t="s">
-        <v>33</v>
+      <c r="C12" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="B13" s="4"/>
+      <c r="C13" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="14" spans="1:39">
-      <c r="B14" s="4"/>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:39">
-      <c r="C15" t="s">
-        <v>40</v>
-      </c>
+      <c r="C15" s="4"/>
     </row>
     <row r="16" spans="1:39">
-      <c r="B16" s="4"/>
+      <c r="B16" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="B17" t="s">
-        <v>30</v>
+      <c r="C17" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="C18" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="C19" t="s">
-        <v>31</v>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="C20" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" t="s">
+      <c r="B21" s="4"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="B22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="C23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
         <v>1</v>
       </c>
-      <c r="B22" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
+      <c r="B26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
-      <c r="B25" t="s">
-        <v>38</v>
+    <row r="29" spans="1:3">
+      <c r="B29" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <hyperlinks>
-    <hyperlink ref="C12" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5058,9 +5061,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AM25"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
   <cols>
@@ -5112,7 +5113,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -5122,12 +5123,12 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:39">
       <c r="B6" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:39">
@@ -5137,22 +5138,22 @@
     </row>
     <row r="9" spans="1:39">
       <c r="B9" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:39">
       <c r="C12" s="4" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:39">
@@ -5161,31 +5162,30 @@
     <row r="14" spans="1:39">
       <c r="B14" s="4"/>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:39">
-      <c r="B15" s="4"/>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
+      <c r="B16" s="4"/>
     </row>
     <row r="17" spans="1:3">
-      <c r="B17" s="4"/>
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="B18" t="s">
-        <v>18</v>
+      <c r="C18" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="C19" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -5198,7 +5198,7 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -5208,7 +5208,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="B25" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -5223,9 +5223,11 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM23"/>
+  <dimension ref="A1:AM25"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
   <cols>
@@ -5277,7 +5279,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -5287,93 +5289,106 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39">
-      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39">
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="A8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-    </row>
     <row r="9" spans="1:39">
-      <c r="C9" t="s">
-        <v>14</v>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39">
+      <c r="C10" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:39">
-      <c r="B11" t="s">
-        <v>15</v>
+      <c r="C11" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="B12" s="4" t="s">
-        <v>10</v>
+      <c r="C12" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:39">
       <c r="B13" s="4"/>
     </row>
     <row r="14" spans="1:39">
-      <c r="B14" t="s">
-        <v>16</v>
+      <c r="B14" s="4"/>
+      <c r="C14" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:39">
-      <c r="B15" s="4" t="s">
-        <v>7</v>
+      <c r="B15" s="4"/>
+      <c r="C15" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="B16" s="4"/>
       <c r="C16" t="s">
-        <v>13</v>
-      </c>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="B17" s="4"/>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>4</v>
+      <c r="B18" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>1</v>
-      </c>
-      <c r="B19" t="s">
-        <v>11</v>
+      <c r="C19" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
-      <c r="B22" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="C23" t="s">
-        <v>9</v>
+    <row r="25" spans="1:3">
+      <c r="B25" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="B15" r:id="rId1"/>
-    <hyperlink ref="B12" r:id="rId2"/>
+    <hyperlink ref="C12" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AM23"/>
   <sheetViews>
@@ -5429,7 +5444,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>165</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -5439,92 +5454,95 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39">
-      <c r="B6" t="s">
-        <v>103</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="A7" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:39">
-      <c r="A8" t="s">
-        <v>3</v>
+      <c r="B8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:39">
-      <c r="B9" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="10" spans="1:39">
-      <c r="C10" t="s">
-        <v>167</v>
+      <c r="C9" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:39">
-      <c r="C11" t="s">
-        <v>169</v>
+      <c r="B11" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="C12" t="s">
-        <v>170</v>
+      <c r="B12" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="C13" t="s">
-        <v>168</v>
+      <c r="B13" s="4"/>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="B14" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:39">
-      <c r="B15" t="s">
-        <v>103</v>
+      <c r="B15" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:39">
+      <c r="B16" s="4"/>
       <c r="C16" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="C17" t="s">
-        <v>171</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
         <v>1</v>
       </c>
-      <c r="B20" t="s">
-        <v>117</v>
+      <c r="B19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>2</v>
+      <c r="B22" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="B23" t="s">
-        <v>103</v>
+      <c r="C23" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="B15" r:id="rId1"/>
+    <hyperlink ref="B12" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM20"/>
+  <dimension ref="A1:AM18"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -5578,7 +5596,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -5588,64 +5606,59 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39">
-      <c r="B6" t="s">
-        <v>103</v>
+        <v>178</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="A7" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:39">
-      <c r="A8" t="s">
-        <v>3</v>
+      <c r="B8" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="9" spans="1:39">
-      <c r="B9" t="s">
-        <v>111</v>
+      <c r="C9" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39">
-      <c r="B12" t="s">
-        <v>103</v>
+        <v>175</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39">
+      <c r="C11" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="C13" t="s">
-        <v>158</v>
+      <c r="A13" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:39">
-      <c r="C14" t="s">
-        <v>164</v>
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="16" spans="1:39">
       <c r="A16" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="B20" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
         <v>103</v>
       </c>
     </row>
@@ -5656,9 +5669,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM19"/>
+  <dimension ref="A1:AM23"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -5712,7 +5725,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -5722,7 +5735,7 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>111</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:39">
@@ -5737,44 +5750,64 @@
     </row>
     <row r="9" spans="1:39">
       <c r="B9" t="s">
-        <v>111</v>
+        <v>166</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>159</v>
+        <v>167</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39">
+      <c r="C11" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="B12" t="s">
-        <v>103</v>
+      <c r="C12" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="13" spans="1:39">
       <c r="C13" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="B15" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="C16" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="15" spans="1:39">
-      <c r="A15" t="s">
+    <row r="17" spans="1:3">
+      <c r="C17" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:39">
-      <c r="A16" t="s">
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
         <v>1</v>
       </c>
-      <c r="B16" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
+      <c r="B20" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="B19" t="s">
+    <row r="23" spans="1:3">
+      <c r="B23" t="s">
         <v>103</v>
       </c>
     </row>
@@ -5785,9 +5818,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM18"/>
+  <dimension ref="A1:AM20"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -5841,7 +5874,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -5854,57 +5887,62 @@
         <v>111</v>
       </c>
     </row>
-    <row r="7" spans="1:39">
-      <c r="A7" t="s">
+    <row r="6" spans="1:39">
+      <c r="B6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="A8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
-      <c r="B8" t="s">
+    <row r="9" spans="1:39">
+      <c r="B9" t="s">
         <v>111</v>
-      </c>
-    </row>
-    <row r="9" spans="1:39">
-      <c r="C9" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="A12" t="s">
+      <c r="B12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="C13" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="C14" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="A16" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:39">
-      <c r="A13" t="s">
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
         <v>1</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B17" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="15" spans="1:39">
-      <c r="A15" t="s">
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:39">
-      <c r="B16" t="s">
+    <row r="20" spans="1:2">
+      <c r="B20" t="s">
         <v>103</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3">
-      <c r="B17" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3">
-      <c r="C18" t="s">
-        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -5914,9 +5952,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM17"/>
+  <dimension ref="A1:AM19"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -5970,7 +6008,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -5980,55 +6018,60 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39">
+      <c r="B6" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="7" spans="1:39">
-      <c r="A7" t="s">
+    <row r="8" spans="1:39">
+      <c r="A8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
-      <c r="B8" t="s">
-        <v>103</v>
-      </c>
-    </row>
     <row r="9" spans="1:39">
-      <c r="C9" t="s">
-        <v>151</v>
+      <c r="B9" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="A12" t="s">
-        <v>4</v>
+      <c r="B12" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="A13" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13" t="s">
-        <v>153</v>
+      <c r="C13" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:39">
       <c r="A15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="A16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:39">
-      <c r="B16" t="s">
+    <row r="19" spans="1:2">
+      <c r="B19" t="s">
         <v>103</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17" t="s">
-        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -6038,9 +6081,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM24"/>
+  <dimension ref="A1:AM18"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -6094,7 +6137,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -6104,85 +6147,60 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39">
-      <c r="B6" t="s">
-        <v>141</v>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="A7" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:39">
-      <c r="A8" t="s">
-        <v>3</v>
+      <c r="B8" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:39">
-      <c r="B9" t="s">
-        <v>145</v>
+      <c r="C9" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="11" spans="1:39">
-      <c r="C11" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="C12" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="14" spans="1:39">
-      <c r="B14" t="s">
-        <v>141</v>
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="A13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="15" spans="1:39">
-      <c r="C15" t="s">
-        <v>146</v>
+      <c r="A15" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="C16" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="C17" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B20" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="B23" t="s">
+      <c r="B16" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
-      <c r="B24" t="s">
+    <row r="17" spans="2:3">
+      <c r="B17" t="s">
         <v>111</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3">
+      <c r="C18" t="s">
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -6192,9 +6210,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM18"/>
+  <dimension ref="A1:AM17"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -6248,7 +6266,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -6258,7 +6276,7 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:39">
@@ -6268,49 +6286,198 @@
     </row>
     <row r="8" spans="1:39">
       <c r="B8" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:39">
       <c r="C9" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>137</v>
+        <v>152</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="A13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="A15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="B16" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
+        <v>111</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AM24"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="1.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:39" s="1" customFormat="1" ht="21">
+      <c r="A1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="2"/>
+    </row>
+    <row r="2" spans="1:39">
+      <c r="A2" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39">
+      <c r="B5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39">
+      <c r="B6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39">
+      <c r="B9" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39">
+      <c r="C10" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="13" spans="1:39">
-      <c r="A13" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="C12" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="B14" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="C15" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="C16" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="C17" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:39">
-      <c r="A14" t="s">
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
         <v>1</v>
       </c>
-      <c r="B14" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="16" spans="1:39">
-      <c r="A16" t="s">
+      <c r="B20" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
-      <c r="B17" t="s">
+    <row r="23" spans="1:3">
+      <c r="B23" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="18" spans="2:2">
-      <c r="B18" t="s">
+    <row r="24" spans="1:3">
+      <c r="B24" t="s">
         <v>111</v>
       </c>
     </row>

--- a/日報.xlsx
+++ b/日報.xlsx
@@ -7,37 +7,38 @@
     <workbookView xWindow="-285" yWindow="150" windowWidth="10110" windowHeight="9165"/>
   </bookViews>
   <sheets>
-    <sheet name="11月15日" sheetId="29" r:id="rId1"/>
-    <sheet name="11月14日" sheetId="28" r:id="rId2"/>
-    <sheet name="11月13日" sheetId="27" r:id="rId3"/>
-    <sheet name="11月12日" sheetId="26" r:id="rId4"/>
-    <sheet name="11月11日" sheetId="25" r:id="rId5"/>
-    <sheet name="11月10日" sheetId="24" r:id="rId6"/>
-    <sheet name="11月9日" sheetId="22" r:id="rId7"/>
-    <sheet name="11月8日" sheetId="21" r:id="rId8"/>
-    <sheet name="11月7日" sheetId="20" r:id="rId9"/>
-    <sheet name="11月5日" sheetId="19" r:id="rId10"/>
-    <sheet name="10月31日" sheetId="18" r:id="rId11"/>
-    <sheet name="10月30日" sheetId="17" r:id="rId12"/>
-    <sheet name="10月29日" sheetId="16" r:id="rId13"/>
-    <sheet name="10月28日" sheetId="15" r:id="rId14"/>
-    <sheet name="10月27日" sheetId="14" r:id="rId15"/>
-    <sheet name="10月26日" sheetId="13" r:id="rId16"/>
-    <sheet name="10月25日" sheetId="12" r:id="rId17"/>
-    <sheet name="10月24日" sheetId="11" r:id="rId18"/>
-    <sheet name="10月23日" sheetId="10" r:id="rId19"/>
-    <sheet name="10月22日" sheetId="9" r:id="rId20"/>
-    <sheet name="10月21日" sheetId="8" r:id="rId21"/>
-    <sheet name="10月20日 " sheetId="7" r:id="rId22"/>
-    <sheet name="10月19日" sheetId="6" r:id="rId23"/>
-    <sheet name="10月18日" sheetId="5" r:id="rId24"/>
+    <sheet name="11月16日" sheetId="30" r:id="rId1"/>
+    <sheet name="11月15日" sheetId="29" r:id="rId2"/>
+    <sheet name="11月14日" sheetId="28" r:id="rId3"/>
+    <sheet name="11月13日" sheetId="27" r:id="rId4"/>
+    <sheet name="11月12日" sheetId="26" r:id="rId5"/>
+    <sheet name="11月11日" sheetId="25" r:id="rId6"/>
+    <sheet name="11月10日" sheetId="24" r:id="rId7"/>
+    <sheet name="11月9日" sheetId="22" r:id="rId8"/>
+    <sheet name="11月8日" sheetId="21" r:id="rId9"/>
+    <sheet name="11月7日" sheetId="20" r:id="rId10"/>
+    <sheet name="11月5日" sheetId="19" r:id="rId11"/>
+    <sheet name="10月31日" sheetId="18" r:id="rId12"/>
+    <sheet name="10月30日" sheetId="17" r:id="rId13"/>
+    <sheet name="10月29日" sheetId="16" r:id="rId14"/>
+    <sheet name="10月28日" sheetId="15" r:id="rId15"/>
+    <sheet name="10月27日" sheetId="14" r:id="rId16"/>
+    <sheet name="10月26日" sheetId="13" r:id="rId17"/>
+    <sheet name="10月25日" sheetId="12" r:id="rId18"/>
+    <sheet name="10月24日" sheetId="11" r:id="rId19"/>
+    <sheet name="10月23日" sheetId="10" r:id="rId20"/>
+    <sheet name="10月22日" sheetId="9" r:id="rId21"/>
+    <sheet name="10月21日" sheetId="8" r:id="rId22"/>
+    <sheet name="10月20日 " sheetId="7" r:id="rId23"/>
+    <sheet name="10月19日" sheetId="6" r:id="rId24"/>
+    <sheet name="10月18日" sheetId="5" r:id="rId25"/>
   </sheets>
   <calcPr calcId="125725" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="198">
   <si>
     <t>1.実施したこと</t>
     <rPh sb="2" eb="4">
@@ -2632,6 +2633,61 @@
     <rPh sb="15" eb="16">
       <t>マナ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>今日はプロパティの属性や関連について学んだ。</t>
+    <rPh sb="0" eb="2">
+      <t>キョウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ゾクセイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カンレン</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>マナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>本を読むペースが落ちているため、明日は</t>
+    <rPh sb="0" eb="1">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>アシタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>本を読み終え、クラス図を作成できるようにしたい。</t>
+    <rPh sb="0" eb="1">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・2013/11/16</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3043,7 +3099,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM17"/>
+  <dimension ref="A1:AM18"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3097,7 +3153,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -3127,7 +3183,7 @@
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="12" spans="1:39">
@@ -3140,21 +3196,26 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="15" spans="1:39">
-      <c r="A15" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="B14" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="A16" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:39">
-      <c r="B16" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
         <v>181</v>
       </c>
     </row>
@@ -3167,7 +3228,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM18"/>
+  <dimension ref="A1:AM24"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -3221,7 +3282,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -3231,59 +3292,84 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39">
-      <c r="A7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39">
+      <c r="B6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="A8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
-      <c r="B8" t="s">
-        <v>111</v>
-      </c>
-    </row>
     <row r="9" spans="1:39">
-      <c r="C9" t="s">
-        <v>138</v>
+      <c r="B9" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="13" spans="1:39">
-      <c r="A13" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="C12" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="B14" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="C15" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="C16" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="C17" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:39">
-      <c r="A14" t="s">
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
         <v>1</v>
       </c>
-      <c r="B14" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="16" spans="1:39">
-      <c r="A16" t="s">
+      <c r="B20" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
-      <c r="B17" t="s">
+    <row r="23" spans="1:3">
+      <c r="B23" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="18" spans="2:2">
-      <c r="B18" t="s">
+    <row r="24" spans="1:3">
+      <c r="B24" t="s">
         <v>111</v>
       </c>
     </row>
@@ -3296,7 +3382,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM24"/>
+  <dimension ref="A1:AM18"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -3350,7 +3436,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -3360,7 +3446,7 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:39">
@@ -3370,69 +3456,49 @@
     </row>
     <row r="8" spans="1:39">
       <c r="B8" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:39">
       <c r="C9" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39">
-      <c r="C12" t="s">
-        <v>132</v>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="A13" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:39">
-      <c r="C14" t="s">
-        <v>133</v>
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="C16" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="C17" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B20" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
+      <c r="A16" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
-      <c r="B23" t="s">
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
-      <c r="B24" t="s">
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
         <v>111</v>
       </c>
     </row>
@@ -3445,7 +3511,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM19"/>
+  <dimension ref="A1:AM24"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -3499,7 +3565,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -3509,7 +3575,7 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:39">
@@ -3519,54 +3585,69 @@
     </row>
     <row r="8" spans="1:39">
       <c r="B8" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:39">
       <c r="C9" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:39">
       <c r="C12" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14" spans="1:39">
-      <c r="A14" t="s">
+      <c r="C14" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="C16" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="C17" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:39">
-      <c r="A15" t="s">
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
         <v>1</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B20" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
-      <c r="B18" t="s">
+    <row r="23" spans="1:3">
+      <c r="B23" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="B19" t="s">
+    <row r="24" spans="1:3">
+      <c r="B24" t="s">
         <v>111</v>
       </c>
     </row>
@@ -3579,7 +3660,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM18"/>
+  <dimension ref="A1:AM19"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -3633,7 +3714,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -3643,7 +3724,7 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:39">
@@ -3653,49 +3734,54 @@
     </row>
     <row r="8" spans="1:39">
       <c r="B8" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:39">
       <c r="C9" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="13" spans="1:39">
-      <c r="A13" t="s">
-        <v>4</v>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="C12" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="14" spans="1:39">
       <c r="A14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="A15" t="s">
         <v>1</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="16" spans="1:39">
-      <c r="A16" t="s">
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
-      <c r="B17" t="s">
+    <row r="18" spans="1:2">
+      <c r="B18" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="18" spans="2:2">
-      <c r="B18" t="s">
+    <row r="19" spans="1:2">
+      <c r="B19" t="s">
         <v>111</v>
       </c>
     </row>
@@ -3708,7 +3794,7 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM17"/>
+  <dimension ref="A1:AM18"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -3762,7 +3848,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -3772,7 +3858,7 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:39">
@@ -3782,44 +3868,49 @@
     </row>
     <row r="8" spans="1:39">
       <c r="B8" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:39">
       <c r="C9" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39">
-      <c r="A12" t="s">
-        <v>4</v>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39">
+      <c r="C11" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:39">
       <c r="A13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="A14" t="s">
         <v>1</v>
       </c>
-      <c r="B13" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="15" spans="1:39">
-      <c r="A15" t="s">
+      <c r="B14" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="A16" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:39">
-      <c r="B16" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
         <v>111</v>
       </c>
     </row>
@@ -3832,7 +3923,7 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM22"/>
+  <dimension ref="A1:AM17"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -3886,7 +3977,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -3896,94 +3987,67 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39">
-      <c r="B6" t="s">
-        <v>57</v>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="A7" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:39">
-      <c r="A8" t="s">
-        <v>3</v>
+      <c r="B8" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:39">
-      <c r="B9" t="s">
-        <v>101</v>
+      <c r="C9" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="11" spans="1:39">
-      <c r="C11" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="C12" t="s">
-        <v>106</v>
+      <c r="A12" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="C13" s="4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="14" spans="1:39">
-      <c r="C14" s="4"/>
+      <c r="A13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="15" spans="1:39">
-      <c r="B15" t="s">
-        <v>108</v>
-      </c>
-      <c r="C15" s="4"/>
+      <c r="A15" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="C16" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>1</v>
-      </c>
-      <c r="B19" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="B22" t="s">
+      <c r="B16" t="s">
         <v>103</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <hyperlinks>
-    <hyperlink ref="C13" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM19"/>
+  <dimension ref="A1:AM22"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -4037,7 +4101,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -4047,77 +4111,94 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39">
-      <c r="A7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39">
+      <c r="B6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="A8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
-      <c r="B8" t="s">
-        <v>87</v>
-      </c>
-    </row>
     <row r="9" spans="1:39">
-      <c r="C9" t="s">
-        <v>97</v>
+      <c r="B9" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:39">
       <c r="C12" t="s">
-        <v>98</v>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="C13" s="4" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:39">
-      <c r="A14" t="s">
+      <c r="C14" s="4"/>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="B15" t="s">
+        <v>108</v>
+      </c>
+      <c r="C15" s="4"/>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="C16" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:39">
-      <c r="A15" t="s">
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
         <v>1</v>
       </c>
-      <c r="B15" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
+      <c r="B19" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
-      <c r="B18" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="B19" t="s">
-        <v>99</v>
+    <row r="22" spans="1:2">
+      <c r="B22" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="C13" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM18"/>
+  <dimension ref="A1:AM19"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -4171,7 +4252,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -4191,50 +4272,55 @@
     </row>
     <row r="8" spans="1:39">
       <c r="B8" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:39">
       <c r="C9" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="13" spans="1:39">
-      <c r="A13" t="s">
-        <v>4</v>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="C12" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:39">
       <c r="A14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="A15" t="s">
         <v>1</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="16" spans="1:39">
-      <c r="A16" t="s">
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
-      <c r="B17" t="s">
+    <row r="18" spans="1:2">
+      <c r="B18" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="2:2">
-      <c r="B18" t="s">
-        <v>89</v>
+    <row r="19" spans="1:2">
+      <c r="B19" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -4246,11 +4332,9 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM27"/>
+  <dimension ref="A1:AM18"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="AM35" sqref="AM35"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
   <cols>
@@ -4302,7 +4386,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -4312,95 +4396,60 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39">
-      <c r="B6" t="s">
-        <v>76</v>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="A7" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:39">
-      <c r="A8" t="s">
-        <v>3</v>
+      <c r="B8" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:39">
-      <c r="B9" t="s">
-        <v>75</v>
+      <c r="C9" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39">
-      <c r="B12" t="s">
-        <v>76</v>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39">
+      <c r="C11" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="C13" t="s">
-        <v>78</v>
+      <c r="A13" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:39">
-      <c r="C14" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="15" spans="1:39">
-      <c r="C15" t="s">
-        <v>80</v>
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="C16" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="C18" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="C19" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="C20" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
-        <v>1</v>
-      </c>
-      <c r="B23" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
+      <c r="A16" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
-      <c r="B26" t="s">
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
-      <c r="B27" t="s">
-        <v>60</v>
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -4412,9 +4461,11 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM23"/>
+  <dimension ref="A1:AM27"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="AM35" sqref="AM35"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
   <cols>
@@ -4466,7 +4517,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -4476,84 +4527,94 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39">
-      <c r="A7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39">
+      <c r="B6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="A8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
-      <c r="B8" t="s">
-        <v>64</v>
-      </c>
-    </row>
     <row r="9" spans="1:39">
-      <c r="C9" t="s">
-        <v>65</v>
+      <c r="B9" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="11" spans="1:39">
-      <c r="D11" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="D12" t="s">
-        <v>67</v>
+      <c r="B12" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="D13" t="s">
-        <v>68</v>
+      <c r="C13" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:39">
-      <c r="D14" t="s">
-        <v>69</v>
+      <c r="C14" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:39">
-      <c r="D15" t="s">
-        <v>70</v>
+      <c r="C15" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="D16" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
+      <c r="C16" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="C18" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="C19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="C20" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
         <v>1</v>
       </c>
-      <c r="B19" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
+      <c r="B23" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
-      <c r="B22" t="s">
+    <row r="26" spans="1:3">
+      <c r="B26" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
-      <c r="B23" t="s">
+    <row r="27" spans="1:3">
+      <c r="B27" t="s">
         <v>60</v>
       </c>
     </row>
@@ -4566,7 +4627,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM26"/>
+  <dimension ref="A1:AM17"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -4620,7 +4681,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -4630,94 +4691,54 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39">
-      <c r="B6" t="s">
-        <v>190</v>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="A7" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:39">
-      <c r="A8" t="s">
-        <v>3</v>
+      <c r="B8" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:39">
-      <c r="B9" t="s">
-        <v>180</v>
+      <c r="C9" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="11" spans="1:39">
-      <c r="C11" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="C12" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="14" spans="1:39">
-      <c r="B14" t="s">
-        <v>190</v>
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="A13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="15" spans="1:39">
-      <c r="C15" t="s">
-        <v>185</v>
+      <c r="A15" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="C16" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="C17" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="C18" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="C19" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>1</v>
-      </c>
-      <c r="B22" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="B25" t="s">
+      <c r="B16" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
-      <c r="B26" t="s">
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
         <v>181</v>
       </c>
     </row>
@@ -4730,7 +4751,7 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM24"/>
+  <dimension ref="A1:AM23"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -4784,7 +4805,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -4794,79 +4815,84 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39">
-      <c r="B6" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:39">
-      <c r="B7" t="s">
-        <v>57</v>
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="B8" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:39">
-      <c r="A9" t="s">
-        <v>3</v>
+      <c r="C9" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:39">
-      <c r="B10" t="s">
-        <v>42</v>
+      <c r="C10" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:39">
-      <c r="C11" t="s">
-        <v>58</v>
+      <c r="D11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="D12" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="B13" t="s">
-        <v>56</v>
+      <c r="D13" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:39">
-      <c r="C14" t="s">
-        <v>59</v>
+      <c r="D14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="D15" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="B16" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="C17" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
         <v>1</v>
       </c>
-      <c r="B20" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
+      <c r="B19" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="22" spans="1:2">
+      <c r="B22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
       <c r="B23" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="B24" t="s">
         <v>60</v>
       </c>
     </row>
@@ -4879,7 +4905,7 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM29"/>
+  <dimension ref="A1:AM24"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -4933,7 +4959,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -4943,17 +4969,17 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:39">
       <c r="B6" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:39">
       <c r="B7" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:39">
@@ -4963,91 +4989,60 @@
     </row>
     <row r="10" spans="1:39">
       <c r="B10" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39">
-      <c r="C12" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="C13" t="s">
-        <v>50</v>
+      <c r="B13" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:39">
       <c r="C14" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" spans="1:39">
-      <c r="C15" s="4"/>
+        <v>59</v>
+      </c>
     </row>
     <row r="16" spans="1:39">
       <c r="B16" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="C17" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="C18" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="C19" t="s">
-        <v>45</v>
+      <c r="A19" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="C20" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="B21" s="4"/>
+      <c r="A20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="B22" t="s">
-        <v>30</v>
+      <c r="A22" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="C23" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" t="s">
-        <v>1</v>
-      </c>
-      <c r="B26" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="B29" t="s">
+      <c r="B23" t="s">
         <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="B24" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -5059,7 +5054,7 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM25"/>
+  <dimension ref="A1:AM29"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -5113,7 +5108,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -5123,101 +5118,117 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:39">
       <c r="B6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="B7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
-      <c r="A8" t="s">
+    <row r="9" spans="1:39">
+      <c r="A9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:39">
-      <c r="B9" t="s">
-        <v>35</v>
-      </c>
-    </row>
     <row r="10" spans="1:39">
-      <c r="C10" t="s">
-        <v>36</v>
+      <c r="B10" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="C12" s="4" t="s">
-        <v>33</v>
+      <c r="C12" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="B13" s="4"/>
+      <c r="C13" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="14" spans="1:39">
-      <c r="B14" s="4"/>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:39">
-      <c r="C15" t="s">
-        <v>40</v>
-      </c>
+      <c r="C15" s="4"/>
     </row>
     <row r="16" spans="1:39">
-      <c r="B16" s="4"/>
+      <c r="B16" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="B17" t="s">
-        <v>30</v>
+      <c r="C17" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="C18" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="C19" t="s">
-        <v>31</v>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="C20" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" t="s">
+      <c r="B21" s="4"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="B22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="C23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
         <v>1</v>
       </c>
-      <c r="B22" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
+      <c r="B26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
-      <c r="B25" t="s">
-        <v>38</v>
+    <row r="29" spans="1:3">
+      <c r="B29" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <hyperlinks>
-    <hyperlink ref="C12" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5225,9 +5236,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AM25"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
   <cols>
@@ -5279,7 +5288,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -5289,12 +5298,12 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:39">
       <c r="B6" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:39">
@@ -5304,22 +5313,22 @@
     </row>
     <row r="9" spans="1:39">
       <c r="B9" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:39">
       <c r="C12" s="4" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:39">
@@ -5328,31 +5337,30 @@
     <row r="14" spans="1:39">
       <c r="B14" s="4"/>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:39">
-      <c r="B15" s="4"/>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
+      <c r="B16" s="4"/>
     </row>
     <row r="17" spans="1:3">
-      <c r="B17" s="4"/>
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="B18" t="s">
-        <v>18</v>
+      <c r="C18" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="C19" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -5365,7 +5373,7 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -5375,7 +5383,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="B25" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -5390,9 +5398,11 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM23"/>
+  <dimension ref="A1:AM25"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
   <cols>
@@ -5444,7 +5454,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -5454,95 +5464,108 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39">
-      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39">
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="A8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-    </row>
     <row r="9" spans="1:39">
-      <c r="C9" t="s">
-        <v>14</v>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39">
+      <c r="C10" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:39">
-      <c r="B11" t="s">
-        <v>15</v>
+      <c r="C11" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="B12" s="4" t="s">
-        <v>10</v>
+      <c r="C12" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:39">
       <c r="B13" s="4"/>
     </row>
     <row r="14" spans="1:39">
-      <c r="B14" t="s">
-        <v>16</v>
+      <c r="B14" s="4"/>
+      <c r="C14" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:39">
-      <c r="B15" s="4" t="s">
-        <v>7</v>
+      <c r="B15" s="4"/>
+      <c r="C15" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="B16" s="4"/>
       <c r="C16" t="s">
-        <v>13</v>
-      </c>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="B17" s="4"/>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>4</v>
+      <c r="B18" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>1</v>
-      </c>
-      <c r="B19" t="s">
-        <v>11</v>
+      <c r="C19" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
-      <c r="B22" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="C23" t="s">
-        <v>9</v>
+    <row r="25" spans="1:3">
+      <c r="B25" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="B15" r:id="rId1"/>
-    <hyperlink ref="B12" r:id="rId2"/>
+    <hyperlink ref="C12" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM18"/>
+  <dimension ref="A1:AM23"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -5596,7 +5619,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>172</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -5606,7 +5629,7 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>178</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:39">
@@ -5616,62 +5639,85 @@
     </row>
     <row r="8" spans="1:39">
       <c r="B8" t="s">
-        <v>178</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:39">
       <c r="C9" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="10" spans="1:39">
-      <c r="C10" t="s">
-        <v>175</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:39">
-      <c r="C11" t="s">
-        <v>176</v>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="B12" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="A13" t="s">
+      <c r="B13" s="4"/>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="B15" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="B16" s="4"/>
+      <c r="C16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:39">
-      <c r="A14" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>1</v>
       </c>
-      <c r="B14" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="16" spans="1:39">
-      <c r="A16" t="s">
+      <c r="B19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
-      <c r="B17" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18" t="s">
-        <v>103</v>
+    <row r="22" spans="1:3">
+      <c r="B22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="C23" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="B15" r:id="rId1"/>
+    <hyperlink ref="B12" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM23"/>
+  <dimension ref="A1:AM26"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -5725,7 +5771,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -5735,12 +5781,12 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:39">
       <c r="B6" t="s">
-        <v>103</v>
+        <v>190</v>
       </c>
     </row>
     <row r="8" spans="1:39">
@@ -5750,65 +5796,80 @@
     </row>
     <row r="9" spans="1:39">
       <c r="B9" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
     </row>
     <row r="12" spans="1:39">
       <c r="C12" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="13" spans="1:39">
-      <c r="C13" t="s">
-        <v>168</v>
+        <v>184</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="B14" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="15" spans="1:39">
-      <c r="B15" t="s">
-        <v>103</v>
+      <c r="C15" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="16" spans="1:39">
       <c r="C16" t="s">
-        <v>158</v>
+        <v>186</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="C17" t="s">
-        <v>171</v>
+        <v>187</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="C18" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" t="s">
+      <c r="C19" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B20" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
-      <c r="B23" t="s">
+    <row r="25" spans="1:3">
+      <c r="B25" t="s">
         <v>103</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="B26" t="s">
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -5818,9 +5879,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM20"/>
+  <dimension ref="A1:AM18"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -5874,7 +5935,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -5884,64 +5945,59 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39">
-      <c r="B6" t="s">
-        <v>103</v>
+        <v>178</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="A7" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:39">
-      <c r="A8" t="s">
-        <v>3</v>
+      <c r="B8" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="9" spans="1:39">
-      <c r="B9" t="s">
-        <v>111</v>
+      <c r="C9" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39">
-      <c r="B12" t="s">
-        <v>103</v>
+        <v>175</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39">
+      <c r="C11" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="C13" t="s">
-        <v>158</v>
+      <c r="A13" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:39">
-      <c r="C14" t="s">
-        <v>164</v>
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="16" spans="1:39">
       <c r="A16" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="B20" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
         <v>103</v>
       </c>
     </row>
@@ -5952,9 +6008,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM19"/>
+  <dimension ref="A1:AM23"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -6008,7 +6064,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -6018,7 +6074,7 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>111</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:39">
@@ -6033,44 +6089,64 @@
     </row>
     <row r="9" spans="1:39">
       <c r="B9" t="s">
-        <v>111</v>
+        <v>166</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>159</v>
+        <v>167</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39">
+      <c r="C11" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="B12" t="s">
-        <v>103</v>
+      <c r="C12" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="13" spans="1:39">
       <c r="C13" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="B15" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="C16" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="15" spans="1:39">
-      <c r="A15" t="s">
+    <row r="17" spans="1:3">
+      <c r="C17" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:39">
-      <c r="A16" t="s">
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
         <v>1</v>
       </c>
-      <c r="B16" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
+      <c r="B20" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="B19" t="s">
+    <row r="23" spans="1:3">
+      <c r="B23" t="s">
         <v>103</v>
       </c>
     </row>
@@ -6081,9 +6157,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM18"/>
+  <dimension ref="A1:AM20"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -6137,7 +6213,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -6150,57 +6226,62 @@
         <v>111</v>
       </c>
     </row>
-    <row r="7" spans="1:39">
-      <c r="A7" t="s">
+    <row r="6" spans="1:39">
+      <c r="B6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="A8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
-      <c r="B8" t="s">
+    <row r="9" spans="1:39">
+      <c r="B9" t="s">
         <v>111</v>
-      </c>
-    </row>
-    <row r="9" spans="1:39">
-      <c r="C9" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="A12" t="s">
+      <c r="B12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="C13" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="C14" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="A16" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:39">
-      <c r="A13" t="s">
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
         <v>1</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B17" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="15" spans="1:39">
-      <c r="A15" t="s">
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:39">
-      <c r="B16" t="s">
+    <row r="20" spans="1:2">
+      <c r="B20" t="s">
         <v>103</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3">
-      <c r="B17" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3">
-      <c r="C18" t="s">
-        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -6210,9 +6291,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM17"/>
+  <dimension ref="A1:AM19"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -6266,7 +6347,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -6276,55 +6357,60 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39">
+      <c r="B6" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="7" spans="1:39">
-      <c r="A7" t="s">
+    <row r="8" spans="1:39">
+      <c r="A8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
-      <c r="B8" t="s">
-        <v>103</v>
-      </c>
-    </row>
     <row r="9" spans="1:39">
-      <c r="C9" t="s">
-        <v>151</v>
+      <c r="B9" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="A12" t="s">
-        <v>4</v>
+      <c r="B12" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="A13" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13" t="s">
-        <v>153</v>
+      <c r="C13" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:39">
       <c r="A15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="A16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:39">
-      <c r="B16" t="s">
+    <row r="19" spans="1:2">
+      <c r="B19" t="s">
         <v>103</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17" t="s">
-        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -6334,9 +6420,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM24"/>
+  <dimension ref="A1:AM18"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -6390,7 +6476,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -6400,84 +6486,183 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39">
-      <c r="B6" t="s">
-        <v>141</v>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="A7" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:39">
-      <c r="A8" t="s">
-        <v>3</v>
+      <c r="B8" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:39">
-      <c r="B9" t="s">
-        <v>145</v>
+      <c r="C9" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="11" spans="1:39">
-      <c r="C11" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="C12" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="14" spans="1:39">
-      <c r="B14" t="s">
-        <v>141</v>
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="A13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="15" spans="1:39">
-      <c r="C15" t="s">
-        <v>146</v>
+      <c r="A15" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="C16" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="C17" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
+      <c r="B16" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3">
+      <c r="B17" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3">
+      <c r="C18" t="s">
+        <v>155</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AM17"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="1.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:39" s="1" customFormat="1" ht="21">
+      <c r="A1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="2"/>
+    </row>
+    <row r="2" spans="1:39">
+      <c r="A2" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39">
+      <c r="B5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="B8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39">
+      <c r="C9" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39">
+      <c r="C10" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="A12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
+    <row r="13" spans="1:39">
+      <c r="A13" t="s">
         <v>1</v>
       </c>
-      <c r="B20" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
+      <c r="B13" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="A15" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
-      <c r="B23" t="s">
+    <row r="16" spans="1:39">
+      <c r="B16" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
-      <c r="B24" t="s">
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
         <v>111</v>
       </c>
     </row>

--- a/日報.xlsx
+++ b/日報.xlsx
@@ -7,38 +7,39 @@
     <workbookView xWindow="-285" yWindow="150" windowWidth="10110" windowHeight="9165"/>
   </bookViews>
   <sheets>
-    <sheet name="11月16日" sheetId="30" r:id="rId1"/>
-    <sheet name="11月15日" sheetId="29" r:id="rId2"/>
-    <sheet name="11月14日" sheetId="28" r:id="rId3"/>
-    <sheet name="11月13日" sheetId="27" r:id="rId4"/>
-    <sheet name="11月12日" sheetId="26" r:id="rId5"/>
-    <sheet name="11月11日" sheetId="25" r:id="rId6"/>
-    <sheet name="11月10日" sheetId="24" r:id="rId7"/>
-    <sheet name="11月9日" sheetId="22" r:id="rId8"/>
-    <sheet name="11月8日" sheetId="21" r:id="rId9"/>
-    <sheet name="11月7日" sheetId="20" r:id="rId10"/>
-    <sheet name="11月5日" sheetId="19" r:id="rId11"/>
-    <sheet name="10月31日" sheetId="18" r:id="rId12"/>
-    <sheet name="10月30日" sheetId="17" r:id="rId13"/>
-    <sheet name="10月29日" sheetId="16" r:id="rId14"/>
-    <sheet name="10月28日" sheetId="15" r:id="rId15"/>
-    <sheet name="10月27日" sheetId="14" r:id="rId16"/>
-    <sheet name="10月26日" sheetId="13" r:id="rId17"/>
-    <sheet name="10月25日" sheetId="12" r:id="rId18"/>
-    <sheet name="10月24日" sheetId="11" r:id="rId19"/>
-    <sheet name="10月23日" sheetId="10" r:id="rId20"/>
-    <sheet name="10月22日" sheetId="9" r:id="rId21"/>
-    <sheet name="10月21日" sheetId="8" r:id="rId22"/>
-    <sheet name="10月20日 " sheetId="7" r:id="rId23"/>
-    <sheet name="10月19日" sheetId="6" r:id="rId24"/>
-    <sheet name="10月18日" sheetId="5" r:id="rId25"/>
+    <sheet name="11月17日" sheetId="31" r:id="rId1"/>
+    <sheet name="11月16日" sheetId="30" r:id="rId2"/>
+    <sheet name="11月15日" sheetId="29" r:id="rId3"/>
+    <sheet name="11月14日" sheetId="28" r:id="rId4"/>
+    <sheet name="11月13日" sheetId="27" r:id="rId5"/>
+    <sheet name="11月12日" sheetId="26" r:id="rId6"/>
+    <sheet name="11月11日" sheetId="25" r:id="rId7"/>
+    <sheet name="11月10日" sheetId="24" r:id="rId8"/>
+    <sheet name="11月9日" sheetId="22" r:id="rId9"/>
+    <sheet name="11月8日" sheetId="21" r:id="rId10"/>
+    <sheet name="11月7日" sheetId="20" r:id="rId11"/>
+    <sheet name="11月5日" sheetId="19" r:id="rId12"/>
+    <sheet name="10月31日" sheetId="18" r:id="rId13"/>
+    <sheet name="10月30日" sheetId="17" r:id="rId14"/>
+    <sheet name="10月29日" sheetId="16" r:id="rId15"/>
+    <sheet name="10月28日" sheetId="15" r:id="rId16"/>
+    <sheet name="10月27日" sheetId="14" r:id="rId17"/>
+    <sheet name="10月26日" sheetId="13" r:id="rId18"/>
+    <sheet name="10月25日" sheetId="12" r:id="rId19"/>
+    <sheet name="10月24日" sheetId="11" r:id="rId20"/>
+    <sheet name="10月23日" sheetId="10" r:id="rId21"/>
+    <sheet name="10月22日" sheetId="9" r:id="rId22"/>
+    <sheet name="10月21日" sheetId="8" r:id="rId23"/>
+    <sheet name="10月20日 " sheetId="7" r:id="rId24"/>
+    <sheet name="10月19日" sheetId="6" r:id="rId25"/>
+    <sheet name="10月18日" sheetId="5" r:id="rId26"/>
   </sheets>
   <calcPr calcId="125725" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="202">
   <si>
     <t>1.実施したこと</t>
     <rPh sb="2" eb="4">
@@ -2688,6 +2689,67 @@
   </si>
   <si>
     <t>・2013/11/16</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・2013/11/17</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・クラス図の作成</t>
+    <rPh sb="4" eb="5">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>今日は多重度、ノートとコメント、依存関係などについて学び、</t>
+    <rPh sb="0" eb="2">
+      <t>キョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>タジュウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ド</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>イゾン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>カンケイ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>マナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クラス図の基本的要素に関する項目を読み終えた。</t>
+    <rPh sb="3" eb="4">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>キホンテキ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヨウソ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>オ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3153,7 +3215,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -3183,25 +3245,25 @@
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39">
-      <c r="A12" t="s">
-        <v>4</v>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39">
+      <c r="C11" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="13" spans="1:39">
       <c r="A13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="A14" t="s">
         <v>1</v>
       </c>
-      <c r="B13" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="14" spans="1:39">
       <c r="B14" t="s">
-        <v>196</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16" spans="1:39">
@@ -3211,7 +3273,7 @@
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>103</v>
+        <v>199</v>
       </c>
     </row>
     <row r="18" spans="2:2">
@@ -3228,7 +3290,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM24"/>
+  <dimension ref="A1:AM17"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -3282,7 +3344,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -3292,84 +3354,54 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39">
-      <c r="B6" t="s">
-        <v>141</v>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="A7" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:39">
-      <c r="A8" t="s">
-        <v>3</v>
+      <c r="B8" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:39">
-      <c r="B9" t="s">
-        <v>145</v>
+      <c r="C9" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="11" spans="1:39">
-      <c r="C11" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="C12" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="14" spans="1:39">
-      <c r="B14" t="s">
-        <v>141</v>
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="A13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="15" spans="1:39">
-      <c r="C15" t="s">
-        <v>146</v>
+      <c r="A15" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="C16" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="C17" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B20" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="B23" t="s">
+      <c r="B16" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
-      <c r="B24" t="s">
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
         <v>111</v>
       </c>
     </row>
@@ -3382,7 +3414,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM18"/>
+  <dimension ref="A1:AM24"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -3436,7 +3468,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -3446,59 +3478,84 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39">
-      <c r="A7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39">
+      <c r="B6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="A8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
-      <c r="B8" t="s">
-        <v>111</v>
-      </c>
-    </row>
     <row r="9" spans="1:39">
-      <c r="C9" t="s">
-        <v>138</v>
+      <c r="B9" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="13" spans="1:39">
-      <c r="A13" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="C12" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="B14" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="C15" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="C16" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="C17" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:39">
-      <c r="A14" t="s">
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
         <v>1</v>
       </c>
-      <c r="B14" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="16" spans="1:39">
-      <c r="A16" t="s">
+      <c r="B20" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
-      <c r="B17" t="s">
+    <row r="23" spans="1:3">
+      <c r="B23" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="18" spans="2:2">
-      <c r="B18" t="s">
+    <row r="24" spans="1:3">
+      <c r="B24" t="s">
         <v>111</v>
       </c>
     </row>
@@ -3511,7 +3568,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM24"/>
+  <dimension ref="A1:AM18"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -3565,7 +3622,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -3575,7 +3632,7 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:39">
@@ -3585,69 +3642,49 @@
     </row>
     <row r="8" spans="1:39">
       <c r="B8" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:39">
       <c r="C9" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39">
-      <c r="C12" t="s">
-        <v>132</v>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="A13" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:39">
-      <c r="C14" t="s">
-        <v>133</v>
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="C16" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="C17" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B20" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
+      <c r="A16" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
-      <c r="B23" t="s">
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
-      <c r="B24" t="s">
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
         <v>111</v>
       </c>
     </row>
@@ -3660,7 +3697,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM19"/>
+  <dimension ref="A1:AM24"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -3714,7 +3751,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -3724,7 +3761,7 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:39">
@@ -3734,54 +3771,69 @@
     </row>
     <row r="8" spans="1:39">
       <c r="B8" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:39">
       <c r="C9" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:39">
       <c r="C12" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14" spans="1:39">
-      <c r="A14" t="s">
+      <c r="C14" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="C16" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="C17" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:39">
-      <c r="A15" t="s">
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
         <v>1</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B20" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
-      <c r="B18" t="s">
+    <row r="23" spans="1:3">
+      <c r="B23" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="B19" t="s">
+    <row r="24" spans="1:3">
+      <c r="B24" t="s">
         <v>111</v>
       </c>
     </row>
@@ -3794,7 +3846,7 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM18"/>
+  <dimension ref="A1:AM19"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -3848,7 +3900,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -3858,7 +3910,7 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:39">
@@ -3868,49 +3920,54 @@
     </row>
     <row r="8" spans="1:39">
       <c r="B8" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:39">
       <c r="C9" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="13" spans="1:39">
-      <c r="A13" t="s">
-        <v>4</v>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="C12" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="14" spans="1:39">
       <c r="A14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="A15" t="s">
         <v>1</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="16" spans="1:39">
-      <c r="A16" t="s">
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
-      <c r="B17" t="s">
+    <row r="18" spans="1:2">
+      <c r="B18" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="18" spans="2:2">
-      <c r="B18" t="s">
+    <row r="19" spans="1:2">
+      <c r="B19" t="s">
         <v>111</v>
       </c>
     </row>
@@ -3923,7 +3980,7 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM17"/>
+  <dimension ref="A1:AM18"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -3977,7 +4034,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -3987,7 +4044,7 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:39">
@@ -3997,44 +4054,49 @@
     </row>
     <row r="8" spans="1:39">
       <c r="B8" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:39">
       <c r="C9" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39">
-      <c r="A12" t="s">
-        <v>4</v>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39">
+      <c r="C11" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:39">
       <c r="A13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="A14" t="s">
         <v>1</v>
       </c>
-      <c r="B13" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="15" spans="1:39">
-      <c r="A15" t="s">
+      <c r="B14" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="A16" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:39">
-      <c r="B16" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
         <v>111</v>
       </c>
     </row>
@@ -4047,7 +4109,7 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM22"/>
+  <dimension ref="A1:AM17"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -4101,7 +4163,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -4111,94 +4173,67 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39">
-      <c r="B6" t="s">
-        <v>57</v>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="A7" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:39">
-      <c r="A8" t="s">
-        <v>3</v>
+      <c r="B8" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:39">
-      <c r="B9" t="s">
-        <v>101</v>
+      <c r="C9" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="11" spans="1:39">
-      <c r="C11" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="C12" t="s">
-        <v>106</v>
+      <c r="A12" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="C13" s="4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="14" spans="1:39">
-      <c r="C14" s="4"/>
+      <c r="A13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="15" spans="1:39">
-      <c r="B15" t="s">
-        <v>108</v>
-      </c>
-      <c r="C15" s="4"/>
+      <c r="A15" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="C16" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>1</v>
-      </c>
-      <c r="B19" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="B22" t="s">
+      <c r="B16" t="s">
         <v>103</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <hyperlinks>
-    <hyperlink ref="C13" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM19"/>
+  <dimension ref="A1:AM22"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -4252,7 +4287,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -4262,77 +4297,94 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39">
-      <c r="A7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39">
+      <c r="B6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="A8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
-      <c r="B8" t="s">
-        <v>87</v>
-      </c>
-    </row>
     <row r="9" spans="1:39">
-      <c r="C9" t="s">
-        <v>97</v>
+      <c r="B9" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:39">
       <c r="C12" t="s">
-        <v>98</v>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="C13" s="4" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:39">
-      <c r="A14" t="s">
+      <c r="C14" s="4"/>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="B15" t="s">
+        <v>108</v>
+      </c>
+      <c r="C15" s="4"/>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="C16" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:39">
-      <c r="A15" t="s">
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
         <v>1</v>
       </c>
-      <c r="B15" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
+      <c r="B19" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
-      <c r="B18" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="B19" t="s">
-        <v>99</v>
+    <row r="22" spans="1:2">
+      <c r="B22" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="C13" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM18"/>
+  <dimension ref="A1:AM19"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -4386,7 +4438,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -4406,50 +4458,55 @@
     </row>
     <row r="8" spans="1:39">
       <c r="B8" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:39">
       <c r="C9" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="13" spans="1:39">
-      <c r="A13" t="s">
-        <v>4</v>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="C12" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:39">
       <c r="A14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="A15" t="s">
         <v>1</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="16" spans="1:39">
-      <c r="A16" t="s">
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
-      <c r="B17" t="s">
+    <row r="18" spans="1:2">
+      <c r="B18" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="2:2">
-      <c r="B18" t="s">
-        <v>89</v>
+    <row r="19" spans="1:2">
+      <c r="B19" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -4461,11 +4518,9 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM27"/>
+  <dimension ref="A1:AM18"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="AM35" sqref="AM35"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
   <cols>
@@ -4517,7 +4572,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -4527,95 +4582,60 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39">
-      <c r="B6" t="s">
-        <v>76</v>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="A7" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:39">
-      <c r="A8" t="s">
-        <v>3</v>
+      <c r="B8" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:39">
-      <c r="B9" t="s">
-        <v>75</v>
+      <c r="C9" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39">
-      <c r="B12" t="s">
-        <v>76</v>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39">
+      <c r="C11" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="C13" t="s">
-        <v>78</v>
+      <c r="A13" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:39">
-      <c r="C14" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="15" spans="1:39">
-      <c r="C15" t="s">
-        <v>80</v>
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="C16" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="C18" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="C19" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="C20" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
-        <v>1</v>
-      </c>
-      <c r="B23" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
+      <c r="A16" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
-      <c r="B26" t="s">
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
-      <c r="B27" t="s">
-        <v>60</v>
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -4627,7 +4647,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM17"/>
+  <dimension ref="A1:AM18"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -4681,7 +4701,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -4711,7 +4731,7 @@
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="12" spans="1:39">
@@ -4724,21 +4744,26 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="15" spans="1:39">
-      <c r="A15" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="B14" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="A16" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:39">
-      <c r="B16" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
         <v>181</v>
       </c>
     </row>
@@ -4751,9 +4776,11 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM23"/>
+  <dimension ref="A1:AM27"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="AM35" sqref="AM35"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
   <cols>
@@ -4805,7 +4832,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -4815,84 +4842,94 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39">
-      <c r="A7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39">
+      <c r="B6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="A8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
-      <c r="B8" t="s">
-        <v>64</v>
-      </c>
-    </row>
     <row r="9" spans="1:39">
-      <c r="C9" t="s">
-        <v>65</v>
+      <c r="B9" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="11" spans="1:39">
-      <c r="D11" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="D12" t="s">
-        <v>67</v>
+      <c r="B12" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="D13" t="s">
-        <v>68</v>
+      <c r="C13" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:39">
-      <c r="D14" t="s">
-        <v>69</v>
+      <c r="C14" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:39">
-      <c r="D15" t="s">
-        <v>70</v>
+      <c r="C15" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="D16" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
+      <c r="C16" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="C18" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="C19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="C20" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
         <v>1</v>
       </c>
-      <c r="B19" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
+      <c r="B23" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
-      <c r="B22" t="s">
+    <row r="26" spans="1:3">
+      <c r="B26" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
-      <c r="B23" t="s">
+    <row r="27" spans="1:3">
+      <c r="B27" t="s">
         <v>60</v>
       </c>
     </row>
@@ -4905,7 +4942,7 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM24"/>
+  <dimension ref="A1:AM23"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -4959,7 +4996,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -4969,79 +5006,84 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39">
-      <c r="B6" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:39">
-      <c r="B7" t="s">
-        <v>57</v>
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="B8" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:39">
-      <c r="A9" t="s">
-        <v>3</v>
+      <c r="C9" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:39">
-      <c r="B10" t="s">
-        <v>42</v>
+      <c r="C10" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:39">
-      <c r="C11" t="s">
-        <v>58</v>
+      <c r="D11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="D12" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="B13" t="s">
-        <v>56</v>
+      <c r="D13" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:39">
-      <c r="C14" t="s">
-        <v>59</v>
+      <c r="D14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="D15" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="B16" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="C17" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
         <v>1</v>
       </c>
-      <c r="B20" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
+      <c r="B19" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="22" spans="1:2">
+      <c r="B22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
       <c r="B23" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="B24" t="s">
         <v>60</v>
       </c>
     </row>
@@ -5054,7 +5096,7 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM29"/>
+  <dimension ref="A1:AM24"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -5108,7 +5150,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -5118,17 +5160,17 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:39">
       <c r="B6" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:39">
       <c r="B7" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:39">
@@ -5138,91 +5180,60 @@
     </row>
     <row r="10" spans="1:39">
       <c r="B10" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39">
-      <c r="C12" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="C13" t="s">
-        <v>50</v>
+      <c r="B13" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:39">
       <c r="C14" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" spans="1:39">
-      <c r="C15" s="4"/>
+        <v>59</v>
+      </c>
     </row>
     <row r="16" spans="1:39">
       <c r="B16" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="C17" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="C18" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="C19" t="s">
-        <v>45</v>
+      <c r="A19" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="C20" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="B21" s="4"/>
+      <c r="A20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="B22" t="s">
-        <v>30</v>
+      <c r="A22" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="C23" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" t="s">
-        <v>1</v>
-      </c>
-      <c r="B26" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="B29" t="s">
+      <c r="B23" t="s">
         <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="B24" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -5234,7 +5245,7 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM25"/>
+  <dimension ref="A1:AM29"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -5288,7 +5299,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -5298,101 +5309,117 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:39">
       <c r="B6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="B7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
-      <c r="A8" t="s">
+    <row r="9" spans="1:39">
+      <c r="A9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:39">
-      <c r="B9" t="s">
-        <v>35</v>
-      </c>
-    </row>
     <row r="10" spans="1:39">
-      <c r="C10" t="s">
-        <v>36</v>
+      <c r="B10" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="C12" s="4" t="s">
-        <v>33</v>
+      <c r="C12" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="B13" s="4"/>
+      <c r="C13" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="14" spans="1:39">
-      <c r="B14" s="4"/>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:39">
-      <c r="C15" t="s">
-        <v>40</v>
-      </c>
+      <c r="C15" s="4"/>
     </row>
     <row r="16" spans="1:39">
-      <c r="B16" s="4"/>
+      <c r="B16" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="B17" t="s">
-        <v>30</v>
+      <c r="C17" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="C18" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="C19" t="s">
-        <v>31</v>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="C20" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" t="s">
+      <c r="B21" s="4"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="B22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="C23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
         <v>1</v>
       </c>
-      <c r="B22" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
+      <c r="B26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
-      <c r="B25" t="s">
-        <v>38</v>
+    <row r="29" spans="1:3">
+      <c r="B29" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <hyperlinks>
-    <hyperlink ref="C12" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5400,9 +5427,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AM25"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
   <cols>
@@ -5454,7 +5479,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -5464,12 +5489,12 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:39">
       <c r="B6" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:39">
@@ -5479,22 +5504,22 @@
     </row>
     <row r="9" spans="1:39">
       <c r="B9" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:39">
       <c r="C12" s="4" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:39">
@@ -5503,31 +5528,30 @@
     <row r="14" spans="1:39">
       <c r="B14" s="4"/>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:39">
-      <c r="B15" s="4"/>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
+      <c r="B16" s="4"/>
     </row>
     <row r="17" spans="1:3">
-      <c r="B17" s="4"/>
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="B18" t="s">
-        <v>18</v>
+      <c r="C18" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="C19" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -5540,7 +5564,7 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -5550,7 +5574,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="B25" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -5565,9 +5589,11 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM23"/>
+  <dimension ref="A1:AM25"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
   <cols>
@@ -5619,7 +5645,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -5629,95 +5655,108 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39">
-      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39">
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="A8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-    </row>
     <row r="9" spans="1:39">
-      <c r="C9" t="s">
-        <v>14</v>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39">
+      <c r="C10" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:39">
-      <c r="B11" t="s">
-        <v>15</v>
+      <c r="C11" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="B12" s="4" t="s">
-        <v>10</v>
+      <c r="C12" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:39">
       <c r="B13" s="4"/>
     </row>
     <row r="14" spans="1:39">
-      <c r="B14" t="s">
-        <v>16</v>
+      <c r="B14" s="4"/>
+      <c r="C14" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:39">
-      <c r="B15" s="4" t="s">
-        <v>7</v>
+      <c r="B15" s="4"/>
+      <c r="C15" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="B16" s="4"/>
       <c r="C16" t="s">
-        <v>13</v>
-      </c>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="B17" s="4"/>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>4</v>
+      <c r="B18" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>1</v>
-      </c>
-      <c r="B19" t="s">
-        <v>11</v>
+      <c r="C19" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
-      <c r="B22" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="C23" t="s">
-        <v>9</v>
+    <row r="25" spans="1:3">
+      <c r="B25" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="B15" r:id="rId1"/>
-    <hyperlink ref="B12" r:id="rId2"/>
+    <hyperlink ref="C12" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM26"/>
+  <dimension ref="A1:AM23"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -5771,7 +5810,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>179</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -5781,107 +5820,95 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39">
-      <c r="B6" t="s">
-        <v>190</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="A7" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:39">
-      <c r="A8" t="s">
-        <v>3</v>
+      <c r="B8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:39">
-      <c r="B9" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="10" spans="1:39">
-      <c r="C10" t="s">
-        <v>182</v>
+      <c r="C9" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:39">
-      <c r="C11" t="s">
-        <v>183</v>
+      <c r="B11" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="C12" t="s">
-        <v>184</v>
-      </c>
+      <c r="B12" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="B13" s="4"/>
     </row>
     <row r="14" spans="1:39">
       <c r="B14" t="s">
-        <v>190</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:39">
-      <c r="C15" t="s">
-        <v>185</v>
+      <c r="B15" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:39">
+      <c r="B16" s="4"/>
       <c r="C16" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="C17" t="s">
-        <v>187</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="C18" t="s">
-        <v>188</v>
+      <c r="A18" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="C19" t="s">
-        <v>189</v>
+      <c r="A19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>1</v>
-      </c>
       <c r="B22" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="B25" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="B26" t="s">
-        <v>181</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="C23" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="B15" r:id="rId1"/>
+    <hyperlink ref="B12" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM18"/>
+  <dimension ref="A1:AM17"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -5935,7 +5962,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -5945,7 +5972,7 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>178</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:39">
@@ -5955,50 +5982,45 @@
     </row>
     <row r="8" spans="1:39">
       <c r="B8" t="s">
-        <v>178</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:39">
       <c r="C9" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="11" spans="1:39">
-      <c r="C11" t="s">
-        <v>176</v>
+        <v>193</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="A12" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:39">
       <c r="A13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:39">
-      <c r="A14" t="s">
         <v>1</v>
       </c>
-      <c r="B14" t="s">
-        <v>177</v>
+      <c r="B13" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="A15" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="A16" t="s">
-        <v>2</v>
+      <c r="B16" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18" t="s">
-        <v>103</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -6008,9 +6030,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM23"/>
+  <dimension ref="A1:AM26"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -6064,7 +6086,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -6074,12 +6096,12 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:39">
       <c r="B6" t="s">
-        <v>103</v>
+        <v>190</v>
       </c>
     </row>
     <row r="8" spans="1:39">
@@ -6089,65 +6111,80 @@
     </row>
     <row r="9" spans="1:39">
       <c r="B9" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
     </row>
     <row r="12" spans="1:39">
       <c r="C12" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="13" spans="1:39">
-      <c r="C13" t="s">
-        <v>168</v>
+        <v>184</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="B14" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="15" spans="1:39">
-      <c r="B15" t="s">
-        <v>103</v>
+      <c r="C15" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="16" spans="1:39">
       <c r="C16" t="s">
-        <v>158</v>
+        <v>186</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="C17" t="s">
-        <v>171</v>
+        <v>187</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="C18" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" t="s">
+      <c r="C19" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B20" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
-      <c r="B23" t="s">
+    <row r="25" spans="1:3">
+      <c r="B25" t="s">
         <v>103</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="B26" t="s">
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -6157,9 +6194,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM20"/>
+  <dimension ref="A1:AM18"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -6213,7 +6250,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -6223,64 +6260,59 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39">
-      <c r="B6" t="s">
-        <v>103</v>
+        <v>178</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="A7" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:39">
-      <c r="A8" t="s">
-        <v>3</v>
+      <c r="B8" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="9" spans="1:39">
-      <c r="B9" t="s">
-        <v>111</v>
+      <c r="C9" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39">
-      <c r="B12" t="s">
-        <v>103</v>
+        <v>175</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39">
+      <c r="C11" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="C13" t="s">
-        <v>158</v>
+      <c r="A13" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:39">
-      <c r="C14" t="s">
-        <v>164</v>
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="16" spans="1:39">
       <c r="A16" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="B20" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
         <v>103</v>
       </c>
     </row>
@@ -6291,9 +6323,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM19"/>
+  <dimension ref="A1:AM23"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -6347,7 +6379,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -6357,7 +6389,7 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>111</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:39">
@@ -6372,44 +6404,64 @@
     </row>
     <row r="9" spans="1:39">
       <c r="B9" t="s">
-        <v>111</v>
+        <v>166</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>159</v>
+        <v>167</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39">
+      <c r="C11" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="B12" t="s">
-        <v>103</v>
+      <c r="C12" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="13" spans="1:39">
       <c r="C13" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="B15" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="C16" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="15" spans="1:39">
-      <c r="A15" t="s">
+    <row r="17" spans="1:3">
+      <c r="C17" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:39">
-      <c r="A16" t="s">
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
         <v>1</v>
       </c>
-      <c r="B16" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
+      <c r="B20" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="B19" t="s">
+    <row r="23" spans="1:3">
+      <c r="B23" t="s">
         <v>103</v>
       </c>
     </row>
@@ -6420,9 +6472,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM18"/>
+  <dimension ref="A1:AM20"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -6476,7 +6528,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -6489,57 +6541,62 @@
         <v>111</v>
       </c>
     </row>
-    <row r="7" spans="1:39">
-      <c r="A7" t="s">
+    <row r="6" spans="1:39">
+      <c r="B6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="A8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
-      <c r="B8" t="s">
+    <row r="9" spans="1:39">
+      <c r="B9" t="s">
         <v>111</v>
-      </c>
-    </row>
-    <row r="9" spans="1:39">
-      <c r="C9" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="A12" t="s">
+      <c r="B12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="C13" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="C14" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="A16" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:39">
-      <c r="A13" t="s">
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
         <v>1</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B17" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="15" spans="1:39">
-      <c r="A15" t="s">
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:39">
-      <c r="B16" t="s">
+    <row r="20" spans="1:2">
+      <c r="B20" t="s">
         <v>103</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3">
-      <c r="B17" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3">
-      <c r="C18" t="s">
-        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -6549,9 +6606,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM17"/>
+  <dimension ref="A1:AM19"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -6605,7 +6662,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -6615,7 +6672,136 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39">
+      <c r="B6" t="s">
         <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39">
+      <c r="B9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39">
+      <c r="C10" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="B12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="C13" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="A16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="B19" t="s">
+        <v>103</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AM18"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="1.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:39" s="1" customFormat="1" ht="21">
+      <c r="A1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="2"/>
+    </row>
+    <row r="2" spans="1:39">
+      <c r="A2" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39">
+      <c r="B5" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:39">
@@ -6625,17 +6811,17 @@
     </row>
     <row r="8" spans="1:39">
       <c r="B8" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:39">
       <c r="C9" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:39">
@@ -6648,7 +6834,7 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>153</v>
+        <v>117</v>
       </c>
     </row>
     <row r="15" spans="1:39">
@@ -6661,9 +6847,14 @@
         <v>103</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
+    <row r="17" spans="2:3">
       <c r="B17" t="s">
         <v>111</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3">
+      <c r="C18" t="s">
+        <v>155</v>
       </c>
     </row>
   </sheetData>

--- a/日報.xlsx
+++ b/日報.xlsx
@@ -7,39 +7,40 @@
     <workbookView xWindow="-285" yWindow="150" windowWidth="10110" windowHeight="9165"/>
   </bookViews>
   <sheets>
-    <sheet name="11月17日" sheetId="31" r:id="rId1"/>
-    <sheet name="11月16日" sheetId="30" r:id="rId2"/>
-    <sheet name="11月15日" sheetId="29" r:id="rId3"/>
-    <sheet name="11月14日" sheetId="28" r:id="rId4"/>
-    <sheet name="11月13日" sheetId="27" r:id="rId5"/>
-    <sheet name="11月12日" sheetId="26" r:id="rId6"/>
-    <sheet name="11月11日" sheetId="25" r:id="rId7"/>
-    <sheet name="11月10日" sheetId="24" r:id="rId8"/>
-    <sheet name="11月9日" sheetId="22" r:id="rId9"/>
-    <sheet name="11月8日" sheetId="21" r:id="rId10"/>
-    <sheet name="11月7日" sheetId="20" r:id="rId11"/>
-    <sheet name="11月5日" sheetId="19" r:id="rId12"/>
-    <sheet name="10月31日" sheetId="18" r:id="rId13"/>
-    <sheet name="10月30日" sheetId="17" r:id="rId14"/>
-    <sheet name="10月29日" sheetId="16" r:id="rId15"/>
-    <sheet name="10月28日" sheetId="15" r:id="rId16"/>
-    <sheet name="10月27日" sheetId="14" r:id="rId17"/>
-    <sheet name="10月26日" sheetId="13" r:id="rId18"/>
-    <sheet name="10月25日" sheetId="12" r:id="rId19"/>
-    <sheet name="10月24日" sheetId="11" r:id="rId20"/>
-    <sheet name="10月23日" sheetId="10" r:id="rId21"/>
-    <sheet name="10月22日" sheetId="9" r:id="rId22"/>
-    <sheet name="10月21日" sheetId="8" r:id="rId23"/>
-    <sheet name="10月20日 " sheetId="7" r:id="rId24"/>
-    <sheet name="10月19日" sheetId="6" r:id="rId25"/>
-    <sheet name="10月18日" sheetId="5" r:id="rId26"/>
+    <sheet name="11月18日" sheetId="32" r:id="rId1"/>
+    <sheet name="11月17日" sheetId="31" r:id="rId2"/>
+    <sheet name="11月16日" sheetId="30" r:id="rId3"/>
+    <sheet name="11月15日" sheetId="29" r:id="rId4"/>
+    <sheet name="11月14日" sheetId="28" r:id="rId5"/>
+    <sheet name="11月13日" sheetId="27" r:id="rId6"/>
+    <sheet name="11月12日" sheetId="26" r:id="rId7"/>
+    <sheet name="11月11日" sheetId="25" r:id="rId8"/>
+    <sheet name="11月10日" sheetId="24" r:id="rId9"/>
+    <sheet name="11月9日" sheetId="22" r:id="rId10"/>
+    <sheet name="11月8日" sheetId="21" r:id="rId11"/>
+    <sheet name="11月7日" sheetId="20" r:id="rId12"/>
+    <sheet name="11月5日" sheetId="19" r:id="rId13"/>
+    <sheet name="10月31日" sheetId="18" r:id="rId14"/>
+    <sheet name="10月30日" sheetId="17" r:id="rId15"/>
+    <sheet name="10月29日" sheetId="16" r:id="rId16"/>
+    <sheet name="10月28日" sheetId="15" r:id="rId17"/>
+    <sheet name="10月27日" sheetId="14" r:id="rId18"/>
+    <sheet name="10月26日" sheetId="13" r:id="rId19"/>
+    <sheet name="10月25日" sheetId="12" r:id="rId20"/>
+    <sheet name="10月24日" sheetId="11" r:id="rId21"/>
+    <sheet name="10月23日" sheetId="10" r:id="rId22"/>
+    <sheet name="10月22日" sheetId="9" r:id="rId23"/>
+    <sheet name="10月21日" sheetId="8" r:id="rId24"/>
+    <sheet name="10月20日 " sheetId="7" r:id="rId25"/>
+    <sheet name="10月19日" sheetId="6" r:id="rId26"/>
+    <sheet name="10月18日" sheetId="5" r:id="rId27"/>
   </sheets>
   <calcPr calcId="125725" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="209">
   <si>
     <t>1.実施したこと</t>
     <rPh sb="2" eb="4">
@@ -2749,6 +2750,94 @@
     </rPh>
     <rPh sb="19" eb="20">
       <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・2013/11/18</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・サンプルソースコードのオープン、クローズ実施部分の調査</t>
+    <rPh sb="21" eb="23">
+      <t>ジッシ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>チョウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FS88のサンプルソースコードから機器が判別されたオープンと</t>
+    <rPh sb="17" eb="19">
+      <t>キキ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ハンベツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>接続を解除するクローズを行っている部分について調査した。</t>
+    <rPh sb="0" eb="2">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カイジョ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>チョウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CloseDeviceメソッドがクローズに該当する機能が実装されている様である。</t>
+    <rPh sb="21" eb="23">
+      <t>ガイトウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>調査の結果、UsbDeviceDataExchangeImpl.javaのOpenDeviceメソッドがオープン、</t>
+    <rPh sb="0" eb="2">
+      <t>チョウサ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>機能一覧表の修正</t>
+    <rPh sb="0" eb="2">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シュウセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3215,7 +3304,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -3225,7 +3314,7 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>103</v>
+        <v>203</v>
       </c>
     </row>
     <row r="7" spans="1:39">
@@ -3235,50 +3324,50 @@
     </row>
     <row r="8" spans="1:39">
       <c r="B8" t="s">
-        <v>103</v>
+        <v>203</v>
       </c>
     </row>
     <row r="9" spans="1:39">
       <c r="C9" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="13" spans="1:39">
-      <c r="A13" t="s">
-        <v>4</v>
+        <v>207</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="C12" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="14" spans="1:39">
       <c r="A14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="A15" t="s">
         <v>1</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="16" spans="1:39">
-      <c r="A16" t="s">
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
-      <c r="B17" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2">
+    <row r="18" spans="1:2">
       <c r="B18" t="s">
-        <v>181</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -3290,7 +3379,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM17"/>
+  <dimension ref="A1:AM18"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -3344,7 +3433,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -3354,7 +3443,7 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:39">
@@ -3364,17 +3453,17 @@
     </row>
     <row r="8" spans="1:39">
       <c r="B8" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:39">
       <c r="C9" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:39">
@@ -3387,7 +3476,7 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>153</v>
+        <v>117</v>
       </c>
     </row>
     <row r="15" spans="1:39">
@@ -3400,9 +3489,14 @@
         <v>103</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
+    <row r="17" spans="2:3">
       <c r="B17" t="s">
         <v>111</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3">
+      <c r="C18" t="s">
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -3414,7 +3508,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM24"/>
+  <dimension ref="A1:AM17"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -3468,7 +3562,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -3478,84 +3572,54 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39">
-      <c r="B6" t="s">
-        <v>141</v>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="A7" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:39">
-      <c r="A8" t="s">
-        <v>3</v>
+      <c r="B8" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:39">
-      <c r="B9" t="s">
-        <v>145</v>
+      <c r="C9" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="11" spans="1:39">
-      <c r="C11" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="C12" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="14" spans="1:39">
-      <c r="B14" t="s">
-        <v>141</v>
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="A13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="15" spans="1:39">
-      <c r="C15" t="s">
-        <v>146</v>
+      <c r="A15" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="C16" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="C17" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B20" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="B23" t="s">
+      <c r="B16" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
-      <c r="B24" t="s">
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
         <v>111</v>
       </c>
     </row>
@@ -3568,7 +3632,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM18"/>
+  <dimension ref="A1:AM24"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -3622,7 +3686,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -3632,59 +3696,84 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39">
-      <c r="A7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39">
+      <c r="B6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="A8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
-      <c r="B8" t="s">
-        <v>111</v>
-      </c>
-    </row>
     <row r="9" spans="1:39">
-      <c r="C9" t="s">
-        <v>138</v>
+      <c r="B9" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="13" spans="1:39">
-      <c r="A13" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="C12" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="B14" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="C15" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="C16" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="C17" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:39">
-      <c r="A14" t="s">
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
         <v>1</v>
       </c>
-      <c r="B14" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="16" spans="1:39">
-      <c r="A16" t="s">
+      <c r="B20" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
-      <c r="B17" t="s">
+    <row r="23" spans="1:3">
+      <c r="B23" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="18" spans="2:2">
-      <c r="B18" t="s">
+    <row r="24" spans="1:3">
+      <c r="B24" t="s">
         <v>111</v>
       </c>
     </row>
@@ -3697,7 +3786,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM24"/>
+  <dimension ref="A1:AM18"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -3751,7 +3840,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -3761,7 +3850,7 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:39">
@@ -3771,69 +3860,49 @@
     </row>
     <row r="8" spans="1:39">
       <c r="B8" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:39">
       <c r="C9" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39">
-      <c r="C12" t="s">
-        <v>132</v>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="A13" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:39">
-      <c r="C14" t="s">
-        <v>133</v>
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="C16" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="C17" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B20" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
+      <c r="A16" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
-      <c r="B23" t="s">
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
-      <c r="B24" t="s">
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
         <v>111</v>
       </c>
     </row>
@@ -3846,7 +3915,7 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM19"/>
+  <dimension ref="A1:AM24"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -3900,7 +3969,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -3910,7 +3979,7 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:39">
@@ -3920,54 +3989,69 @@
     </row>
     <row r="8" spans="1:39">
       <c r="B8" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:39">
       <c r="C9" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:39">
       <c r="C12" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14" spans="1:39">
-      <c r="A14" t="s">
+      <c r="C14" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="C16" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="C17" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:39">
-      <c r="A15" t="s">
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
         <v>1</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B20" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
-      <c r="B18" t="s">
+    <row r="23" spans="1:3">
+      <c r="B23" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="B19" t="s">
+    <row r="24" spans="1:3">
+      <c r="B24" t="s">
         <v>111</v>
       </c>
     </row>
@@ -3980,7 +4064,7 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM18"/>
+  <dimension ref="A1:AM19"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -4034,7 +4118,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -4044,7 +4128,7 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:39">
@@ -4054,49 +4138,54 @@
     </row>
     <row r="8" spans="1:39">
       <c r="B8" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:39">
       <c r="C9" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="13" spans="1:39">
-      <c r="A13" t="s">
-        <v>4</v>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="C12" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="14" spans="1:39">
       <c r="A14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="A15" t="s">
         <v>1</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="16" spans="1:39">
-      <c r="A16" t="s">
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
-      <c r="B17" t="s">
+    <row r="18" spans="1:2">
+      <c r="B18" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="18" spans="2:2">
-      <c r="B18" t="s">
+    <row r="19" spans="1:2">
+      <c r="B19" t="s">
         <v>111</v>
       </c>
     </row>
@@ -4109,7 +4198,7 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM17"/>
+  <dimension ref="A1:AM18"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -4163,7 +4252,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -4173,7 +4262,7 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:39">
@@ -4183,44 +4272,49 @@
     </row>
     <row r="8" spans="1:39">
       <c r="B8" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:39">
       <c r="C9" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39">
-      <c r="A12" t="s">
-        <v>4</v>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39">
+      <c r="C11" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:39">
       <c r="A13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="A14" t="s">
         <v>1</v>
       </c>
-      <c r="B13" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="15" spans="1:39">
-      <c r="A15" t="s">
+      <c r="B14" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="A16" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:39">
-      <c r="B16" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
         <v>111</v>
       </c>
     </row>
@@ -4233,7 +4327,7 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM22"/>
+  <dimension ref="A1:AM17"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -4287,7 +4381,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -4297,94 +4391,67 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39">
-      <c r="B6" t="s">
-        <v>57</v>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="A7" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:39">
-      <c r="A8" t="s">
-        <v>3</v>
+      <c r="B8" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:39">
-      <c r="B9" t="s">
-        <v>101</v>
+      <c r="C9" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="11" spans="1:39">
-      <c r="C11" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="C12" t="s">
-        <v>106</v>
+      <c r="A12" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="C13" s="4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="14" spans="1:39">
-      <c r="C14" s="4"/>
+      <c r="A13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="15" spans="1:39">
-      <c r="B15" t="s">
-        <v>108</v>
-      </c>
-      <c r="C15" s="4"/>
+      <c r="A15" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="C16" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>1</v>
-      </c>
-      <c r="B19" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="B22" t="s">
+      <c r="B16" t="s">
         <v>103</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <hyperlinks>
-    <hyperlink ref="C13" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM19"/>
+  <dimension ref="A1:AM22"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -4438,7 +4505,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -4448,77 +4515,94 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39">
-      <c r="A7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39">
+      <c r="B6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="A8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
-      <c r="B8" t="s">
-        <v>87</v>
-      </c>
-    </row>
     <row r="9" spans="1:39">
-      <c r="C9" t="s">
-        <v>97</v>
+      <c r="B9" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:39">
       <c r="C12" t="s">
-        <v>98</v>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="C13" s="4" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:39">
-      <c r="A14" t="s">
+      <c r="C14" s="4"/>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="B15" t="s">
+        <v>108</v>
+      </c>
+      <c r="C15" s="4"/>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="C16" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:39">
-      <c r="A15" t="s">
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
         <v>1</v>
       </c>
-      <c r="B15" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
+      <c r="B19" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
-      <c r="B18" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="B19" t="s">
-        <v>99</v>
+    <row r="22" spans="1:2">
+      <c r="B22" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="C13" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM18"/>
+  <dimension ref="A1:AM19"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -4572,7 +4656,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -4592,50 +4676,55 @@
     </row>
     <row r="8" spans="1:39">
       <c r="B8" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:39">
       <c r="C9" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="13" spans="1:39">
-      <c r="A13" t="s">
-        <v>4</v>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="C12" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:39">
       <c r="A14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="A15" t="s">
         <v>1</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="16" spans="1:39">
-      <c r="A16" t="s">
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
-      <c r="B17" t="s">
+    <row r="18" spans="1:2">
+      <c r="B18" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="2:2">
-      <c r="B18" t="s">
-        <v>89</v>
+    <row r="19" spans="1:2">
+      <c r="B19" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -4701,7 +4790,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -4731,25 +4820,25 @@
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39">
-      <c r="A12" t="s">
-        <v>4</v>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39">
+      <c r="C11" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="13" spans="1:39">
       <c r="A13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="A14" t="s">
         <v>1</v>
       </c>
-      <c r="B13" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="14" spans="1:39">
       <c r="B14" t="s">
-        <v>196</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16" spans="1:39">
@@ -4759,7 +4848,7 @@
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>103</v>
+        <v>199</v>
       </c>
     </row>
     <row r="18" spans="2:2">
@@ -4776,11 +4865,9 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM27"/>
+  <dimension ref="A1:AM18"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="AM35" sqref="AM35"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
   <cols>
@@ -4832,7 +4919,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -4842,95 +4929,60 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39">
-      <c r="B6" t="s">
-        <v>76</v>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="A7" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:39">
-      <c r="A8" t="s">
-        <v>3</v>
+      <c r="B8" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:39">
-      <c r="B9" t="s">
-        <v>75</v>
+      <c r="C9" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39">
-      <c r="B12" t="s">
-        <v>76</v>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39">
+      <c r="C11" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="C13" t="s">
-        <v>78</v>
+      <c r="A13" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:39">
-      <c r="C14" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="15" spans="1:39">
-      <c r="C15" t="s">
-        <v>80</v>
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="C16" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="C18" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="C19" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="C20" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
-        <v>1</v>
-      </c>
-      <c r="B23" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
+      <c r="A16" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
-      <c r="B26" t="s">
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
-      <c r="B27" t="s">
-        <v>60</v>
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -4942,9 +4994,11 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM23"/>
+  <dimension ref="A1:AM27"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="AM35" sqref="AM35"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
   <cols>
@@ -4996,7 +5050,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -5006,84 +5060,94 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39">
-      <c r="A7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39">
+      <c r="B6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="A8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
-      <c r="B8" t="s">
-        <v>64</v>
-      </c>
-    </row>
     <row r="9" spans="1:39">
-      <c r="C9" t="s">
-        <v>65</v>
+      <c r="B9" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="11" spans="1:39">
-      <c r="D11" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="D12" t="s">
-        <v>67</v>
+      <c r="B12" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="D13" t="s">
-        <v>68</v>
+      <c r="C13" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:39">
-      <c r="D14" t="s">
-        <v>69</v>
+      <c r="C14" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:39">
-      <c r="D15" t="s">
-        <v>70</v>
+      <c r="C15" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="D16" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
+      <c r="C16" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="C18" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="C19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="C20" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
         <v>1</v>
       </c>
-      <c r="B19" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
+      <c r="B23" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
-      <c r="B22" t="s">
+    <row r="26" spans="1:3">
+      <c r="B26" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
-      <c r="B23" t="s">
+    <row r="27" spans="1:3">
+      <c r="B27" t="s">
         <v>60</v>
       </c>
     </row>
@@ -5096,7 +5160,7 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM24"/>
+  <dimension ref="A1:AM23"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -5150,7 +5214,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -5160,79 +5224,84 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39">
-      <c r="B6" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:39">
-      <c r="B7" t="s">
-        <v>57</v>
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="B8" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:39">
-      <c r="A9" t="s">
-        <v>3</v>
+      <c r="C9" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:39">
-      <c r="B10" t="s">
-        <v>42</v>
+      <c r="C10" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:39">
-      <c r="C11" t="s">
-        <v>58</v>
+      <c r="D11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="D12" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="B13" t="s">
-        <v>56</v>
+      <c r="D13" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:39">
-      <c r="C14" t="s">
-        <v>59</v>
+      <c r="D14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="D15" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="B16" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="C17" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
         <v>1</v>
       </c>
-      <c r="B20" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
+      <c r="B19" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="22" spans="1:2">
+      <c r="B22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
       <c r="B23" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="B24" t="s">
         <v>60</v>
       </c>
     </row>
@@ -5245,7 +5314,7 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM29"/>
+  <dimension ref="A1:AM24"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -5299,7 +5368,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -5309,17 +5378,17 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:39">
       <c r="B6" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:39">
       <c r="B7" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:39">
@@ -5329,91 +5398,60 @@
     </row>
     <row r="10" spans="1:39">
       <c r="B10" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39">
-      <c r="C12" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="C13" t="s">
-        <v>50</v>
+      <c r="B13" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:39">
       <c r="C14" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" spans="1:39">
-      <c r="C15" s="4"/>
+        <v>59</v>
+      </c>
     </row>
     <row r="16" spans="1:39">
       <c r="B16" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="C17" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="C18" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="C19" t="s">
-        <v>45</v>
+      <c r="A19" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="C20" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="B21" s="4"/>
+      <c r="A20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="B22" t="s">
-        <v>30</v>
+      <c r="A22" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="C23" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" t="s">
-        <v>1</v>
-      </c>
-      <c r="B26" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="B29" t="s">
+      <c r="B23" t="s">
         <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="B24" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -5425,7 +5463,7 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM25"/>
+  <dimension ref="A1:AM29"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -5479,7 +5517,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -5489,101 +5527,117 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:39">
       <c r="B6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="B7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
-      <c r="A8" t="s">
+    <row r="9" spans="1:39">
+      <c r="A9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:39">
-      <c r="B9" t="s">
-        <v>35</v>
-      </c>
-    </row>
     <row r="10" spans="1:39">
-      <c r="C10" t="s">
-        <v>36</v>
+      <c r="B10" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="C12" s="4" t="s">
-        <v>33</v>
+      <c r="C12" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="B13" s="4"/>
+      <c r="C13" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="14" spans="1:39">
-      <c r="B14" s="4"/>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:39">
-      <c r="C15" t="s">
-        <v>40</v>
-      </c>
+      <c r="C15" s="4"/>
     </row>
     <row r="16" spans="1:39">
-      <c r="B16" s="4"/>
+      <c r="B16" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="B17" t="s">
-        <v>30</v>
+      <c r="C17" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="C18" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="C19" t="s">
-        <v>31</v>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="C20" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" t="s">
+      <c r="B21" s="4"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="B22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="C23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
         <v>1</v>
       </c>
-      <c r="B22" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
+      <c r="B26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
-      <c r="B25" t="s">
-        <v>38</v>
+    <row r="29" spans="1:3">
+      <c r="B29" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <hyperlinks>
-    <hyperlink ref="C12" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5591,9 +5645,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AM25"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
   <cols>
@@ -5645,7 +5697,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -5655,12 +5707,12 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:39">
       <c r="B6" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:39">
@@ -5670,22 +5722,22 @@
     </row>
     <row r="9" spans="1:39">
       <c r="B9" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:39">
       <c r="C12" s="4" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:39">
@@ -5694,31 +5746,30 @@
     <row r="14" spans="1:39">
       <c r="B14" s="4"/>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:39">
-      <c r="B15" s="4"/>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
+      <c r="B16" s="4"/>
     </row>
     <row r="17" spans="1:3">
-      <c r="B17" s="4"/>
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="B18" t="s">
-        <v>18</v>
+      <c r="C18" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="C19" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -5731,7 +5782,7 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -5741,7 +5792,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="B25" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -5756,9 +5807,11 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM23"/>
+  <dimension ref="A1:AM25"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
   <cols>
@@ -5810,7 +5863,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -5820,95 +5873,108 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39">
-      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39">
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="A8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-    </row>
     <row r="9" spans="1:39">
-      <c r="C9" t="s">
-        <v>14</v>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39">
+      <c r="C10" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:39">
-      <c r="B11" t="s">
-        <v>15</v>
+      <c r="C11" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="B12" s="4" t="s">
-        <v>10</v>
+      <c r="C12" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:39">
       <c r="B13" s="4"/>
     </row>
     <row r="14" spans="1:39">
-      <c r="B14" t="s">
-        <v>16</v>
+      <c r="B14" s="4"/>
+      <c r="C14" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:39">
-      <c r="B15" s="4" t="s">
-        <v>7</v>
+      <c r="B15" s="4"/>
+      <c r="C15" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="B16" s="4"/>
       <c r="C16" t="s">
-        <v>13</v>
-      </c>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="B17" s="4"/>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>4</v>
+      <c r="B18" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>1</v>
-      </c>
-      <c r="B19" t="s">
-        <v>11</v>
+      <c r="C19" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
-      <c r="B22" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="C23" t="s">
-        <v>9</v>
+    <row r="25" spans="1:3">
+      <c r="B25" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="B15" r:id="rId1"/>
-    <hyperlink ref="B12" r:id="rId2"/>
+    <hyperlink ref="C12" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM17"/>
+  <dimension ref="A1:AM23"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -5962,7 +6028,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>191</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -5972,7 +6038,7 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>103</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:39">
@@ -5982,57 +6048,85 @@
     </row>
     <row r="8" spans="1:39">
       <c r="B8" t="s">
-        <v>103</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:39">
       <c r="C9" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="10" spans="1:39">
-      <c r="C10" t="s">
-        <v>193</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39">
+      <c r="B11" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="A12" t="s">
+      <c r="B12" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="B13" s="4"/>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="B15" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="B16" s="4"/>
+      <c r="C16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:39">
-      <c r="A13" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>1</v>
       </c>
-      <c r="B13" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="15" spans="1:39">
-      <c r="A15" t="s">
+      <c r="B19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:39">
-      <c r="B16" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17" t="s">
-        <v>181</v>
+    <row r="22" spans="1:3">
+      <c r="B22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="C23" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="B15" r:id="rId1"/>
+    <hyperlink ref="B12" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM26"/>
+  <dimension ref="A1:AM18"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -6086,7 +6180,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -6096,94 +6190,59 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39">
-      <c r="B6" t="s">
-        <v>190</v>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="A7" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:39">
-      <c r="A8" t="s">
-        <v>3</v>
+      <c r="B8" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:39">
-      <c r="B9" t="s">
-        <v>180</v>
+      <c r="C9" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="11" spans="1:39">
-      <c r="C11" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="C12" t="s">
-        <v>184</v>
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="A13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="14" spans="1:39">
       <c r="B14" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="15" spans="1:39">
-      <c r="C15" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="C16" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="C17" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="C18" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="C19" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>1</v>
-      </c>
-      <c r="B22" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
+      <c r="A16" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
-      <c r="B25" t="s">
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
-      <c r="B26" t="s">
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
         <v>181</v>
       </c>
     </row>
@@ -6194,9 +6253,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM18"/>
+  <dimension ref="A1:AM17"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -6250,7 +6309,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -6260,7 +6319,7 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>178</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:39">
@@ -6270,50 +6329,45 @@
     </row>
     <row r="8" spans="1:39">
       <c r="B8" t="s">
-        <v>178</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:39">
       <c r="C9" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="11" spans="1:39">
-      <c r="C11" t="s">
-        <v>176</v>
+        <v>193</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="A12" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:39">
       <c r="A13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:39">
-      <c r="A14" t="s">
         <v>1</v>
       </c>
-      <c r="B14" t="s">
-        <v>177</v>
+      <c r="B13" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="A15" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="A16" t="s">
-        <v>2</v>
+      <c r="B16" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18" t="s">
-        <v>103</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -6323,9 +6377,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM23"/>
+  <dimension ref="A1:AM26"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -6379,7 +6433,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -6389,12 +6443,12 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:39">
       <c r="B6" t="s">
-        <v>103</v>
+        <v>190</v>
       </c>
     </row>
     <row r="8" spans="1:39">
@@ -6404,65 +6458,80 @@
     </row>
     <row r="9" spans="1:39">
       <c r="B9" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
     </row>
     <row r="12" spans="1:39">
       <c r="C12" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="13" spans="1:39">
-      <c r="C13" t="s">
-        <v>168</v>
+        <v>184</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="B14" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="15" spans="1:39">
-      <c r="B15" t="s">
-        <v>103</v>
+      <c r="C15" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="16" spans="1:39">
       <c r="C16" t="s">
-        <v>158</v>
+        <v>186</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="C17" t="s">
-        <v>171</v>
+        <v>187</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="C18" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" t="s">
+      <c r="C19" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B20" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
-      <c r="B23" t="s">
+    <row r="25" spans="1:3">
+      <c r="B25" t="s">
         <v>103</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="B26" t="s">
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -6472,11 +6541,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM20"/>
+  <dimension ref="A1:AM18"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="AA33" sqref="AA33"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
   <cols>
@@ -6528,7 +6599,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -6538,64 +6609,59 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39">
-      <c r="B6" t="s">
-        <v>103</v>
+        <v>178</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="A7" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:39">
-      <c r="A8" t="s">
-        <v>3</v>
+      <c r="B8" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="9" spans="1:39">
-      <c r="B9" t="s">
-        <v>111</v>
+      <c r="C9" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39">
-      <c r="B12" t="s">
-        <v>103</v>
+        <v>175</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39">
+      <c r="C11" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="C13" t="s">
-        <v>158</v>
+      <c r="A13" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:39">
-      <c r="C14" t="s">
-        <v>164</v>
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="16" spans="1:39">
       <c r="A16" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="B20" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
         <v>103</v>
       </c>
     </row>
@@ -6606,9 +6672,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM19"/>
+  <dimension ref="A1:AM23"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -6662,7 +6728,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -6672,7 +6738,7 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>111</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:39">
@@ -6687,44 +6753,64 @@
     </row>
     <row r="9" spans="1:39">
       <c r="B9" t="s">
-        <v>111</v>
+        <v>166</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>159</v>
+        <v>167</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39">
+      <c r="C11" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="B12" t="s">
-        <v>103</v>
+      <c r="C12" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="13" spans="1:39">
       <c r="C13" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="B15" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="C16" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="15" spans="1:39">
-      <c r="A15" t="s">
+    <row r="17" spans="1:3">
+      <c r="C17" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:39">
-      <c r="A16" t="s">
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
         <v>1</v>
       </c>
-      <c r="B16" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
+      <c r="B20" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="B19" t="s">
+    <row r="23" spans="1:3">
+      <c r="B23" t="s">
         <v>103</v>
       </c>
     </row>
@@ -6735,9 +6821,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM18"/>
+  <dimension ref="A1:AM20"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -6791,7 +6877,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -6804,57 +6890,191 @@
         <v>111</v>
       </c>
     </row>
-    <row r="7" spans="1:39">
-      <c r="A7" t="s">
+    <row r="6" spans="1:39">
+      <c r="B6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="A8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
-      <c r="B8" t="s">
+    <row r="9" spans="1:39">
+      <c r="B9" t="s">
         <v>111</v>
-      </c>
-    </row>
-    <row r="9" spans="1:39">
-      <c r="C9" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="A12" t="s">
+      <c r="B12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="C13" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="C14" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="A16" t="s">
         <v>4</v>
       </c>
     </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="B20" t="s">
+        <v>103</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AM19"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="1.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:39" s="1" customFormat="1" ht="21">
+      <c r="A1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="2"/>
+    </row>
+    <row r="2" spans="1:39">
+      <c r="A2" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39">
+      <c r="B5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39">
+      <c r="B6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39">
+      <c r="B9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39">
+      <c r="C10" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="B12" t="s">
+        <v>103</v>
+      </c>
+    </row>
     <row r="13" spans="1:39">
-      <c r="A13" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13" t="s">
-        <v>117</v>
+      <c r="C13" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:39">
       <c r="A15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="A16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:39">
-      <c r="B16" t="s">
+    <row r="19" spans="1:2">
+      <c r="B19" t="s">
         <v>103</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3">
-      <c r="B17" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3">
-      <c r="C18" t="s">
-        <v>155</v>
       </c>
     </row>
   </sheetData>

--- a/日報.xlsx
+++ b/日報.xlsx
@@ -7,40 +7,41 @@
     <workbookView xWindow="-285" yWindow="150" windowWidth="10110" windowHeight="9165"/>
   </bookViews>
   <sheets>
-    <sheet name="11月18日" sheetId="32" r:id="rId1"/>
-    <sheet name="11月17日" sheetId="31" r:id="rId2"/>
-    <sheet name="11月16日" sheetId="30" r:id="rId3"/>
-    <sheet name="11月15日" sheetId="29" r:id="rId4"/>
-    <sheet name="11月14日" sheetId="28" r:id="rId5"/>
-    <sheet name="11月13日" sheetId="27" r:id="rId6"/>
-    <sheet name="11月12日" sheetId="26" r:id="rId7"/>
-    <sheet name="11月11日" sheetId="25" r:id="rId8"/>
-    <sheet name="11月10日" sheetId="24" r:id="rId9"/>
-    <sheet name="11月9日" sheetId="22" r:id="rId10"/>
-    <sheet name="11月8日" sheetId="21" r:id="rId11"/>
-    <sheet name="11月7日" sheetId="20" r:id="rId12"/>
-    <sheet name="11月5日" sheetId="19" r:id="rId13"/>
-    <sheet name="10月31日" sheetId="18" r:id="rId14"/>
-    <sheet name="10月30日" sheetId="17" r:id="rId15"/>
-    <sheet name="10月29日" sheetId="16" r:id="rId16"/>
-    <sheet name="10月28日" sheetId="15" r:id="rId17"/>
-    <sheet name="10月27日" sheetId="14" r:id="rId18"/>
-    <sheet name="10月26日" sheetId="13" r:id="rId19"/>
-    <sheet name="10月25日" sheetId="12" r:id="rId20"/>
-    <sheet name="10月24日" sheetId="11" r:id="rId21"/>
-    <sheet name="10月23日" sheetId="10" r:id="rId22"/>
-    <sheet name="10月22日" sheetId="9" r:id="rId23"/>
-    <sheet name="10月21日" sheetId="8" r:id="rId24"/>
-    <sheet name="10月20日 " sheetId="7" r:id="rId25"/>
-    <sheet name="10月19日" sheetId="6" r:id="rId26"/>
-    <sheet name="10月18日" sheetId="5" r:id="rId27"/>
+    <sheet name="11月19日" sheetId="33" r:id="rId1"/>
+    <sheet name="11月18日" sheetId="32" r:id="rId2"/>
+    <sheet name="11月17日" sheetId="31" r:id="rId3"/>
+    <sheet name="11月16日" sheetId="30" r:id="rId4"/>
+    <sheet name="11月15日" sheetId="29" r:id="rId5"/>
+    <sheet name="11月14日" sheetId="28" r:id="rId6"/>
+    <sheet name="11月13日" sheetId="27" r:id="rId7"/>
+    <sheet name="11月12日" sheetId="26" r:id="rId8"/>
+    <sheet name="11月11日" sheetId="25" r:id="rId9"/>
+    <sheet name="11月10日" sheetId="24" r:id="rId10"/>
+    <sheet name="11月9日" sheetId="22" r:id="rId11"/>
+    <sheet name="11月8日" sheetId="21" r:id="rId12"/>
+    <sheet name="11月7日" sheetId="20" r:id="rId13"/>
+    <sheet name="11月5日" sheetId="19" r:id="rId14"/>
+    <sheet name="10月31日" sheetId="18" r:id="rId15"/>
+    <sheet name="10月30日" sheetId="17" r:id="rId16"/>
+    <sheet name="10月29日" sheetId="16" r:id="rId17"/>
+    <sheet name="10月28日" sheetId="15" r:id="rId18"/>
+    <sheet name="10月27日" sheetId="14" r:id="rId19"/>
+    <sheet name="10月26日" sheetId="13" r:id="rId20"/>
+    <sheet name="10月25日" sheetId="12" r:id="rId21"/>
+    <sheet name="10月24日" sheetId="11" r:id="rId22"/>
+    <sheet name="10月23日" sheetId="10" r:id="rId23"/>
+    <sheet name="10月22日" sheetId="9" r:id="rId24"/>
+    <sheet name="10月21日" sheetId="8" r:id="rId25"/>
+    <sheet name="10月20日 " sheetId="7" r:id="rId26"/>
+    <sheet name="10月19日" sheetId="6" r:id="rId27"/>
+    <sheet name="10月18日" sheetId="5" r:id="rId28"/>
   </sheets>
   <calcPr calcId="125725" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="216">
   <si>
     <t>1.実施したこと</t>
     <rPh sb="2" eb="4">
@@ -2838,6 +2839,121 @@
     </rPh>
     <rPh sb="6" eb="8">
       <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・2013/11/19</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・アプリ画面図の作成</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・アプリ画面図の作成(80%)</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>指紋認証機器を用いたアプリ画面の図を作成した。</t>
+    <rPh sb="0" eb="2">
+      <t>シモン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>キキ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>モチ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作成した図を見やすくできる配置などを考えること。</t>
+    <rPh sb="0" eb="2">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ハイチ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>カンガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アプリの起動から指紋の登録の流れなどを記載した。</t>
+    <rPh sb="4" eb="6">
+      <t>キドウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シモン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>キサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>指紋の削除や編集については今後記載する予定である。</t>
+    <rPh sb="0" eb="2">
+      <t>シモン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>コンゴ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヨテイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3250,7 +3366,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM18"/>
+  <dimension ref="A1:AM17"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3304,7 +3420,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -3314,7 +3430,7 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
     </row>
     <row r="7" spans="1:39">
@@ -3324,50 +3440,45 @@
     </row>
     <row r="8" spans="1:39">
       <c r="B8" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
     </row>
     <row r="9" spans="1:39">
       <c r="C9" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39">
-      <c r="C12" t="s">
-        <v>206</v>
+        <v>215</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="A13" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:39">
       <c r="A14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:39">
-      <c r="A15" t="s">
         <v>1</v>
       </c>
-      <c r="B15" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
+      <c r="B14" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="A16" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
-      <c r="B18" t="s">
-        <v>208</v>
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
+        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -3379,7 +3490,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM18"/>
+  <dimension ref="A1:AM19"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -3433,7 +3544,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -3446,57 +3557,57 @@
         <v>111</v>
       </c>
     </row>
-    <row r="7" spans="1:39">
-      <c r="A7" t="s">
+    <row r="6" spans="1:39">
+      <c r="B6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="A8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
-      <c r="B8" t="s">
+    <row r="9" spans="1:39">
+      <c r="B9" t="s">
         <v>111</v>
-      </c>
-    </row>
-    <row r="9" spans="1:39">
-      <c r="C9" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="A12" t="s">
-        <v>4</v>
+      <c r="B12" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="A13" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13" t="s">
-        <v>117</v>
+      <c r="C13" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:39">
       <c r="A15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="A16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:39">
-      <c r="B16" t="s">
+    <row r="19" spans="1:2">
+      <c r="B19" t="s">
         <v>103</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3">
-      <c r="B17" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3">
-      <c r="C18" t="s">
-        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -3508,7 +3619,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM17"/>
+  <dimension ref="A1:AM18"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -3562,7 +3673,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -3572,7 +3683,7 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:39">
@@ -3582,17 +3693,17 @@
     </row>
     <row r="8" spans="1:39">
       <c r="B8" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:39">
       <c r="C9" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:39">
@@ -3605,7 +3716,7 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>153</v>
+        <v>117</v>
       </c>
     </row>
     <row r="15" spans="1:39">
@@ -3618,9 +3729,14 @@
         <v>103</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
+    <row r="17" spans="2:3">
       <c r="B17" t="s">
         <v>111</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3">
+      <c r="C18" t="s">
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -3632,7 +3748,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM24"/>
+  <dimension ref="A1:AM17"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -3686,7 +3802,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -3696,84 +3812,54 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39">
-      <c r="B6" t="s">
-        <v>141</v>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="A7" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:39">
-      <c r="A8" t="s">
-        <v>3</v>
+      <c r="B8" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:39">
-      <c r="B9" t="s">
-        <v>145</v>
+      <c r="C9" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="11" spans="1:39">
-      <c r="C11" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="C12" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="14" spans="1:39">
-      <c r="B14" t="s">
-        <v>141</v>
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="A13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="15" spans="1:39">
-      <c r="C15" t="s">
-        <v>146</v>
+      <c r="A15" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="C16" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="C17" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B20" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="B23" t="s">
+      <c r="B16" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
-      <c r="B24" t="s">
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
         <v>111</v>
       </c>
     </row>
@@ -3786,7 +3872,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM18"/>
+  <dimension ref="A1:AM24"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -3840,7 +3926,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -3850,59 +3936,84 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39">
-      <c r="A7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39">
+      <c r="B6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="A8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
-      <c r="B8" t="s">
-        <v>111</v>
-      </c>
-    </row>
     <row r="9" spans="1:39">
-      <c r="C9" t="s">
-        <v>138</v>
+      <c r="B9" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="13" spans="1:39">
-      <c r="A13" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="C12" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="B14" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="C15" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="C16" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="C17" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:39">
-      <c r="A14" t="s">
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
         <v>1</v>
       </c>
-      <c r="B14" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="16" spans="1:39">
-      <c r="A16" t="s">
+      <c r="B20" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
-      <c r="B17" t="s">
+    <row r="23" spans="1:3">
+      <c r="B23" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="18" spans="2:2">
-      <c r="B18" t="s">
+    <row r="24" spans="1:3">
+      <c r="B24" t="s">
         <v>111</v>
       </c>
     </row>
@@ -3915,7 +4026,7 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM24"/>
+  <dimension ref="A1:AM18"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -3969,7 +4080,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -3979,7 +4090,7 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:39">
@@ -3989,69 +4100,49 @@
     </row>
     <row r="8" spans="1:39">
       <c r="B8" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:39">
       <c r="C9" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39">
-      <c r="C12" t="s">
-        <v>132</v>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="A13" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:39">
-      <c r="C14" t="s">
-        <v>133</v>
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="C16" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="C17" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B20" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
+      <c r="A16" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
-      <c r="B23" t="s">
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
-      <c r="B24" t="s">
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
         <v>111</v>
       </c>
     </row>
@@ -4064,7 +4155,7 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM19"/>
+  <dimension ref="A1:AM24"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -4118,7 +4209,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -4128,7 +4219,7 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:39">
@@ -4138,54 +4229,69 @@
     </row>
     <row r="8" spans="1:39">
       <c r="B8" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:39">
       <c r="C9" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:39">
       <c r="C12" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14" spans="1:39">
-      <c r="A14" t="s">
+      <c r="C14" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="C16" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="C17" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:39">
-      <c r="A15" t="s">
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
         <v>1</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B20" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
-      <c r="B18" t="s">
+    <row r="23" spans="1:3">
+      <c r="B23" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="B19" t="s">
+    <row r="24" spans="1:3">
+      <c r="B24" t="s">
         <v>111</v>
       </c>
     </row>
@@ -4198,7 +4304,7 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM18"/>
+  <dimension ref="A1:AM19"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -4252,7 +4358,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -4262,7 +4368,7 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:39">
@@ -4272,49 +4378,54 @@
     </row>
     <row r="8" spans="1:39">
       <c r="B8" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:39">
       <c r="C9" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="13" spans="1:39">
-      <c r="A13" t="s">
-        <v>4</v>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="C12" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="14" spans="1:39">
       <c r="A14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="A15" t="s">
         <v>1</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="16" spans="1:39">
-      <c r="A16" t="s">
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
-      <c r="B17" t="s">
+    <row r="18" spans="1:2">
+      <c r="B18" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="18" spans="2:2">
-      <c r="B18" t="s">
+    <row r="19" spans="1:2">
+      <c r="B19" t="s">
         <v>111</v>
       </c>
     </row>
@@ -4327,7 +4438,7 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM17"/>
+  <dimension ref="A1:AM18"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -4381,7 +4492,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -4391,7 +4502,7 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:39">
@@ -4401,44 +4512,49 @@
     </row>
     <row r="8" spans="1:39">
       <c r="B8" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:39">
       <c r="C9" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39">
-      <c r="A12" t="s">
-        <v>4</v>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39">
+      <c r="C11" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:39">
       <c r="A13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="A14" t="s">
         <v>1</v>
       </c>
-      <c r="B13" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="15" spans="1:39">
-      <c r="A15" t="s">
+      <c r="B14" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="A16" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:39">
-      <c r="B16" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
         <v>111</v>
       </c>
     </row>
@@ -4451,7 +4567,7 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM22"/>
+  <dimension ref="A1:AM17"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -4505,7 +4621,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -4515,94 +4631,67 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39">
-      <c r="B6" t="s">
-        <v>57</v>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="A7" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:39">
-      <c r="A8" t="s">
-        <v>3</v>
+      <c r="B8" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:39">
-      <c r="B9" t="s">
-        <v>101</v>
+      <c r="C9" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="11" spans="1:39">
-      <c r="C11" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="C12" t="s">
-        <v>106</v>
+      <c r="A12" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="C13" s="4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="14" spans="1:39">
-      <c r="C14" s="4"/>
+      <c r="A13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="15" spans="1:39">
-      <c r="B15" t="s">
-        <v>108</v>
-      </c>
-      <c r="C15" s="4"/>
+      <c r="A15" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="C16" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>1</v>
-      </c>
-      <c r="B19" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="B22" t="s">
+      <c r="B16" t="s">
         <v>103</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <hyperlinks>
-    <hyperlink ref="C13" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM19"/>
+  <dimension ref="A1:AM22"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -4656,7 +4745,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -4666,71 +4755,88 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39">
-      <c r="A7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39">
+      <c r="B6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="A8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
-      <c r="B8" t="s">
-        <v>87</v>
-      </c>
-    </row>
     <row r="9" spans="1:39">
-      <c r="C9" t="s">
-        <v>97</v>
+      <c r="B9" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:39">
       <c r="C12" t="s">
-        <v>98</v>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="C13" s="4" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:39">
-      <c r="A14" t="s">
+      <c r="C14" s="4"/>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="B15" t="s">
+        <v>108</v>
+      </c>
+      <c r="C15" s="4"/>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="C16" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:39">
-      <c r="A15" t="s">
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
         <v>1</v>
       </c>
-      <c r="B15" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
+      <c r="B19" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
-      <c r="B18" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="B19" t="s">
-        <v>99</v>
+    <row r="22" spans="1:2">
+      <c r="B22" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="C13" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4790,7 +4896,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -4800,7 +4906,7 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>103</v>
+        <v>203</v>
       </c>
     </row>
     <row r="7" spans="1:39">
@@ -4810,50 +4916,50 @@
     </row>
     <row r="8" spans="1:39">
       <c r="B8" t="s">
-        <v>103</v>
+        <v>203</v>
       </c>
     </row>
     <row r="9" spans="1:39">
       <c r="C9" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="13" spans="1:39">
-      <c r="A13" t="s">
-        <v>4</v>
+        <v>207</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="C12" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="14" spans="1:39">
       <c r="A14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="A15" t="s">
         <v>1</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="16" spans="1:39">
-      <c r="A16" t="s">
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
-      <c r="B17" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2">
+    <row r="18" spans="1:2">
       <c r="B18" t="s">
-        <v>181</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -4865,7 +4971,7 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM18"/>
+  <dimension ref="A1:AM19"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -4919,7 +5025,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -4939,50 +5045,55 @@
     </row>
     <row r="8" spans="1:39">
       <c r="B8" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:39">
       <c r="C9" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="13" spans="1:39">
-      <c r="A13" t="s">
-        <v>4</v>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="C12" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:39">
       <c r="A14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="A15" t="s">
         <v>1</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="16" spans="1:39">
-      <c r="A16" t="s">
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
-      <c r="B17" t="s">
+    <row r="18" spans="1:2">
+      <c r="B18" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="2:2">
-      <c r="B18" t="s">
-        <v>89</v>
+    <row r="19" spans="1:2">
+      <c r="B19" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -4994,11 +5105,9 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM27"/>
+  <dimension ref="A1:AM18"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="AM35" sqref="AM35"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
   <cols>
@@ -5050,7 +5159,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -5060,95 +5169,60 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39">
-      <c r="B6" t="s">
-        <v>76</v>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="A7" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:39">
-      <c r="A8" t="s">
-        <v>3</v>
+      <c r="B8" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:39">
-      <c r="B9" t="s">
-        <v>75</v>
+      <c r="C9" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39">
-      <c r="B12" t="s">
-        <v>76</v>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39">
+      <c r="C11" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="C13" t="s">
-        <v>78</v>
+      <c r="A13" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:39">
-      <c r="C14" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="15" spans="1:39">
-      <c r="C15" t="s">
-        <v>80</v>
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="C16" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="C18" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="C19" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="C20" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
-        <v>1</v>
-      </c>
-      <c r="B23" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
+      <c r="A16" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
-      <c r="B26" t="s">
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
-      <c r="B27" t="s">
-        <v>60</v>
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -5160,9 +5234,11 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM23"/>
+  <dimension ref="A1:AM27"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="AM35" sqref="AM35"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
   <cols>
@@ -5214,7 +5290,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -5224,84 +5300,94 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39">
-      <c r="A7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39">
+      <c r="B6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="A8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
-      <c r="B8" t="s">
-        <v>64</v>
-      </c>
-    </row>
     <row r="9" spans="1:39">
-      <c r="C9" t="s">
-        <v>65</v>
+      <c r="B9" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="11" spans="1:39">
-      <c r="D11" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="D12" t="s">
-        <v>67</v>
+      <c r="B12" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="D13" t="s">
-        <v>68</v>
+      <c r="C13" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:39">
-      <c r="D14" t="s">
-        <v>69</v>
+      <c r="C14" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:39">
-      <c r="D15" t="s">
-        <v>70</v>
+      <c r="C15" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="D16" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
+      <c r="C16" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="C18" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="C19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="C20" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
         <v>1</v>
       </c>
-      <c r="B19" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
+      <c r="B23" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
-      <c r="B22" t="s">
+    <row r="26" spans="1:3">
+      <c r="B26" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
-      <c r="B23" t="s">
+    <row r="27" spans="1:3">
+      <c r="B27" t="s">
         <v>60</v>
       </c>
     </row>
@@ -5314,7 +5400,7 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM24"/>
+  <dimension ref="A1:AM23"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -5368,7 +5454,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -5378,79 +5464,84 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39">
-      <c r="B6" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:39">
-      <c r="B7" t="s">
-        <v>57</v>
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="B8" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:39">
-      <c r="A9" t="s">
-        <v>3</v>
+      <c r="C9" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:39">
-      <c r="B10" t="s">
-        <v>42</v>
+      <c r="C10" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:39">
-      <c r="C11" t="s">
-        <v>58</v>
+      <c r="D11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="D12" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="B13" t="s">
-        <v>56</v>
+      <c r="D13" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:39">
-      <c r="C14" t="s">
-        <v>59</v>
+      <c r="D14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="D15" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="B16" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="C17" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
         <v>1</v>
       </c>
-      <c r="B20" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
+      <c r="B19" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="22" spans="1:2">
+      <c r="B22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
       <c r="B23" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="B24" t="s">
         <v>60</v>
       </c>
     </row>
@@ -5463,7 +5554,7 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM29"/>
+  <dimension ref="A1:AM24"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -5517,7 +5608,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -5527,17 +5618,17 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:39">
       <c r="B6" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:39">
       <c r="B7" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:39">
@@ -5547,91 +5638,60 @@
     </row>
     <row r="10" spans="1:39">
       <c r="B10" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39">
-      <c r="C12" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="C13" t="s">
-        <v>50</v>
+      <c r="B13" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:39">
       <c r="C14" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" spans="1:39">
-      <c r="C15" s="4"/>
+        <v>59</v>
+      </c>
     </row>
     <row r="16" spans="1:39">
       <c r="B16" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="C17" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="C18" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="C19" t="s">
-        <v>45</v>
+      <c r="A19" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="C20" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="B21" s="4"/>
+      <c r="A20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="B22" t="s">
-        <v>30</v>
+      <c r="A22" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="C23" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" t="s">
-        <v>1</v>
-      </c>
-      <c r="B26" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="B29" t="s">
+      <c r="B23" t="s">
         <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="B24" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -5643,7 +5703,7 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM25"/>
+  <dimension ref="A1:AM29"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -5697,7 +5757,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -5707,101 +5767,117 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:39">
       <c r="B6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="B7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
-      <c r="A8" t="s">
+    <row r="9" spans="1:39">
+      <c r="A9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:39">
-      <c r="B9" t="s">
-        <v>35</v>
-      </c>
-    </row>
     <row r="10" spans="1:39">
-      <c r="C10" t="s">
-        <v>36</v>
+      <c r="B10" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="C12" s="4" t="s">
-        <v>33</v>
+      <c r="C12" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="B13" s="4"/>
+      <c r="C13" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="14" spans="1:39">
-      <c r="B14" s="4"/>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:39">
-      <c r="C15" t="s">
-        <v>40</v>
-      </c>
+      <c r="C15" s="4"/>
     </row>
     <row r="16" spans="1:39">
-      <c r="B16" s="4"/>
+      <c r="B16" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="B17" t="s">
-        <v>30</v>
+      <c r="C17" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="C18" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="C19" t="s">
-        <v>31</v>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="C20" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" t="s">
+      <c r="B21" s="4"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="B22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="C23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
         <v>1</v>
       </c>
-      <c r="B22" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
+      <c r="B26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
-      <c r="B25" t="s">
-        <v>38</v>
+    <row r="29" spans="1:3">
+      <c r="B29" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <hyperlinks>
-    <hyperlink ref="C12" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5809,9 +5885,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AM25"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
   <cols>
@@ -5863,7 +5937,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -5873,12 +5947,12 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:39">
       <c r="B6" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:39">
@@ -5888,22 +5962,22 @@
     </row>
     <row r="9" spans="1:39">
       <c r="B9" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:39">
       <c r="C12" s="4" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:39">
@@ -5912,31 +5986,30 @@
     <row r="14" spans="1:39">
       <c r="B14" s="4"/>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:39">
-      <c r="B15" s="4"/>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
+      <c r="B16" s="4"/>
     </row>
     <row r="17" spans="1:3">
-      <c r="B17" s="4"/>
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="B18" t="s">
-        <v>18</v>
+      <c r="C18" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="C19" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -5949,7 +6022,7 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -5959,7 +6032,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="B25" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -5974,9 +6047,11 @@
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM23"/>
+  <dimension ref="A1:AM25"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
   <cols>
@@ -6028,7 +6103,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -6038,95 +6113,108 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39">
-      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39">
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="A8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-    </row>
     <row r="9" spans="1:39">
-      <c r="C9" t="s">
-        <v>14</v>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39">
+      <c r="C10" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:39">
-      <c r="B11" t="s">
-        <v>15</v>
+      <c r="C11" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="B12" s="4" t="s">
-        <v>10</v>
+      <c r="C12" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:39">
       <c r="B13" s="4"/>
     </row>
     <row r="14" spans="1:39">
-      <c r="B14" t="s">
-        <v>16</v>
+      <c r="B14" s="4"/>
+      <c r="C14" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:39">
-      <c r="B15" s="4" t="s">
-        <v>7</v>
+      <c r="B15" s="4"/>
+      <c r="C15" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="B16" s="4"/>
       <c r="C16" t="s">
-        <v>13</v>
-      </c>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="B17" s="4"/>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>4</v>
+      <c r="B18" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>1</v>
-      </c>
-      <c r="B19" t="s">
-        <v>11</v>
+      <c r="C19" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
-      <c r="B22" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="C23" t="s">
-        <v>9</v>
+    <row r="25" spans="1:3">
+      <c r="B25" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="B15" r:id="rId1"/>
-    <hyperlink ref="B12" r:id="rId2"/>
+    <hyperlink ref="C12" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM18"/>
+  <dimension ref="A1:AM23"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -6180,7 +6268,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>197</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -6190,7 +6278,7 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>103</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:39">
@@ -6200,62 +6288,85 @@
     </row>
     <row r="8" spans="1:39">
       <c r="B8" t="s">
-        <v>103</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:39">
       <c r="C9" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="10" spans="1:39">
-      <c r="C10" t="s">
-        <v>194</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39">
+      <c r="B11" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="A12" t="s">
-        <v>4</v>
+      <c r="B12" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="A13" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13" t="s">
-        <v>195</v>
-      </c>
+      <c r="B13" s="4"/>
     </row>
     <row r="14" spans="1:39">
       <c r="B14" t="s">
-        <v>196</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="B15" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="A16" t="s">
+      <c r="B16" s="4"/>
+      <c r="C16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
-      <c r="B17" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18" t="s">
-        <v>181</v>
+    <row r="22" spans="1:3">
+      <c r="B22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="C23" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="B15" r:id="rId1"/>
+    <hyperlink ref="B12" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM17"/>
+  <dimension ref="A1:AM18"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -6309,7 +6420,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -6339,34 +6450,39 @@
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39">
-      <c r="A12" t="s">
-        <v>4</v>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39">
+      <c r="C11" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="13" spans="1:39">
       <c r="A13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="A14" t="s">
         <v>1</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="15" spans="1:39">
-      <c r="A15" t="s">
+    <row r="16" spans="1:39">
+      <c r="A16" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:39">
-      <c r="B16" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
         <v>181</v>
       </c>
     </row>
@@ -6377,9 +6493,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM26"/>
+  <dimension ref="A1:AM18"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -6433,7 +6549,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -6443,94 +6559,59 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39">
-      <c r="B6" t="s">
-        <v>190</v>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="A7" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:39">
-      <c r="A8" t="s">
-        <v>3</v>
+      <c r="B8" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:39">
-      <c r="B9" t="s">
-        <v>180</v>
+      <c r="C9" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="11" spans="1:39">
-      <c r="C11" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="C12" t="s">
-        <v>184</v>
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="A13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="14" spans="1:39">
       <c r="B14" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="15" spans="1:39">
-      <c r="C15" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="C16" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="C17" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="C18" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="C19" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>1</v>
-      </c>
-      <c r="B22" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
+      <c r="A16" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
-      <c r="B25" t="s">
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
-      <c r="B26" t="s">
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
         <v>181</v>
       </c>
     </row>
@@ -6541,13 +6622,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM18"/>
+  <dimension ref="A1:AM17"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="AA33" sqref="AA33"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
   <cols>
@@ -6599,7 +6678,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -6609,7 +6688,7 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>178</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:39">
@@ -6619,50 +6698,45 @@
     </row>
     <row r="8" spans="1:39">
       <c r="B8" t="s">
-        <v>178</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:39">
       <c r="C9" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="11" spans="1:39">
-      <c r="C11" t="s">
-        <v>176</v>
+        <v>193</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="A12" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:39">
       <c r="A13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:39">
-      <c r="A14" t="s">
         <v>1</v>
       </c>
-      <c r="B14" t="s">
-        <v>177</v>
+      <c r="B13" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="A15" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="A16" t="s">
-        <v>2</v>
+      <c r="B16" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18" t="s">
-        <v>103</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -6672,9 +6746,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM23"/>
+  <dimension ref="A1:AM26"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -6728,7 +6802,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -6738,12 +6812,12 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:39">
       <c r="B6" t="s">
-        <v>103</v>
+        <v>190</v>
       </c>
     </row>
     <row r="8" spans="1:39">
@@ -6753,65 +6827,80 @@
     </row>
     <row r="9" spans="1:39">
       <c r="B9" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
     </row>
     <row r="12" spans="1:39">
       <c r="C12" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="13" spans="1:39">
-      <c r="C13" t="s">
-        <v>168</v>
+        <v>184</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="B14" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="15" spans="1:39">
-      <c r="B15" t="s">
-        <v>103</v>
+      <c r="C15" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="16" spans="1:39">
       <c r="C16" t="s">
-        <v>158</v>
+        <v>186</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="C17" t="s">
-        <v>171</v>
+        <v>187</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="C18" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" t="s">
+      <c r="C19" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B20" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
-      <c r="B23" t="s">
+    <row r="25" spans="1:3">
+      <c r="B25" t="s">
         <v>103</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="B26" t="s">
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -6821,11 +6910,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM20"/>
+  <dimension ref="A1:AM18"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="AA33" sqref="AA33"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
   <cols>
@@ -6877,7 +6968,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -6887,64 +6978,59 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39">
-      <c r="B6" t="s">
-        <v>103</v>
+        <v>178</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="A7" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:39">
-      <c r="A8" t="s">
-        <v>3</v>
+      <c r="B8" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="9" spans="1:39">
-      <c r="B9" t="s">
-        <v>111</v>
+      <c r="C9" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39">
-      <c r="B12" t="s">
-        <v>103</v>
+        <v>175</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39">
+      <c r="C11" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="C13" t="s">
-        <v>158</v>
+      <c r="A13" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:39">
-      <c r="C14" t="s">
-        <v>164</v>
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="16" spans="1:39">
       <c r="A16" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="B20" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
         <v>103</v>
       </c>
     </row>
@@ -6955,9 +7041,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM19"/>
+  <dimension ref="A1:AM23"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -7011,7 +7097,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -7021,7 +7107,7 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>111</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:39">
@@ -7036,12 +7122,161 @@
     </row>
     <row r="9" spans="1:39">
       <c r="B9" t="s">
-        <v>111</v>
+        <v>166</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>159</v>
+        <v>167</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39">
+      <c r="C11" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="C12" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="C13" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="B15" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="C16" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="C17" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="B23" t="s">
+        <v>103</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AM20"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="1.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:39" s="1" customFormat="1" ht="21">
+      <c r="A1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="2"/>
+    </row>
+    <row r="2" spans="1:39">
+      <c r="A2" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39">
+      <c r="B5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39">
+      <c r="B6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39">
+      <c r="B9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39">
+      <c r="C10" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="12" spans="1:39">
@@ -7054,26 +7289,31 @@
         <v>158</v>
       </c>
     </row>
-    <row r="15" spans="1:39">
-      <c r="A15" t="s">
-        <v>4</v>
+    <row r="14" spans="1:39">
+      <c r="C14" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="16" spans="1:39">
       <c r="A16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
         <v>1</v>
       </c>
-      <c r="B16" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
+      <c r="B17" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="B19" t="s">
+    <row r="20" spans="1:2">
+      <c r="B20" t="s">
         <v>103</v>
       </c>
     </row>

--- a/日報.xlsx
+++ b/日報.xlsx
@@ -7,41 +7,42 @@
     <workbookView xWindow="-285" yWindow="150" windowWidth="10110" windowHeight="9165"/>
   </bookViews>
   <sheets>
-    <sheet name="11月19日" sheetId="33" r:id="rId1"/>
-    <sheet name="11月18日" sheetId="32" r:id="rId2"/>
-    <sheet name="11月17日" sheetId="31" r:id="rId3"/>
-    <sheet name="11月16日" sheetId="30" r:id="rId4"/>
-    <sheet name="11月15日" sheetId="29" r:id="rId5"/>
-    <sheet name="11月14日" sheetId="28" r:id="rId6"/>
-    <sheet name="11月13日" sheetId="27" r:id="rId7"/>
-    <sheet name="11月12日" sheetId="26" r:id="rId8"/>
-    <sheet name="11月11日" sheetId="25" r:id="rId9"/>
-    <sheet name="11月10日" sheetId="24" r:id="rId10"/>
-    <sheet name="11月9日" sheetId="22" r:id="rId11"/>
-    <sheet name="11月8日" sheetId="21" r:id="rId12"/>
-    <sheet name="11月7日" sheetId="20" r:id="rId13"/>
-    <sheet name="11月5日" sheetId="19" r:id="rId14"/>
-    <sheet name="10月31日" sheetId="18" r:id="rId15"/>
-    <sheet name="10月30日" sheetId="17" r:id="rId16"/>
-    <sheet name="10月29日" sheetId="16" r:id="rId17"/>
-    <sheet name="10月28日" sheetId="15" r:id="rId18"/>
-    <sheet name="10月27日" sheetId="14" r:id="rId19"/>
-    <sheet name="10月26日" sheetId="13" r:id="rId20"/>
-    <sheet name="10月25日" sheetId="12" r:id="rId21"/>
-    <sheet name="10月24日" sheetId="11" r:id="rId22"/>
-    <sheet name="10月23日" sheetId="10" r:id="rId23"/>
-    <sheet name="10月22日" sheetId="9" r:id="rId24"/>
-    <sheet name="10月21日" sheetId="8" r:id="rId25"/>
-    <sheet name="10月20日 " sheetId="7" r:id="rId26"/>
-    <sheet name="10月19日" sheetId="6" r:id="rId27"/>
-    <sheet name="10月18日" sheetId="5" r:id="rId28"/>
+    <sheet name="11月20日" sheetId="34" r:id="rId1"/>
+    <sheet name="11月19日" sheetId="33" r:id="rId2"/>
+    <sheet name="11月18日" sheetId="32" r:id="rId3"/>
+    <sheet name="11月17日" sheetId="31" r:id="rId4"/>
+    <sheet name="11月16日" sheetId="30" r:id="rId5"/>
+    <sheet name="11月15日" sheetId="29" r:id="rId6"/>
+    <sheet name="11月14日" sheetId="28" r:id="rId7"/>
+    <sheet name="11月13日" sheetId="27" r:id="rId8"/>
+    <sheet name="11月12日" sheetId="26" r:id="rId9"/>
+    <sheet name="11月11日" sheetId="25" r:id="rId10"/>
+    <sheet name="11月10日" sheetId="24" r:id="rId11"/>
+    <sheet name="11月9日" sheetId="22" r:id="rId12"/>
+    <sheet name="11月8日" sheetId="21" r:id="rId13"/>
+    <sheet name="11月7日" sheetId="20" r:id="rId14"/>
+    <sheet name="11月5日" sheetId="19" r:id="rId15"/>
+    <sheet name="10月31日" sheetId="18" r:id="rId16"/>
+    <sheet name="10月30日" sheetId="17" r:id="rId17"/>
+    <sheet name="10月29日" sheetId="16" r:id="rId18"/>
+    <sheet name="10月28日" sheetId="15" r:id="rId19"/>
+    <sheet name="10月27日" sheetId="14" r:id="rId20"/>
+    <sheet name="10月26日" sheetId="13" r:id="rId21"/>
+    <sheet name="10月25日" sheetId="12" r:id="rId22"/>
+    <sheet name="10月24日" sheetId="11" r:id="rId23"/>
+    <sheet name="10月23日" sheetId="10" r:id="rId24"/>
+    <sheet name="10月22日" sheetId="9" r:id="rId25"/>
+    <sheet name="10月21日" sheetId="8" r:id="rId26"/>
+    <sheet name="10月20日 " sheetId="7" r:id="rId27"/>
+    <sheet name="10月19日" sheetId="6" r:id="rId28"/>
+    <sheet name="10月18日" sheetId="5" r:id="rId29"/>
   </sheets>
   <calcPr calcId="125725" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="220">
   <si>
     <t>1.実施したこと</t>
     <rPh sb="2" eb="4">
@@ -2954,6 +2955,46 @@
     </rPh>
     <rPh sb="19" eb="21">
       <t>ヨテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・2013/11/20</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・アプリ画面図の作成(100%)</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>指紋の削除・編集について記載した。</t>
+    <rPh sb="0" eb="2">
+      <t>シモン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>キサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・アプリの作成</t>
+    <rPh sb="5" eb="7">
+      <t>サクセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3366,7 +3407,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM17"/>
+  <dimension ref="A1:AM16"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3420,7 +3461,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -3440,7 +3481,7 @@
     </row>
     <row r="8" spans="1:39">
       <c r="B8" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
     </row>
     <row r="9" spans="1:39">
@@ -3450,35 +3491,30 @@
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="11" spans="1:39">
-      <c r="C11" t="s">
-        <v>215</v>
+        <v>218</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="A12" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:39">
       <c r="A13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:39">
-      <c r="A14" t="s">
         <v>1</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B13" t="s">
         <v>213</v>
       </c>
     </row>
+    <row r="15" spans="1:39">
+      <c r="A15" t="s">
+        <v>2</v>
+      </c>
+    </row>
     <row r="16" spans="1:39">
-      <c r="A16" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17" t="s">
-        <v>210</v>
+      <c r="B16" t="s">
+        <v>219</v>
       </c>
     </row>
   </sheetData>
@@ -3490,7 +3526,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM19"/>
+  <dimension ref="A1:AM20"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -3544,7 +3580,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -3574,7 +3610,7 @@
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="12" spans="1:39">
@@ -3587,26 +3623,31 @@
         <v>158</v>
       </c>
     </row>
-    <row r="15" spans="1:39">
-      <c r="A15" t="s">
-        <v>4</v>
+    <row r="14" spans="1:39">
+      <c r="C14" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="16" spans="1:39">
       <c r="A16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
         <v>1</v>
       </c>
-      <c r="B16" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
+      <c r="B17" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="B19" t="s">
+    <row r="20" spans="1:2">
+      <c r="B20" t="s">
         <v>103</v>
       </c>
     </row>
@@ -3619,7 +3660,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM18"/>
+  <dimension ref="A1:AM19"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -3673,7 +3714,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -3686,57 +3727,57 @@
         <v>111</v>
       </c>
     </row>
-    <row r="7" spans="1:39">
-      <c r="A7" t="s">
+    <row r="6" spans="1:39">
+      <c r="B6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="A8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
-      <c r="B8" t="s">
+    <row r="9" spans="1:39">
+      <c r="B9" t="s">
         <v>111</v>
-      </c>
-    </row>
-    <row r="9" spans="1:39">
-      <c r="C9" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="A12" t="s">
-        <v>4</v>
+      <c r="B12" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="A13" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13" t="s">
-        <v>117</v>
+      <c r="C13" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:39">
       <c r="A15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="A16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:39">
-      <c r="B16" t="s">
+    <row r="19" spans="1:2">
+      <c r="B19" t="s">
         <v>103</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3">
-      <c r="B17" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3">
-      <c r="C18" t="s">
-        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -3748,7 +3789,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM17"/>
+  <dimension ref="A1:AM18"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -3802,7 +3843,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -3812,7 +3853,7 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:39">
@@ -3822,17 +3863,17 @@
     </row>
     <row r="8" spans="1:39">
       <c r="B8" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:39">
       <c r="C9" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:39">
@@ -3845,7 +3886,7 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>153</v>
+        <v>117</v>
       </c>
     </row>
     <row r="15" spans="1:39">
@@ -3858,9 +3899,14 @@
         <v>103</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
+    <row r="17" spans="2:3">
       <c r="B17" t="s">
         <v>111</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3">
+      <c r="C18" t="s">
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -3872,7 +3918,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM24"/>
+  <dimension ref="A1:AM17"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -3926,7 +3972,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -3936,84 +3982,54 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39">
-      <c r="B6" t="s">
-        <v>141</v>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="A7" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:39">
-      <c r="A8" t="s">
-        <v>3</v>
+      <c r="B8" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:39">
-      <c r="B9" t="s">
-        <v>145</v>
+      <c r="C9" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="11" spans="1:39">
-      <c r="C11" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="C12" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="14" spans="1:39">
-      <c r="B14" t="s">
-        <v>141</v>
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="A13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="15" spans="1:39">
-      <c r="C15" t="s">
-        <v>146</v>
+      <c r="A15" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="C16" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="C17" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B20" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="B23" t="s">
+      <c r="B16" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
-      <c r="B24" t="s">
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
         <v>111</v>
       </c>
     </row>
@@ -4026,7 +4042,7 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM18"/>
+  <dimension ref="A1:AM24"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -4080,7 +4096,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -4090,59 +4106,84 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39">
-      <c r="A7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39">
+      <c r="B6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="A8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
-      <c r="B8" t="s">
-        <v>111</v>
-      </c>
-    </row>
     <row r="9" spans="1:39">
-      <c r="C9" t="s">
-        <v>138</v>
+      <c r="B9" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="13" spans="1:39">
-      <c r="A13" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="C12" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="B14" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="C15" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="C16" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="C17" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:39">
-      <c r="A14" t="s">
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
         <v>1</v>
       </c>
-      <c r="B14" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="16" spans="1:39">
-      <c r="A16" t="s">
+      <c r="B20" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
-      <c r="B17" t="s">
+    <row r="23" spans="1:3">
+      <c r="B23" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="18" spans="2:2">
-      <c r="B18" t="s">
+    <row r="24" spans="1:3">
+      <c r="B24" t="s">
         <v>111</v>
       </c>
     </row>
@@ -4155,7 +4196,7 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM24"/>
+  <dimension ref="A1:AM18"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -4209,7 +4250,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -4219,7 +4260,7 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:39">
@@ -4229,69 +4270,49 @@
     </row>
     <row r="8" spans="1:39">
       <c r="B8" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:39">
       <c r="C9" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39">
-      <c r="C12" t="s">
-        <v>132</v>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="A13" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:39">
-      <c r="C14" t="s">
-        <v>133</v>
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="C16" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="C17" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B20" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
+      <c r="A16" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
-      <c r="B23" t="s">
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
-      <c r="B24" t="s">
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
         <v>111</v>
       </c>
     </row>
@@ -4304,7 +4325,7 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM19"/>
+  <dimension ref="A1:AM24"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -4358,7 +4379,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -4368,7 +4389,7 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:39">
@@ -4378,54 +4399,69 @@
     </row>
     <row r="8" spans="1:39">
       <c r="B8" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:39">
       <c r="C9" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:39">
       <c r="C12" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14" spans="1:39">
-      <c r="A14" t="s">
+      <c r="C14" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="C16" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="C17" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:39">
-      <c r="A15" t="s">
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
         <v>1</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B20" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
-      <c r="B18" t="s">
+    <row r="23" spans="1:3">
+      <c r="B23" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="B19" t="s">
+    <row r="24" spans="1:3">
+      <c r="B24" t="s">
         <v>111</v>
       </c>
     </row>
@@ -4438,7 +4474,7 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM18"/>
+  <dimension ref="A1:AM19"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -4492,7 +4528,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -4502,7 +4538,7 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:39">
@@ -4512,49 +4548,54 @@
     </row>
     <row r="8" spans="1:39">
       <c r="B8" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:39">
       <c r="C9" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="13" spans="1:39">
-      <c r="A13" t="s">
-        <v>4</v>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="C12" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="14" spans="1:39">
       <c r="A14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="A15" t="s">
         <v>1</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="16" spans="1:39">
-      <c r="A16" t="s">
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
-      <c r="B17" t="s">
+    <row r="18" spans="1:2">
+      <c r="B18" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="18" spans="2:2">
-      <c r="B18" t="s">
+    <row r="19" spans="1:2">
+      <c r="B19" t="s">
         <v>111</v>
       </c>
     </row>
@@ -4567,7 +4608,7 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM17"/>
+  <dimension ref="A1:AM18"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -4621,7 +4662,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -4631,7 +4672,7 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:39">
@@ -4641,44 +4682,49 @@
     </row>
     <row r="8" spans="1:39">
       <c r="B8" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:39">
       <c r="C9" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39">
-      <c r="A12" t="s">
-        <v>4</v>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39">
+      <c r="C11" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:39">
       <c r="A13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="A14" t="s">
         <v>1</v>
       </c>
-      <c r="B13" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="15" spans="1:39">
-      <c r="A15" t="s">
+      <c r="B14" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="A16" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:39">
-      <c r="B16" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
         <v>111</v>
       </c>
     </row>
@@ -4691,7 +4737,7 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM22"/>
+  <dimension ref="A1:AM17"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -4745,7 +4791,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -4755,94 +4801,67 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39">
-      <c r="B6" t="s">
-        <v>57</v>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="A7" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:39">
-      <c r="A8" t="s">
-        <v>3</v>
+      <c r="B8" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:39">
-      <c r="B9" t="s">
-        <v>101</v>
+      <c r="C9" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="11" spans="1:39">
-      <c r="C11" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="C12" t="s">
-        <v>106</v>
+      <c r="A12" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="C13" s="4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="14" spans="1:39">
-      <c r="C14" s="4"/>
+      <c r="A13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="15" spans="1:39">
-      <c r="B15" t="s">
-        <v>108</v>
-      </c>
-      <c r="C15" s="4"/>
+      <c r="A15" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="C16" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>1</v>
-      </c>
-      <c r="B19" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="B22" t="s">
+      <c r="B16" t="s">
         <v>103</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <hyperlinks>
-    <hyperlink ref="C13" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM18"/>
+  <dimension ref="A1:AM17"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -4896,7 +4915,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -4906,7 +4925,7 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
     </row>
     <row r="7" spans="1:39">
@@ -4916,50 +4935,45 @@
     </row>
     <row r="8" spans="1:39">
       <c r="B8" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
     </row>
     <row r="9" spans="1:39">
       <c r="C9" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39">
-      <c r="C12" t="s">
-        <v>206</v>
+        <v>215</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="A13" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:39">
       <c r="A14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:39">
-      <c r="A15" t="s">
         <v>1</v>
       </c>
-      <c r="B15" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
+      <c r="B14" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="A16" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
-      <c r="B18" t="s">
-        <v>208</v>
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
+        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -4971,7 +4985,7 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM19"/>
+  <dimension ref="A1:AM22"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -5025,7 +5039,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -5035,77 +5049,94 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39">
-      <c r="A7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39">
+      <c r="B6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="A8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
-      <c r="B8" t="s">
-        <v>87</v>
-      </c>
-    </row>
     <row r="9" spans="1:39">
-      <c r="C9" t="s">
-        <v>97</v>
+      <c r="B9" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:39">
       <c r="C12" t="s">
-        <v>98</v>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="C13" s="4" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:39">
-      <c r="A14" t="s">
+      <c r="C14" s="4"/>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="B15" t="s">
+        <v>108</v>
+      </c>
+      <c r="C15" s="4"/>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="C16" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:39">
-      <c r="A15" t="s">
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
         <v>1</v>
       </c>
-      <c r="B15" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
+      <c r="B19" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
-      <c r="B18" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="B19" t="s">
-        <v>99</v>
+    <row r="22" spans="1:2">
+      <c r="B22" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="C13" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM18"/>
+  <dimension ref="A1:AM19"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -5159,7 +5190,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -5179,50 +5210,55 @@
     </row>
     <row r="8" spans="1:39">
       <c r="B8" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:39">
       <c r="C9" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="13" spans="1:39">
-      <c r="A13" t="s">
-        <v>4</v>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="C12" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:39">
       <c r="A14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="A15" t="s">
         <v>1</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="16" spans="1:39">
-      <c r="A16" t="s">
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
-      <c r="B17" t="s">
+    <row r="18" spans="1:2">
+      <c r="B18" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="2:2">
-      <c r="B18" t="s">
-        <v>89</v>
+    <row r="19" spans="1:2">
+      <c r="B19" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -5234,11 +5270,9 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM27"/>
+  <dimension ref="A1:AM18"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="AM35" sqref="AM35"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
   <cols>
@@ -5290,7 +5324,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -5300,95 +5334,60 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39">
-      <c r="B6" t="s">
-        <v>76</v>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="A7" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:39">
-      <c r="A8" t="s">
-        <v>3</v>
+      <c r="B8" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:39">
-      <c r="B9" t="s">
-        <v>75</v>
+      <c r="C9" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39">
-      <c r="B12" t="s">
-        <v>76</v>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39">
+      <c r="C11" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="C13" t="s">
-        <v>78</v>
+      <c r="A13" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:39">
-      <c r="C14" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="15" spans="1:39">
-      <c r="C15" t="s">
-        <v>80</v>
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="C16" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="C18" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="C19" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="C20" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
-        <v>1</v>
-      </c>
-      <c r="B23" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
+      <c r="A16" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
-      <c r="B26" t="s">
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
-      <c r="B27" t="s">
-        <v>60</v>
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -5400,9 +5399,11 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM23"/>
+  <dimension ref="A1:AM27"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="AM35" sqref="AM35"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
   <cols>
@@ -5454,7 +5455,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -5464,84 +5465,94 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39">
-      <c r="A7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39">
+      <c r="B6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="A8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
-      <c r="B8" t="s">
-        <v>64</v>
-      </c>
-    </row>
     <row r="9" spans="1:39">
-      <c r="C9" t="s">
-        <v>65</v>
+      <c r="B9" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="11" spans="1:39">
-      <c r="D11" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="D12" t="s">
-        <v>67</v>
+      <c r="B12" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="D13" t="s">
-        <v>68</v>
+      <c r="C13" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:39">
-      <c r="D14" t="s">
-        <v>69</v>
+      <c r="C14" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:39">
-      <c r="D15" t="s">
-        <v>70</v>
+      <c r="C15" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="D16" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
+      <c r="C16" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="C18" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="C19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="C20" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
         <v>1</v>
       </c>
-      <c r="B19" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
+      <c r="B23" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
-      <c r="B22" t="s">
+    <row r="26" spans="1:3">
+      <c r="B26" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
-      <c r="B23" t="s">
+    <row r="27" spans="1:3">
+      <c r="B27" t="s">
         <v>60</v>
       </c>
     </row>
@@ -5554,7 +5565,7 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM24"/>
+  <dimension ref="A1:AM23"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -5608,7 +5619,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -5618,79 +5629,84 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39">
-      <c r="B6" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:39">
-      <c r="B7" t="s">
-        <v>57</v>
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="B8" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:39">
-      <c r="A9" t="s">
-        <v>3</v>
+      <c r="C9" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:39">
-      <c r="B10" t="s">
-        <v>42</v>
+      <c r="C10" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:39">
-      <c r="C11" t="s">
-        <v>58</v>
+      <c r="D11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="D12" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="B13" t="s">
-        <v>56</v>
+      <c r="D13" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:39">
-      <c r="C14" t="s">
-        <v>59</v>
+      <c r="D14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="D15" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="B16" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="C17" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
         <v>1</v>
       </c>
-      <c r="B20" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
+      <c r="B19" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="22" spans="1:2">
+      <c r="B22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
       <c r="B23" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="B24" t="s">
         <v>60</v>
       </c>
     </row>
@@ -5703,7 +5719,7 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM29"/>
+  <dimension ref="A1:AM24"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -5757,7 +5773,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -5767,17 +5783,17 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:39">
       <c r="B6" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:39">
       <c r="B7" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:39">
@@ -5787,91 +5803,60 @@
     </row>
     <row r="10" spans="1:39">
       <c r="B10" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39">
-      <c r="C12" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="C13" t="s">
-        <v>50</v>
+      <c r="B13" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:39">
       <c r="C14" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" spans="1:39">
-      <c r="C15" s="4"/>
+        <v>59</v>
+      </c>
     </row>
     <row r="16" spans="1:39">
       <c r="B16" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="C17" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="C18" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="C19" t="s">
-        <v>45</v>
+      <c r="A19" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="C20" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="B21" s="4"/>
+      <c r="A20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="B22" t="s">
-        <v>30</v>
+      <c r="A22" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="C23" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" t="s">
-        <v>1</v>
-      </c>
-      <c r="B26" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="B29" t="s">
+      <c r="B23" t="s">
         <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="B24" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -5883,7 +5868,7 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM25"/>
+  <dimension ref="A1:AM29"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -5937,7 +5922,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -5947,101 +5932,117 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:39">
       <c r="B6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="B7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
-      <c r="A8" t="s">
+    <row r="9" spans="1:39">
+      <c r="A9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:39">
-      <c r="B9" t="s">
-        <v>35</v>
-      </c>
-    </row>
     <row r="10" spans="1:39">
-      <c r="C10" t="s">
-        <v>36</v>
+      <c r="B10" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="C12" s="4" t="s">
-        <v>33</v>
+      <c r="C12" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="B13" s="4"/>
+      <c r="C13" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="14" spans="1:39">
-      <c r="B14" s="4"/>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:39">
-      <c r="C15" t="s">
-        <v>40</v>
-      </c>
+      <c r="C15" s="4"/>
     </row>
     <row r="16" spans="1:39">
-      <c r="B16" s="4"/>
+      <c r="B16" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="B17" t="s">
-        <v>30</v>
+      <c r="C17" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="C18" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="C19" t="s">
-        <v>31</v>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="C20" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" t="s">
+      <c r="B21" s="4"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="B22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="C23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
         <v>1</v>
       </c>
-      <c r="B22" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
+      <c r="B26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
-      <c r="B25" t="s">
-        <v>38</v>
+    <row r="29" spans="1:3">
+      <c r="B29" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <hyperlinks>
-    <hyperlink ref="C12" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6049,9 +6050,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AM25"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
   <cols>
@@ -6103,7 +6102,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -6113,12 +6112,12 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:39">
       <c r="B6" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:39">
@@ -6128,22 +6127,22 @@
     </row>
     <row r="9" spans="1:39">
       <c r="B9" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:39">
       <c r="C12" s="4" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:39">
@@ -6152,31 +6151,30 @@
     <row r="14" spans="1:39">
       <c r="B14" s="4"/>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:39">
-      <c r="B15" s="4"/>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
+      <c r="B16" s="4"/>
     </row>
     <row r="17" spans="1:3">
-      <c r="B17" s="4"/>
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="B18" t="s">
-        <v>18</v>
+      <c r="C18" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="C19" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -6189,7 +6187,7 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -6199,7 +6197,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="B25" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -6214,9 +6212,11 @@
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM23"/>
+  <dimension ref="A1:AM25"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
   <cols>
@@ -6268,7 +6268,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -6278,95 +6278,108 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39">
-      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39">
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="A8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-    </row>
     <row r="9" spans="1:39">
-      <c r="C9" t="s">
-        <v>14</v>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39">
+      <c r="C10" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:39">
-      <c r="B11" t="s">
-        <v>15</v>
+      <c r="C11" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="B12" s="4" t="s">
-        <v>10</v>
+      <c r="C12" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:39">
       <c r="B13" s="4"/>
     </row>
     <row r="14" spans="1:39">
-      <c r="B14" t="s">
-        <v>16</v>
+      <c r="B14" s="4"/>
+      <c r="C14" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:39">
-      <c r="B15" s="4" t="s">
-        <v>7</v>
+      <c r="B15" s="4"/>
+      <c r="C15" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="B16" s="4"/>
       <c r="C16" t="s">
-        <v>13</v>
-      </c>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="B17" s="4"/>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>4</v>
+      <c r="B18" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>1</v>
-      </c>
-      <c r="B19" t="s">
-        <v>11</v>
+      <c r="C19" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
-      <c r="B22" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="C23" t="s">
-        <v>9</v>
+    <row r="25" spans="1:3">
+      <c r="B25" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="B15" r:id="rId1"/>
-    <hyperlink ref="B12" r:id="rId2"/>
+    <hyperlink ref="C12" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM18"/>
+  <dimension ref="A1:AM23"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -6420,7 +6433,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>198</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -6430,7 +6443,7 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>103</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:39">
@@ -6440,60 +6453,83 @@
     </row>
     <row r="8" spans="1:39">
       <c r="B8" t="s">
-        <v>103</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:39">
       <c r="C9" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="10" spans="1:39">
-      <c r="C10" t="s">
-        <v>200</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:39">
-      <c r="C11" t="s">
-        <v>201</v>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="B12" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="A13" t="s">
+      <c r="B13" s="4"/>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="B15" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="B16" s="4"/>
+      <c r="C16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:39">
-      <c r="A14" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>1</v>
       </c>
-      <c r="B14" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="16" spans="1:39">
-      <c r="A16" t="s">
+      <c r="B19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
-      <c r="B17" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18" t="s">
-        <v>181</v>
+    <row r="22" spans="1:3">
+      <c r="B22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="C23" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="B15" r:id="rId1"/>
+    <hyperlink ref="B12" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AM18"/>
   <sheetViews>
@@ -6549,7 +6585,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -6559,7 +6595,7 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>103</v>
+        <v>203</v>
       </c>
     </row>
     <row r="7" spans="1:39">
@@ -6569,50 +6605,50 @@
     </row>
     <row r="8" spans="1:39">
       <c r="B8" t="s">
-        <v>103</v>
+        <v>203</v>
       </c>
     </row>
     <row r="9" spans="1:39">
       <c r="C9" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>194</v>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39">
+      <c r="C11" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="A12" t="s">
+      <c r="C12" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="A14" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:39">
-      <c r="A13" t="s">
+    <row r="15" spans="1:39">
+      <c r="A15" t="s">
         <v>1</v>
       </c>
-      <c r="B13" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="14" spans="1:39">
-      <c r="B14" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="16" spans="1:39">
-      <c r="A16" t="s">
+      <c r="B15" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
-      <c r="B17" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2">
+    <row r="18" spans="1:2">
       <c r="B18" t="s">
-        <v>181</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -6622,9 +6658,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM17"/>
+  <dimension ref="A1:AM18"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -6678,7 +6714,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -6708,34 +6744,39 @@
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39">
-      <c r="A12" t="s">
-        <v>4</v>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39">
+      <c r="C11" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="13" spans="1:39">
       <c r="A13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="A14" t="s">
         <v>1</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="15" spans="1:39">
-      <c r="A15" t="s">
+    <row r="16" spans="1:39">
+      <c r="A16" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:39">
-      <c r="B16" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
         <v>181</v>
       </c>
     </row>
@@ -6746,9 +6787,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM26"/>
+  <dimension ref="A1:AM18"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -6802,7 +6843,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -6812,94 +6853,59 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39">
-      <c r="B6" t="s">
-        <v>190</v>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="A7" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:39">
-      <c r="A8" t="s">
-        <v>3</v>
+      <c r="B8" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:39">
-      <c r="B9" t="s">
-        <v>180</v>
+      <c r="C9" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="11" spans="1:39">
-      <c r="C11" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="C12" t="s">
-        <v>184</v>
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="A13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="14" spans="1:39">
       <c r="B14" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="15" spans="1:39">
-      <c r="C15" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="C16" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="C17" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="C18" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="C19" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>1</v>
-      </c>
-      <c r="B22" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
+      <c r="A16" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
-      <c r="B25" t="s">
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
-      <c r="B26" t="s">
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
         <v>181</v>
       </c>
     </row>
@@ -6910,13 +6916,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM18"/>
+  <dimension ref="A1:AM17"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="AA33" sqref="AA33"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
   <cols>
@@ -6968,7 +6972,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -6978,7 +6982,7 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>178</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:39">
@@ -6988,50 +6992,45 @@
     </row>
     <row r="8" spans="1:39">
       <c r="B8" t="s">
-        <v>178</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:39">
       <c r="C9" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="11" spans="1:39">
-      <c r="C11" t="s">
-        <v>176</v>
+        <v>193</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="A12" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:39">
       <c r="A13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:39">
-      <c r="A14" t="s">
         <v>1</v>
       </c>
-      <c r="B14" t="s">
-        <v>177</v>
+      <c r="B13" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="A15" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="A16" t="s">
-        <v>2</v>
+      <c r="B16" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18" t="s">
-        <v>103</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -7041,9 +7040,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM23"/>
+  <dimension ref="A1:AM26"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -7097,7 +7096,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -7107,12 +7106,12 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:39">
       <c r="B6" t="s">
-        <v>103</v>
+        <v>190</v>
       </c>
     </row>
     <row r="8" spans="1:39">
@@ -7122,65 +7121,80 @@
     </row>
     <row r="9" spans="1:39">
       <c r="B9" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
     </row>
     <row r="12" spans="1:39">
       <c r="C12" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="13" spans="1:39">
-      <c r="C13" t="s">
-        <v>168</v>
+        <v>184</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="B14" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="15" spans="1:39">
-      <c r="B15" t="s">
-        <v>103</v>
+      <c r="C15" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="16" spans="1:39">
       <c r="C16" t="s">
-        <v>158</v>
+        <v>186</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="C17" t="s">
-        <v>171</v>
+        <v>187</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="C18" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" t="s">
+      <c r="C19" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B20" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
-      <c r="B23" t="s">
+    <row r="25" spans="1:3">
+      <c r="B25" t="s">
         <v>103</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="B26" t="s">
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -7190,11 +7204,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM20"/>
+  <dimension ref="A1:AM18"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="AA33" sqref="AA33"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
   <cols>
@@ -7246,7 +7262,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -7256,7 +7272,136 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>111</v>
+        <v>178</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="B8" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39">
+      <c r="C9" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39">
+      <c r="C10" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39">
+      <c r="C11" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="A16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
+        <v>103</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AM23"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="1.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:39" s="1" customFormat="1" ht="21">
+      <c r="A1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="2"/>
+    </row>
+    <row r="2" spans="1:39">
+      <c r="A2" s="5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39">
+      <c r="B5" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:39">
@@ -7271,49 +7416,64 @@
     </row>
     <row r="9" spans="1:39">
       <c r="B9" t="s">
-        <v>111</v>
+        <v>166</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>163</v>
+        <v>167</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39">
+      <c r="C11" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="B12" t="s">
-        <v>103</v>
+      <c r="C12" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="13" spans="1:39">
       <c r="C13" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="B15" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="C16" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="14" spans="1:39">
-      <c r="C14" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="16" spans="1:39">
-      <c r="A16" t="s">
+    <row r="17" spans="1:3">
+      <c r="C17" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
         <v>1</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B20" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
-      <c r="B20" t="s">
+    <row r="23" spans="1:3">
+      <c r="B23" t="s">
         <v>103</v>
       </c>
     </row>

--- a/日報.xlsx
+++ b/日報.xlsx
@@ -7,42 +7,43 @@
     <workbookView xWindow="-285" yWindow="150" windowWidth="10110" windowHeight="9165"/>
   </bookViews>
   <sheets>
-    <sheet name="11月20日" sheetId="34" r:id="rId1"/>
-    <sheet name="11月19日" sheetId="33" r:id="rId2"/>
-    <sheet name="11月18日" sheetId="32" r:id="rId3"/>
-    <sheet name="11月17日" sheetId="31" r:id="rId4"/>
-    <sheet name="11月16日" sheetId="30" r:id="rId5"/>
-    <sheet name="11月15日" sheetId="29" r:id="rId6"/>
-    <sheet name="11月14日" sheetId="28" r:id="rId7"/>
-    <sheet name="11月13日" sheetId="27" r:id="rId8"/>
-    <sheet name="11月12日" sheetId="26" r:id="rId9"/>
-    <sheet name="11月11日" sheetId="25" r:id="rId10"/>
-    <sheet name="11月10日" sheetId="24" r:id="rId11"/>
-    <sheet name="11月9日" sheetId="22" r:id="rId12"/>
-    <sheet name="11月8日" sheetId="21" r:id="rId13"/>
-    <sheet name="11月7日" sheetId="20" r:id="rId14"/>
-    <sheet name="11月5日" sheetId="19" r:id="rId15"/>
-    <sheet name="10月31日" sheetId="18" r:id="rId16"/>
-    <sheet name="10月30日" sheetId="17" r:id="rId17"/>
-    <sheet name="10月29日" sheetId="16" r:id="rId18"/>
-    <sheet name="10月28日" sheetId="15" r:id="rId19"/>
-    <sheet name="10月27日" sheetId="14" r:id="rId20"/>
-    <sheet name="10月26日" sheetId="13" r:id="rId21"/>
-    <sheet name="10月25日" sheetId="12" r:id="rId22"/>
-    <sheet name="10月24日" sheetId="11" r:id="rId23"/>
-    <sheet name="10月23日" sheetId="10" r:id="rId24"/>
-    <sheet name="10月22日" sheetId="9" r:id="rId25"/>
-    <sheet name="10月21日" sheetId="8" r:id="rId26"/>
-    <sheet name="10月20日 " sheetId="7" r:id="rId27"/>
-    <sheet name="10月19日" sheetId="6" r:id="rId28"/>
-    <sheet name="10月18日" sheetId="5" r:id="rId29"/>
+    <sheet name="11月21日" sheetId="35" r:id="rId1"/>
+    <sheet name="11月20日" sheetId="34" r:id="rId2"/>
+    <sheet name="11月19日" sheetId="33" r:id="rId3"/>
+    <sheet name="11月18日" sheetId="32" r:id="rId4"/>
+    <sheet name="11月17日" sheetId="31" r:id="rId5"/>
+    <sheet name="11月16日" sheetId="30" r:id="rId6"/>
+    <sheet name="11月15日" sheetId="29" r:id="rId7"/>
+    <sheet name="11月14日" sheetId="28" r:id="rId8"/>
+    <sheet name="11月13日" sheetId="27" r:id="rId9"/>
+    <sheet name="11月12日" sheetId="26" r:id="rId10"/>
+    <sheet name="11月11日" sheetId="25" r:id="rId11"/>
+    <sheet name="11月10日" sheetId="24" r:id="rId12"/>
+    <sheet name="11月9日" sheetId="22" r:id="rId13"/>
+    <sheet name="11月8日" sheetId="21" r:id="rId14"/>
+    <sheet name="11月7日" sheetId="20" r:id="rId15"/>
+    <sheet name="11月5日" sheetId="19" r:id="rId16"/>
+    <sheet name="10月31日" sheetId="18" r:id="rId17"/>
+    <sheet name="10月30日" sheetId="17" r:id="rId18"/>
+    <sheet name="10月29日" sheetId="16" r:id="rId19"/>
+    <sheet name="10月28日" sheetId="15" r:id="rId20"/>
+    <sheet name="10月27日" sheetId="14" r:id="rId21"/>
+    <sheet name="10月26日" sheetId="13" r:id="rId22"/>
+    <sheet name="10月25日" sheetId="12" r:id="rId23"/>
+    <sheet name="10月24日" sheetId="11" r:id="rId24"/>
+    <sheet name="10月23日" sheetId="10" r:id="rId25"/>
+    <sheet name="10月22日" sheetId="9" r:id="rId26"/>
+    <sheet name="10月21日" sheetId="8" r:id="rId27"/>
+    <sheet name="10月20日 " sheetId="7" r:id="rId28"/>
+    <sheet name="10月19日" sheetId="6" r:id="rId29"/>
+    <sheet name="10月18日" sheetId="5" r:id="rId30"/>
   </sheets>
   <calcPr calcId="125725" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="228">
   <si>
     <t>1.実施したこと</t>
     <rPh sb="2" eb="4">
@@ -2995,6 +2996,113 @@
     <t>・アプリの作成</t>
     <rPh sb="5" eb="7">
       <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・2013/11/21</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>札幌営業所で機能一覧表、アプリ画面図の修正などについて</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>また、ユースケース図の使用方法について学んだ。</t>
+    <rPh sb="9" eb="10">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>マナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>樋原さん、前田さん、立石さんに指摘やアドバイスを頂いた。</t>
+    <rPh sb="0" eb="2">
+      <t>ヒバラ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>マエダ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>タテイシ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>シテキ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>イタダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・札幌営業所で作成物をみてもらう</t>
+    <rPh sb="1" eb="3">
+      <t>サッポロ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>エイギョウショ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ブツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>指摘を頂いた事やアドバイスを参考にして、機能一覧表の修正やクラス図の作成を行うこと。</t>
+    <rPh sb="0" eb="2">
+      <t>シテキ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>イタダ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>コト</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>サンコウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・astah* communityのインストール</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無償UMLモデリングツールのastah* communityをインストールした。</t>
+    <rPh sb="0" eb="2">
+      <t>ムショウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3407,7 +3515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM16"/>
+  <dimension ref="A1:AM21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3461,7 +3569,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -3471,49 +3579,69 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39">
-      <c r="A7" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39">
+      <c r="B6" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="A8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
-      <c r="B8" t="s">
+    <row r="9" spans="1:39">
+      <c r="B9" t="s">
         <v>217</v>
-      </c>
-    </row>
-    <row r="9" spans="1:39">
-      <c r="C9" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>218</v>
+        <v>221</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39">
+      <c r="C11" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="A12" t="s">
+      <c r="C12" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="B14" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="C15" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:39">
-      <c r="A13" t="s">
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
         <v>1</v>
       </c>
-      <c r="B13" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="15" spans="1:39">
-      <c r="A15" t="s">
+      <c r="B18" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:39">
-      <c r="B16" t="s">
+    <row r="21" spans="1:2">
+      <c r="B21" t="s">
         <v>219</v>
       </c>
     </row>
@@ -3526,7 +3654,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM20"/>
+  <dimension ref="A1:AM23"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -3580,7 +3708,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -3590,7 +3718,7 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>111</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:39">
@@ -3605,49 +3733,64 @@
     </row>
     <row r="9" spans="1:39">
       <c r="B9" t="s">
-        <v>111</v>
+        <v>166</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>163</v>
+        <v>167</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39">
+      <c r="C11" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="B12" t="s">
-        <v>103</v>
+      <c r="C12" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="13" spans="1:39">
       <c r="C13" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="B15" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="C16" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="14" spans="1:39">
-      <c r="C14" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="16" spans="1:39">
-      <c r="A16" t="s">
+    <row r="17" spans="1:3">
+      <c r="C17" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
         <v>1</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B20" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
-      <c r="B20" t="s">
+    <row r="23" spans="1:3">
+      <c r="B23" t="s">
         <v>103</v>
       </c>
     </row>
@@ -3660,7 +3803,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM19"/>
+  <dimension ref="A1:AM20"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -3714,7 +3857,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -3744,7 +3887,7 @@
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="12" spans="1:39">
@@ -3757,26 +3900,31 @@
         <v>158</v>
       </c>
     </row>
-    <row r="15" spans="1:39">
-      <c r="A15" t="s">
-        <v>4</v>
+    <row r="14" spans="1:39">
+      <c r="C14" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="16" spans="1:39">
       <c r="A16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
         <v>1</v>
       </c>
-      <c r="B16" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
+      <c r="B17" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="B19" t="s">
+    <row r="20" spans="1:2">
+      <c r="B20" t="s">
         <v>103</v>
       </c>
     </row>
@@ -3789,7 +3937,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM18"/>
+  <dimension ref="A1:AM19"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -3843,7 +3991,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -3856,57 +4004,57 @@
         <v>111</v>
       </c>
     </row>
-    <row r="7" spans="1:39">
-      <c r="A7" t="s">
+    <row r="6" spans="1:39">
+      <c r="B6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="A8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
-      <c r="B8" t="s">
+    <row r="9" spans="1:39">
+      <c r="B9" t="s">
         <v>111</v>
-      </c>
-    </row>
-    <row r="9" spans="1:39">
-      <c r="C9" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="A12" t="s">
-        <v>4</v>
+      <c r="B12" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="A13" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13" t="s">
-        <v>117</v>
+      <c r="C13" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:39">
       <c r="A15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="A16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:39">
-      <c r="B16" t="s">
+    <row r="19" spans="1:2">
+      <c r="B19" t="s">
         <v>103</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3">
-      <c r="B17" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3">
-      <c r="C18" t="s">
-        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -3918,7 +4066,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM17"/>
+  <dimension ref="A1:AM18"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -3972,7 +4120,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -3982,7 +4130,7 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:39">
@@ -3992,17 +4140,17 @@
     </row>
     <row r="8" spans="1:39">
       <c r="B8" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:39">
       <c r="C9" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:39">
@@ -4015,7 +4163,7 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>153</v>
+        <v>117</v>
       </c>
     </row>
     <row r="15" spans="1:39">
@@ -4028,9 +4176,14 @@
         <v>103</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
+    <row r="17" spans="2:3">
       <c r="B17" t="s">
         <v>111</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3">
+      <c r="C18" t="s">
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -4042,7 +4195,7 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM24"/>
+  <dimension ref="A1:AM17"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -4096,7 +4249,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -4106,84 +4259,54 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39">
-      <c r="B6" t="s">
-        <v>141</v>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="A7" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:39">
-      <c r="A8" t="s">
-        <v>3</v>
+      <c r="B8" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:39">
-      <c r="B9" t="s">
-        <v>145</v>
+      <c r="C9" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="11" spans="1:39">
-      <c r="C11" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="C12" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="14" spans="1:39">
-      <c r="B14" t="s">
-        <v>141</v>
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="A13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="15" spans="1:39">
-      <c r="C15" t="s">
-        <v>146</v>
+      <c r="A15" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="C16" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="C17" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B20" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="B23" t="s">
+      <c r="B16" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
-      <c r="B24" t="s">
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
         <v>111</v>
       </c>
     </row>
@@ -4196,7 +4319,7 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM18"/>
+  <dimension ref="A1:AM24"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -4250,7 +4373,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -4260,59 +4383,84 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39">
-      <c r="A7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39">
+      <c r="B6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="A8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
-      <c r="B8" t="s">
-        <v>111</v>
-      </c>
-    </row>
     <row r="9" spans="1:39">
-      <c r="C9" t="s">
-        <v>138</v>
+      <c r="B9" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="13" spans="1:39">
-      <c r="A13" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="C12" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="B14" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="C15" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="C16" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="C17" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:39">
-      <c r="A14" t="s">
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
         <v>1</v>
       </c>
-      <c r="B14" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="16" spans="1:39">
-      <c r="A16" t="s">
+      <c r="B20" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
-      <c r="B17" t="s">
+    <row r="23" spans="1:3">
+      <c r="B23" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="18" spans="2:2">
-      <c r="B18" t="s">
+    <row r="24" spans="1:3">
+      <c r="B24" t="s">
         <v>111</v>
       </c>
     </row>
@@ -4325,7 +4473,7 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM24"/>
+  <dimension ref="A1:AM18"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -4379,7 +4527,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -4389,7 +4537,7 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:39">
@@ -4399,69 +4547,49 @@
     </row>
     <row r="8" spans="1:39">
       <c r="B8" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:39">
       <c r="C9" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39">
-      <c r="C12" t="s">
-        <v>132</v>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="A13" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:39">
-      <c r="C14" t="s">
-        <v>133</v>
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="C16" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="C17" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B20" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
+      <c r="A16" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
-      <c r="B23" t="s">
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
-      <c r="B24" t="s">
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
         <v>111</v>
       </c>
     </row>
@@ -4474,7 +4602,7 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM19"/>
+  <dimension ref="A1:AM24"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -4528,7 +4656,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -4538,7 +4666,7 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:39">
@@ -4548,54 +4676,69 @@
     </row>
     <row r="8" spans="1:39">
       <c r="B8" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:39">
       <c r="C9" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:39">
       <c r="C12" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14" spans="1:39">
-      <c r="A14" t="s">
+      <c r="C14" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="C16" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="C17" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:39">
-      <c r="A15" t="s">
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
         <v>1</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B20" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
-      <c r="B18" t="s">
+    <row r="23" spans="1:3">
+      <c r="B23" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="B19" t="s">
+    <row r="24" spans="1:3">
+      <c r="B24" t="s">
         <v>111</v>
       </c>
     </row>
@@ -4608,7 +4751,7 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM18"/>
+  <dimension ref="A1:AM19"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -4662,7 +4805,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -4672,7 +4815,7 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:39">
@@ -4682,49 +4825,54 @@
     </row>
     <row r="8" spans="1:39">
       <c r="B8" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:39">
       <c r="C9" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="13" spans="1:39">
-      <c r="A13" t="s">
-        <v>4</v>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="C12" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="14" spans="1:39">
       <c r="A14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="A15" t="s">
         <v>1</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="16" spans="1:39">
-      <c r="A16" t="s">
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
-      <c r="B17" t="s">
+    <row r="18" spans="1:2">
+      <c r="B18" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="18" spans="2:2">
-      <c r="B18" t="s">
+    <row r="19" spans="1:2">
+      <c r="B19" t="s">
         <v>111</v>
       </c>
     </row>
@@ -4737,7 +4885,7 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM17"/>
+  <dimension ref="A1:AM18"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -4791,7 +4939,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -4801,7 +4949,7 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:39">
@@ -4811,44 +4959,49 @@
     </row>
     <row r="8" spans="1:39">
       <c r="B8" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:39">
       <c r="C9" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39">
-      <c r="A12" t="s">
-        <v>4</v>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39">
+      <c r="C11" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:39">
       <c r="A13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="A14" t="s">
         <v>1</v>
       </c>
-      <c r="B13" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="15" spans="1:39">
-      <c r="A15" t="s">
+      <c r="B14" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="A16" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:39">
-      <c r="B16" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
         <v>111</v>
       </c>
     </row>
@@ -4861,7 +5014,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM17"/>
+  <dimension ref="A1:AM16"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -4915,7 +5068,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -4935,7 +5088,7 @@
     </row>
     <row r="8" spans="1:39">
       <c r="B8" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
     </row>
     <row r="9" spans="1:39">
@@ -4945,35 +5098,30 @@
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="11" spans="1:39">
-      <c r="C11" t="s">
-        <v>215</v>
+        <v>218</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="A12" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:39">
       <c r="A13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:39">
-      <c r="A14" t="s">
         <v>1</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B13" t="s">
         <v>213</v>
       </c>
     </row>
+    <row r="15" spans="1:39">
+      <c r="A15" t="s">
+        <v>2</v>
+      </c>
+    </row>
     <row r="16" spans="1:39">
-      <c r="A16" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17" t="s">
-        <v>210</v>
+      <c r="B16" t="s">
+        <v>219</v>
       </c>
     </row>
   </sheetData>
@@ -4985,7 +5133,7 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM22"/>
+  <dimension ref="A1:AM17"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -5039,7 +5187,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -5049,94 +5197,67 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39">
-      <c r="B6" t="s">
-        <v>57</v>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="A7" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:39">
-      <c r="A8" t="s">
-        <v>3</v>
+      <c r="B8" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:39">
-      <c r="B9" t="s">
-        <v>101</v>
+      <c r="C9" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="11" spans="1:39">
-      <c r="C11" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="C12" t="s">
-        <v>106</v>
+      <c r="A12" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="C13" s="4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="14" spans="1:39">
-      <c r="C14" s="4"/>
+      <c r="A13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="15" spans="1:39">
-      <c r="B15" t="s">
-        <v>108</v>
-      </c>
-      <c r="C15" s="4"/>
+      <c r="A15" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="C16" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>1</v>
-      </c>
-      <c r="B19" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="B22" t="s">
+      <c r="B16" t="s">
         <v>103</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <hyperlinks>
-    <hyperlink ref="C13" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM19"/>
+  <dimension ref="A1:AM22"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -5190,7 +5311,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -5200,77 +5321,94 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39">
-      <c r="A7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39">
+      <c r="B6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="A8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
-      <c r="B8" t="s">
-        <v>87</v>
-      </c>
-    </row>
     <row r="9" spans="1:39">
-      <c r="C9" t="s">
-        <v>97</v>
+      <c r="B9" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:39">
       <c r="C12" t="s">
-        <v>98</v>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="C13" s="4" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:39">
-      <c r="A14" t="s">
+      <c r="C14" s="4"/>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="B15" t="s">
+        <v>108</v>
+      </c>
+      <c r="C15" s="4"/>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="C16" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:39">
-      <c r="A15" t="s">
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
         <v>1</v>
       </c>
-      <c r="B15" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
+      <c r="B19" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
-      <c r="B18" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="B19" t="s">
-        <v>99</v>
+    <row r="22" spans="1:2">
+      <c r="B22" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="C13" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM18"/>
+  <dimension ref="A1:AM19"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -5324,7 +5462,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -5344,50 +5482,55 @@
     </row>
     <row r="8" spans="1:39">
       <c r="B8" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:39">
       <c r="C9" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="13" spans="1:39">
-      <c r="A13" t="s">
-        <v>4</v>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="C12" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:39">
       <c r="A14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="A15" t="s">
         <v>1</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="16" spans="1:39">
-      <c r="A16" t="s">
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
-      <c r="B17" t="s">
+    <row r="18" spans="1:2">
+      <c r="B18" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="2:2">
-      <c r="B18" t="s">
-        <v>89</v>
+    <row r="19" spans="1:2">
+      <c r="B19" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -5399,11 +5542,9 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM27"/>
+  <dimension ref="A1:AM18"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="AM35" sqref="AM35"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
   <cols>
@@ -5455,7 +5596,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -5465,95 +5606,60 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39">
-      <c r="B6" t="s">
-        <v>76</v>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="A7" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:39">
-      <c r="A8" t="s">
-        <v>3</v>
+      <c r="B8" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:39">
-      <c r="B9" t="s">
-        <v>75</v>
+      <c r="C9" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39">
-      <c r="B12" t="s">
-        <v>76</v>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39">
+      <c r="C11" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="C13" t="s">
-        <v>78</v>
+      <c r="A13" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:39">
-      <c r="C14" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="15" spans="1:39">
-      <c r="C15" t="s">
-        <v>80</v>
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="C16" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="C18" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="C19" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="C20" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
-        <v>1</v>
-      </c>
-      <c r="B23" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
+      <c r="A16" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
-      <c r="B26" t="s">
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
-      <c r="B27" t="s">
-        <v>60</v>
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -5565,9 +5671,11 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM23"/>
+  <dimension ref="A1:AM27"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="AM35" sqref="AM35"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
   <cols>
@@ -5619,7 +5727,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -5629,84 +5737,94 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39">
-      <c r="A7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39">
+      <c r="B6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="A8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
-      <c r="B8" t="s">
-        <v>64</v>
-      </c>
-    </row>
     <row r="9" spans="1:39">
-      <c r="C9" t="s">
-        <v>65</v>
+      <c r="B9" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="11" spans="1:39">
-      <c r="D11" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="D12" t="s">
-        <v>67</v>
+      <c r="B12" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="D13" t="s">
-        <v>68</v>
+      <c r="C13" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:39">
-      <c r="D14" t="s">
-        <v>69</v>
+      <c r="C14" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:39">
-      <c r="D15" t="s">
-        <v>70</v>
+      <c r="C15" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="D16" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
+      <c r="C16" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="C18" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="C19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="C20" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
         <v>1</v>
       </c>
-      <c r="B19" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
+      <c r="B23" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
-      <c r="B22" t="s">
+    <row r="26" spans="1:3">
+      <c r="B26" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
-      <c r="B23" t="s">
+    <row r="27" spans="1:3">
+      <c r="B27" t="s">
         <v>60</v>
       </c>
     </row>
@@ -5719,7 +5837,7 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM24"/>
+  <dimension ref="A1:AM23"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -5773,7 +5891,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -5783,79 +5901,84 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39">
-      <c r="B6" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:39">
-      <c r="B7" t="s">
-        <v>57</v>
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="B8" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:39">
-      <c r="A9" t="s">
-        <v>3</v>
+      <c r="C9" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:39">
-      <c r="B10" t="s">
-        <v>42</v>
+      <c r="C10" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:39">
-      <c r="C11" t="s">
-        <v>58</v>
+      <c r="D11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="D12" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="B13" t="s">
-        <v>56</v>
+      <c r="D13" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:39">
-      <c r="C14" t="s">
-        <v>59</v>
+      <c r="D14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="D15" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="B16" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="C17" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
         <v>1</v>
       </c>
-      <c r="B20" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
+      <c r="B19" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="22" spans="1:2">
+      <c r="B22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
       <c r="B23" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="B24" t="s">
         <v>60</v>
       </c>
     </row>
@@ -5868,7 +5991,7 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM29"/>
+  <dimension ref="A1:AM24"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -5922,7 +6045,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -5932,17 +6055,17 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:39">
       <c r="B6" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:39">
       <c r="B7" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:39">
@@ -5952,91 +6075,60 @@
     </row>
     <row r="10" spans="1:39">
       <c r="B10" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39">
-      <c r="C12" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="C13" t="s">
-        <v>50</v>
+      <c r="B13" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:39">
       <c r="C14" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" spans="1:39">
-      <c r="C15" s="4"/>
+        <v>59</v>
+      </c>
     </row>
     <row r="16" spans="1:39">
       <c r="B16" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="C17" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="C18" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="C19" t="s">
-        <v>45</v>
+      <c r="A19" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="C20" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="B21" s="4"/>
+      <c r="A20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="B22" t="s">
-        <v>30</v>
+      <c r="A22" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="C23" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" t="s">
-        <v>1</v>
-      </c>
-      <c r="B26" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="B29" t="s">
+      <c r="B23" t="s">
         <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="B24" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -6048,7 +6140,7 @@
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM25"/>
+  <dimension ref="A1:AM29"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -6102,7 +6194,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -6112,101 +6204,117 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:39">
       <c r="B6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="B7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
-      <c r="A8" t="s">
+    <row r="9" spans="1:39">
+      <c r="A9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:39">
-      <c r="B9" t="s">
-        <v>35</v>
-      </c>
-    </row>
     <row r="10" spans="1:39">
-      <c r="C10" t="s">
-        <v>36</v>
+      <c r="B10" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="C12" s="4" t="s">
-        <v>33</v>
+      <c r="C12" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="B13" s="4"/>
+      <c r="C13" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="14" spans="1:39">
-      <c r="B14" s="4"/>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:39">
-      <c r="C15" t="s">
-        <v>40</v>
-      </c>
+      <c r="C15" s="4"/>
     </row>
     <row r="16" spans="1:39">
-      <c r="B16" s="4"/>
+      <c r="B16" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="B17" t="s">
-        <v>30</v>
+      <c r="C17" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="C18" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="C19" t="s">
-        <v>31</v>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="C20" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" t="s">
+      <c r="B21" s="4"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="B22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="C23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
         <v>1</v>
       </c>
-      <c r="B22" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
+      <c r="B26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
-      <c r="B25" t="s">
-        <v>38</v>
+    <row r="29" spans="1:3">
+      <c r="B29" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <hyperlinks>
-    <hyperlink ref="C12" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6214,9 +6322,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AM25"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
   <cols>
@@ -6268,7 +6374,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -6278,12 +6384,12 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:39">
       <c r="B6" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:39">
@@ -6293,22 +6399,22 @@
     </row>
     <row r="9" spans="1:39">
       <c r="B9" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:39">
       <c r="C12" s="4" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:39">
@@ -6317,31 +6423,30 @@
     <row r="14" spans="1:39">
       <c r="B14" s="4"/>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:39">
-      <c r="B15" s="4"/>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
+      <c r="B16" s="4"/>
     </row>
     <row r="17" spans="1:3">
-      <c r="B17" s="4"/>
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="B18" t="s">
-        <v>18</v>
+      <c r="C18" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="C19" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -6354,7 +6459,7 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -6364,7 +6469,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="B25" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -6379,9 +6484,11 @@
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM23"/>
+  <dimension ref="A1:AM25"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
   <cols>
@@ -6433,7 +6540,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -6443,95 +6550,108 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39">
-      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39">
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="A8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-    </row>
     <row r="9" spans="1:39">
-      <c r="C9" t="s">
-        <v>14</v>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39">
+      <c r="C10" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:39">
-      <c r="B11" t="s">
-        <v>15</v>
+      <c r="C11" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="B12" s="4" t="s">
-        <v>10</v>
+      <c r="C12" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:39">
       <c r="B13" s="4"/>
     </row>
     <row r="14" spans="1:39">
-      <c r="B14" t="s">
-        <v>16</v>
+      <c r="B14" s="4"/>
+      <c r="C14" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:39">
-      <c r="B15" s="4" t="s">
-        <v>7</v>
+      <c r="B15" s="4"/>
+      <c r="C15" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="B16" s="4"/>
       <c r="C16" t="s">
-        <v>13</v>
-      </c>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="B17" s="4"/>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>4</v>
+      <c r="B18" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>1</v>
-      </c>
-      <c r="B19" t="s">
-        <v>11</v>
+      <c r="C19" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
-      <c r="B22" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="C23" t="s">
-        <v>9</v>
+    <row r="25" spans="1:3">
+      <c r="B25" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="B15" r:id="rId1"/>
-    <hyperlink ref="B12" r:id="rId2"/>
+    <hyperlink ref="C12" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM18"/>
+  <dimension ref="A1:AM17"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -6585,7 +6705,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -6595,7 +6715,7 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
     </row>
     <row r="7" spans="1:39">
@@ -6605,50 +6725,45 @@
     </row>
     <row r="8" spans="1:39">
       <c r="B8" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
     </row>
     <row r="9" spans="1:39">
       <c r="C9" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39">
-      <c r="C12" t="s">
-        <v>206</v>
+        <v>215</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="A13" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:39">
       <c r="A14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:39">
-      <c r="A15" t="s">
         <v>1</v>
       </c>
-      <c r="B15" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
+      <c r="B14" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="A16" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
-      <c r="B18" t="s">
-        <v>208</v>
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
+        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -6658,9 +6773,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM18"/>
+  <dimension ref="A1:AM23"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -6714,7 +6829,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>198</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -6724,7 +6839,7 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>103</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:39">
@@ -6734,60 +6849,83 @@
     </row>
     <row r="8" spans="1:39">
       <c r="B8" t="s">
-        <v>103</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:39">
       <c r="C9" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="10" spans="1:39">
-      <c r="C10" t="s">
-        <v>200</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:39">
-      <c r="C11" t="s">
-        <v>201</v>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="B12" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="A13" t="s">
+      <c r="B13" s="4"/>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="B15" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="B16" s="4"/>
+      <c r="C16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:39">
-      <c r="A14" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>1</v>
       </c>
-      <c r="B14" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="16" spans="1:39">
-      <c r="A16" t="s">
+      <c r="B19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
-      <c r="B17" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18" t="s">
-        <v>181</v>
+    <row r="22" spans="1:3">
+      <c r="B22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="C23" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="B15" r:id="rId1"/>
+    <hyperlink ref="B12" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AM18"/>
   <sheetViews>
@@ -6843,7 +6981,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -6853,7 +6991,7 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>103</v>
+        <v>203</v>
       </c>
     </row>
     <row r="7" spans="1:39">
@@ -6863,50 +7001,50 @@
     </row>
     <row r="8" spans="1:39">
       <c r="B8" t="s">
-        <v>103</v>
+        <v>203</v>
       </c>
     </row>
     <row r="9" spans="1:39">
       <c r="C9" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>194</v>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39">
+      <c r="C11" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="A12" t="s">
+      <c r="C12" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="A14" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:39">
-      <c r="A13" t="s">
+    <row r="15" spans="1:39">
+      <c r="A15" t="s">
         <v>1</v>
       </c>
-      <c r="B13" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="14" spans="1:39">
-      <c r="B14" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="16" spans="1:39">
-      <c r="A16" t="s">
+      <c r="B15" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
-      <c r="B17" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2">
+    <row r="18" spans="1:2">
       <c r="B18" t="s">
-        <v>181</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -6916,9 +7054,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM17"/>
+  <dimension ref="A1:AM18"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -6972,7 +7110,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -7002,34 +7140,39 @@
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39">
-      <c r="A12" t="s">
-        <v>4</v>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39">
+      <c r="C11" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="13" spans="1:39">
       <c r="A13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="A14" t="s">
         <v>1</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="15" spans="1:39">
-      <c r="A15" t="s">
+    <row r="16" spans="1:39">
+      <c r="A16" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:39">
-      <c r="B16" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
         <v>181</v>
       </c>
     </row>
@@ -7040,9 +7183,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM26"/>
+  <dimension ref="A1:AM18"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -7096,7 +7239,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -7106,94 +7249,59 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39">
-      <c r="B6" t="s">
-        <v>190</v>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="A7" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:39">
-      <c r="A8" t="s">
-        <v>3</v>
+      <c r="B8" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:39">
-      <c r="B9" t="s">
-        <v>180</v>
+      <c r="C9" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="11" spans="1:39">
-      <c r="C11" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="C12" t="s">
-        <v>184</v>
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="A13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="14" spans="1:39">
       <c r="B14" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="15" spans="1:39">
-      <c r="C15" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="C16" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="C17" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="C18" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="C19" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>1</v>
-      </c>
-      <c r="B22" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
+      <c r="A16" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
-      <c r="B25" t="s">
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
-      <c r="B26" t="s">
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
         <v>181</v>
       </c>
     </row>
@@ -7204,13 +7312,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM18"/>
+  <dimension ref="A1:AM17"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="AA33" sqref="AA33"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
   <cols>
@@ -7262,7 +7368,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -7272,7 +7378,7 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>178</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:39">
@@ -7282,50 +7388,45 @@
     </row>
     <row r="8" spans="1:39">
       <c r="B8" t="s">
-        <v>178</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:39">
       <c r="C9" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="11" spans="1:39">
-      <c r="C11" t="s">
-        <v>176</v>
+        <v>193</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="A12" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:39">
       <c r="A13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:39">
-      <c r="A14" t="s">
         <v>1</v>
       </c>
-      <c r="B14" t="s">
-        <v>177</v>
+      <c r="B13" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="A15" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="A16" t="s">
-        <v>2</v>
+      <c r="B16" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18" t="s">
-        <v>103</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -7335,9 +7436,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM23"/>
+  <dimension ref="A1:AM26"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -7391,7 +7492,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -7401,12 +7502,12 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:39">
       <c r="B6" t="s">
-        <v>103</v>
+        <v>190</v>
       </c>
     </row>
     <row r="8" spans="1:39">
@@ -7416,64 +7517,210 @@
     </row>
     <row r="9" spans="1:39">
       <c r="B9" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
     </row>
     <row r="12" spans="1:39">
       <c r="C12" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="13" spans="1:39">
-      <c r="C13" t="s">
-        <v>168</v>
+        <v>184</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="B14" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="15" spans="1:39">
-      <c r="B15" t="s">
-        <v>103</v>
+      <c r="C15" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="16" spans="1:39">
       <c r="C16" t="s">
-        <v>158</v>
+        <v>186</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="C17" t="s">
-        <v>171</v>
+        <v>187</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="C18" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" t="s">
+      <c r="C19" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B20" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
-      <c r="B23" t="s">
+    <row r="25" spans="1:3">
+      <c r="B25" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="B26" t="s">
+        <v>181</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AM18"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="AA33" sqref="AA33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="1.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:39" s="1" customFormat="1" ht="21">
+      <c r="A1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="2"/>
+    </row>
+    <row r="2" spans="1:39">
+      <c r="A2" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39">
+      <c r="B5" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="B8" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39">
+      <c r="C9" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39">
+      <c r="C10" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39">
+      <c r="C11" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="A16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
         <v>103</v>
       </c>
     </row>

--- a/日報.xlsx
+++ b/日報.xlsx
@@ -7,43 +7,44 @@
     <workbookView xWindow="-285" yWindow="150" windowWidth="10110" windowHeight="9165"/>
   </bookViews>
   <sheets>
-    <sheet name="11月21日" sheetId="35" r:id="rId1"/>
-    <sheet name="11月20日" sheetId="34" r:id="rId2"/>
-    <sheet name="11月19日" sheetId="33" r:id="rId3"/>
-    <sheet name="11月18日" sheetId="32" r:id="rId4"/>
-    <sheet name="11月17日" sheetId="31" r:id="rId5"/>
-    <sheet name="11月16日" sheetId="30" r:id="rId6"/>
-    <sheet name="11月15日" sheetId="29" r:id="rId7"/>
-    <sheet name="11月14日" sheetId="28" r:id="rId8"/>
-    <sheet name="11月13日" sheetId="27" r:id="rId9"/>
-    <sheet name="11月12日" sheetId="26" r:id="rId10"/>
-    <sheet name="11月11日" sheetId="25" r:id="rId11"/>
-    <sheet name="11月10日" sheetId="24" r:id="rId12"/>
-    <sheet name="11月9日" sheetId="22" r:id="rId13"/>
-    <sheet name="11月8日" sheetId="21" r:id="rId14"/>
-    <sheet name="11月7日" sheetId="20" r:id="rId15"/>
-    <sheet name="11月5日" sheetId="19" r:id="rId16"/>
-    <sheet name="10月31日" sheetId="18" r:id="rId17"/>
-    <sheet name="10月30日" sheetId="17" r:id="rId18"/>
-    <sheet name="10月29日" sheetId="16" r:id="rId19"/>
-    <sheet name="10月28日" sheetId="15" r:id="rId20"/>
-    <sheet name="10月27日" sheetId="14" r:id="rId21"/>
-    <sheet name="10月26日" sheetId="13" r:id="rId22"/>
-    <sheet name="10月25日" sheetId="12" r:id="rId23"/>
-    <sheet name="10月24日" sheetId="11" r:id="rId24"/>
-    <sheet name="10月23日" sheetId="10" r:id="rId25"/>
-    <sheet name="10月22日" sheetId="9" r:id="rId26"/>
-    <sheet name="10月21日" sheetId="8" r:id="rId27"/>
-    <sheet name="10月20日 " sheetId="7" r:id="rId28"/>
-    <sheet name="10月19日" sheetId="6" r:id="rId29"/>
-    <sheet name="10月18日" sheetId="5" r:id="rId30"/>
+    <sheet name="11月22日" sheetId="36" r:id="rId1"/>
+    <sheet name="11月21日" sheetId="35" r:id="rId2"/>
+    <sheet name="11月20日" sheetId="34" r:id="rId3"/>
+    <sheet name="11月19日" sheetId="33" r:id="rId4"/>
+    <sheet name="11月18日" sheetId="32" r:id="rId5"/>
+    <sheet name="11月17日" sheetId="31" r:id="rId6"/>
+    <sheet name="11月16日" sheetId="30" r:id="rId7"/>
+    <sheet name="11月15日" sheetId="29" r:id="rId8"/>
+    <sheet name="11月14日" sheetId="28" r:id="rId9"/>
+    <sheet name="11月13日" sheetId="27" r:id="rId10"/>
+    <sheet name="11月12日" sheetId="26" r:id="rId11"/>
+    <sheet name="11月11日" sheetId="25" r:id="rId12"/>
+    <sheet name="11月10日" sheetId="24" r:id="rId13"/>
+    <sheet name="11月9日" sheetId="22" r:id="rId14"/>
+    <sheet name="11月8日" sheetId="21" r:id="rId15"/>
+    <sheet name="11月7日" sheetId="20" r:id="rId16"/>
+    <sheet name="11月5日" sheetId="19" r:id="rId17"/>
+    <sheet name="10月31日" sheetId="18" r:id="rId18"/>
+    <sheet name="10月30日" sheetId="17" r:id="rId19"/>
+    <sheet name="10月29日" sheetId="16" r:id="rId20"/>
+    <sheet name="10月28日" sheetId="15" r:id="rId21"/>
+    <sheet name="10月27日" sheetId="14" r:id="rId22"/>
+    <sheet name="10月26日" sheetId="13" r:id="rId23"/>
+    <sheet name="10月25日" sheetId="12" r:id="rId24"/>
+    <sheet name="10月24日" sheetId="11" r:id="rId25"/>
+    <sheet name="10月23日" sheetId="10" r:id="rId26"/>
+    <sheet name="10月22日" sheetId="9" r:id="rId27"/>
+    <sheet name="10月21日" sheetId="8" r:id="rId28"/>
+    <sheet name="10月20日 " sheetId="7" r:id="rId29"/>
+    <sheet name="10月19日" sheetId="6" r:id="rId30"/>
+    <sheet name="10月18日" sheetId="5" r:id="rId31"/>
   </sheets>
   <calcPr calcId="125725" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="232">
   <si>
     <t>1.実施したこと</t>
     <rPh sb="2" eb="4">
@@ -3103,6 +3104,61 @@
     <t>無償UMLモデリングツールのastah* communityをインストールした。</t>
     <rPh sb="0" eb="2">
       <t>ムショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・2013/11/22</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・機能一覧表の修正</t>
+    <rPh sb="1" eb="3">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大項目の削除や備考の項目の追加など</t>
+    <rPh sb="0" eb="3">
+      <t>ダイコウモク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ビコウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>機能一覧表の修正をした。</t>
+    <rPh sb="0" eb="2">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シュウセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3515,7 +3571,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM21"/>
+  <dimension ref="A1:AM16"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3569,7 +3625,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -3579,69 +3635,49 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39">
-      <c r="B6" t="s">
-        <v>226</v>
+        <v>229</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="A7" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:39">
-      <c r="A8" t="s">
-        <v>3</v>
+      <c r="B8" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="9" spans="1:39">
-      <c r="B9" t="s">
-        <v>217</v>
+      <c r="C9" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="11" spans="1:39">
-      <c r="C11" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="C12" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="14" spans="1:39">
-      <c r="B14" t="s">
-        <v>226</v>
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="A13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="15" spans="1:39">
-      <c r="C15" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>1</v>
-      </c>
-      <c r="B18" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
+      <c r="A15" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
-      <c r="B21" t="s">
+    <row r="16" spans="1:39">
+      <c r="B16" t="s">
         <v>219</v>
       </c>
     </row>
@@ -3654,9 +3690,11 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM23"/>
+  <dimension ref="A1:AM18"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="AA33" sqref="AA33"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
   <cols>
@@ -3708,7 +3746,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -3718,79 +3756,59 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39">
-      <c r="B6" t="s">
-        <v>103</v>
+        <v>178</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="A7" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:39">
-      <c r="A8" t="s">
-        <v>3</v>
+      <c r="B8" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="9" spans="1:39">
-      <c r="B9" t="s">
-        <v>166</v>
+      <c r="C9" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39">
-      <c r="C12" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="C13" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="15" spans="1:39">
-      <c r="B15" t="s">
-        <v>103</v>
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="C16" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="C17" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B20" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
+      <c r="A16" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
-      <c r="B23" t="s">
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
         <v>103</v>
       </c>
     </row>
@@ -3803,7 +3821,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM20"/>
+  <dimension ref="A1:AM23"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -3857,7 +3875,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -3867,7 +3885,7 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>111</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:39">
@@ -3882,49 +3900,64 @@
     </row>
     <row r="9" spans="1:39">
       <c r="B9" t="s">
-        <v>111</v>
+        <v>166</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>163</v>
+        <v>167</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39">
+      <c r="C11" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="B12" t="s">
-        <v>103</v>
+      <c r="C12" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="13" spans="1:39">
       <c r="C13" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="B15" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="C16" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="14" spans="1:39">
-      <c r="C14" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="16" spans="1:39">
-      <c r="A16" t="s">
+    <row r="17" spans="1:3">
+      <c r="C17" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
         <v>1</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B20" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
-      <c r="B20" t="s">
+    <row r="23" spans="1:3">
+      <c r="B23" t="s">
         <v>103</v>
       </c>
     </row>
@@ -3937,7 +3970,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM19"/>
+  <dimension ref="A1:AM20"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -3991,7 +4024,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -4021,7 +4054,7 @@
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="12" spans="1:39">
@@ -4034,26 +4067,31 @@
         <v>158</v>
       </c>
     </row>
-    <row r="15" spans="1:39">
-      <c r="A15" t="s">
-        <v>4</v>
+    <row r="14" spans="1:39">
+      <c r="C14" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="16" spans="1:39">
       <c r="A16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
         <v>1</v>
       </c>
-      <c r="B16" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
+      <c r="B17" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="B19" t="s">
+    <row r="20" spans="1:2">
+      <c r="B20" t="s">
         <v>103</v>
       </c>
     </row>
@@ -4066,7 +4104,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM18"/>
+  <dimension ref="A1:AM19"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -4120,7 +4158,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -4133,57 +4171,57 @@
         <v>111</v>
       </c>
     </row>
-    <row r="7" spans="1:39">
-      <c r="A7" t="s">
+    <row r="6" spans="1:39">
+      <c r="B6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="A8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
-      <c r="B8" t="s">
+    <row r="9" spans="1:39">
+      <c r="B9" t="s">
         <v>111</v>
-      </c>
-    </row>
-    <row r="9" spans="1:39">
-      <c r="C9" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="A12" t="s">
-        <v>4</v>
+      <c r="B12" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="A13" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13" t="s">
-        <v>117</v>
+      <c r="C13" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:39">
       <c r="A15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="A16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:39">
-      <c r="B16" t="s">
+    <row r="19" spans="1:2">
+      <c r="B19" t="s">
         <v>103</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3">
-      <c r="B17" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3">
-      <c r="C18" t="s">
-        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -4195,7 +4233,7 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM17"/>
+  <dimension ref="A1:AM18"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -4249,7 +4287,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -4259,7 +4297,7 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:39">
@@ -4269,17 +4307,17 @@
     </row>
     <row r="8" spans="1:39">
       <c r="B8" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:39">
       <c r="C9" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:39">
@@ -4292,7 +4330,7 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>153</v>
+        <v>117</v>
       </c>
     </row>
     <row r="15" spans="1:39">
@@ -4305,9 +4343,14 @@
         <v>103</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
+    <row r="17" spans="2:3">
       <c r="B17" t="s">
         <v>111</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3">
+      <c r="C18" t="s">
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -4319,7 +4362,7 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM24"/>
+  <dimension ref="A1:AM17"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -4373,7 +4416,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -4383,84 +4426,54 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39">
-      <c r="B6" t="s">
-        <v>141</v>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="A7" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:39">
-      <c r="A8" t="s">
-        <v>3</v>
+      <c r="B8" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:39">
-      <c r="B9" t="s">
-        <v>145</v>
+      <c r="C9" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="11" spans="1:39">
-      <c r="C11" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="C12" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="14" spans="1:39">
-      <c r="B14" t="s">
-        <v>141</v>
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="A13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="15" spans="1:39">
-      <c r="C15" t="s">
-        <v>146</v>
+      <c r="A15" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="C16" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="C17" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B20" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="B23" t="s">
+      <c r="B16" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
-      <c r="B24" t="s">
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
         <v>111</v>
       </c>
     </row>
@@ -4473,7 +4486,7 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM18"/>
+  <dimension ref="A1:AM24"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -4527,7 +4540,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -4537,59 +4550,84 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39">
-      <c r="A7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39">
+      <c r="B6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="A8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
-      <c r="B8" t="s">
-        <v>111</v>
-      </c>
-    </row>
     <row r="9" spans="1:39">
-      <c r="C9" t="s">
-        <v>138</v>
+      <c r="B9" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="13" spans="1:39">
-      <c r="A13" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="C12" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="B14" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="C15" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="C16" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="C17" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:39">
-      <c r="A14" t="s">
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
         <v>1</v>
       </c>
-      <c r="B14" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="16" spans="1:39">
-      <c r="A16" t="s">
+      <c r="B20" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
-      <c r="B17" t="s">
+    <row r="23" spans="1:3">
+      <c r="B23" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="18" spans="2:2">
-      <c r="B18" t="s">
+    <row r="24" spans="1:3">
+      <c r="B24" t="s">
         <v>111</v>
       </c>
     </row>
@@ -4602,7 +4640,7 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM24"/>
+  <dimension ref="A1:AM18"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -4656,7 +4694,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -4666,7 +4704,7 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:39">
@@ -4676,69 +4714,49 @@
     </row>
     <row r="8" spans="1:39">
       <c r="B8" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:39">
       <c r="C9" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39">
-      <c r="C12" t="s">
-        <v>132</v>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="A13" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:39">
-      <c r="C14" t="s">
-        <v>133</v>
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="C16" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="C17" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B20" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
+      <c r="A16" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
-      <c r="B23" t="s">
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
-      <c r="B24" t="s">
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
         <v>111</v>
       </c>
     </row>
@@ -4751,7 +4769,7 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM19"/>
+  <dimension ref="A1:AM24"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -4805,7 +4823,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -4815,7 +4833,7 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:39">
@@ -4825,54 +4843,69 @@
     </row>
     <row r="8" spans="1:39">
       <c r="B8" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:39">
       <c r="C9" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:39">
       <c r="C12" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14" spans="1:39">
-      <c r="A14" t="s">
+      <c r="C14" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="C16" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="C17" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:39">
-      <c r="A15" t="s">
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
         <v>1</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B20" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
-      <c r="B18" t="s">
+    <row r="23" spans="1:3">
+      <c r="B23" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="B19" t="s">
+    <row r="24" spans="1:3">
+      <c r="B24" t="s">
         <v>111</v>
       </c>
     </row>
@@ -4885,7 +4918,7 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM18"/>
+  <dimension ref="A1:AM19"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -4939,7 +4972,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -4949,7 +4982,7 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:39">
@@ -4959,49 +4992,54 @@
     </row>
     <row r="8" spans="1:39">
       <c r="B8" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:39">
       <c r="C9" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="13" spans="1:39">
-      <c r="A13" t="s">
-        <v>4</v>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="C12" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="14" spans="1:39">
       <c r="A14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="A15" t="s">
         <v>1</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="16" spans="1:39">
-      <c r="A16" t="s">
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
-      <c r="B17" t="s">
+    <row r="18" spans="1:2">
+      <c r="B18" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="18" spans="2:2">
-      <c r="B18" t="s">
+    <row r="19" spans="1:2">
+      <c r="B19" t="s">
         <v>111</v>
       </c>
     </row>
@@ -5014,7 +5052,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM16"/>
+  <dimension ref="A1:AM21"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -5068,7 +5106,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -5078,49 +5116,69 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39">
-      <c r="A7" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39">
+      <c r="B6" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="A8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
-      <c r="B8" t="s">
+    <row r="9" spans="1:39">
+      <c r="B9" t="s">
         <v>217</v>
-      </c>
-    </row>
-    <row r="9" spans="1:39">
-      <c r="C9" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>218</v>
+        <v>221</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39">
+      <c r="C11" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="A12" t="s">
+      <c r="C12" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="B14" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="C15" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:39">
-      <c r="A13" t="s">
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
         <v>1</v>
       </c>
-      <c r="B13" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="15" spans="1:39">
-      <c r="A15" t="s">
+      <c r="B18" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:39">
-      <c r="B16" t="s">
+    <row r="21" spans="1:2">
+      <c r="B21" t="s">
         <v>219</v>
       </c>
     </row>
@@ -5133,7 +5191,7 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM17"/>
+  <dimension ref="A1:AM18"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -5187,7 +5245,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -5197,7 +5255,7 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:39">
@@ -5207,44 +5265,49 @@
     </row>
     <row r="8" spans="1:39">
       <c r="B8" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:39">
       <c r="C9" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39">
-      <c r="A12" t="s">
-        <v>4</v>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39">
+      <c r="C11" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:39">
       <c r="A13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="A14" t="s">
         <v>1</v>
       </c>
-      <c r="B13" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="15" spans="1:39">
-      <c r="A15" t="s">
+      <c r="B14" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="A16" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:39">
-      <c r="B16" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
         <v>111</v>
       </c>
     </row>
@@ -5257,7 +5320,7 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM22"/>
+  <dimension ref="A1:AM17"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -5311,7 +5374,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -5321,94 +5384,67 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39">
-      <c r="B6" t="s">
-        <v>57</v>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="A7" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:39">
-      <c r="A8" t="s">
-        <v>3</v>
+      <c r="B8" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:39">
-      <c r="B9" t="s">
-        <v>101</v>
+      <c r="C9" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="11" spans="1:39">
-      <c r="C11" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="C12" t="s">
-        <v>106</v>
+      <c r="A12" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="C13" s="4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="14" spans="1:39">
-      <c r="C14" s="4"/>
+      <c r="A13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="15" spans="1:39">
-      <c r="B15" t="s">
-        <v>108</v>
-      </c>
-      <c r="C15" s="4"/>
+      <c r="A15" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="C16" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>1</v>
-      </c>
-      <c r="B19" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="B22" t="s">
+      <c r="B16" t="s">
         <v>103</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <hyperlinks>
-    <hyperlink ref="C13" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM19"/>
+  <dimension ref="A1:AM22"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -5462,7 +5498,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -5472,77 +5508,94 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39">
-      <c r="A7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39">
+      <c r="B6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="A8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
-      <c r="B8" t="s">
-        <v>87</v>
-      </c>
-    </row>
     <row r="9" spans="1:39">
-      <c r="C9" t="s">
-        <v>97</v>
+      <c r="B9" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:39">
       <c r="C12" t="s">
-        <v>98</v>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="C13" s="4" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:39">
-      <c r="A14" t="s">
+      <c r="C14" s="4"/>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="B15" t="s">
+        <v>108</v>
+      </c>
+      <c r="C15" s="4"/>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="C16" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:39">
-      <c r="A15" t="s">
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
         <v>1</v>
       </c>
-      <c r="B15" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
+      <c r="B19" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
-      <c r="B18" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="B19" t="s">
-        <v>99</v>
+    <row r="22" spans="1:2">
+      <c r="B22" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="C13" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM18"/>
+  <dimension ref="A1:AM19"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -5596,7 +5649,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -5616,50 +5669,55 @@
     </row>
     <row r="8" spans="1:39">
       <c r="B8" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:39">
       <c r="C9" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="13" spans="1:39">
-      <c r="A13" t="s">
-        <v>4</v>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="C12" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:39">
       <c r="A14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="A15" t="s">
         <v>1</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="16" spans="1:39">
-      <c r="A16" t="s">
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
-      <c r="B17" t="s">
+    <row r="18" spans="1:2">
+      <c r="B18" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="2:2">
-      <c r="B18" t="s">
-        <v>89</v>
+    <row r="19" spans="1:2">
+      <c r="B19" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -5671,11 +5729,9 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM27"/>
+  <dimension ref="A1:AM18"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="AM35" sqref="AM35"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
   <cols>
@@ -5727,7 +5783,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -5737,95 +5793,60 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39">
-      <c r="B6" t="s">
-        <v>76</v>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="A7" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:39">
-      <c r="A8" t="s">
-        <v>3</v>
+      <c r="B8" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:39">
-      <c r="B9" t="s">
-        <v>75</v>
+      <c r="C9" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39">
-      <c r="B12" t="s">
-        <v>76</v>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39">
+      <c r="C11" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="C13" t="s">
-        <v>78</v>
+      <c r="A13" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:39">
-      <c r="C14" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="15" spans="1:39">
-      <c r="C15" t="s">
-        <v>80</v>
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="C16" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="C18" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="C19" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="C20" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
-        <v>1</v>
-      </c>
-      <c r="B23" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
+      <c r="A16" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
-      <c r="B26" t="s">
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
-      <c r="B27" t="s">
-        <v>60</v>
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -5837,9 +5858,11 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM23"/>
+  <dimension ref="A1:AM27"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="AM35" sqref="AM35"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
   <cols>
@@ -5891,7 +5914,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -5901,84 +5924,94 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39">
-      <c r="A7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39">
+      <c r="B6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="A8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
-      <c r="B8" t="s">
-        <v>64</v>
-      </c>
-    </row>
     <row r="9" spans="1:39">
-      <c r="C9" t="s">
-        <v>65</v>
+      <c r="B9" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="11" spans="1:39">
-      <c r="D11" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="D12" t="s">
-        <v>67</v>
+      <c r="B12" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="D13" t="s">
-        <v>68</v>
+      <c r="C13" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:39">
-      <c r="D14" t="s">
-        <v>69</v>
+      <c r="C14" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:39">
-      <c r="D15" t="s">
-        <v>70</v>
+      <c r="C15" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="D16" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
+      <c r="C16" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="C18" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="C19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="C20" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
         <v>1</v>
       </c>
-      <c r="B19" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
+      <c r="B23" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
-      <c r="B22" t="s">
+    <row r="26" spans="1:3">
+      <c r="B26" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
-      <c r="B23" t="s">
+    <row r="27" spans="1:3">
+      <c r="B27" t="s">
         <v>60</v>
       </c>
     </row>
@@ -5991,7 +6024,7 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM24"/>
+  <dimension ref="A1:AM23"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -6045,7 +6078,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -6055,79 +6088,84 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39">
-      <c r="B6" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:39">
-      <c r="B7" t="s">
-        <v>57</v>
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="B8" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:39">
-      <c r="A9" t="s">
-        <v>3</v>
+      <c r="C9" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:39">
-      <c r="B10" t="s">
-        <v>42</v>
+      <c r="C10" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:39">
-      <c r="C11" t="s">
-        <v>58</v>
+      <c r="D11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="D12" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="B13" t="s">
-        <v>56</v>
+      <c r="D13" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:39">
-      <c r="C14" t="s">
-        <v>59</v>
+      <c r="D14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="D15" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="B16" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="C17" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
         <v>1</v>
       </c>
-      <c r="B20" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
+      <c r="B19" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="22" spans="1:2">
+      <c r="B22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
       <c r="B23" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="B24" t="s">
         <v>60</v>
       </c>
     </row>
@@ -6140,7 +6178,7 @@
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM29"/>
+  <dimension ref="A1:AM24"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -6194,7 +6232,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -6204,17 +6242,17 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:39">
       <c r="B6" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:39">
       <c r="B7" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:39">
@@ -6224,91 +6262,60 @@
     </row>
     <row r="10" spans="1:39">
       <c r="B10" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39">
-      <c r="C12" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="C13" t="s">
-        <v>50</v>
+      <c r="B13" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:39">
       <c r="C14" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" spans="1:39">
-      <c r="C15" s="4"/>
+        <v>59</v>
+      </c>
     </row>
     <row r="16" spans="1:39">
       <c r="B16" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="C17" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="C18" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="C19" t="s">
-        <v>45</v>
+      <c r="A19" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="C20" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="B21" s="4"/>
+      <c r="A20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="B22" t="s">
-        <v>30</v>
+      <c r="A22" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="C23" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" t="s">
-        <v>1</v>
-      </c>
-      <c r="B26" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="B29" t="s">
+      <c r="B23" t="s">
         <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="B24" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -6320,7 +6327,7 @@
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM25"/>
+  <dimension ref="A1:AM29"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -6374,7 +6381,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -6384,101 +6391,117 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:39">
       <c r="B6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="B7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
-      <c r="A8" t="s">
+    <row r="9" spans="1:39">
+      <c r="A9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:39">
-      <c r="B9" t="s">
-        <v>35</v>
-      </c>
-    </row>
     <row r="10" spans="1:39">
-      <c r="C10" t="s">
-        <v>36</v>
+      <c r="B10" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="C12" s="4" t="s">
-        <v>33</v>
+      <c r="C12" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:39">
-      <c r="B13" s="4"/>
+      <c r="C13" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="14" spans="1:39">
-      <c r="B14" s="4"/>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:39">
-      <c r="C15" t="s">
-        <v>40</v>
-      </c>
+      <c r="C15" s="4"/>
     </row>
     <row r="16" spans="1:39">
-      <c r="B16" s="4"/>
+      <c r="B16" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="B17" t="s">
-        <v>30</v>
+      <c r="C17" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="C18" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="C19" t="s">
-        <v>31</v>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="C20" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" t="s">
+      <c r="B21" s="4"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="B22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="C23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
         <v>1</v>
       </c>
-      <c r="B22" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
+      <c r="B26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
-      <c r="B25" t="s">
-        <v>38</v>
+    <row r="29" spans="1:3">
+      <c r="B29" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <hyperlinks>
-    <hyperlink ref="C12" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6486,9 +6509,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AM25"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
   <cols>
@@ -6540,7 +6561,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -6550,12 +6571,12 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:39">
       <c r="B6" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:39">
@@ -6565,22 +6586,22 @@
     </row>
     <row r="9" spans="1:39">
       <c r="B9" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:39">
       <c r="C12" s="4" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:39">
@@ -6589,31 +6610,30 @@
     <row r="14" spans="1:39">
       <c r="B14" s="4"/>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:39">
-      <c r="B15" s="4"/>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
+      <c r="B16" s="4"/>
     </row>
     <row r="17" spans="1:3">
-      <c r="B17" s="4"/>
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="B18" t="s">
-        <v>18</v>
+      <c r="C18" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="C19" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -6626,7 +6646,7 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -6636,7 +6656,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="B25" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -6651,7 +6671,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM17"/>
+  <dimension ref="A1:AM16"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -6705,7 +6725,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -6725,7 +6745,7 @@
     </row>
     <row r="8" spans="1:39">
       <c r="B8" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
     </row>
     <row r="9" spans="1:39">
@@ -6735,35 +6755,30 @@
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="11" spans="1:39">
-      <c r="C11" t="s">
-        <v>215</v>
+        <v>218</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="A12" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:39">
       <c r="A13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:39">
-      <c r="A14" t="s">
         <v>1</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B13" t="s">
         <v>213</v>
       </c>
     </row>
+    <row r="15" spans="1:39">
+      <c r="A15" t="s">
+        <v>2</v>
+      </c>
+    </row>
     <row r="16" spans="1:39">
-      <c r="A16" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17" t="s">
-        <v>210</v>
+      <c r="B16" t="s">
+        <v>219</v>
       </c>
     </row>
   </sheetData>
@@ -6775,9 +6790,11 @@
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM23"/>
+  <dimension ref="A1:AM25"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
   <cols>
@@ -6829,7 +6846,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -6839,95 +6856,108 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39">
-      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39">
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="A8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-    </row>
     <row r="9" spans="1:39">
-      <c r="C9" t="s">
-        <v>14</v>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39">
+      <c r="C10" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:39">
-      <c r="B11" t="s">
-        <v>15</v>
+      <c r="C11" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="B12" s="4" t="s">
-        <v>10</v>
+      <c r="C12" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:39">
       <c r="B13" s="4"/>
     </row>
     <row r="14" spans="1:39">
-      <c r="B14" t="s">
-        <v>16</v>
+      <c r="B14" s="4"/>
+      <c r="C14" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:39">
-      <c r="B15" s="4" t="s">
-        <v>7</v>
+      <c r="B15" s="4"/>
+      <c r="C15" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="B16" s="4"/>
       <c r="C16" t="s">
-        <v>13</v>
-      </c>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="B17" s="4"/>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>4</v>
+      <c r="B18" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>1</v>
-      </c>
-      <c r="B19" t="s">
-        <v>11</v>
+      <c r="C19" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
-      <c r="B22" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="C23" t="s">
-        <v>9</v>
+    <row r="25" spans="1:3">
+      <c r="B25" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="B15" r:id="rId1"/>
-    <hyperlink ref="B12" r:id="rId2"/>
+    <hyperlink ref="C12" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM18"/>
+  <dimension ref="A1:AM23"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -6981,7 +7011,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>202</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -6991,7 +7021,7 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>203</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:39">
@@ -7001,62 +7031,85 @@
     </row>
     <row r="8" spans="1:39">
       <c r="B8" t="s">
-        <v>203</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:39">
       <c r="C9" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="10" spans="1:39">
-      <c r="C10" t="s">
-        <v>205</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:39">
-      <c r="C11" t="s">
-        <v>207</v>
+      <c r="B11" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="C12" t="s">
-        <v>206</v>
-      </c>
+      <c r="B12" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="B13" s="4"/>
     </row>
     <row r="14" spans="1:39">
-      <c r="A14" t="s">
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="B15" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="B16" s="4"/>
+      <c r="C16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:39">
-      <c r="A15" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>1</v>
       </c>
-      <c r="B15" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
+      <c r="B19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
-      <c r="B18" t="s">
-        <v>208</v>
+    <row r="22" spans="1:3">
+      <c r="B22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="C23" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="B15" r:id="rId1"/>
+    <hyperlink ref="B12" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM18"/>
+  <dimension ref="A1:AM17"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -7110,7 +7163,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -7120,7 +7173,7 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>103</v>
+        <v>210</v>
       </c>
     </row>
     <row r="7" spans="1:39">
@@ -7130,22 +7183,22 @@
     </row>
     <row r="8" spans="1:39">
       <c r="B8" t="s">
-        <v>103</v>
+        <v>211</v>
       </c>
     </row>
     <row r="9" spans="1:39">
       <c r="C9" t="s">
-        <v>192</v>
+        <v>212</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>200</v>
+        <v>214</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" t="s">
-        <v>201</v>
+        <v>215</v>
       </c>
     </row>
     <row r="13" spans="1:39">
@@ -7158,7 +7211,7 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>117</v>
+        <v>213</v>
       </c>
     </row>
     <row r="16" spans="1:39">
@@ -7168,12 +7221,7 @@
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18" t="s">
-        <v>181</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -7183,7 +7231,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AM18"/>
   <sheetViews>
@@ -7239,7 +7287,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -7249,7 +7297,7 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>103</v>
+        <v>203</v>
       </c>
     </row>
     <row r="7" spans="1:39">
@@ -7259,50 +7307,50 @@
     </row>
     <row r="8" spans="1:39">
       <c r="B8" t="s">
-        <v>103</v>
+        <v>203</v>
       </c>
     </row>
     <row r="9" spans="1:39">
       <c r="C9" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>194</v>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39">
+      <c r="C11" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="A12" t="s">
+      <c r="C12" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="A14" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:39">
-      <c r="A13" t="s">
+    <row r="15" spans="1:39">
+      <c r="A15" t="s">
         <v>1</v>
       </c>
-      <c r="B13" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="14" spans="1:39">
-      <c r="B14" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="16" spans="1:39">
-      <c r="A16" t="s">
+      <c r="B15" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
-      <c r="B17" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2">
+    <row r="18" spans="1:2">
       <c r="B18" t="s">
-        <v>181</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -7312,9 +7360,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM17"/>
+  <dimension ref="A1:AM18"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -7368,7 +7416,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -7398,34 +7446,39 @@
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39">
-      <c r="A12" t="s">
-        <v>4</v>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39">
+      <c r="C11" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="13" spans="1:39">
       <c r="A13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="A14" t="s">
         <v>1</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="15" spans="1:39">
-      <c r="A15" t="s">
+    <row r="16" spans="1:39">
+      <c r="A16" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:39">
-      <c r="B16" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
         <v>181</v>
       </c>
     </row>
@@ -7436,9 +7489,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM26"/>
+  <dimension ref="A1:AM18"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -7492,7 +7545,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -7502,94 +7555,59 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39">
-      <c r="B6" t="s">
-        <v>190</v>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="A7" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:39">
-      <c r="A8" t="s">
-        <v>3</v>
+      <c r="B8" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:39">
-      <c r="B9" t="s">
-        <v>180</v>
+      <c r="C9" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="11" spans="1:39">
-      <c r="C11" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
     </row>
     <row r="12" spans="1:39">
-      <c r="C12" t="s">
-        <v>184</v>
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="A13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="14" spans="1:39">
       <c r="B14" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="15" spans="1:39">
-      <c r="C15" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
     </row>
     <row r="16" spans="1:39">
-      <c r="C16" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="C17" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="C18" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="C19" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>1</v>
-      </c>
-      <c r="B22" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
+      <c r="A16" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
-      <c r="B25" t="s">
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
-      <c r="B26" t="s">
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
         <v>181</v>
       </c>
     </row>
@@ -7600,13 +7618,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM18"/>
+  <dimension ref="A1:AM17"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="AA33" sqref="AA33"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
   <cols>
@@ -7658,7 +7674,7 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="5" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -7668,7 +7684,7 @@
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
-        <v>178</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:39">
@@ -7678,50 +7694,209 @@
     </row>
     <row r="8" spans="1:39">
       <c r="B8" t="s">
-        <v>178</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:39">
       <c r="C9" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="C10" t="s">
-        <v>175</v>
+        <v>193</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="A13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="A15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="B16" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
+        <v>181</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AM26"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="1.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:39" s="1" customFormat="1" ht="21">
+      <c r="A1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="2"/>
+    </row>
+    <row r="2" spans="1:39">
+      <c r="A2" s="5" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39">
+      <c r="B5" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39">
+      <c r="B6" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39">
+      <c r="B9" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39">
+      <c r="C10" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="C11" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="13" spans="1:39">
-      <c r="A13" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="C12" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="B14" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="C15" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="C16" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="C17" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="C18" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="C19" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:39">
-      <c r="A14" t="s">
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
         <v>1</v>
       </c>
-      <c r="B14" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="16" spans="1:39">
-      <c r="A16" t="s">
+      <c r="B22" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
-      <c r="B17" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18" t="s">
+    <row r="25" spans="1:3">
+      <c r="B25" t="s">
         <v>103</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="B26" t="s">
+        <v>181</v>
       </c>
     </row>
   </sheetData>
